--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E372BC-937B-45D9-8CAC-7D58EA6E45FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7965A6B1-3EAD-4876-AAB5-9092448ABEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="175">
   <si>
     <t>DATE</t>
   </si>
@@ -547,6 +558,9 @@
   </si>
   <si>
     <t>PAWAYSCORE</t>
+  </si>
+  <si>
+    <t>OT2</t>
   </si>
 </sst>
 </file>
@@ -669,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -798,19 +812,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -819,14 +820,30 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="109">
+  <dxfs count="67">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -954,266 +971,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFA00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003DB8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD11515"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3F6228"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
       <fill>
@@ -1316,162 +1073,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1506,101 +1107,9 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFA00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003DB8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD11515"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3F6228"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <patternFill>
@@ -1612,59 +1121,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FF002060"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1688,7 +1149,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF9900"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1696,11 +1157,23 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFFC000"/>
+        <color rgb="FF00B050"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1720,7 +1193,43 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <patternFill>
@@ -1732,11 +1241,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1744,11 +1253,21 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color rgb="FFFFC000"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1899,76 +1418,76 @@
     <tableColumn id="1" xr3:uid="{35E4500A-DA09-4BF2-A9DD-981973613A2E}" name="Team">
       <calculatedColumnFormula>AE22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A33C8BB1-51F1-4EE0-BAF3-79A0072A877D}" name="GP TOT" dataDxfId="108">
+    <tableColumn id="2" xr3:uid="{A33C8BB1-51F1-4EE0-BAF3-79A0072A877D}" name="GP TOT" dataDxfId="66">
       <calculatedColumnFormula>AJ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B7BD47C3-C6CD-433B-8763-2E7BF28F91A9}" name="GP H" dataDxfId="107">
+    <tableColumn id="3" xr3:uid="{B7BD47C3-C6CD-433B-8763-2E7BF28F91A9}" name="GP H" dataDxfId="65">
       <calculatedColumnFormula>AK22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A7C2CDB8-1006-4E42-85C9-739B917E0E3B}" name="GP A" dataDxfId="106">
+    <tableColumn id="4" xr3:uid="{A7C2CDB8-1006-4E42-85C9-739B917E0E3B}" name="GP A" dataDxfId="64">
       <calculatedColumnFormula>AL22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FBF9C9A1-A231-4AC5-98EC-8575F964E9E7}" name="W TOT" dataDxfId="105">
+    <tableColumn id="5" xr3:uid="{FBF9C9A1-A231-4AC5-98EC-8575F964E9E7}" name="W TOT" dataDxfId="63">
       <calculatedColumnFormula>AM22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4F1AF376-3B42-4A7B-88AE-2AEB54C684FD}" name="L TOT" dataDxfId="104">
+    <tableColumn id="6" xr3:uid="{4F1AF376-3B42-4A7B-88AE-2AEB54C684FD}" name="L TOT" dataDxfId="62">
       <calculatedColumnFormula>AN22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CD4CF37C-B565-4072-A8DF-97ABD75AC2BE}" name="W H" dataDxfId="103">
+    <tableColumn id="7" xr3:uid="{CD4CF37C-B565-4072-A8DF-97ABD75AC2BE}" name="W H" dataDxfId="61">
       <calculatedColumnFormula>AO22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1F359623-5047-4AA5-8DFE-2A1235BD0244}" name="L H" dataDxfId="102">
+    <tableColumn id="8" xr3:uid="{1F359623-5047-4AA5-8DFE-2A1235BD0244}" name="L H" dataDxfId="60">
       <calculatedColumnFormula>AP22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F8112AD4-AB28-4E89-97C1-D0AD9007C7A5}" name="W A" dataDxfId="101">
+    <tableColumn id="9" xr3:uid="{F8112AD4-AB28-4E89-97C1-D0AD9007C7A5}" name="W A" dataDxfId="59">
       <calculatedColumnFormula>AQ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E0BC1C3D-B833-4A33-A2F7-C67BE06DEDA1}" name="L A" dataDxfId="100">
+    <tableColumn id="10" xr3:uid="{E0BC1C3D-B833-4A33-A2F7-C67BE06DEDA1}" name="L A" dataDxfId="58">
       <calculatedColumnFormula>AR22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B9A986DF-FE9E-415D-924B-8EB61CBE5CC3}" name="GF H" dataDxfId="99">
+    <tableColumn id="11" xr3:uid="{B9A986DF-FE9E-415D-924B-8EB61CBE5CC3}" name="GF H" dataDxfId="57">
       <calculatedColumnFormula>SUMIFS($T$2:$T$100,$M$2:$M$100,AE22,$E$2:$E$100,1)+SUMIFS($T$2:$T$100,$M$2:$M$100,AE22,$E$2:$E$100,2)+SUMIFS($T$2:$T$100,$M$2:$M$100,AE22,$E$2:$E$100,3)+SUMIFS($T$2:$T$100,$M$2:$M$100,AE22,$E$2:$E$100,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{83BAED9D-BBE1-4C76-BBCA-313CCD921E11}" name="GF A" dataDxfId="98">
+    <tableColumn id="12" xr3:uid="{83BAED9D-BBE1-4C76-BBCA-313CCD921E11}" name="GF A" dataDxfId="56">
       <calculatedColumnFormula>SUMIFS($S$2:$S$100,$L$2:$L$100,AE22,$E$2:$E$100,1) + SUMIFS($S$2:$S$100,$L$2:$L$100,AE22,$E$2:$E$100,2)+SUMIFS($S$2:$S$100,$L$2:$L$100,AE22,$E$2:$E$100,3)+SUMIFS($S$2:$S$100,$L$2:$L$100,AE22,$E$2:$E$100,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9D239E38-642E-49BB-AFCC-7F4B50408CD9}" name="GA H" dataDxfId="97">
+    <tableColumn id="13" xr3:uid="{9D239E38-642E-49BB-AFCC-7F4B50408CD9}" name="GA H" dataDxfId="55">
       <calculatedColumnFormula>SUMIFS($S$2:$S$100,$M$2:$M$100,AE22,$E$2:$E$100,1)+SUMIFS($S$2:$S$100,$M$2:$M$100,AE22,$E$2:$E$100,2)+SUMIFS($S$2:$S$100,$M$2:$M$100,AE22,$E$2:$E$100,3)+SUMIFS($S$2:$S$100,$M$2:$M$100,AE22,$E$2:$E$100,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{C28D4692-8893-4399-B12F-0EFEC4ACE55F}" name="GA A" dataDxfId="96">
+    <tableColumn id="14" xr3:uid="{C28D4692-8893-4399-B12F-0EFEC4ACE55F}" name="GA A" dataDxfId="54">
       <calculatedColumnFormula>SUMIFS($T$2:$T$100,$L$2:$L$100,AE22,$E$2:$E$100,1)+(SUMIFS($T$2:$T$100,$L$2:$L$100,AE22,$E$2:$E$100,2)+SUMIFS($T$2:$T$100,$L$2:$L$100,AE22,$E$2:$E$100,3)+SUMIFS($T$2:$T$100,$L$2:$L$100,AE22,$E$2:$E$100,4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{EFE9EFE5-C5A6-4D37-BAFD-4A00F7B02584}" name="DIFF H" dataDxfId="95">
+    <tableColumn id="15" xr3:uid="{EFE9EFE5-C5A6-4D37-BAFD-4A00F7B02584}" name="DIFF H" dataDxfId="53">
       <calculatedColumnFormula>BU22-BW22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{B9AF8DC9-F982-4D02-B43F-486449573036}" name="DIFF A" dataDxfId="94">
+    <tableColumn id="16" xr3:uid="{B9AF8DC9-F982-4D02-B43F-486449573036}" name="DIFF A" dataDxfId="52">
       <calculatedColumnFormula>BV22-BX22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E94B86FE-AA74-466B-A7F6-2C43B9EEA68A}" name="GF T" dataDxfId="93">
+    <tableColumn id="17" xr3:uid="{E94B86FE-AA74-466B-A7F6-2C43B9EEA68A}" name="GF T" dataDxfId="51">
       <calculatedColumnFormula>BU22+BV22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{437A09FB-7E7B-457E-AD72-B615E2FEC992}" name="GA T" dataDxfId="92">
+    <tableColumn id="18" xr3:uid="{437A09FB-7E7B-457E-AD72-B615E2FEC992}" name="GA T" dataDxfId="50">
       <calculatedColumnFormula>BW22+BX22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{D83A9D62-4017-4FF7-BA18-93B627CB0BEF}" name="DIFF T" dataDxfId="91">
+    <tableColumn id="19" xr3:uid="{D83A9D62-4017-4FF7-BA18-93B627CB0BEF}" name="DIFF T" dataDxfId="49">
       <calculatedColumnFormula>(BU22+BV22)-(BW22+BX22)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{139C299F-4896-455D-A9B3-7CA4FF9ECE1D}" name="GFPG H" dataDxfId="90">
+    <tableColumn id="20" xr3:uid="{139C299F-4896-455D-A9B3-7CA4FF9ECE1D}" name="GFPG H" dataDxfId="48">
       <calculatedColumnFormula>BU22/BM22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{5ED7F4F1-4524-4204-90BC-07DFE35665ED}" name="GFPG A" dataDxfId="89">
+    <tableColumn id="21" xr3:uid="{5ED7F4F1-4524-4204-90BC-07DFE35665ED}" name="GFPG A" dataDxfId="47">
       <calculatedColumnFormula>BV22/BN22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{3BAC0D7E-D609-46FC-BB96-6327BEC9045F}" name="GAPG H" dataDxfId="88">
+    <tableColumn id="22" xr3:uid="{3BAC0D7E-D609-46FC-BB96-6327BEC9045F}" name="GAPG H" dataDxfId="46">
       <calculatedColumnFormula>BW22/BM22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{894AF6A4-2FD4-468F-8740-6E39104F12C5}" name="GAPG A" dataDxfId="87">
+    <tableColumn id="23" xr3:uid="{894AF6A4-2FD4-468F-8740-6E39104F12C5}" name="GAPG A" dataDxfId="45">
       <calculatedColumnFormula>BX22/BN22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{CFA1DE8E-0094-499E-B287-EEFFFC39239B}" name="GFPG " dataDxfId="86">
+    <tableColumn id="24" xr3:uid="{CFA1DE8E-0094-499E-B287-EEFFFC39239B}" name="GFPG " dataDxfId="44">
       <calculatedColumnFormula>CA22/BL22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{5723B53A-51E1-40DB-A91D-49D133C87D25}" name="GAPG " dataDxfId="85">
+    <tableColumn id="25" xr3:uid="{5723B53A-51E1-40DB-A91D-49D133C87D25}" name="GAPG " dataDxfId="43">
       <calculatedColumnFormula>CB22/BL22</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1977,9 +1496,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2017,7 +1536,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2123,7 +1642,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2265,7 +1784,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2276,7 +1795,7 @@
   <dimension ref="A1:CI90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2465,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="5">
-        <f t="shared" ref="V2:V3" si="0">IF($S2=$T2, 0, IF($L2=$N2, IF($S2&gt;$T2, 1, 0), IF($T2&gt;$S2, 1, 0)))</f>
+        <f t="shared" ref="V2:V33" si="0">IF(ISBLANK($U2),"",IF($S2=$T2,0,IF($L2=$N2,IF($S2&gt;$T2,1,0),IF($T2&gt;$S2,1,0))))</f>
         <v>1</v>
       </c>
       <c r="W2" s="5" t="str">
@@ -2580,7 +2099,7 @@
       <c r="U3" s="2">
         <v>0</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2817,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="5">
-        <f t="shared" ref="V5:V32" si="8">IF($S5=$T5, 0, IF($L5=$N5, IF($S5&gt;$T5, 1, 0), IF($T5&gt;$S5, 1, 0)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="W5" s="5" t="str">
@@ -2896,7 +2415,7 @@
         <v>170</v>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -2924,19 +2443,21 @@
         <v>45767</v>
       </c>
       <c r="S6" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="W6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>VGK</v>
       </c>
       <c r="Y6" t="s">
         <v>50</v>
@@ -2945,7 +2466,7 @@
       <c r="AA6" s="8"/>
       <c r="AB6" s="13">
         <f>SUM(V2:V99)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC6" s="8"/>
       <c r="AD6" s="14" t="s">
@@ -3023,18 +2544,26 @@
       </c>
       <c r="N7" s="5" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="47"/>
+        <v>WSH</v>
+      </c>
+      <c r="O7" s="30">
+        <v>2</v>
+      </c>
+      <c r="P7" s="30">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="R7" s="47">
+        <v>45768</v>
+      </c>
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="V7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W7" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3047,7 +2576,7 @@
       <c r="AA7" s="8"/>
       <c r="AB7" s="13">
         <f>AB6/AB5</f>
-        <v>0.41176470588235292</v>
+        <v>0.42352941176470588</v>
       </c>
       <c r="AC7" s="8"/>
       <c r="AD7" s="14" t="s">
@@ -3067,19 +2596,19 @@
       </c>
       <c r="AH7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AK7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
@@ -3087,10 +2616,10 @@
         <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
-      <c r="B8" s="55">
+      <c r="B8" s="50">
         <v>45768</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="45">
         <v>0.85416666666666663</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -3105,31 +2634,43 @@
       <c r="G8" s="8">
         <v>2</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="54">
-        <v>0</v>
-      </c>
-      <c r="K8" s="54">
-        <v>1</v>
-      </c>
-      <c r="L8" s="56" t="s">
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="56" t="s">
+      <c r="M8" s="5" t="s">
         <v>57</v>
       </c>
       <c r="N8" s="5" t="str">
         <f t="shared" si="3"/>
+        <v>DAL</v>
+      </c>
+      <c r="O8" s="51">
+        <v>2</v>
+      </c>
+      <c r="P8" s="51">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="R8" s="50">
+        <v>45768</v>
+      </c>
+      <c r="V8" s="5" t="str">
+        <f t="shared" si="0"/>
         <v/>
-      </c>
-      <c r="V8" s="56">
-        <f t="shared" si="8"/>
-        <v>0</v>
       </c>
       <c r="W8" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3172,60 +2713,68 @@
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="str">
-        <f>TEXT($B9,"dddd")</f>
+      <c r="A9" t="str">
+        <f t="shared" ref="A9:A14" si="8">TEXT($B9,"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="7">
         <v>45768</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="45">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="54">
-        <v>1</v>
-      </c>
-      <c r="F9" s="50" t="s">
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="54">
-        <v>2</v>
-      </c>
-      <c r="H9" s="50" t="s">
+      <c r="G9" s="8">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="J9" s="54">
-        <v>1</v>
-      </c>
-      <c r="K9" s="54">
-        <v>0</v>
-      </c>
-      <c r="L9" s="50" t="s">
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="M9" s="50" t="s">
+      <c r="M9" s="5" t="s">
         <v>48</v>
       </c>
       <c r="N9" s="5" t="str">
         <f t="shared" si="3"/>
+        <v>STL</v>
+      </c>
+      <c r="O9" s="5">
+        <v>4</v>
+      </c>
+      <c r="P9" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="R9" s="7">
+        <v>45768</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5" t="str">
+        <f t="shared" si="0"/>
         <v/>
-      </c>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50">
-        <f>IF($S9=$T9, 0, IF($L9=$N9, IF($S9&gt;$T9, 1, 0), IF($T9&gt;$S9, 1, 0)))</f>
-        <v>0</v>
       </c>
       <c r="W9" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3269,7 +2818,7 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
-        <f>TEXT($B10,"dddd")</f>
+        <f t="shared" si="8"/>
         <v>Monday</v>
       </c>
       <c r="B10" s="12">
@@ -3310,18 +2859,26 @@
       </c>
       <c r="N10" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="12"/>
+        <v>LAK</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2</v>
+      </c>
+      <c r="P10" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="R10" s="12">
+        <v>45768</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="2">
-        <f>IF($S10=$T10, 0, IF($L10=$N10, IF($S10&gt;$T10, 1, 0), IF($T10&gt;$S10, 1, 0)))</f>
-        <v>0</v>
+      <c r="V10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W10" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3370,7 +2927,7 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>TEXT($B11,"dddd")</f>
+        <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
       <c r="B11" s="7">
@@ -3420,9 +2977,9 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
-      <c r="V11" s="5">
-        <f>IF($S11=$T11, 0, IF($L11=$N11, IF($S11&gt;$T11, 1, 0), IF($T11&gt;$S11, 1, 0)))</f>
-        <v>0</v>
+      <c r="V11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W11" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3463,59 +3020,59 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>TEXT($B12,"dddd")</f>
+        <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
       <c r="B12" s="7">
         <v>45769</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="45">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="8">
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="54">
-        <v>2</v>
-      </c>
-      <c r="H12" s="50" t="s">
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J12" s="54">
-        <v>1</v>
-      </c>
-      <c r="K12" s="54">
-        <v>0</v>
-      </c>
-      <c r="L12" s="50" t="s">
+      <c r="J12" s="8">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="M12" s="50" t="s">
+      <c r="M12" s="5" t="s">
         <v>36</v>
       </c>
       <c r="N12" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50">
-        <f>IF($S12=$T12, 0, IF($L12=$N12, IF($S12&gt;$T12, 1, 0), IF($T12&gt;$S12, 1, 0)))</f>
-        <v>0</v>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W12" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3556,59 +3113,59 @@
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>TEXT($B13,"dddd")</f>
+        <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
       <c r="B13" s="7">
         <v>45769</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="45">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="54">
-        <v>1</v>
-      </c>
-      <c r="F13" s="50" t="s">
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="54">
-        <v>1</v>
-      </c>
-      <c r="H13" s="50" t="s">
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="50" t="s">
+      <c r="I13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="54">
-        <v>0</v>
-      </c>
-      <c r="K13" s="54">
-        <v>0</v>
-      </c>
-      <c r="L13" s="50" t="s">
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="50" t="s">
+      <c r="M13" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N13" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50">
-        <f>IF($S13=$T13, 0, IF($L13=$N13, IF($S13&gt;$T13, 1, 0), IF($T13&gt;$S13, 1, 0)))</f>
-        <v>0</v>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W13" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3649,7 +3206,7 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
-        <f>TEXT($B14,"dddd")</f>
+        <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
       <c r="B14" s="12">
@@ -3677,7 +3234,7 @@
         <v>170</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -3699,9 +3256,9 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="2">
-        <f>IF($S14=$T14, 0, IF($L14=$N14, IF($S14&gt;$T14, 1, 0), IF($T14&gt;$S14, 1, 0)))</f>
-        <v>0</v>
+      <c r="V14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W14" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3797,9 +3354,9 @@
       <c r="S15" s="30"/>
       <c r="T15" s="30"/>
       <c r="U15" s="30"/>
-      <c r="V15" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="V15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W15" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3890,9 +3447,9 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="V16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W16" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3988,9 +3545,9 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="V17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W17" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4039,56 +3596,56 @@
         <f t="shared" si="2"/>
         <v>Thursday</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="7">
         <v>45771</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="45">
         <v>0.8125</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="54">
-        <v>1</v>
-      </c>
-      <c r="F18" s="50" t="s">
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="54">
-        <v>2</v>
-      </c>
-      <c r="H18" s="54" t="s">
+      <c r="G18" s="8">
+        <v>2</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="54" t="s">
+      <c r="I18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="54">
-        <v>0</v>
-      </c>
-      <c r="K18" s="54">
-        <v>0</v>
-      </c>
-      <c r="L18" s="50" t="s">
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="50" t="s">
+      <c r="M18" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N18" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W18" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4101,56 +3658,56 @@
         <f t="shared" si="2"/>
         <v>Thursday</v>
       </c>
-      <c r="B19" s="52">
+      <c r="B19" s="7">
         <v>45771</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="45">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="54">
-        <v>1</v>
-      </c>
-      <c r="F19" s="50" t="s">
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="54">
-        <v>3</v>
-      </c>
-      <c r="H19" s="54" t="s">
+      <c r="G19" s="8">
+        <v>3</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="54" t="s">
+      <c r="I19" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="J19" s="54">
-        <v>1</v>
-      </c>
-      <c r="K19" s="54">
-        <v>0</v>
-      </c>
-      <c r="L19" s="50" t="s">
+      <c r="J19" s="8">
+        <v>1</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M19" s="50" t="s">
+      <c r="M19" s="5" t="s">
         <v>169</v>
       </c>
       <c r="N19" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W19" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4163,56 +3720,56 @@
         <f t="shared" si="2"/>
         <v>Thursday</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="7">
         <v>45771</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="45">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="54">
-        <v>1</v>
-      </c>
-      <c r="F20" s="50" t="s">
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="54">
-        <v>3</v>
-      </c>
-      <c r="H20" s="54" t="s">
+      <c r="G20" s="8">
+        <v>3</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="54" t="s">
+      <c r="I20" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="J20" s="54">
-        <v>0</v>
-      </c>
-      <c r="K20" s="54">
-        <v>0</v>
-      </c>
-      <c r="L20" s="50" t="s">
+      <c r="J20" s="8">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M20" s="50" t="s">
+      <c r="M20" s="5" t="s">
         <v>170</v>
       </c>
       <c r="N20" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W20" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4272,9 +3829,9 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="V21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W21" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4500,9 +4057,9 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
-      <c r="V22" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="V22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W22" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4785,9 +4342,9 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
-      <c r="V23" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="V23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W23" s="5" t="str">
         <f t="shared" si="1"/>
@@ -5070,9 +4627,9 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="V24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W24" s="5" t="str">
         <f t="shared" si="1"/>
@@ -5355,9 +4912,9 @@
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
-      <c r="V25" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="V25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W25" s="5" t="str">
         <f t="shared" si="1"/>
@@ -5618,7 +5175,7 @@
         <v>170</v>
       </c>
       <c r="J26" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="8">
         <v>0</v>
@@ -5640,9 +5197,9 @@
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
-      <c r="V26" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="V26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W26" s="5" t="str">
         <f t="shared" si="1"/>
@@ -5925,9 +5482,9 @@
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
-      <c r="V27" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="V27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W27" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6210,9 +5767,9 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-      <c r="V28" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="V28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W28" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6495,9 +6052,9 @@
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
-      <c r="V29" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="V29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W29" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6780,9 +6337,9 @@
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
-      <c r="V30" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="V30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W30" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7065,9 +6622,9 @@
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
-      <c r="V31" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="V31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W31" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7350,9 +6907,9 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
-      <c r="V32" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="V32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W32" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7635,9 +7192,9 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
-      <c r="V33" s="5">
-        <f>IF($S33=$T33, 0, IF($L34=$N33, IF($S33&gt;$T33, 1, 0), IF($T33&gt;$S33, 1, 0)))</f>
-        <v>0</v>
+      <c r="V33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="W33" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7900,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" ref="W2:W65" si="51">IF(S34&gt;T34,L34,M34)</f>
+        <f t="shared" ref="W34:W65" si="51">IF(S34&gt;T34,L34,M34)</f>
         <v>0</v>
       </c>
       <c r="AA34" s="8"/>
@@ -8739,15 +8296,15 @@
       </c>
       <c r="AM37">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN37">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO37">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP37">
         <f t="shared" si="19"/>
@@ -8771,7 +8328,7 @@
       </c>
       <c r="AU37">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV37">
         <f t="shared" si="25"/>
@@ -8779,7 +8336,7 @@
       </c>
       <c r="AW37">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX37">
         <f t="shared" si="27"/>
@@ -8787,7 +8344,7 @@
       </c>
       <c r="AY37">
         <f t="shared" si="45"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ37">
         <f t="shared" si="45"/>
@@ -8795,19 +8352,19 @@
       </c>
       <c r="BA37">
         <f t="shared" si="46"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB37">
         <f t="shared" si="47"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC37">
         <f t="shared" si="48"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BD37">
         <f t="shared" si="49"/>
-        <v>0.66666666666666663</v>
+        <v>2</v>
       </c>
       <c r="BE37">
         <f t="shared" si="49"/>
@@ -8815,7 +8372,7 @@
       </c>
       <c r="BF37">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BG37">
         <f t="shared" si="50"/>
@@ -8823,11 +8380,11 @@
       </c>
       <c r="BH37">
         <f t="shared" si="28"/>
-        <v>0.7142857142857143</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="BI37">
         <f t="shared" si="29"/>
-        <v>0.8571428571428571</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="BK37" t="str">
         <f t="shared" si="30"/>
@@ -8847,15 +8404,15 @@
       </c>
       <c r="BO37" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP37" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BQ37" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BR37" s="15">
         <f t="shared" si="31"/>
@@ -8871,7 +8428,7 @@
       </c>
       <c r="BU37" s="15">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BV37" s="15">
         <f t="shared" si="33"/>
@@ -8879,7 +8436,7 @@
       </c>
       <c r="BW37" s="15">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX37" s="15">
         <f t="shared" si="35"/>
@@ -8887,7 +8444,7 @@
       </c>
       <c r="BY37" s="15">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BZ37" s="15">
         <f t="shared" si="36"/>
@@ -8895,19 +8452,19 @@
       </c>
       <c r="CA37" s="15">
         <f t="shared" si="37"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CB37" s="15">
         <f t="shared" si="38"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CC37" s="15">
         <f t="shared" si="39"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="CD37" s="20">
         <f t="shared" si="40"/>
-        <v>0.66666666666666663</v>
+        <v>2</v>
       </c>
       <c r="CE37" s="20">
         <f t="shared" si="40"/>
@@ -8915,7 +8472,7 @@
       </c>
       <c r="CF37" s="20">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CG37" s="20">
         <f t="shared" si="41"/>
@@ -8923,11 +8480,11 @@
       </c>
       <c r="CH37" s="20">
         <f t="shared" si="42"/>
-        <v>0.7142857142857143</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="CI37" s="20">
         <f t="shared" si="43"/>
-        <v>0.8571428571428571</v>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="38" spans="1:87" x14ac:dyDescent="0.25">
@@ -14351,7 +13908,7 @@
     </row>
     <row r="90" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A1:AAA3 F4:F5 A4:E7 G4:AAA7 X8:AAA14 A9:W14 A8 C8 H8:M8 V8:W8 A15:AAA10000 N3:N33 W2:W33">
+  <conditionalFormatting sqref="W2:W33 N3:N33 F4:F5 A4:E7 G4:AAA7 A8 C8 H8:M8 V8:W8 X8:AAA14 A9:W14 A15:AAA10000 A1:AAA3 V5:V33">
     <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
@@ -14364,53 +13921,122 @@
     <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="58" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:AAA10000">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:AAA10000 W2:W33 N3:N33 F4:F5 A4:E7 G4:AAA7 A8 C8 H8:M8 V8:W8 X8:AAA14 A9:W14 A1:AAA3 V5:V33">
+    <cfRule type="cellIs" dxfId="37" priority="73" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="72" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="70" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="69" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="68" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="71" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="61" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="67" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="66" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="65" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="64" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="63" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="62" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="58" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="59" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="60" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="61" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="63" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
       <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+      <formula>"EDM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K99">
@@ -14438,7 +14064,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J62:K62 J63">
-    <cfRule type="colorScale" priority="84">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -14448,7 +14074,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="85">
+    <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -14470,12 +14096,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF22:AI37 AF41:AI48 AF52:AI55">
-    <cfRule type="cellIs" dxfId="22" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="82" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF59:AI60">
-    <cfRule type="cellIs" dxfId="21" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14730,7 +14356,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA22:CA37">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14740,7 +14366,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14837,73 +14463,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
-      <formula>"OTT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
-      <formula>"NJD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
-      <formula>"MIN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
-      <formula>"STL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
-      <formula>"LAK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
-      <formula>"FLA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="20" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
-      <formula>"BOS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AAA10000">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"MTL"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7965A6B1-3EAD-4876-AAB5-9092448ABEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71814239-EFEA-4E56-890E-72F3F2EC038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1496,9 +1485,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1536,7 +1525,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1642,7 +1631,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1784,7 +1773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1795,7 +1784,7 @@
   <dimension ref="A1:CI90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2466,7 +2455,7 @@
       <c r="AA6" s="8"/>
       <c r="AB6" s="13">
         <f>SUM(V2:V99)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC6" s="8"/>
       <c r="AD6" s="14" t="s">
@@ -2486,19 +2475,19 @@
       </c>
       <c r="AH6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
@@ -2558,16 +2547,22 @@
       <c r="R7" s="47">
         <v>45768</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="5" t="str">
+      <c r="S7" s="30">
+        <v>2</v>
+      </c>
+      <c r="T7" s="30">
+        <v>3</v>
+      </c>
+      <c r="U7" s="30">
+        <v>1</v>
+      </c>
+      <c r="V7" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>WSH</v>
       </c>
       <c r="Y7" t="s">
         <v>54</v>
@@ -2576,7 +2571,7 @@
       <c r="AA7" s="8"/>
       <c r="AB7" s="13">
         <f>AB6/AB5</f>
-        <v>0.42352941176470588</v>
+        <v>0.43529411764705883</v>
       </c>
       <c r="AC7" s="8"/>
       <c r="AD7" s="14" t="s">
@@ -2656,17 +2651,23 @@
         <f t="shared" si="3"/>
         <v>DAL</v>
       </c>
-      <c r="O8" s="51">
-        <v>2</v>
-      </c>
-      <c r="P8" s="51">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="51" t="s">
+      <c r="O8" s="5">
+        <v>2</v>
+      </c>
+      <c r="P8" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="5" t="s">
         <v>166</v>
       </c>
       <c r="R8" s="50">
         <v>45768</v>
+      </c>
+      <c r="S8" s="51">
+        <v>2</v>
+      </c>
+      <c r="T8" s="51">
+        <v>2</v>
       </c>
       <c r="V8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2809,11 +2810,11 @@
       </c>
       <c r="AJ9">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AK9">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
@@ -2973,7 +2974,9 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="7"/>
+      <c r="R11" s="7">
+        <v>45769</v>
+      </c>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
@@ -3066,7 +3069,9 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="7"/>
+      <c r="R12" s="7">
+        <v>45769</v>
+      </c>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -3159,7 +3164,9 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="7"/>
+      <c r="R13" s="7">
+        <v>45769</v>
+      </c>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -3252,7 +3259,9 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="12"/>
+      <c r="R14" s="12">
+        <v>45769</v>
+      </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -6094,15 +6103,15 @@
       </c>
       <c r="AM29">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN29">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO29">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29">
         <f t="shared" si="19"/>
@@ -6126,7 +6135,7 @@
       </c>
       <c r="AU29">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV29">
         <f t="shared" si="25"/>
@@ -6134,7 +6143,7 @@
       </c>
       <c r="AW29">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX29">
         <f t="shared" si="27"/>
@@ -6142,7 +6151,7 @@
       </c>
       <c r="AY29">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ29">
         <f t="shared" si="45"/>
@@ -6150,19 +6159,19 @@
       </c>
       <c r="BA29">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB29">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC29">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD29">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BE29">
         <f t="shared" si="49"/>
@@ -6170,7 +6179,7 @@
       </c>
       <c r="BF29">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG29">
         <f t="shared" si="50"/>
@@ -6178,11 +6187,11 @@
       </c>
       <c r="BH29">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BI29">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK29" t="str">
         <f t="shared" si="30"/>
@@ -6202,15 +6211,15 @@
       </c>
       <c r="BO29" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP29" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BQ29" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR29" s="15">
         <f t="shared" si="31"/>
@@ -6226,7 +6235,7 @@
       </c>
       <c r="BU29" s="15">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BV29" s="15">
         <f t="shared" si="33"/>
@@ -6234,7 +6243,7 @@
       </c>
       <c r="BW29" s="15">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX29" s="15">
         <f t="shared" si="35"/>
@@ -6242,7 +6251,7 @@
       </c>
       <c r="BY29" s="15">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ29" s="15">
         <f t="shared" si="36"/>
@@ -6250,19 +6259,19 @@
       </c>
       <c r="CA29" s="15">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CB29" s="15">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC29" s="15">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD29" s="20">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="CE29" s="20">
         <f t="shared" si="40"/>
@@ -6270,7 +6279,7 @@
       </c>
       <c r="CF29" s="20">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG29" s="20">
         <f t="shared" si="41"/>
@@ -6278,11 +6287,11 @@
       </c>
       <c r="CH29" s="20">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="CI29" s="20">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:87" x14ac:dyDescent="0.25">
@@ -7526,7 +7535,7 @@
       </c>
       <c r="AU34">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV34">
         <f t="shared" si="25"/>
@@ -7534,7 +7543,7 @@
       </c>
       <c r="AW34">
         <f t="shared" si="26"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX34">
         <f t="shared" si="27"/>
@@ -7550,11 +7559,11 @@
       </c>
       <c r="BA34">
         <f t="shared" si="46"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB34">
         <f t="shared" si="47"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BC34">
         <f t="shared" si="48"/>
@@ -7562,7 +7571,7 @@
       </c>
       <c r="BD34">
         <f t="shared" si="49"/>
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="BE34">
         <f t="shared" si="49"/>
@@ -7570,7 +7579,7 @@
       </c>
       <c r="BF34">
         <f t="shared" si="50"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="BG34">
         <f t="shared" si="50"/>
@@ -7578,11 +7587,11 @@
       </c>
       <c r="BH34">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="BI34">
         <f t="shared" si="29"/>
-        <v>1.4285714285714286</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="BK34" t="str">
         <f t="shared" si="30"/>
@@ -7626,7 +7635,7 @@
       </c>
       <c r="BU34" s="15">
         <f t="shared" si="32"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BV34" s="15">
         <f t="shared" si="33"/>
@@ -7634,7 +7643,7 @@
       </c>
       <c r="BW34" s="15">
         <f t="shared" si="34"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BX34" s="15">
         <f t="shared" si="35"/>
@@ -7650,11 +7659,11 @@
       </c>
       <c r="CA34" s="15">
         <f t="shared" si="37"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CB34" s="15">
         <f t="shared" si="38"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="CC34" s="15">
         <f t="shared" si="39"/>
@@ -7662,7 +7671,7 @@
       </c>
       <c r="CD34" s="20">
         <f t="shared" si="40"/>
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="CE34" s="20">
         <f t="shared" si="40"/>
@@ -7670,7 +7679,7 @@
       </c>
       <c r="CF34" s="20">
         <f t="shared" si="41"/>
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="CG34" s="20">
         <f t="shared" si="41"/>
@@ -7678,11 +7687,11 @@
       </c>
       <c r="CH34" s="20">
         <f t="shared" si="42"/>
-        <v>2.263157894736842</v>
+        <v>2.3684210526315788</v>
       </c>
       <c r="CI34" s="20">
         <f t="shared" si="43"/>
-        <v>2.1578947368421053</v>
+        <v>2.263157894736842</v>
       </c>
     </row>
     <row r="35" spans="1:87" x14ac:dyDescent="0.25">
@@ -8044,7 +8053,7 @@
       </c>
       <c r="AV36">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW36">
         <f t="shared" si="26"/>
@@ -8052,7 +8061,7 @@
       </c>
       <c r="AX36">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY36">
         <f t="shared" si="45"/>
@@ -8064,11 +8073,11 @@
       </c>
       <c r="BA36">
         <f t="shared" si="46"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB36">
         <f t="shared" si="47"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC36">
         <f t="shared" si="48"/>
@@ -8080,7 +8089,7 @@
       </c>
       <c r="BE36">
         <f t="shared" si="49"/>
-        <v>3.6666666666666665</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="BF36">
         <f t="shared" si="50"/>
@@ -8088,15 +8097,15 @@
       </c>
       <c r="BG36">
         <f t="shared" si="50"/>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="BH36">
         <f t="shared" si="28"/>
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="BI36">
         <f t="shared" si="29"/>
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="BK36" t="str">
         <f t="shared" si="30"/>
@@ -8144,7 +8153,7 @@
       </c>
       <c r="BV36" s="15">
         <f t="shared" si="33"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BW36" s="15">
         <f t="shared" si="34"/>
@@ -8152,7 +8161,7 @@
       </c>
       <c r="BX36" s="15">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BY36" s="15">
         <f t="shared" si="36"/>
@@ -8164,11 +8173,11 @@
       </c>
       <c r="CA36" s="15">
         <f t="shared" si="37"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CB36" s="15">
         <f t="shared" si="38"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CC36" s="15">
         <f t="shared" si="39"/>
@@ -8180,7 +8189,7 @@
       </c>
       <c r="CE36" s="20">
         <f t="shared" si="40"/>
-        <v>3.6666666666666665</v>
+        <v>4</v>
       </c>
       <c r="CF36" s="20">
         <f t="shared" si="41"/>
@@ -8188,15 +8197,15 @@
       </c>
       <c r="CG36" s="20">
         <f t="shared" si="41"/>
-        <v>2.5</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="CH36" s="20">
         <f t="shared" si="42"/>
-        <v>2.2727272727272729</v>
+        <v>2.4545454545454546</v>
       </c>
       <c r="CI36" s="20">
         <f t="shared" si="43"/>
-        <v>2.3636363636363638</v>
+        <v>2.5454545454545454</v>
       </c>
     </row>
     <row r="37" spans="1:87" x14ac:dyDescent="0.25">
@@ -13908,7 +13917,7 @@
     </row>
     <row r="90" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="W2:W33 N3:N33 F4:F5 A4:E7 G4:AAA7 A8 C8 H8:M8 V8:W8 X8:AAA14 A9:W14 A15:AAA10000 A1:AAA3 V5:V33">
+  <conditionalFormatting sqref="A1:AAA3 W2:W33 N3:N33 F4:F5 A4:E7 G4:AAA7 V5:V33 A8 C8 H8:M8 V8:W8 X8:AAA14 A9:W14 A15:AAA10000">
     <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
@@ -13927,7 +13936,7 @@
       <formula>"MTL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:AAA10000 W2:W33 N3:N33 F4:F5 A4:E7 G4:AAA7 A8 C8 H8:M8 V8:W8 X8:AAA14 A9:W14 A1:AAA3 V5:V33">
+  <conditionalFormatting sqref="A15:AAA10000 A1:AAA3 W2:W33 N3:N33 F4:F5 A4:E7 G4:AAA7 V5:V33 A8 C8 H8:M8 V8:W8 X8:AAA14 A9:W14">
     <cfRule type="cellIs" dxfId="37" priority="73" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71814239-EFEA-4E56-890E-72F3F2EC038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB4A765-2A15-4B84-BFD4-3BC999FA5276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="175">
   <si>
     <t>DATE</t>
   </si>
@@ -1485,9 +1496,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1525,7 +1536,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1631,7 +1642,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1773,7 +1784,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1784,7 +1795,7 @@
   <dimension ref="A1:CI90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,7 +2466,7 @@
       <c r="AA6" s="8"/>
       <c r="AB6" s="13">
         <f>SUM(V2:V99)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC6" s="8"/>
       <c r="AD6" s="14" t="s">
@@ -2571,7 +2582,7 @@
       <c r="AA7" s="8"/>
       <c r="AB7" s="13">
         <f>AB6/AB5</f>
-        <v>0.43529411764705883</v>
+        <v>0.44705882352941179</v>
       </c>
       <c r="AC7" s="8"/>
       <c r="AD7" s="14" t="s">
@@ -2636,7 +2647,7 @@
         <v>49</v>
       </c>
       <c r="J8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="8">
         <v>1</v>
@@ -2663,19 +2674,22 @@
       <c r="R8" s="50">
         <v>45768</v>
       </c>
-      <c r="S8" s="51">
-        <v>2</v>
-      </c>
-      <c r="T8" s="51">
-        <v>2</v>
-      </c>
-      <c r="V8" s="5" t="str">
+      <c r="S8" s="5">
+        <v>3</v>
+      </c>
+      <c r="T8" s="5">
+        <v>4</v>
+      </c>
+      <c r="U8" s="51">
+        <v>1</v>
+      </c>
+      <c r="V8" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DAL</v>
       </c>
       <c r="Z8" s="5"/>
       <c r="AA8" s="8"/>
@@ -2706,7 +2720,7 @@
       </c>
       <c r="AJ8">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AK8">
         <f t="shared" si="7"/>
@@ -2743,7 +2757,7 @@
         <v>165</v>
       </c>
       <c r="J9" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="8">
         <v>0</v>
@@ -2770,16 +2784,22 @@
       <c r="R9" s="7">
         <v>45768</v>
       </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5" t="str">
+      <c r="S9" s="5">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>2</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>WPG</v>
       </c>
       <c r="Z9" s="5"/>
       <c r="AA9" s="8"/>
@@ -2802,19 +2822,19 @@
       </c>
       <c r="AH9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AJ9">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK9">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
@@ -2874,8 +2894,12 @@
       <c r="R10" s="12">
         <v>45768</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>4</v>
+      </c>
       <c r="U10" s="2"/>
       <c r="V10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2914,11 +2938,11 @@
       </c>
       <c r="AJ10" s="1">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK10" s="1">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
@@ -2969,11 +2993,17 @@
       </c>
       <c r="N11" s="5" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+        <v>CAR</v>
+      </c>
+      <c r="O11" s="5">
+        <v>3</v>
+      </c>
+      <c r="P11" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="R11" s="7">
         <v>45769</v>
       </c>
@@ -3064,11 +3094,17 @@
       </c>
       <c r="N12" s="5" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+        <v>OTT</v>
+      </c>
+      <c r="O12" s="5">
+        <v>4</v>
+      </c>
+      <c r="P12" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="R12" s="7">
         <v>45769</v>
       </c>
@@ -3159,11 +3195,17 @@
       </c>
       <c r="N13" s="5" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+        <v>TBL</v>
+      </c>
+      <c r="O13" s="5">
+        <v>2</v>
+      </c>
+      <c r="P13" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="R13" s="7">
         <v>45769</v>
       </c>
@@ -3254,11 +3296,17 @@
       </c>
       <c r="N14" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+        <v>VGK</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2</v>
+      </c>
+      <c r="P14" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="R14" s="12">
         <v>45769</v>
       </c>
@@ -3434,7 +3482,7 @@
         <v>49</v>
       </c>
       <c r="J16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="8">
         <v>1</v>
@@ -3816,7 +3864,7 @@
         <v>165</v>
       </c>
       <c r="J21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -5754,7 +5802,7 @@
         <v>49</v>
       </c>
       <c r="J28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="3">
         <v>1</v>
@@ -6039,7 +6087,7 @@
         <v>165</v>
       </c>
       <c r="J29" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" s="8">
         <v>0</v>
@@ -6693,7 +6741,7 @@
       </c>
       <c r="AR31">
         <f t="shared" si="21"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS31">
         <f t="shared" si="22"/>
@@ -6717,7 +6765,7 @@
       </c>
       <c r="AX31">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY31">
         <f t="shared" si="45"/>
@@ -6725,7 +6773,7 @@
       </c>
       <c r="AZ31">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="BA31">
         <f t="shared" si="46"/>
@@ -6733,11 +6781,11 @@
       </c>
       <c r="BB31">
         <f t="shared" si="47"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC31">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="BD31">
         <f t="shared" si="49"/>
@@ -6753,7 +6801,7 @@
       </c>
       <c r="BG31">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH31">
         <f t="shared" si="28"/>
@@ -6761,7 +6809,7 @@
       </c>
       <c r="BI31">
         <f t="shared" si="29"/>
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="BK31" t="str">
         <f t="shared" si="30"/>
@@ -6801,7 +6849,7 @@
       </c>
       <c r="BT31" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BU31" s="15">
         <f t="shared" si="32"/>
@@ -6817,7 +6865,7 @@
       </c>
       <c r="BX31" s="15">
         <f t="shared" si="35"/>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="BY31" s="15">
         <f t="shared" si="36"/>
@@ -6825,7 +6873,7 @@
       </c>
       <c r="BZ31" s="15">
         <f t="shared" si="36"/>
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="CA31" s="15">
         <f t="shared" si="37"/>
@@ -6833,11 +6881,11 @@
       </c>
       <c r="CB31" s="15">
         <f t="shared" si="38"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="CC31" s="15">
         <f t="shared" si="39"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="CD31" s="20">
         <f t="shared" si="40"/>
@@ -6853,7 +6901,7 @@
       </c>
       <c r="CG31" s="20">
         <f t="shared" si="41"/>
-        <v>2.3846153846153846</v>
+        <v>2.6923076923076925</v>
       </c>
       <c r="CH31" s="20">
         <f t="shared" si="42"/>
@@ -6861,7 +6909,7 @@
       </c>
       <c r="CI31" s="20">
         <f t="shared" si="43"/>
-        <v>2.2000000000000002</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="32" spans="1:87" x14ac:dyDescent="0.25">
@@ -6958,15 +7006,15 @@
       </c>
       <c r="AM32">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN32">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO32">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP32">
         <f t="shared" si="19"/>
@@ -6990,7 +7038,7 @@
       </c>
       <c r="AU32">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV32">
         <f t="shared" si="25"/>
@@ -7006,7 +7054,7 @@
       </c>
       <c r="AY32">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ32">
         <f t="shared" si="45"/>
@@ -7014,7 +7062,7 @@
       </c>
       <c r="BA32">
         <f t="shared" si="46"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BB32">
         <f t="shared" si="47"/>
@@ -7022,11 +7070,11 @@
       </c>
       <c r="BC32">
         <f t="shared" si="48"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BD32">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE32">
         <f t="shared" si="49"/>
@@ -7042,7 +7090,7 @@
       </c>
       <c r="BH32">
         <f t="shared" si="28"/>
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="BI32">
         <f t="shared" si="29"/>
@@ -7066,15 +7114,15 @@
       </c>
       <c r="BO32" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP32" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BQ32" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR32" s="15">
         <f t="shared" si="31"/>
@@ -7090,7 +7138,7 @@
       </c>
       <c r="BU32" s="15">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BV32" s="15">
         <f t="shared" si="33"/>
@@ -7106,7 +7154,7 @@
       </c>
       <c r="BY32" s="15">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BZ32" s="15">
         <f t="shared" si="36"/>
@@ -7114,7 +7162,7 @@
       </c>
       <c r="CA32" s="15">
         <f t="shared" si="37"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CB32" s="15">
         <f t="shared" si="38"/>
@@ -7122,11 +7170,11 @@
       </c>
       <c r="CC32" s="15">
         <f t="shared" si="39"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="CD32" s="20">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE32" s="20">
         <f t="shared" si="40"/>
@@ -7142,7 +7190,7 @@
       </c>
       <c r="CH32" s="20">
         <f t="shared" si="42"/>
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="CI32" s="20">
         <f t="shared" si="43"/>
@@ -7503,15 +7551,15 @@
       </c>
       <c r="AM34">
         <f t="shared" si="16"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN34">
         <f t="shared" si="17"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO34">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP34">
         <f t="shared" si="19"/>
@@ -7535,7 +7583,7 @@
       </c>
       <c r="AU34">
         <f t="shared" si="24"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV34">
         <f t="shared" si="25"/>
@@ -7543,7 +7591,7 @@
       </c>
       <c r="AW34">
         <f t="shared" si="26"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX34">
         <f t="shared" si="27"/>
@@ -7551,7 +7599,7 @@
       </c>
       <c r="AY34">
         <f t="shared" si="45"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AZ34">
         <f t="shared" si="45"/>
@@ -7559,19 +7607,19 @@
       </c>
       <c r="BA34">
         <f t="shared" si="46"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB34">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC34">
         <f t="shared" si="48"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="BD34">
         <f t="shared" si="49"/>
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="BE34">
         <f t="shared" si="49"/>
@@ -7579,7 +7627,7 @@
       </c>
       <c r="BF34">
         <f t="shared" si="50"/>
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="BG34">
         <f t="shared" si="50"/>
@@ -7587,11 +7635,11 @@
       </c>
       <c r="BH34">
         <f t="shared" si="28"/>
-        <v>1.2857142857142858</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="BI34">
         <f t="shared" si="29"/>
-        <v>1.7142857142857142</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="BK34" t="str">
         <f t="shared" si="30"/>
@@ -7611,15 +7659,15 @@
       </c>
       <c r="BO34" s="15">
         <f t="shared" si="31"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BP34" s="15">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BQ34" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BR34" s="15">
         <f t="shared" si="31"/>
@@ -7635,7 +7683,7 @@
       </c>
       <c r="BU34" s="15">
         <f t="shared" si="32"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BV34" s="15">
         <f t="shared" si="33"/>
@@ -7643,7 +7691,7 @@
       </c>
       <c r="BW34" s="15">
         <f t="shared" si="34"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BX34" s="15">
         <f t="shared" si="35"/>
@@ -7651,7 +7699,7 @@
       </c>
       <c r="BY34" s="15">
         <f t="shared" si="36"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="BZ34" s="15">
         <f t="shared" si="36"/>
@@ -7659,19 +7707,19 @@
       </c>
       <c r="CA34" s="15">
         <f t="shared" si="37"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="CB34" s="15">
         <f t="shared" si="38"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CC34" s="15">
         <f t="shared" si="39"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CD34" s="20">
         <f t="shared" si="40"/>
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="CE34" s="20">
         <f t="shared" si="40"/>
@@ -7679,7 +7727,7 @@
       </c>
       <c r="CF34" s="20">
         <f t="shared" si="41"/>
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="CG34" s="20">
         <f t="shared" si="41"/>
@@ -7687,11 +7735,11 @@
       </c>
       <c r="CH34" s="20">
         <f t="shared" si="42"/>
-        <v>2.3684210526315788</v>
+        <v>2.4736842105263159</v>
       </c>
       <c r="CI34" s="20">
         <f t="shared" si="43"/>
-        <v>2.263157894736842</v>
+        <v>2.3157894736842106</v>
       </c>
     </row>
     <row r="35" spans="1:87" x14ac:dyDescent="0.25">
@@ -7760,15 +7808,15 @@
       </c>
       <c r="AM35">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN35">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO35">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP35">
         <f t="shared" si="19"/>
@@ -7792,7 +7840,7 @@
       </c>
       <c r="AU35">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV35">
         <f t="shared" si="25"/>
@@ -7800,7 +7848,7 @@
       </c>
       <c r="AW35">
         <f t="shared" si="26"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX35">
         <f t="shared" si="27"/>
@@ -7808,7 +7856,7 @@
       </c>
       <c r="AY35">
         <f t="shared" si="45"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AZ35">
         <f t="shared" si="45"/>
@@ -7816,19 +7864,19 @@
       </c>
       <c r="BA35">
         <f t="shared" si="46"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB35">
         <f t="shared" si="47"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC35">
         <f t="shared" si="48"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BD35">
         <f t="shared" si="49"/>
-        <v>2.6666666666666665</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="BE35">
         <f t="shared" si="49"/>
@@ -7836,7 +7884,7 @@
       </c>
       <c r="BF35">
         <f t="shared" si="50"/>
-        <v>3</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="BG35">
         <f t="shared" si="50"/>
@@ -7844,11 +7892,11 @@
       </c>
       <c r="BH35">
         <f t="shared" si="28"/>
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="BI35">
         <f t="shared" si="29"/>
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="BK35" t="str">
         <f t="shared" si="30"/>
@@ -7868,15 +7916,15 @@
       </c>
       <c r="BO35" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP35" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BQ35" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BR35" s="15">
         <f t="shared" si="31"/>
@@ -7892,7 +7940,7 @@
       </c>
       <c r="BU35" s="15">
         <f t="shared" si="32"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BV35" s="15">
         <f t="shared" si="33"/>
@@ -7900,7 +7948,7 @@
       </c>
       <c r="BW35" s="15">
         <f t="shared" si="34"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BX35" s="15">
         <f t="shared" si="35"/>
@@ -7908,7 +7956,7 @@
       </c>
       <c r="BY35" s="15">
         <f t="shared" si="36"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BZ35" s="15">
         <f t="shared" si="36"/>
@@ -7916,19 +7964,19 @@
       </c>
       <c r="CA35" s="15">
         <f t="shared" si="37"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CB35" s="15">
         <f t="shared" si="38"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CC35" s="15">
         <f t="shared" si="39"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CD35" s="20">
         <f t="shared" si="40"/>
-        <v>2.6666666666666665</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="CE35" s="20">
         <f t="shared" si="40"/>
@@ -7936,7 +7984,7 @@
       </c>
       <c r="CF35" s="20">
         <f t="shared" si="41"/>
-        <v>3</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="CG35" s="20">
         <f t="shared" si="41"/>
@@ -7944,11 +7992,11 @@
       </c>
       <c r="CH35" s="20">
         <f t="shared" si="42"/>
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="CI35" s="20">
         <f t="shared" si="43"/>
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:87" x14ac:dyDescent="0.25">
@@ -8037,7 +8085,7 @@
       </c>
       <c r="AR36">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS36">
         <f t="shared" si="22"/>
@@ -8053,7 +8101,7 @@
       </c>
       <c r="AV36">
         <f t="shared" si="25"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW36">
         <f t="shared" si="26"/>
@@ -8061,7 +8109,7 @@
       </c>
       <c r="AX36">
         <f t="shared" si="27"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY36">
         <f t="shared" si="45"/>
@@ -8069,19 +8117,19 @@
       </c>
       <c r="AZ36">
         <f t="shared" si="45"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA36">
         <f t="shared" si="46"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB36">
         <f t="shared" si="47"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC36">
         <f t="shared" si="48"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD36">
         <f t="shared" si="49"/>
@@ -8089,7 +8137,7 @@
       </c>
       <c r="BE36">
         <f t="shared" si="49"/>
-        <v>4.333333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="BF36">
         <f t="shared" si="50"/>
@@ -8097,15 +8145,15 @@
       </c>
       <c r="BG36">
         <f t="shared" si="50"/>
-        <v>2</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="BH36">
         <f t="shared" si="28"/>
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="BI36">
         <f t="shared" si="29"/>
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="BK36" t="str">
         <f t="shared" si="30"/>
@@ -8145,7 +8193,7 @@
       </c>
       <c r="BT36" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BU36" s="15">
         <f t="shared" si="32"/>
@@ -8153,7 +8201,7 @@
       </c>
       <c r="BV36" s="15">
         <f t="shared" si="33"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BW36" s="15">
         <f t="shared" si="34"/>
@@ -8161,7 +8209,7 @@
       </c>
       <c r="BX36" s="15">
         <f t="shared" si="35"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BY36" s="15">
         <f t="shared" si="36"/>
@@ -8169,19 +8217,19 @@
       </c>
       <c r="BZ36" s="15">
         <f t="shared" si="36"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CA36" s="15">
         <f t="shared" si="37"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CB36" s="15">
         <f t="shared" si="38"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CC36" s="15">
         <f t="shared" si="39"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="CD36" s="20">
         <f t="shared" si="40"/>
@@ -8189,7 +8237,7 @@
       </c>
       <c r="CE36" s="20">
         <f t="shared" si="40"/>
-        <v>4</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="CF36" s="20">
         <f t="shared" si="41"/>
@@ -8197,15 +8245,15 @@
       </c>
       <c r="CG36" s="20">
         <f t="shared" si="41"/>
-        <v>2.8333333333333335</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="CH36" s="20">
         <f t="shared" si="42"/>
-        <v>2.4545454545454546</v>
+        <v>2.5454545454545454</v>
       </c>
       <c r="CI36" s="20">
         <f t="shared" si="43"/>
-        <v>2.5454545454545454</v>
+        <v>2.7272727272727271</v>
       </c>
     </row>
     <row r="37" spans="1:87" x14ac:dyDescent="0.25">
@@ -9836,7 +9884,7 @@
       </c>
       <c r="AR46">
         <f t="shared" si="65"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS46">
         <f t="shared" si="66"/>
@@ -10005,15 +10053,15 @@
       </c>
       <c r="AM47">
         <f t="shared" si="60"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN47">
         <f t="shared" si="61"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO47">
         <f t="shared" si="62"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP47">
         <f t="shared" si="63"/>
@@ -10214,7 +10262,7 @@
       </c>
       <c r="AR48">
         <f t="shared" si="65"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS48">
         <f t="shared" si="66"/>
@@ -11070,7 +11118,7 @@
       </c>
       <c r="AR54">
         <f t="shared" si="96"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS54">
         <f t="shared" si="97"/>
@@ -11239,15 +11287,15 @@
       </c>
       <c r="AM55">
         <f t="shared" si="91"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN55">
         <f t="shared" si="92"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO55">
         <f t="shared" si="93"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP55">
         <f t="shared" si="94"/>
@@ -11926,7 +11974,7 @@
       </c>
       <c r="AR60">
         <f>SUMPRODUCT(($L$2:$L$100=AE60)*($T$2:$T$100&gt;$S$2:$S$100))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS60">
         <f>COUNTIFS($M$2:$M$100,AE60,$E$2:$E$100,4)</f>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E78552D-25A2-453B-9A3C-C7807B764B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D1B17D-EB8D-4E59-BB58-2930E5AC9C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="177">
   <si>
     <t>DATE</t>
   </si>
@@ -90,9 +101,6 @@
     <t>CAR</t>
   </si>
   <si>
-    <t>NYI</t>
-  </si>
-  <si>
     <t>TopSeed</t>
   </si>
   <si>
@@ -556,6 +564,9 @@
   </si>
   <si>
     <t>Edmonton was down 0-4 mid-way through the game and brought it all the way back to 5-5, only to have Skinner let in a soft goal less than 2 minutes later, with only 41 seconds left in regulation, to give the Kings back the lead and the game.</t>
+  </si>
+  <si>
+    <t>mtl</t>
   </si>
 </sst>
 </file>
@@ -814,6 +825,250 @@
   </cellStyles>
   <dxfs count="67">
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF6969"/>
@@ -824,6 +1079,18 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -951,18 +1218,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
       <fill>
@@ -1016,250 +1271,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFA00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003DB8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD11515"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3F6228"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1488,9 +1499,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1528,7 +1539,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1634,7 +1645,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1776,7 +1787,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1787,7 +1798,7 @@
   <dimension ref="A1:CJ90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,10 +1896,10 @@
         <v>11</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2" t="s">
@@ -1910,7 +1921,7 @@
         <v>17</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Y1" s="5"/>
     </row>
@@ -1926,22 +1937,22 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="8">
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J2" s="8">
         <v>1</v>
@@ -1950,10 +1961,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N2" s="5" t="str">
         <f>IF(OR(ISBLANK(O2), ISBLANK($P2)), "", IF($O2&gt;$P2, $L2,$M2))</f>
@@ -1966,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R2" s="7">
         <v>45766</v>
@@ -1994,40 +2005,40 @@
       <c r="AD2" s="8"/>
       <c r="AE2" s="10"/>
       <c r="AF2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AH2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AI2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AK2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AK2" s="11" t="s">
+      <c r="AL2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AL2" s="11" t="s">
+      <c r="AM2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AM2" s="11" t="s">
+      <c r="AN2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AN2" s="11" t="s">
+      <c r="AO2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AO2" s="11" t="s">
+      <c r="AP2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AP2" s="11" t="s">
+      <c r="AQ2" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="AQ2" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -2042,22 +2053,22 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
@@ -2066,10 +2077,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2" t="str">
         <f t="shared" ref="N3:N33" si="3">IF(OR(ISBLANK(O3), ISBLANK($P3)), "", IF($O3&gt;$P3, $L3,$M3))</f>
@@ -2082,7 +2093,7 @@
         <v>4</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R3" s="12">
         <v>45766</v>
@@ -2105,7 +2116,7 @@
         <v>COL</v>
       </c>
       <c r="Z3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA3" s="5"/>
       <c r="AB3" s="8"/>
@@ -2115,7 +2126,7 @@
       </c>
       <c r="AD3" s="8"/>
       <c r="AE3" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF3" s="15" t="str">
         <f t="array" ref="AF3">INDEX(H:H, MATCH(2, 1/(F:F=AE3)))</f>
@@ -2139,15 +2150,15 @@
       </c>
       <c r="AK3">
         <f>SUMIFS($T$2:$T$100,$M$2:$M$100,AF3,$E$2:$E$100,1) + SUMIFS($S$2:$S$100,$L$2:$L$100,AF3,$E$2:$E$100,1)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL3">
         <f t="shared" ref="AL3" si="5">SUMIFS($T$2:$T$99,$M$2:$M$99,AG3,$E$2:$E$99,1) + SUMIFS($S$2:$S$99,$L$2:$L$99,AG3,$E$2:$E$99,1)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM3">
         <f>SUMIFS(T2:T79,F2:F79,AE3)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -2177,7 +2188,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J4" s="8">
         <v>1</v>
@@ -2186,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>20</v>
@@ -2202,7 +2213,7 @@
         <v>5</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R4" s="7">
         <v>45767</v>
@@ -2225,7 +2236,7 @@
         <v>CAR</v>
       </c>
       <c r="Z4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA4" s="5"/>
       <c r="AB4" s="8"/>
@@ -2235,7 +2246,7 @@
       </c>
       <c r="AD4" s="8"/>
       <c r="AE4" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AF4" s="15" t="str">
         <f t="array" ref="AF4">INDEX(H:H, MATCH(2, 1/(F:F=AE4)))</f>
@@ -2259,11 +2270,11 @@
       </c>
       <c r="AK4">
         <f t="shared" ref="AK4:AL10" si="7">SUMIFS($T$2:$T$99,$M$2:$M$99,AF4,$E$2:$E$99,1) + SUMIFS($S$2:$S$99,$L$2:$L$99,AF4,$E$2:$E$99,1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
@@ -2284,16 +2295,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J5" s="8">
         <v>1</v>
@@ -2302,10 +2313,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2318,7 +2329,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R5" s="7">
         <v>45767</v>
@@ -2341,7 +2352,7 @@
         <v>TOR</v>
       </c>
       <c r="Z5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA5" s="5"/>
       <c r="AB5" s="8"/>
@@ -2394,22 +2405,22 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
@@ -2418,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N6" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2434,7 +2445,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R6" s="12">
         <v>45767</v>
@@ -2457,7 +2468,7 @@
         <v>VGK</v>
       </c>
       <c r="Z6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA6" s="5"/>
       <c r="AB6" s="8"/>
@@ -2467,7 +2478,7 @@
       </c>
       <c r="AD6" s="8"/>
       <c r="AE6" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF6" s="15" t="str">
         <f t="array" ref="AF6">INDEX(H:H, MATCH(2, 1/(F:F=AE6)))</f>
@@ -2516,28 +2527,28 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="48">
         <v>1</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J7" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="48">
         <v>0</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N7" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2550,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="Q7" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R7" s="47">
         <v>45768</v>
@@ -2573,7 +2584,7 @@
         <v>WSH</v>
       </c>
       <c r="Z7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA7" s="5"/>
       <c r="AB7" s="8"/>
@@ -2583,7 +2594,7 @@
       </c>
       <c r="AD7" s="8"/>
       <c r="AE7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF7" s="15" t="str">
         <f t="array" ref="AF7">INDEX(H:H, MATCH(2, 1/(F:F=AE7)))</f>
@@ -2607,11 +2618,11 @@
       </c>
       <c r="AK7">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL7">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -2626,22 +2637,22 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="G8" s="8">
         <v>2</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" s="8">
         <v>1</v>
@@ -2650,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N8" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2666,7 +2677,7 @@
         <v>3</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R8" s="50">
         <v>45768</v>
@@ -2693,7 +2704,7 @@
       <c r="AC8" s="9"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF8" s="15" t="str">
         <f t="array" ref="AF8">INDEX(H:H, MATCH(2, 1/(F:F=AE8)))</f>
@@ -2736,7 +2747,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
@@ -2748,10 +2759,10 @@
         <v>2</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J9" s="8">
         <v>2</v>
@@ -2760,10 +2771,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N9" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2776,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R9" s="7">
         <v>45768</v>
@@ -2803,7 +2814,7 @@
       <c r="AC9" s="9"/>
       <c r="AD9" s="8"/>
       <c r="AE9" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF9" s="15" t="str">
         <f t="array" ref="AF9">INDEX(H:H, MATCH(2, 1/(F:F=AE9)))</f>
@@ -2846,34 +2857,34 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="N10" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2886,7 +2897,7 @@
         <v>4</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R10" s="12">
         <v>45768</v>
@@ -2909,14 +2920,14 @@
         <v>LAK</v>
       </c>
       <c r="X10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA10" s="5"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="8"/>
       <c r="AE10" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF10" s="11" t="str">
         <f t="array" ref="AF10">INDEX(H:H, MATCH(2, 1/(F:F=AE10)))</f>
@@ -2970,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="8">
         <v>2</v>
@@ -2979,16 +2990,16 @@
         <v>20</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J11" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" s="8">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>20</v>
@@ -3004,7 +3015,7 @@
         <v>4</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R11" s="7">
         <v>45769</v>
@@ -3028,7 +3039,7 @@
       </c>
       <c r="AB11" s="8"/>
       <c r="AE11" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF11" s="15" t="str">
         <f t="array" ref="AF11">INDEX(H:H, MATCH(2, 1/(F:F=AE11)))</f>
@@ -3077,28 +3088,28 @@
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="8">
         <v>2</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J12" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="8">
         <v>0</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N12" s="5" t="str">
         <f t="shared" si="3"/>
@@ -3111,29 +3122,31 @@
         <v>3</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R12" s="7">
         <v>45769</v>
       </c>
       <c r="S12" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T12" s="5">
-        <v>2</v>
-      </c>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5" t="str">
+        <v>3</v>
+      </c>
+      <c r="U12" s="5">
+        <v>1</v>
+      </c>
+      <c r="V12" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>TOR</v>
       </c>
       <c r="AB12" s="8"/>
       <c r="AE12" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF12" s="15" t="str">
         <f t="array" ref="AF12">INDEX(H:H, MATCH(2, 1/(F:F=AE12)))</f>
@@ -3182,28 +3195,28 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="N13" s="5" t="str">
         <f t="shared" si="3"/>
@@ -3216,25 +3229,31 @@
         <v>3</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R13" s="7">
         <v>45769</v>
       </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5" t="str">
+      <c r="S13" s="5">
+        <v>6</v>
+      </c>
+      <c r="T13" s="5">
+        <v>2</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>FLA</v>
       </c>
       <c r="AB13" s="8"/>
       <c r="AE13" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF13" s="15" t="str">
         <f t="array" ref="AF13">INDEX(H:H, MATCH(2, 1/(F:F=AE13)))</f>
@@ -3277,34 +3296,34 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N14" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3317,25 +3336,31 @@
         <v>3</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R14" s="12">
         <v>45769</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="5" t="str">
+      <c r="S14" s="2">
+        <v>5</v>
+      </c>
+      <c r="T14" s="2">
+        <v>2</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>MIN</v>
       </c>
       <c r="AB14" s="8"/>
       <c r="AE14" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF14" s="11" t="str">
         <f t="array" ref="AF14">INDEX(H:H, MATCH(2, 1/(F:F=AE14)))</f>
@@ -3389,37 +3414,45 @@
         <v>1</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="48">
         <v>2</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J15" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="48">
         <v>0</v>
       </c>
       <c r="L15" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N15" s="5" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="47"/>
+        <v>MTL</v>
+      </c>
+      <c r="O15" s="30">
+        <v>4</v>
+      </c>
+      <c r="P15" s="30">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="R15" s="47">
+        <v>45770</v>
+      </c>
       <c r="S15" s="30"/>
       <c r="T15" s="30"/>
       <c r="U15" s="30"/>
@@ -3433,7 +3466,7 @@
       </c>
       <c r="AB15" s="8"/>
       <c r="AE15" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF15" s="15" t="str">
         <f t="array" ref="AF15">INDEX(H:H, MATCH(2, 1/(F:F=AE15)))</f>
@@ -3476,22 +3509,22 @@
         <v>0.9375</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="8">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="G16" s="8">
         <v>3</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J16" s="8">
         <v>1</v>
@@ -3500,19 +3533,27 @@
         <v>1</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N16" s="5" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="7"/>
+        <v>COL</v>
+      </c>
+      <c r="O16" s="5">
+        <v>2</v>
+      </c>
+      <c r="P16" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="R16" s="7">
+        <v>45770</v>
+      </c>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -3526,7 +3567,7 @@
       </c>
       <c r="AB16" s="8"/>
       <c r="AE16" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF16" s="1" t="str">
         <f t="array" ref="AF16">INDEX(H:H, MATCH(2, 1/(F:F=AE16)))</f>
@@ -3574,43 +3615,51 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="N17" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="12"/>
+        <v>EDM</v>
+      </c>
+      <c r="O17" s="2">
+        <v>5</v>
+      </c>
+      <c r="P17" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="R17" s="12">
+        <v>45770</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -3624,7 +3673,7 @@
       </c>
       <c r="AB17" s="8"/>
       <c r="AE17" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF17" s="18" t="str">
         <f t="array" ref="AF17">INDEX(H:H, MATCH(2, 1/(F:F=AE17)))</f>
@@ -3648,7 +3697,7 @@
       </c>
       <c r="AK17" s="18">
         <f>SUMIFS($T$2:$T$99,$M$2:$M$99,AF17,$E$2:$E$99,1) + SUMIFS($S$2:$S$99,$L$2:$L$99,AF17,$E$2:$E$99,1)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL17" s="18">
         <f>SUMIFS($T$2:$T$99,$M$2:$M$99,AG17,$E$2:$E$99,4) + SUMIFS($S$2:$S$99,$L$2:$L$99,AG17,$E$2:$E$99,4)</f>
@@ -3678,28 +3727,28 @@
         <v>1</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" s="8">
         <v>2</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="N18" s="5" t="str">
         <f t="shared" si="3"/>
@@ -3740,28 +3789,28 @@
         <v>1</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="8">
         <v>3</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J19" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" s="8">
         <v>0</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N19" s="5" t="str">
         <f t="shared" si="3"/>
@@ -3796,34 +3845,34 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="8">
         <v>1</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="8">
         <v>3</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J20" s="8">
         <v>1</v>
       </c>
       <c r="K20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N20" s="5" t="str">
         <f t="shared" si="3"/>
@@ -3858,22 +3907,22 @@
         <v>0.9375</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="3">
         <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J21" s="3">
         <v>2</v>
@@ -3882,10 +3931,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N21" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3909,169 +3958,169 @@
       <c r="AB21" s="8"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH21" s="1" t="s">
+      <c r="AI21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AI21" s="1" t="s">
+      <c r="AJ21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AJ21" s="1" t="s">
+      <c r="AK21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AK21" s="1" t="s">
+      <c r="AL21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AL21" s="1" t="s">
+      <c r="AM21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AM21" s="1" t="s">
+      <c r="AN21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AN21" s="1" t="s">
+      <c r="AO21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AO21" s="1" t="s">
+      <c r="AP21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AP21" s="1" t="s">
+      <c r="AQ21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AQ21" s="1" t="s">
+      <c r="AR21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AR21" s="1" t="s">
+      <c r="AS21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AS21" s="1" t="s">
+      <c r="AT21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT21" s="1" t="s">
+      <c r="AU21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AU21" s="1" t="s">
+      <c r="AV21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AV21" s="1" t="s">
+      <c r="AW21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AW21" s="1" t="s">
+      <c r="AX21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AX21" s="1" t="s">
+      <c r="AY21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AY21" s="1" t="s">
+      <c r="AZ21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AZ21" s="1" t="s">
+      <c r="BA21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BA21" s="1" t="s">
+      <c r="BB21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BB21" s="1" t="s">
+      <c r="BC21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BC21" s="1" t="s">
+      <c r="BD21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BD21" s="1" t="s">
+      <c r="BE21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BE21" s="1" t="s">
+      <c r="BF21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BF21" s="1" t="s">
+      <c r="BG21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BG21" s="1" t="s">
+      <c r="BH21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BH21" s="1" t="s">
+      <c r="BI21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BI21" s="1" t="s">
+      <c r="BJ21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BJ21" s="1" t="s">
+      <c r="BL21" t="s">
         <v>97</v>
       </c>
-      <c r="BL21" t="s">
+      <c r="BM21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>78</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV21" t="s">
         <v>98</v>
       </c>
-      <c r="BM21" t="s">
-        <v>72</v>
-      </c>
-      <c r="BN21" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO21" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ21" t="s">
-        <v>76</v>
-      </c>
-      <c r="BR21" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS21" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>80</v>
-      </c>
-      <c r="BV21" t="s">
+      <c r="BW21" t="s">
         <v>99</v>
       </c>
-      <c r="BW21" t="s">
+      <c r="BX21" t="s">
         <v>100</v>
       </c>
-      <c r="BX21" t="s">
+      <c r="BY21" t="s">
         <v>101</v>
       </c>
-      <c r="BY21" t="s">
+      <c r="BZ21" t="s">
         <v>102</v>
       </c>
-      <c r="BZ21" t="s">
+      <c r="CA21" t="s">
         <v>103</v>
       </c>
-      <c r="CA21" t="s">
+      <c r="CB21" t="s">
         <v>104</v>
       </c>
-      <c r="CB21" t="s">
+      <c r="CC21" t="s">
         <v>105</v>
       </c>
-      <c r="CC21" t="s">
+      <c r="CD21" t="s">
         <v>106</v>
       </c>
-      <c r="CD21" t="s">
+      <c r="CE21" t="s">
         <v>107</v>
       </c>
-      <c r="CE21" t="s">
+      <c r="CF21" t="s">
         <v>108</v>
       </c>
-      <c r="CF21" t="s">
+      <c r="CG21" t="s">
         <v>109</v>
       </c>
-      <c r="CG21" t="s">
+      <c r="CH21" t="s">
         <v>110</v>
       </c>
-      <c r="CH21" t="s">
+      <c r="CI21" t="s">
         <v>111</v>
       </c>
-      <c r="CI21" t="s">
+      <c r="CJ21" t="s">
         <v>112</v>
-      </c>
-      <c r="CJ21" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:88" x14ac:dyDescent="0.25">
@@ -4092,28 +4141,28 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" s="8">
         <v>3</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="8">
         <v>0</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N22" s="5" t="str">
         <f t="shared" si="3"/>
@@ -4136,7 +4185,7 @@
       </c>
       <c r="AB22" s="8"/>
       <c r="AF22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AG22">
         <f t="shared" ref="AG22:AG37" si="10">COUNTIFS($L$2:$L$100, AF22, $E$2:$E$100, 1) + COUNTIFS($M$2:$M$100, AF22, $E$2:$E$100, 1)</f>
@@ -4144,51 +4193,51 @@
       </c>
       <c r="AH22">
         <f t="shared" ref="AH22:AH37" si="11">COUNTIFS($L$2:$L$100, AF22, $E$2:$E$100, 2) + COUNTIFS($M$2:$M$100, AF22, $E$2:$E$100, 2)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI22">
         <f t="shared" ref="AI22:AI37" si="12">COUNTIFS($L$2:$L$100, AF22, $E$2:$E$100, 3) + COUNTIFS($M$2:$M$100, AF22, $E$2:$E$100, 3)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ22">
         <f t="shared" ref="AJ22:AJ37" si="13">COUNTIFS($L$2:$L$100, AF22, $E$2:$E$100, 4) + COUNTIFS($M$2:$M$100, AF22, $E$2:$E$100, 4)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK22">
         <f>AG22+AH22+AI22+AJ22</f>
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="AL22">
         <f t="shared" ref="AL22:AL37" si="14">COUNTIF($M$2:$M$100, AF22)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AM22">
         <f t="shared" ref="AM22:AM37" si="15">COUNTIF($L$2:$L$100, AF22)</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AN22">
         <f t="shared" ref="AN22:AN37" si="16">AP22+AR22</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AO22">
         <f t="shared" ref="AO22:AO37" si="17">AK22-AN22</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AP22">
         <f t="shared" ref="AP22:AP37" si="18">SUMPRODUCT(($M$2:$M$100=AF22)*($T$2:$T$100&gt;$S$2:$S$100))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <f t="shared" ref="AQ22:AQ37" si="19">SUMPRODUCT(($M$2:$M$100=AF22)*($T$2:$T$100&lt;$S$2:$S$100))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR22">
         <f t="shared" ref="AR22:AR37" si="20">SUMPRODUCT(($L$2:$L$100=AF22)*($T$2:$T$100&lt;$S$2:$S$100))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AS22">
         <f t="shared" ref="AS22:AS37" si="21">SUMPRODUCT(($L$2:$L$100=AF22)*($T$2:$T$100&gt;$S$2:$S$100))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT22">
         <f t="shared" ref="AT22:AT37" si="22">COUNTIFS($M$2:$M$100,AF22,$E$2:$E$100,1)</f>
@@ -4200,7 +4249,7 @@
       </c>
       <c r="AV22">
         <f t="shared" ref="AV22:AV37" si="24">SUMIFS($T$2:$T$100, $M$2:$M$100, AF22,$E$2:$E$100, 1)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW22">
         <f t="shared" ref="AW22:AW37" si="25">SUMIFS($S$2:$S$100, $L$2:$L$100, AF22,$E$2:$E$100, 1)</f>
@@ -4208,7 +4257,7 @@
       </c>
       <c r="AX22">
         <f t="shared" ref="AX22:AX37" si="26">SUMIFS($S$2:$S$100, $M$2:$M$100, AF22,$E$2:$E$100, 1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY22">
         <f t="shared" ref="AY22:AY37" si="27">SUMIFS($T$2:$T$100, $L$2:$L$100, AF22,$E$2:$E$100, 1)</f>
@@ -4216,7 +4265,7 @@
       </c>
       <c r="AZ22">
         <f>AV22-AX22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22">
         <f>AW22-AY22</f>
@@ -4224,19 +4273,19 @@
       </c>
       <c r="BB22">
         <f>AV22+AW22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC22">
         <f>AX22+AY22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD22">
         <f>(AV22+AW22)-(AX22+AY22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE22">
         <f>AV22/AT22</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BF22">
         <f>AW22/AU22</f>
@@ -4244,7 +4293,7 @@
       </c>
       <c r="BG22">
         <f>AX22/AT22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH22">
         <f>AY22/AU22</f>
@@ -4252,111 +4301,111 @@
       </c>
       <c r="BI22">
         <f t="shared" ref="BI22:BI37" si="28">BB22/AG22</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BJ22">
         <f t="shared" ref="BJ22:BJ37" si="29">BC22/AG22</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BL22" t="str">
         <f t="shared" ref="BL22:BL37" si="30">AF22</f>
-        <v>FLA</v>
+        <v>WSH</v>
       </c>
       <c r="BM22" s="15">
         <f t="shared" ref="BM22:BU37" si="31">AK22</f>
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="BN22" s="15">
         <f t="shared" si="31"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BO22" s="15">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BP22" s="15">
         <f t="shared" si="31"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="BQ22" s="15">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BR22" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BS22" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BT22" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BU22" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV22" s="15">
         <f t="shared" ref="BV22:BV37" si="32">SUMIFS($T$2:$T$100,$M$2:$M$100,AF22,$E$2:$E$100,1)+SUMIFS($T$2:$T$100,$M$2:$M$100,AF22,$E$2:$E$100,2)+SUMIFS($T$2:$T$100,$M$2:$M$100,AF22,$E$2:$E$100,3)+SUMIFS($T$2:$T$100,$M$2:$M$100,AF22,$E$2:$E$100,4)</f>
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="BW22" s="15">
         <f t="shared" ref="BW22:BW37" si="33">SUMIFS($S$2:$S$100,$L$2:$L$100,AF22,$E$2:$E$100,1) + SUMIFS($S$2:$S$100,$L$2:$L$100,AF22,$E$2:$E$100,2)+SUMIFS($S$2:$S$100,$L$2:$L$100,AF22,$E$2:$E$100,3)+SUMIFS($S$2:$S$100,$L$2:$L$100,AF22,$E$2:$E$100,4)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="15">
         <f t="shared" ref="BX22:BX37" si="34">SUMIFS($S$2:$S$100,$M$2:$M$100,AF22,$E$2:$E$100,1)+SUMIFS($S$2:$S$100,$M$2:$M$100,AF22,$E$2:$E$100,2)+SUMIFS($S$2:$S$100,$M$2:$M$100,AF22,$E$2:$E$100,3)+SUMIFS($S$2:$S$100,$M$2:$M$100,AF22,$E$2:$E$100,4)</f>
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="BY22" s="15">
         <f t="shared" ref="BY22:BY37" si="35">SUMIFS($T$2:$T$100,$L$2:$L$100,AF22,$E$2:$E$100,1)+(SUMIFS($T$2:$T$100,$L$2:$L$100,AF22,$E$2:$E$100,2)+SUMIFS($T$2:$T$100,$L$2:$L$100,AF22,$E$2:$E$100,3)+SUMIFS($T$2:$T$100,$L$2:$L$100,AF22,$E$2:$E$100,4))</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BZ22" s="15">
         <f t="shared" ref="BZ22:CA37" si="36">BV22-BX22</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CA22" s="15">
         <f t="shared" si="36"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CB22" s="15">
         <f t="shared" ref="CB22:CB37" si="37">BV22+BW22</f>
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="CC22" s="15">
         <f t="shared" ref="CC22:CC37" si="38">BX22+BY22</f>
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="CD22" s="15">
         <f t="shared" ref="CD22:CD37" si="39">(BV22+BW22)-(BX22+BY22)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CE22" s="20">
         <f t="shared" ref="CE22:CF37" si="40">BV22/BN22</f>
-        <v>2.4166666666666665</v>
+        <v>1.5</v>
       </c>
       <c r="CF22" s="20">
         <f t="shared" si="40"/>
-        <v>2.1818181818181817</v>
+        <v>0</v>
       </c>
       <c r="CG22" s="20">
         <f t="shared" ref="CG22:CH37" si="41">BX22/BN22</f>
-        <v>1.9166666666666667</v>
+        <v>1</v>
       </c>
       <c r="CH22" s="20">
         <f t="shared" si="41"/>
-        <v>2.2727272727272729</v>
+        <v>0</v>
       </c>
       <c r="CI22" s="20">
         <f t="shared" ref="CI22:CI37" si="42">CB22/BM22</f>
-        <v>2.3043478260869565</v>
+        <v>0.75</v>
       </c>
       <c r="CJ22" s="20">
         <f t="shared" ref="CJ22:CJ37" si="43">CC22/BM22</f>
-        <v>2.0869565217391304</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:88" x14ac:dyDescent="0.25">
@@ -4377,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G23" s="8">
         <v>3</v>
@@ -4386,10 +4435,10 @@
         <v>20</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J23" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" s="8">
         <v>0</v>
@@ -4398,7 +4447,7 @@
         <v>20</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N23" s="5" t="str">
         <f t="shared" si="3"/>
@@ -4421,15 +4470,15 @@
       </c>
       <c r="AB23" s="8"/>
       <c r="AF23" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="AG23">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH23">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI23">
         <f t="shared" si="12"/>
@@ -4441,67 +4490,67 @@
       </c>
       <c r="AK23">
         <f t="shared" ref="AK23:AK37" si="44">AG23+AH23+AI23+AJ23</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AL23">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM23">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN23">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO23">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP23">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR23">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS23">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT23">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU23">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV23">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW23">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX23">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY23">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ23">
         <f t="shared" ref="AZ23:BA37" si="45">AV23-AX23</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23">
         <f t="shared" si="45"/>
@@ -4509,7 +4558,7 @@
       </c>
       <c r="BB23">
         <f t="shared" ref="BB23:BB37" si="46">AV23+AW23</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC23">
         <f t="shared" ref="BC23:BC37" si="47">AX23+AY23</f>
@@ -4517,11 +4566,11 @@
       </c>
       <c r="BD23">
         <f t="shared" ref="BD23:BD37" si="48">(AV23+AW23)-(AX23+AY23)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BE23">
         <f t="shared" ref="BE23:BF37" si="49">AV23/AT23</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF23">
         <f t="shared" si="49"/>
@@ -4529,79 +4578,79 @@
       </c>
       <c r="BG23">
         <f t="shared" ref="BG23:BH37" si="50">AX23/AT23</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH23">
         <f t="shared" si="50"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="BI23">
         <f t="shared" si="28"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="BJ23">
         <f t="shared" si="29"/>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="BL23" t="str">
         <f t="shared" si="30"/>
-        <v>BOS</v>
+        <v>mtl</v>
       </c>
       <c r="BM23" s="15">
         <f t="shared" si="31"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BN23" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BO23" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BP23" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BQ23" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BR23" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT23" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BU23" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV23" s="15">
         <f t="shared" si="32"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BW23" s="15">
         <f t="shared" si="33"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BX23" s="15">
         <f t="shared" si="34"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BY23" s="15">
         <f t="shared" si="35"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BZ23" s="15">
         <f t="shared" si="36"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="CA23" s="15">
         <f t="shared" si="36"/>
@@ -4609,39 +4658,39 @@
       </c>
       <c r="CB23" s="15">
         <f t="shared" si="37"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="CC23" s="15">
         <f t="shared" si="38"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="CD23" s="15">
         <f t="shared" si="39"/>
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="CE23" s="20">
         <f t="shared" si="40"/>
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="CF23" s="20">
         <f t="shared" si="40"/>
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="CG23" s="20">
         <f t="shared" si="41"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CH23" s="20">
         <f t="shared" si="41"/>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="CI23" s="20">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="CJ23" s="20">
         <f t="shared" si="43"/>
-        <v>2.75</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24" spans="1:88" x14ac:dyDescent="0.25">
@@ -4656,34 +4705,34 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="3">
         <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J24" s="3">
-        <v>1</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="M24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N24" s="2" t="str">
         <f t="shared" si="3"/>
@@ -4706,15 +4755,15 @@
       </c>
       <c r="AB24" s="8"/>
       <c r="AF24" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AG24">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH24">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI24">
         <f t="shared" si="12"/>
@@ -4726,23 +4775,23 @@
       </c>
       <c r="AK24">
         <f t="shared" si="44"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AL24">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM24">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN24">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO24">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AP24">
         <f t="shared" si="18"/>
@@ -4750,67 +4799,67 @@
       </c>
       <c r="AQ24">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS24">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT24">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU24">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV24">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AW24">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX24">
         <f t="shared" si="26"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY24">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ24">
         <f t="shared" si="45"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA24">
         <f t="shared" si="45"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BB24">
         <f t="shared" si="46"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BC24">
         <f t="shared" si="47"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BD24">
         <f t="shared" si="48"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BE24">
         <f t="shared" si="49"/>
-        <v>3.3333333333333335</v>
+        <v>3.5</v>
       </c>
       <c r="BF24">
         <f t="shared" si="49"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="BG24">
         <f t="shared" si="50"/>
@@ -4818,39 +4867,39 @@
       </c>
       <c r="BH24">
         <f t="shared" si="50"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="BI24">
         <f t="shared" si="28"/>
-        <v>1.8333333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="BJ24">
         <f t="shared" si="29"/>
-        <v>0.83333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="BL24" t="str">
         <f t="shared" si="30"/>
-        <v>TOR</v>
+        <v>CAR</v>
       </c>
       <c r="BM24" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BN24" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BO24" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BP24" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BQ24" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BR24" s="15">
         <f t="shared" si="31"/>
@@ -4858,75 +4907,75 @@
       </c>
       <c r="BS24" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT24" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU24" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV24" s="15">
         <f t="shared" si="32"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BW24" s="15">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BX24" s="15">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BY24" s="15">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BZ24" s="15">
         <f t="shared" si="36"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CA24" s="15">
         <f t="shared" si="36"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="CB24" s="15">
         <f t="shared" si="37"/>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="CC24" s="15">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="CD24" s="15">
         <f t="shared" si="39"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CE24" s="20">
         <f t="shared" si="40"/>
-        <v>3.3333333333333335</v>
+        <v>3.2</v>
       </c>
       <c r="CF24" s="20">
         <f t="shared" si="40"/>
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="CG24" s="20">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="CH24" s="20">
         <f t="shared" si="41"/>
-        <v>0.66666666666666663</v>
+        <v>1.8</v>
       </c>
       <c r="CI24" s="20">
         <f t="shared" si="42"/>
-        <v>1.8333333333333333</v>
+        <v>2.6</v>
       </c>
       <c r="CJ24" s="20">
         <f t="shared" si="43"/>
-        <v>0.83333333333333337</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:88" x14ac:dyDescent="0.25">
@@ -4947,28 +4996,28 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" s="8">
         <v>3</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8">
+        <v>1</v>
+      </c>
+      <c r="L25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="8">
-        <v>0</v>
-      </c>
-      <c r="K25" s="8">
-        <v>0</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="M25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N25" s="5" t="str">
         <f t="shared" si="3"/>
@@ -4991,7 +5040,7 @@
       </c>
       <c r="AB25" s="8"/>
       <c r="AF25" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="AG25">
         <f t="shared" si="10"/>
@@ -5043,7 +5092,7 @@
       </c>
       <c r="AS25">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT25">
         <f t="shared" si="22"/>
@@ -5059,7 +5108,7 @@
       </c>
       <c r="AW25">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX25">
         <f t="shared" si="26"/>
@@ -5067,7 +5116,7 @@
       </c>
       <c r="AY25">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AZ25">
         <f t="shared" si="45"/>
@@ -5075,19 +5124,19 @@
       </c>
       <c r="BA25">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="BB25">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC25">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BD25">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="BE25">
         <f t="shared" si="49"/>
@@ -5095,7 +5144,7 @@
       </c>
       <c r="BF25">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG25">
         <f t="shared" si="50"/>
@@ -5103,19 +5152,19 @@
       </c>
       <c r="BH25">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BI25">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BJ25">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="BL25" t="str">
         <f t="shared" si="30"/>
-        <v>TBL</v>
+        <v>NJD</v>
       </c>
       <c r="BM25" s="15">
         <f t="shared" si="31"/>
@@ -5151,7 +5200,7 @@
       </c>
       <c r="BU25" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV25" s="15">
         <f t="shared" si="32"/>
@@ -5159,7 +5208,7 @@
       </c>
       <c r="BW25" s="15">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX25" s="15">
         <f t="shared" si="34"/>
@@ -5167,7 +5216,7 @@
       </c>
       <c r="BY25" s="15">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BZ25" s="15">
         <f t="shared" si="36"/>
@@ -5175,19 +5224,19 @@
       </c>
       <c r="CA25" s="15">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="CB25" s="15">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC25" s="15">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CD25" s="15">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="CE25" s="20">
         <f t="shared" si="40"/>
@@ -5195,7 +5244,7 @@
       </c>
       <c r="CF25" s="20">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG25" s="20">
         <f t="shared" si="41"/>
@@ -5203,15 +5252,15 @@
       </c>
       <c r="CH25" s="20">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="CI25" s="20">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CJ25" s="20">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="26" spans="1:88" x14ac:dyDescent="0.25">
@@ -5226,34 +5275,34 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" s="8">
         <v>1</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="8">
         <v>4</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J26" s="8">
         <v>1</v>
       </c>
       <c r="K26" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N26" s="5" t="str">
         <f t="shared" si="3"/>
@@ -5276,19 +5325,19 @@
       </c>
       <c r="AB26" s="8"/>
       <c r="AF26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AG26">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH26">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI26">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ26">
         <f t="shared" si="13"/>
@@ -5296,23 +5345,23 @@
       </c>
       <c r="AK26">
         <f t="shared" si="44"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AL26">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AM26">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AN26">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AO26">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AP26">
         <f t="shared" si="18"/>
@@ -5320,107 +5369,107 @@
       </c>
       <c r="AQ26">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR26">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS26">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT26">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AU26">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV26">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AW26">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX26">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY26">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ26">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BA26">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BB26">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BC26">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BD26">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="BE26" t="e">
+        <v>5</v>
+      </c>
+      <c r="BE26">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BF26" t="e">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BF26">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BG26" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BG26">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH26" t="e">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="BH26">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI26" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BI26">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ26" t="e">
+        <v>2</v>
+      </c>
+      <c r="BJ26">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="BL26" t="str">
         <f t="shared" si="30"/>
-        <v>NYR</v>
+        <v>TOR</v>
       </c>
       <c r="BM26" s="15">
         <f t="shared" si="31"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BN26" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BO26" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BP26" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BQ26" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BR26" s="15">
         <f t="shared" si="31"/>
@@ -5428,75 +5477,75 @@
       </c>
       <c r="BS26" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT26" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU26" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BV26" s="15">
         <f t="shared" si="32"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BW26" s="15">
         <f t="shared" si="33"/>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="BX26" s="15">
         <f t="shared" si="34"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="BY26" s="15">
         <f t="shared" si="35"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="BZ26" s="15">
         <f t="shared" si="36"/>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="CA26" s="15">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CB26" s="15">
         <f t="shared" si="37"/>
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="CC26" s="15">
         <f t="shared" si="38"/>
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="CD26" s="15">
         <f t="shared" si="39"/>
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="CE26" s="20">
         <f t="shared" si="40"/>
-        <v>2.1666666666666665</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="CF26" s="20">
         <f t="shared" si="40"/>
-        <v>3.1666666666666665</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CG26" s="20">
         <f t="shared" si="41"/>
-        <v>2.8333333333333335</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="CH26" s="20">
         <f t="shared" si="41"/>
-        <v>3</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CI26" s="20">
         <f t="shared" si="42"/>
-        <v>2.6666666666666665</v>
+        <v>2</v>
       </c>
       <c r="CJ26" s="20">
         <f t="shared" si="43"/>
-        <v>2.9166666666666665</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:88" x14ac:dyDescent="0.25">
@@ -5517,28 +5566,28 @@
         <v>1</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" s="8">
         <v>4</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J27" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" s="8">
         <v>0</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N27" s="5" t="str">
         <f t="shared" si="3"/>
@@ -5561,7 +5610,7 @@
       </c>
       <c r="AB27" s="8"/>
       <c r="AF27" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="AG27">
         <f t="shared" si="10"/>
@@ -5569,7 +5618,7 @@
       </c>
       <c r="AH27">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI27">
         <f t="shared" si="12"/>
@@ -5581,35 +5630,35 @@
       </c>
       <c r="AK27">
         <f t="shared" si="44"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AL27">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AM27">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AN27">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO27">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AP27">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ27">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR27">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS27">
         <f t="shared" si="21"/>
@@ -5625,99 +5674,99 @@
       </c>
       <c r="AV27">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW27">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX27">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY27">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AZ27">
         <f t="shared" si="45"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BA27">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="BB27">
         <f t="shared" si="46"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC27">
         <f t="shared" si="47"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BD27">
         <f t="shared" si="48"/>
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="BE27">
         <f t="shared" si="49"/>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="BF27">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG27">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH27">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BI27">
         <f t="shared" si="28"/>
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="BJ27">
         <f t="shared" si="29"/>
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="BL27" t="str">
         <f t="shared" si="30"/>
-        <v>CAR</v>
+        <v>OTT</v>
       </c>
       <c r="BM27" s="15">
         <f t="shared" si="31"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BN27" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BO27" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BP27" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BQ27" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BR27" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BS27" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BT27" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU27" s="15">
         <f t="shared" si="31"/>
@@ -5725,15 +5774,15 @@
       </c>
       <c r="BV27" s="15">
         <f t="shared" si="32"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BW27" s="15">
         <f t="shared" si="33"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BX27" s="15">
         <f t="shared" si="34"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BY27" s="15">
         <f t="shared" si="35"/>
@@ -5741,27 +5790,27 @@
       </c>
       <c r="BZ27" s="15">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA27" s="15">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="CB27" s="15">
         <f t="shared" si="37"/>
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="CC27" s="15">
         <f t="shared" si="38"/>
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="CD27" s="15">
         <f t="shared" si="39"/>
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="CE27" s="20">
         <f t="shared" si="40"/>
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="CF27" s="20">
         <f t="shared" si="40"/>
@@ -5769,19 +5818,19 @@
       </c>
       <c r="CG27" s="20">
         <f t="shared" si="41"/>
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="CH27" s="20">
         <f t="shared" si="41"/>
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="CI27" s="20">
         <f t="shared" si="42"/>
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="CJ27" s="20">
         <f t="shared" si="43"/>
-        <v>2.2000000000000002</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="28" spans="1:88" x14ac:dyDescent="0.25">
@@ -5796,22 +5845,22 @@
         <v>0.9375</v>
       </c>
       <c r="D28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="G28" s="3">
         <v>4</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J28" s="3">
         <v>1</v>
@@ -5820,10 +5869,10 @@
         <v>1</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N28" s="2" t="str">
         <f t="shared" si="3"/>
@@ -5846,11 +5895,11 @@
       </c>
       <c r="AB28" s="8"/>
       <c r="AF28" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="AG28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH28">
         <f t="shared" si="11"/>
@@ -5866,15 +5915,15 @@
       </c>
       <c r="AK28">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL28">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM28">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN28">
         <f t="shared" si="16"/>
@@ -5882,7 +5931,7 @@
       </c>
       <c r="AO28">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP28">
         <f t="shared" si="18"/>
@@ -5890,7 +5939,7 @@
       </c>
       <c r="AQ28">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <f t="shared" si="20"/>
@@ -5902,15 +5951,15 @@
       </c>
       <c r="AT28">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU28">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV28">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW28">
         <f t="shared" si="25"/>
@@ -5918,7 +5967,7 @@
       </c>
       <c r="AX28">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AY28">
         <f t="shared" si="27"/>
@@ -5926,7 +5975,7 @@
       </c>
       <c r="AZ28">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="BA28">
         <f t="shared" si="45"/>
@@ -5934,55 +5983,55 @@
       </c>
       <c r="BB28">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC28">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BD28">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="BE28" t="e">
+        <v>-4</v>
+      </c>
+      <c r="BE28">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BF28" t="e">
+        <v>1</v>
+      </c>
+      <c r="BF28">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BG28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BG28">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH28" t="e">
+        <v>3</v>
+      </c>
+      <c r="BH28">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI28" t="e">
+        <v>0</v>
+      </c>
+      <c r="BI28">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ28" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="BJ28">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>1.5</v>
       </c>
       <c r="BL28" t="str">
         <f t="shared" si="30"/>
-        <v>NYI</v>
+        <v>TBL</v>
       </c>
       <c r="BM28" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN28" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO28" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP28" s="15">
         <f t="shared" si="31"/>
@@ -5990,7 +6039,7 @@
       </c>
       <c r="BQ28" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BR28" s="15">
         <f t="shared" si="31"/>
@@ -5998,7 +6047,7 @@
       </c>
       <c r="BS28" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT28" s="15">
         <f t="shared" si="31"/>
@@ -6010,7 +6059,7 @@
       </c>
       <c r="BV28" s="15">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW28" s="15">
         <f t="shared" si="33"/>
@@ -6018,7 +6067,7 @@
       </c>
       <c r="BX28" s="15">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BY28" s="15">
         <f t="shared" si="35"/>
@@ -6026,7 +6075,7 @@
       </c>
       <c r="BZ28" s="15">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="CA28" s="15">
         <f t="shared" si="36"/>
@@ -6034,39 +6083,39 @@
       </c>
       <c r="CB28" s="15">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC28" s="15">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CD28" s="15">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="CE28" s="20" t="e">
+        <v>-4</v>
+      </c>
+      <c r="CE28" s="20">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CF28" s="20" t="e">
+        <v>1</v>
+      </c>
+      <c r="CF28" s="20">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CG28" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="CG28" s="20">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH28" s="20" t="e">
+        <v>3</v>
+      </c>
+      <c r="CH28" s="20">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CI28" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="CI28" s="20">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CJ28" s="20" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="CJ28" s="20">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:88" x14ac:dyDescent="0.25">
@@ -6081,22 +6130,22 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="8">
         <v>1</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G29" s="8">
         <v>4</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J29" s="8">
         <v>2</v>
@@ -6105,10 +6154,10 @@
         <v>0</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N29" s="5" t="str">
         <f t="shared" si="3"/>
@@ -6131,7 +6180,7 @@
       </c>
       <c r="AB29" s="8"/>
       <c r="AF29" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AG29">
         <f t="shared" si="10"/>
@@ -6139,51 +6188,51 @@
       </c>
       <c r="AH29">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI29">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ29">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK29">
         <f t="shared" si="44"/>
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AL29">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AM29">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AN29">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AO29">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AP29">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AQ29">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR29">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AS29">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT29">
         <f t="shared" si="22"/>
@@ -6195,31 +6244,31 @@
       </c>
       <c r="AV29">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW29">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AX29">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY29">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ29">
         <f t="shared" si="45"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA29">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BB29">
         <f t="shared" si="46"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC29">
         <f t="shared" si="47"/>
@@ -6227,27 +6276,27 @@
       </c>
       <c r="BD29">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BE29">
         <f t="shared" si="49"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="BF29">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG29">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH29">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI29">
         <f t="shared" si="28"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="BJ29">
         <f t="shared" si="29"/>
@@ -6255,103 +6304,103 @@
       </c>
       <c r="BL29" t="str">
         <f t="shared" si="30"/>
-        <v>WSH</v>
+        <v>FLA</v>
       </c>
       <c r="BM29" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="BN29" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BO29" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BP29" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BQ29" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BR29" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BS29" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT29" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BU29" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BV29" s="15">
         <f t="shared" si="32"/>
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="BW29" s="15">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BX29" s="15">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="BY29" s="15">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BZ29" s="15">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CA29" s="15">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CB29" s="15">
         <f t="shared" si="37"/>
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="CC29" s="15">
         <f t="shared" si="38"/>
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="CD29" s="15">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="CE29" s="20">
         <f t="shared" si="40"/>
-        <v>1.5</v>
+        <v>2.4166666666666665</v>
       </c>
       <c r="CF29" s="20">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>2.7272727272727271</v>
       </c>
       <c r="CG29" s="20">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="CH29" s="20">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>2.4545454545454546</v>
       </c>
       <c r="CI29" s="20">
         <f t="shared" si="42"/>
-        <v>0.75</v>
+        <v>2.5652173913043477</v>
       </c>
       <c r="CJ29" s="20">
         <f t="shared" si="43"/>
-        <v>0.5</v>
+        <v>2.1739130434782608</v>
       </c>
     </row>
     <row r="30" spans="1:88" x14ac:dyDescent="0.25">
@@ -6381,10 +6430,10 @@
         <v>20</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J30" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" s="8">
         <v>0</v>
@@ -6393,7 +6442,7 @@
         <v>20</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N30" s="5" t="str">
         <f t="shared" si="3"/>
@@ -6416,15 +6465,15 @@
       </c>
       <c r="AB30" s="8"/>
       <c r="AF30" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AG30">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH30">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI30">
         <f t="shared" si="12"/>
@@ -6436,23 +6485,23 @@
       </c>
       <c r="AK30">
         <f t="shared" si="44"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AL30">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM30">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN30">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO30">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP30">
         <f t="shared" si="18"/>
@@ -6460,35 +6509,35 @@
       </c>
       <c r="AQ30">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS30">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT30">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU30">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV30">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AW30">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX30">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AY30">
         <f t="shared" si="27"/>
@@ -6496,19 +6545,19 @@
       </c>
       <c r="AZ30">
         <f t="shared" si="45"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BA30">
         <f t="shared" si="45"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB30">
         <f t="shared" si="46"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BC30">
         <f t="shared" si="47"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BD30">
         <f t="shared" si="48"/>
@@ -6516,15 +6565,15 @@
       </c>
       <c r="BE30">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="BF30">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG30">
         <f t="shared" si="50"/>
-        <v>2</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="BH30">
         <f t="shared" si="50"/>
@@ -6532,35 +6581,35 @@
       </c>
       <c r="BI30">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ30">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL30" t="str">
         <f t="shared" si="30"/>
-        <v>VAN</v>
+        <v>WPG</v>
       </c>
       <c r="BM30" s="15">
         <f t="shared" si="31"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BN30" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BO30" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BP30" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BQ30" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BR30" s="15">
         <f t="shared" si="31"/>
@@ -6568,75 +6617,75 @@
       </c>
       <c r="BS30" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BT30" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BU30" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV30" s="15">
         <f t="shared" si="32"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BW30" s="15">
         <f t="shared" si="33"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BX30" s="15">
         <f t="shared" si="34"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BY30" s="15">
         <f t="shared" si="35"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BZ30" s="15">
         <f t="shared" si="36"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CA30" s="15">
         <f t="shared" si="36"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="CB30" s="15">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="CC30" s="15">
         <f t="shared" si="38"/>
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="CD30" s="15">
         <f t="shared" si="39"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="CE30" s="20">
         <f t="shared" si="40"/>
-        <v>2.8</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="CF30" s="20">
         <f t="shared" si="40"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CG30" s="20">
         <f t="shared" si="41"/>
-        <v>3</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="CH30" s="20">
         <f t="shared" si="41"/>
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="CI30" s="20">
         <f t="shared" si="42"/>
-        <v>2.4444444444444446</v>
+        <v>2</v>
       </c>
       <c r="CJ30" s="20">
         <f t="shared" si="43"/>
-        <v>2.8888888888888888</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:88" x14ac:dyDescent="0.25">
@@ -6657,28 +6706,28 @@
         <v>1</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" s="8">
         <v>4</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J31" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="8">
         <v>0</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N31" s="5" t="str">
         <f t="shared" si="3"/>
@@ -6701,63 +6750,63 @@
       </c>
       <c r="AB31" s="8"/>
       <c r="AF31" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="AG31">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH31">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI31">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ31">
         <f t="shared" si="13"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK31">
         <f t="shared" si="44"/>
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="AL31">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AM31">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AN31">
         <f t="shared" si="16"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AO31">
         <f t="shared" si="17"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AP31">
         <f t="shared" si="18"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AQ31">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR31">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS31">
         <f t="shared" si="21"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AT31">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU31">
         <f t="shared" si="23"/>
@@ -6765,163 +6814,163 @@
       </c>
       <c r="AV31">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW31">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX31">
         <f t="shared" si="26"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY31">
         <f t="shared" si="27"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ31">
         <f t="shared" si="45"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA31">
         <f t="shared" si="45"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="BB31">
         <f t="shared" si="46"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BC31">
         <f t="shared" si="47"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD31">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="BE31">
         <f t="shared" si="49"/>
-        <v>1.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="BF31">
         <f t="shared" si="49"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="BG31">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH31">
         <f t="shared" si="50"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BI31">
         <f t="shared" si="28"/>
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="BJ31">
         <f t="shared" si="29"/>
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="BL31" t="str">
         <f t="shared" si="30"/>
-        <v>EDM</v>
+        <v>STL</v>
       </c>
       <c r="BM31" s="15">
         <f t="shared" si="31"/>
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="BN31" s="15">
         <f t="shared" si="31"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BO31" s="15">
         <f t="shared" si="31"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BP31" s="15">
         <f t="shared" si="31"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BQ31" s="15">
         <f t="shared" si="31"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BR31" s="15">
         <f t="shared" si="31"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BS31" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT31" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BU31" s="15">
         <f t="shared" si="31"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BV31" s="15">
         <f t="shared" si="32"/>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="BW31" s="15">
         <f t="shared" si="33"/>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="BX31" s="15">
         <f t="shared" si="34"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="BY31" s="15">
         <f t="shared" si="35"/>
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="BZ31" s="15">
         <f t="shared" si="36"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="CA31" s="15">
         <f t="shared" si="36"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="CB31" s="15">
         <f t="shared" si="37"/>
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="CC31" s="15">
         <f t="shared" si="38"/>
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="CD31" s="15">
         <f t="shared" si="39"/>
-        <v>12</v>
+        <v>-3</v>
       </c>
       <c r="CE31" s="20">
         <f t="shared" si="40"/>
-        <v>3.4166666666666665</v>
+        <v>0</v>
       </c>
       <c r="CF31" s="20">
         <f t="shared" si="40"/>
-        <v>2.4615384615384617</v>
+        <v>2</v>
       </c>
       <c r="CG31" s="20">
         <f t="shared" si="41"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CH31" s="20">
         <f t="shared" si="41"/>
-        <v>2.8461538461538463</v>
+        <v>3.5</v>
       </c>
       <c r="CI31" s="20">
         <f t="shared" si="42"/>
-        <v>2.92</v>
+        <v>1</v>
       </c>
       <c r="CJ31" s="20">
         <f t="shared" si="43"/>
-        <v>2.44</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="32" spans="1:88" x14ac:dyDescent="0.25">
@@ -6936,34 +6985,34 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G32" s="3">
         <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J32" s="3">
-        <v>1</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="M32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N32" s="2" t="str">
         <f t="shared" si="3"/>
@@ -6986,19 +7035,19 @@
       </c>
       <c r="AB32" s="8"/>
       <c r="AF32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AG32">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH32">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI32">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ32">
         <f t="shared" si="13"/>
@@ -7006,43 +7055,43 @@
       </c>
       <c r="AK32">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AL32">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AM32">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AN32">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AO32">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AP32">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AQ32">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR32">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS32">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT32">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU32">
         <f t="shared" si="23"/>
@@ -7050,163 +7099,163 @@
       </c>
       <c r="AV32">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AW32">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX32">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AY32">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ32">
         <f t="shared" si="45"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA32">
         <f t="shared" si="45"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="BB32">
         <f t="shared" si="46"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC32">
         <f t="shared" si="47"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD32">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="BE32">
         <f t="shared" si="49"/>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="BF32">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG32">
         <f t="shared" si="50"/>
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="BH32">
         <f t="shared" si="50"/>
-        <v>1.3333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BI32">
         <f t="shared" si="28"/>
-        <v>1.8</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="BJ32">
         <f t="shared" si="29"/>
-        <v>1.8</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="BL32" t="str">
         <f t="shared" si="30"/>
-        <v>LAK</v>
+        <v>DAL</v>
       </c>
       <c r="BM32" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="BN32" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BO32" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BP32" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BQ32" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BR32" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BS32" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BT32" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU32" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BV32" s="15">
         <f t="shared" si="32"/>
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="BW32" s="15">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="BX32" s="15">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="BY32" s="15">
         <f t="shared" si="35"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BZ32" s="15">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CA32" s="15">
         <f t="shared" si="36"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="CB32" s="15">
         <f t="shared" si="37"/>
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="CC32" s="15">
         <f t="shared" si="38"/>
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="CD32" s="15">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CE32" s="20">
         <f t="shared" si="40"/>
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="CF32" s="20">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>2.1111111111111112</v>
       </c>
       <c r="CG32" s="20">
         <f t="shared" si="41"/>
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="CH32" s="20">
         <f t="shared" si="41"/>
-        <v>1.3333333333333333</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="CI32" s="20">
         <f t="shared" si="42"/>
-        <v>1.8</v>
+        <v>2.4736842105263159</v>
       </c>
       <c r="CJ32" s="20">
         <f t="shared" si="43"/>
-        <v>1.8</v>
+        <v>2.3157894736842106</v>
       </c>
     </row>
     <row r="33" spans="1:88" x14ac:dyDescent="0.25">
@@ -7227,28 +7276,28 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" s="8">
         <v>4</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0</v>
+      </c>
+      <c r="K33" s="8">
+        <v>1</v>
+      </c>
+      <c r="L33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J33" s="8">
-        <v>0</v>
-      </c>
-      <c r="K33" s="8">
-        <v>0</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="M33" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N33" s="5" t="str">
         <f t="shared" si="3"/>
@@ -7271,15 +7320,15 @@
       </c>
       <c r="AB33" s="8"/>
       <c r="AF33" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AG33">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH33">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI33">
         <f t="shared" si="12"/>
@@ -7291,23 +7340,23 @@
       </c>
       <c r="AK33">
         <f t="shared" si="44"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AL33">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AM33">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AN33">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO33">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AP33">
         <f t="shared" si="18"/>
@@ -7315,23 +7364,23 @@
       </c>
       <c r="AQ33">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR33">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AS33">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT33">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU33">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV33">
         <f t="shared" si="24"/>
@@ -7339,35 +7388,35 @@
       </c>
       <c r="AW33">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AX33">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY33">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AZ33">
         <f t="shared" si="45"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BA33">
         <f t="shared" si="45"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BB33">
         <f t="shared" si="46"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BC33">
         <f t="shared" si="47"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BD33">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BE33">
         <f t="shared" si="49"/>
@@ -7375,47 +7424,47 @@
       </c>
       <c r="BF33">
         <f t="shared" si="49"/>
-        <v>2</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="BG33">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH33">
         <f t="shared" si="50"/>
-        <v>1</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="BI33">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="BJ33">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="BL33" t="str">
         <f t="shared" si="30"/>
-        <v>NSH</v>
+        <v>COL</v>
       </c>
       <c r="BM33" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BN33" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BO33" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BP33" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BQ33" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BR33" s="15">
         <f t="shared" si="31"/>
@@ -7423,75 +7472,75 @@
       </c>
       <c r="BS33" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BT33" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BU33" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV33" s="15">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW33" s="15">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BX33" s="15">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BY33" s="15">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="BZ33" s="15">
         <f t="shared" si="36"/>
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="CA33" s="15">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CB33" s="15">
         <f t="shared" si="37"/>
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="CC33" s="15">
         <f t="shared" si="38"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="CD33" s="15">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="CE33" s="20">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CF33" s="20">
         <f t="shared" si="40"/>
-        <v>2</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="CG33" s="20">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="CH33" s="20">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="CI33" s="20">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>2.5454545454545454</v>
       </c>
       <c r="CJ33" s="20">
         <f t="shared" si="43"/>
-        <v>1</v>
+        <v>2.7272727272727271</v>
       </c>
     </row>
     <row r="34" spans="1:88" x14ac:dyDescent="0.25">
@@ -7539,11 +7588,11 @@
       </c>
       <c r="AH34">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI34">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ34">
         <f t="shared" si="13"/>
@@ -7551,71 +7600,71 @@
       </c>
       <c r="AK34">
         <f t="shared" si="44"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AL34">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AM34">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AN34">
         <f t="shared" si="16"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AO34">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AP34">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AS34">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT34">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU34">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV34">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AW34">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX34">
         <f t="shared" si="26"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AY34">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AZ34">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA34">
         <f t="shared" si="45"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="BB34">
         <f t="shared" si="46"/>
@@ -7631,19 +7680,19 @@
       </c>
       <c r="BE34">
         <f t="shared" si="49"/>
-        <v>2.75</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="BF34">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BG34">
         <f t="shared" si="50"/>
-        <v>2.75</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BH34">
         <f t="shared" si="50"/>
-        <v>0.66666666666666663</v>
+        <v>1.5</v>
       </c>
       <c r="BI34">
         <f t="shared" si="28"/>
@@ -7655,103 +7704,103 @@
       </c>
       <c r="BL34" t="str">
         <f t="shared" si="30"/>
-        <v>DAL</v>
+        <v>VGK</v>
       </c>
       <c r="BM34" s="15">
         <f t="shared" si="31"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="BN34" s="15">
         <f t="shared" si="31"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BO34" s="15">
         <f t="shared" si="31"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BP34" s="15">
         <f t="shared" si="31"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BQ34" s="15">
         <f t="shared" si="31"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BR34" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BS34" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BT34" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BU34" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BV34" s="15">
         <f t="shared" si="32"/>
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="BW34" s="15">
         <f t="shared" si="33"/>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="BX34" s="15">
         <f t="shared" si="34"/>
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="BY34" s="15">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="BZ34" s="15">
         <f t="shared" si="36"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="CA34" s="15">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="CB34" s="15">
         <f t="shared" si="37"/>
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="CC34" s="15">
         <f t="shared" si="38"/>
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="CD34" s="15">
         <f t="shared" si="39"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="CE34" s="20">
         <f t="shared" si="40"/>
-        <v>2.8</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="CF34" s="20">
         <f t="shared" si="40"/>
-        <v>2.1111111111111112</v>
+        <v>0.75</v>
       </c>
       <c r="CG34" s="20">
         <f t="shared" si="41"/>
-        <v>2.9</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="CH34" s="20">
         <f t="shared" si="41"/>
-        <v>1.6666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="CI34" s="20">
         <f t="shared" si="42"/>
-        <v>2.4736842105263159</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="CJ34" s="20">
         <f t="shared" si="43"/>
-        <v>2.3157894736842106</v>
+        <v>1.8571428571428572</v>
       </c>
     </row>
     <row r="35" spans="1:88" x14ac:dyDescent="0.25">
@@ -7788,11 +7837,11 @@
       </c>
       <c r="AB35" s="8"/>
       <c r="AF35" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="AG35">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH35">
         <f t="shared" si="11"/>
@@ -7808,11 +7857,11 @@
       </c>
       <c r="AK35">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL35">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM35">
         <f t="shared" si="15"/>
@@ -7820,7 +7869,7 @@
       </c>
       <c r="AN35">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO35">
         <f t="shared" si="17"/>
@@ -7828,23 +7877,23 @@
       </c>
       <c r="AP35">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ35">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR35">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS35">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT35">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU35">
         <f t="shared" si="23"/>
@@ -7852,19 +7901,19 @@
       </c>
       <c r="AV35">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AW35">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AX35">
         <f t="shared" si="26"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AY35">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ35">
         <f t="shared" si="45"/>
@@ -7872,55 +7921,55 @@
       </c>
       <c r="BA35">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB35">
         <f t="shared" si="46"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BC35">
         <f t="shared" si="47"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BD35">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE35">
         <f t="shared" si="49"/>
-        <v>3.3333333333333335</v>
+        <v>0</v>
       </c>
       <c r="BF35">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BG35">
         <f t="shared" si="50"/>
-        <v>3.3333333333333335</v>
+        <v>0</v>
       </c>
       <c r="BH35">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI35">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="BJ35">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="BL35" t="str">
         <f t="shared" si="30"/>
-        <v>WPG</v>
+        <v>MIN</v>
       </c>
       <c r="BM35" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BN35" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO35" s="15">
         <f t="shared" si="31"/>
@@ -7928,7 +7977,7 @@
       </c>
       <c r="BP35" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BQ35" s="15">
         <f t="shared" si="31"/>
@@ -7936,35 +7985,35 @@
       </c>
       <c r="BR35" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BS35" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT35" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU35" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV35" s="15">
         <f t="shared" si="32"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BW35" s="15">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BX35" s="15">
         <f t="shared" si="34"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BY35" s="15">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BZ35" s="15">
         <f t="shared" si="36"/>
@@ -7972,43 +8021,43 @@
       </c>
       <c r="CA35" s="15">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB35" s="15">
         <f t="shared" si="37"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CC35" s="15">
         <f t="shared" si="38"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="CD35" s="15">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE35" s="20">
         <f t="shared" si="40"/>
-        <v>3.3333333333333335</v>
+        <v>0</v>
       </c>
       <c r="CF35" s="20">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="CG35" s="20">
         <f t="shared" si="41"/>
-        <v>3.3333333333333335</v>
+        <v>0</v>
       </c>
       <c r="CH35" s="20">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CI35" s="20">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="CJ35" s="20">
         <f t="shared" si="43"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="36" spans="1:88" x14ac:dyDescent="0.25">
@@ -8045,7 +8094,7 @@
       </c>
       <c r="AB36" s="8"/>
       <c r="AF36" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AG36">
         <f t="shared" si="10"/>
@@ -8053,7 +8102,7 @@
       </c>
       <c r="AH36">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI36">
         <f t="shared" si="12"/>
@@ -8065,39 +8114,39 @@
       </c>
       <c r="AK36">
         <f t="shared" si="44"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AL36">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AM36">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AN36">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AO36">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AP36">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR36">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AS36">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT36">
         <f t="shared" si="22"/>
@@ -8109,163 +8158,163 @@
       </c>
       <c r="AV36">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW36">
         <f t="shared" si="25"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AX36">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY36">
         <f t="shared" si="27"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AZ36">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA36">
         <f t="shared" si="45"/>
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BB36">
         <f t="shared" si="46"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BC36">
         <f t="shared" si="47"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD36">
         <f t="shared" si="48"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BE36">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF36">
         <f t="shared" si="49"/>
-        <v>4.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="BG36">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BH36">
         <f t="shared" si="50"/>
-        <v>2.6666666666666665</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="BI36">
         <f t="shared" si="28"/>
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="BJ36">
         <f t="shared" si="29"/>
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="BL36" t="str">
         <f t="shared" si="30"/>
-        <v>COL</v>
+        <v>LAK</v>
       </c>
       <c r="BM36" s="15">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BN36" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BO36" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BP36" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BQ36" s="15">
         <f t="shared" si="31"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BR36" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS36" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT36" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BU36" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV36" s="15">
         <f t="shared" si="32"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BW36" s="15">
         <f t="shared" si="33"/>
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="BX36" s="15">
         <f t="shared" si="34"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BY36" s="15">
         <f t="shared" si="35"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="BZ36" s="15">
         <f t="shared" si="36"/>
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="CA36" s="15">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="CB36" s="15">
         <f t="shared" si="37"/>
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="CC36" s="15">
         <f t="shared" si="38"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="CD36" s="15">
         <f t="shared" si="39"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="CE36" s="20">
         <f t="shared" si="40"/>
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="CF36" s="20">
         <f t="shared" si="40"/>
-        <v>4.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="CG36" s="20">
         <f t="shared" si="41"/>
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="CH36" s="20">
         <f t="shared" si="41"/>
-        <v>3.1666666666666665</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="CI36" s="20">
         <f t="shared" si="42"/>
-        <v>2.5454545454545454</v>
+        <v>1.8</v>
       </c>
       <c r="CJ36" s="20">
         <f t="shared" si="43"/>
-        <v>2.7272727272727271</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="37" spans="1:88" x14ac:dyDescent="0.25">
@@ -8278,7 +8327,7 @@
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E37" s="8">
         <v>1</v>
@@ -8288,11 +8337,11 @@
         <v>5</v>
       </c>
       <c r="H37" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="J37" s="8">
         <v>1</v>
       </c>
@@ -8300,13 +8349,13 @@
         <v>4</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
@@ -8337,55 +8386,55 @@
       </c>
       <c r="AG37">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH37">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI37">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ37">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK37">
         <f t="shared" si="44"/>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AL37">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AM37">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AN37">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AO37">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AP37">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AQ37">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR37">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS37">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AT37">
         <f t="shared" si="22"/>
@@ -8393,19 +8442,19 @@
       </c>
       <c r="AU37">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV37">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW37">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX37">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY37">
         <f t="shared" si="27"/>
@@ -8413,11 +8462,11 @@
       </c>
       <c r="AZ37">
         <f t="shared" si="45"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BA37">
         <f t="shared" si="45"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="BB37">
         <f t="shared" si="46"/>
@@ -8425,135 +8474,135 @@
       </c>
       <c r="BC37">
         <f t="shared" si="47"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD37">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE37">
         <f t="shared" si="49"/>
-        <v>2</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="BF37">
         <f t="shared" si="49"/>
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="BG37">
         <f t="shared" si="50"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="BH37">
         <f t="shared" si="50"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="BI37">
         <f t="shared" si="28"/>
-        <v>1.2857142857142858</v>
+        <v>1.8</v>
       </c>
       <c r="BJ37">
         <f t="shared" si="29"/>
-        <v>1.1428571428571428</v>
+        <v>1.8</v>
       </c>
       <c r="BL37" t="str">
         <f t="shared" si="30"/>
-        <v>VGK</v>
+        <v>EDM</v>
       </c>
       <c r="BM37" s="15">
         <f t="shared" si="31"/>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="BN37" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BO37" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BP37" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BQ37" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BR37" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BS37" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BT37" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BU37" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BV37" s="15">
         <f t="shared" si="32"/>
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="BW37" s="15">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="BX37" s="15">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="BY37" s="15">
         <f t="shared" si="35"/>
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="BZ37" s="15">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="CA37" s="15">
         <f t="shared" si="36"/>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="CB37" s="15">
         <f t="shared" si="37"/>
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="CC37" s="15">
         <f t="shared" si="38"/>
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="CD37" s="15">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CE37" s="20">
         <f t="shared" si="40"/>
-        <v>2</v>
+        <v>3.4166666666666665</v>
       </c>
       <c r="CF37" s="20">
         <f t="shared" si="40"/>
-        <v>0.75</v>
+        <v>2.4615384615384617</v>
       </c>
       <c r="CG37" s="20">
         <f t="shared" si="41"/>
-        <v>0.66666666666666663</v>
+        <v>2</v>
       </c>
       <c r="CH37" s="20">
         <f t="shared" si="41"/>
-        <v>1.5</v>
+        <v>2.8461538461538463</v>
       </c>
       <c r="CI37" s="20">
         <f t="shared" si="42"/>
-        <v>1.2857142857142858</v>
+        <v>2.92</v>
       </c>
       <c r="CJ37" s="20">
         <f t="shared" si="43"/>
-        <v>1.1428571428571428</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="38" spans="1:88" x14ac:dyDescent="0.25">
@@ -8566,7 +8615,7 @@
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="3">
         <v>1</v>
@@ -8576,11 +8625,11 @@
         <v>5</v>
       </c>
       <c r="H38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="J38" s="3">
         <v>2</v>
       </c>
@@ -8588,13 +8637,13 @@
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -8631,7 +8680,7 @@
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E39" s="8">
         <v>1</v>
@@ -8641,11 +8690,11 @@
         <v>5</v>
       </c>
       <c r="H39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="J39" s="8">
         <v>3</v>
       </c>
@@ -8653,13 +8702,13 @@
         <v>2</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -8696,7 +8745,7 @@
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" s="3">
         <v>1</v>
@@ -8706,11 +8755,11 @@
         <v>5</v>
       </c>
       <c r="H40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="J40" s="3">
         <v>4</v>
       </c>
@@ -8718,13 +8767,13 @@
         <v>1</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -8752,94 +8801,94 @@
       <c r="AB40" s="8"/>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH40" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH40" s="1" t="s">
+      <c r="AI40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AI40" s="1" t="s">
+      <c r="AJ40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AJ40" s="1" t="s">
+      <c r="AK40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AK40" s="1" t="s">
+      <c r="AL40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AL40" s="1" t="s">
+      <c r="AM40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AM40" s="1" t="s">
+      <c r="AN40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AN40" s="1" t="s">
+      <c r="AO40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AO40" s="1" t="s">
+      <c r="AP40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AP40" s="1" t="s">
+      <c r="AQ40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AQ40" s="1" t="s">
+      <c r="AR40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AR40" s="1" t="s">
+      <c r="AS40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AS40" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="AT40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU40" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AU40" s="1" t="s">
+      <c r="AV40" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AV40" s="1" t="s">
+      <c r="AW40" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AW40" s="1" t="s">
+      <c r="AX40" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AX40" s="1" t="s">
+      <c r="AY40" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AY40" s="1" t="s">
+      <c r="AZ40" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AZ40" s="1" t="s">
+      <c r="BA40" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BA40" s="1" t="s">
+      <c r="BB40" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BB40" s="1" t="s">
+      <c r="BC40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="BC40" s="1" t="s">
+      <c r="BD40" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="BD40" s="1" t="s">
+      <c r="BE40" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="BE40" s="1" t="s">
+      <c r="BF40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="BF40" s="1" t="s">
+      <c r="BG40" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="BG40" s="1" t="s">
+      <c r="BH40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="BH40" s="1" t="s">
+      <c r="BI40" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BI40" s="1" t="s">
+      <c r="BJ40" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="BJ40" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:88" x14ac:dyDescent="0.25">
@@ -8862,11 +8911,11 @@
         <v>6</v>
       </c>
       <c r="H41" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="24" t="s">
-        <v>36</v>
-      </c>
       <c r="J41" s="24">
         <v>3</v>
       </c>
@@ -8874,13 +8923,13 @@
         <v>3</v>
       </c>
       <c r="L41" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M41" s="23" t="s">
-        <v>36</v>
-      </c>
       <c r="N41" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O41" s="23"/>
       <c r="P41" s="23"/>
@@ -8907,7 +8956,7 @@
       </c>
       <c r="AB41" s="8"/>
       <c r="AF41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG41">
         <f>COUNTIFS($L$2:$L$100, AF41, $E$2:$E$100, 1) + COUNTIFS($M$2:$M$100, AF41, $E$2:$E$100, 1)</f>
@@ -8939,11 +8988,11 @@
       </c>
       <c r="AN41">
         <f>AP41+AR41</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO41">
         <f>AK41-AN41</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP41">
         <f>SUMPRODUCT(($M$2:$M$100=AF41)*($T$2:$T$100&gt;$S$2:$S$100))</f>
@@ -8951,11 +9000,11 @@
       </c>
       <c r="AQ41">
         <f>SUMPRODUCT(($M$2:$M$100=AF22)*($T$2:$T$100&lt;$S$2:$S$100))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR41">
         <f>SUMPRODUCT(($L$2:$L$100=AF41)*($T$2:$T$100&lt;$S$2:$S$100))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS41">
         <f>SUMPRODUCT(($L$2:$L$100=AF41)*($T$2:$T$100&gt;$S$2:$S$100))</f>
@@ -9040,7 +9089,7 @@
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E42" s="8">
         <v>1</v>
@@ -9050,11 +9099,11 @@
         <v>6</v>
       </c>
       <c r="H42" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I42" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="J42" s="8">
         <v>4</v>
       </c>
@@ -9062,13 +9111,13 @@
         <v>2</v>
       </c>
       <c r="L42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M42" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="N42" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -9094,7 +9143,7 @@
         <v>VAN</v>
       </c>
       <c r="AF42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG42">
         <f t="shared" ref="AG42:AG48" si="53">COUNTIFS($L$2:$L$100, AF42, $E$2:$E$100, 1) + COUNTIFS($M$2:$M$100, AF42, $E$2:$E$100, 1)</f>
@@ -9138,7 +9187,7 @@
       </c>
       <c r="AQ42">
         <f t="shared" ref="AQ42:AQ48" si="63">SUMPRODUCT(($M$2:$M$100=AF23)*($T$2:$T$100&lt;$S$2:$S$100))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR42">
         <f t="shared" ref="AR42:AR48" si="64">SUMPRODUCT(($L$2:$L$100=AF42)*($T$2:$T$100&lt;$S$2:$S$100))</f>
@@ -9227,7 +9276,7 @@
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E43" s="3">
         <v>1</v>
@@ -9237,11 +9286,11 @@
         <v>6</v>
       </c>
       <c r="H43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="J43" s="3">
         <v>3</v>
       </c>
@@ -9249,13 +9298,13 @@
         <v>3</v>
       </c>
       <c r="L43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M43" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="N43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -9281,7 +9330,7 @@
         <v>VGK</v>
       </c>
       <c r="AF43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG43">
         <f t="shared" si="53"/>
@@ -9325,7 +9374,7 @@
       </c>
       <c r="AQ43">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR43">
         <f t="shared" si="64"/>
@@ -9424,11 +9473,11 @@
         <v>7</v>
       </c>
       <c r="H44" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I44" s="24" t="s">
-        <v>36</v>
-      </c>
       <c r="J44" s="24">
         <v>4</v>
       </c>
@@ -9436,13 +9485,13 @@
         <v>3</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M44" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="N44" s="23" t="s">
         <v>35</v>
-      </c>
-      <c r="N44" s="23" t="s">
-        <v>36</v>
       </c>
       <c r="O44" s="23"/>
       <c r="P44" s="23"/>
@@ -9601,7 +9650,7 @@
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E45" s="29">
         <v>1</v>
@@ -9611,11 +9660,11 @@
         <v>7</v>
       </c>
       <c r="H45" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I45" s="29" t="s">
-        <v>58</v>
-      </c>
       <c r="J45" s="29">
         <v>4</v>
       </c>
@@ -9623,13 +9672,13 @@
         <v>3</v>
       </c>
       <c r="L45" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M45" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N45" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O45" s="28"/>
       <c r="P45" s="28"/>
@@ -9655,7 +9704,7 @@
         <v>DAL</v>
       </c>
       <c r="AF45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG45">
         <f t="shared" si="53"/>
@@ -9699,7 +9748,7 @@
       </c>
       <c r="AQ45">
         <f t="shared" si="63"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR45">
         <f t="shared" si="64"/>
@@ -9794,13 +9843,13 @@
         <v>2</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G46" s="3">
         <v>1</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>20</v>
@@ -9815,10 +9864,10 @@
         <v>20</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -9844,7 +9893,7 @@
         <v>NYR</v>
       </c>
       <c r="AF46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG46">
         <f t="shared" si="53"/>
@@ -9888,7 +9937,7 @@
       </c>
       <c r="AQ46">
         <f t="shared" si="63"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR46">
         <f t="shared" si="64"/>
@@ -9983,16 +10032,16 @@
         <v>2</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G47" s="24">
         <v>1</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J47" s="24">
         <v>0</v>
@@ -10001,13 +10050,13 @@
         <v>1</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N47" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O47" s="23"/>
       <c r="P47" s="23"/>
@@ -10033,7 +10082,7 @@
         <v>BOS</v>
       </c>
       <c r="AF47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG47">
         <f t="shared" si="53"/>
@@ -10077,7 +10126,7 @@
       </c>
       <c r="AQ47">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <f t="shared" si="64"/>
@@ -10172,13 +10221,13 @@
         <v>2</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G48" s="8">
         <v>2</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>20</v>
@@ -10193,7 +10242,7 @@
         <v>20</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N48" s="5" t="s">
         <v>20</v>
@@ -10222,7 +10271,7 @@
         <v>NYR</v>
       </c>
       <c r="AF48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG48">
         <f t="shared" si="53"/>
@@ -10266,7 +10315,7 @@
       </c>
       <c r="AQ48">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR48">
         <f t="shared" si="64"/>
@@ -10355,22 +10404,22 @@
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E49" s="3">
         <v>2</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -10379,13 +10428,13 @@
         <v>1</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -10421,22 +10470,22 @@
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E50" s="8">
         <v>2</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G50" s="8">
         <v>1</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J50" s="8">
         <v>1</v>
@@ -10445,13 +10494,13 @@
         <v>0</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -10493,16 +10542,16 @@
         <v>2</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G51" s="3">
         <v>2</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J51" s="3">
         <v>1</v>
@@ -10511,13 +10560,13 @@
         <v>1</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -10544,94 +10593,94 @@
       </c>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH51" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH51" s="1" t="s">
+      <c r="AI51" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AI51" s="1" t="s">
+      <c r="AJ51" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AJ51" s="1" t="s">
+      <c r="AK51" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AK51" s="1" t="s">
+      <c r="AL51" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AL51" s="1" t="s">
+      <c r="AM51" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AM51" s="1" t="s">
+      <c r="AN51" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AN51" s="1" t="s">
+      <c r="AO51" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AO51" s="1" t="s">
+      <c r="AP51" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AP51" s="1" t="s">
+      <c r="AQ51" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AQ51" s="1" t="s">
+      <c r="AR51" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AR51" s="1" t="s">
+      <c r="AS51" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AS51" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="AT51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU51" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AU51" s="1" t="s">
+      <c r="AV51" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AV51" s="1" t="s">
+      <c r="AW51" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AW51" s="1" t="s">
+      <c r="AX51" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AX51" s="1" t="s">
+      <c r="AY51" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AY51" s="1" t="s">
+      <c r="AZ51" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AZ51" s="1" t="s">
+      <c r="BA51" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BA51" s="1" t="s">
+      <c r="BB51" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BB51" s="1" t="s">
+      <c r="BC51" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BC51" s="1" t="s">
+      <c r="BD51" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BD51" s="1" t="s">
+      <c r="BE51" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BE51" s="1" t="s">
+      <c r="BF51" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BF51" s="1" t="s">
+      <c r="BG51" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="BG51" s="1" t="s">
+      <c r="BH51" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="BH51" s="1" t="s">
+      <c r="BI51" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BI51" s="1" t="s">
+      <c r="BJ51" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="BJ51" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.25">
@@ -10650,13 +10699,13 @@
         <v>2</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G52" s="8">
         <v>3</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>20</v>
@@ -10668,7 +10717,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M52" s="5" t="s">
         <v>20</v>
@@ -10700,7 +10749,7 @@
         <v>NYR</v>
       </c>
       <c r="AF52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG52">
         <f>COUNTIFS($L$2:$L$100, AF52, $E$2:$E$100, 1) + COUNTIFS($M$2:$M$100, AF52, $E$2:$E$100, 1)</f>
@@ -10732,11 +10781,11 @@
       </c>
       <c r="AN52">
         <f>AP52+AR52</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO52">
         <f>AK52-AN52</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP52">
         <f>SUMPRODUCT(($M$2:$M$100=AF52)*($T$2:$T$100&gt;$S$2:$S$100))</f>
@@ -10748,7 +10797,7 @@
       </c>
       <c r="AR52">
         <f>SUMPRODUCT(($L$2:$L$100=AF52)*($T$2:$T$100&lt;$S$2:$S$100))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS52">
         <f>SUMPRODUCT(($L$2:$L$100=AF52)*($T$2:$T$100&gt;$S$2:$S$100))</f>
@@ -10833,22 +10882,22 @@
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E53" s="3">
         <v>2</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" s="3">
         <v>2</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J53" s="3">
         <v>1</v>
@@ -10857,13 +10906,13 @@
         <v>1</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -10889,7 +10938,7 @@
         <v>DAL</v>
       </c>
       <c r="AF53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG53">
         <f t="shared" ref="AG53:AG55" si="84">COUNTIFS($L$2:$L$100, AF53, $E$2:$E$100, 1) + COUNTIFS($M$2:$M$100, AF53, $E$2:$E$100, 1)</f>
@@ -11028,16 +11077,16 @@
         <v>2</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G54" s="8">
         <v>3</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J54" s="8">
         <v>2</v>
@@ -11046,13 +11095,13 @@
         <v>1</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
@@ -11078,7 +11127,7 @@
         <v>FLA</v>
       </c>
       <c r="AF54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG54">
         <f t="shared" si="84"/>
@@ -11211,22 +11260,22 @@
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" s="3">
         <v>2</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J55" s="3">
         <v>1</v>
@@ -11235,13 +11284,13 @@
         <v>1</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -11267,7 +11316,7 @@
         <v>EDM</v>
       </c>
       <c r="AF55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG55">
         <f t="shared" si="84"/>
@@ -11406,13 +11455,13 @@
         <v>2</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G56" s="8">
         <v>4</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>20</v>
@@ -11424,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M56" s="5" t="s">
         <v>20</v>
@@ -11466,22 +11515,22 @@
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E57" s="3">
         <v>2</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="3">
         <v>3</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J57" s="3">
         <v>2</v>
@@ -11490,13 +11539,13 @@
         <v>1</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -11538,16 +11587,16 @@
         <v>2</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G58" s="8">
         <v>4</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J58" s="8">
         <v>3</v>
@@ -11556,13 +11605,13 @@
         <v>1</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
@@ -11589,94 +11638,94 @@
       </c>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH58" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH58" s="1" t="s">
+      <c r="AI58" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AI58" s="1" t="s">
+      <c r="AJ58" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AJ58" s="1" t="s">
+      <c r="AK58" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AK58" s="1" t="s">
+      <c r="AL58" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AL58" s="1" t="s">
+      <c r="AM58" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AM58" s="1" t="s">
+      <c r="AN58" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AN58" s="1" t="s">
+      <c r="AO58" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AO58" s="1" t="s">
+      <c r="AP58" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AP58" s="1" t="s">
+      <c r="AQ58" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AQ58" s="1" t="s">
+      <c r="AR58" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AR58" s="1" t="s">
+      <c r="AS58" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AS58" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="AT58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU58" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AU58" s="1" t="s">
+      <c r="AV58" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AV58" s="1" t="s">
+      <c r="AW58" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AW58" s="1" t="s">
+      <c r="AX58" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AX58" s="1" t="s">
+      <c r="AY58" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AY58" s="1" t="s">
+      <c r="AZ58" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AZ58" s="1" t="s">
+      <c r="BA58" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BA58" s="1" t="s">
+      <c r="BB58" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BB58" s="1" t="s">
+      <c r="BC58" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BC58" s="1" t="s">
+      <c r="BD58" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BD58" s="1" t="s">
+      <c r="BE58" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BE58" s="1" t="s">
+      <c r="BF58" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BF58" s="1" t="s">
+      <c r="BG58" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BG58" s="1" t="s">
+      <c r="BH58" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BH58" s="1" t="s">
+      <c r="BI58" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BI58" s="1" t="s">
+      <c r="BJ58" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="BJ58" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:62" x14ac:dyDescent="0.25">
@@ -11689,22 +11738,22 @@
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E59" s="3">
         <v>2</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G59" s="3">
         <v>3</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J59" s="3">
         <v>2</v>
@@ -11713,13 +11762,13 @@
         <v>1</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -11745,7 +11794,7 @@
         <v>VAN</v>
       </c>
       <c r="AF59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG59">
         <f>COUNTIFS($L$2:$L$100, AF59, $E$2:$E$100, 1) + COUNTIFS($M$2:$M$100, AF59, $E$2:$E$100, 1)</f>
@@ -11777,11 +11826,11 @@
       </c>
       <c r="AN59">
         <f>AP59+AR59</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO59">
         <f>AK59-AN59</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP59">
         <f>SUMPRODUCT(($M$2:$M$100=AF59)*($T$2:$T$100&gt;$S$2:$S$100))</f>
@@ -11793,7 +11842,7 @@
       </c>
       <c r="AR59">
         <f>SUMPRODUCT(($L$2:$L$100=AF59)*($T$2:$T$100&lt;$S$2:$S$100))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS59">
         <f>SUMPRODUCT(($L$2:$L$100=AF59)*($T$2:$T$100&gt;$S$2:$S$100))</f>
@@ -11884,13 +11933,13 @@
         <v>2</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G60" s="8">
         <v>5</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I60" s="8" t="s">
         <v>20</v>
@@ -11905,7 +11954,7 @@
         <v>20</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N60" s="5" t="s">
         <v>20</v>
@@ -11934,7 +11983,7 @@
         <v>CAR</v>
       </c>
       <c r="AF60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG60">
         <f t="shared" ref="AG60" si="111">COUNTIFS($L$2:$L$100, AF60, $E$2:$E$100, 1) + COUNTIFS($M$2:$M$100, AF60, $E$2:$E$100, 1)</f>
@@ -12067,22 +12116,22 @@
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E61" s="3">
         <v>2</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="3">
         <v>4</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J61" s="3">
         <v>3</v>
@@ -12091,13 +12140,13 @@
         <v>1</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -12139,16 +12188,16 @@
         <v>2</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G62" s="8">
         <v>5</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J62" s="8">
         <v>3</v>
@@ -12157,13 +12206,13 @@
         <v>2</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
@@ -12199,22 +12248,22 @@
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E63" s="3">
         <v>2</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G63" s="3">
         <v>4</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J63" s="3">
         <v>2</v>
@@ -12223,13 +12272,13 @@
         <v>2</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -12265,22 +12314,22 @@
       </c>
       <c r="C64" s="22"/>
       <c r="D64" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E64" s="24">
         <v>2</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" s="24">
         <v>5</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I64" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J64" s="24">
         <v>3</v>
@@ -12289,13 +12338,13 @@
         <v>2</v>
       </c>
       <c r="L64" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M64" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N64" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O64" s="23"/>
       <c r="P64" s="23"/>
@@ -12337,13 +12386,13 @@
         <v>2</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G65" s="8">
         <v>6</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I65" s="8" t="s">
         <v>20</v>
@@ -12355,7 +12404,7 @@
         <v>2</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M65" s="5" t="s">
         <v>20</v>
@@ -12397,22 +12446,22 @@
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E66" s="3">
         <v>2</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G66" s="3">
         <v>5</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J66" s="3">
         <v>3</v>
@@ -12421,13 +12470,13 @@
         <v>2</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -12469,16 +12518,16 @@
         <v>2</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G67" s="8">
         <v>6</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J67" s="8">
         <v>4</v>
@@ -12487,13 +12536,13 @@
         <v>2</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
@@ -12529,22 +12578,22 @@
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E68" s="3">
         <v>2</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G68" s="3">
         <v>6</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J68" s="3">
         <v>4</v>
@@ -12553,13 +12602,13 @@
         <v>2</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -12595,22 +12644,22 @@
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E69" s="8">
         <v>2</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G69" s="8">
         <v>6</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J69" s="8">
         <v>3</v>
@@ -12619,13 +12668,13 @@
         <v>3</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
@@ -12661,22 +12710,22 @@
       </c>
       <c r="C70" s="33"/>
       <c r="D70" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E70" s="35">
         <v>2</v>
       </c>
       <c r="F70" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G70" s="35">
         <v>7</v>
       </c>
       <c r="H70" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I70" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J70" s="35">
         <v>3</v>
@@ -12685,13 +12734,13 @@
         <v>4</v>
       </c>
       <c r="L70" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M70" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N70" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O70" s="34"/>
       <c r="P70" s="34"/>
@@ -12733,16 +12782,16 @@
         <v>3</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G71" s="3">
         <v>1</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J71" s="3">
         <v>0</v>
@@ -12751,13 +12800,13 @@
         <v>1</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -12793,22 +12842,22 @@
       </c>
       <c r="C72" s="22"/>
       <c r="D72" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E72" s="24">
         <v>3</v>
       </c>
       <c r="F72" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G72" s="24">
         <v>1</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I72" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J72" s="24">
         <v>0</v>
@@ -12817,13 +12866,13 @@
         <v>1</v>
       </c>
       <c r="L72" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M72" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N72" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O72" s="23"/>
       <c r="P72" s="23"/>
@@ -12865,16 +12914,16 @@
         <v>3</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G73" s="24">
         <v>2</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I73" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J73" s="24">
         <v>1</v>
@@ -12883,13 +12932,13 @@
         <v>1</v>
       </c>
       <c r="L73" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M73" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N73" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O73" s="23"/>
       <c r="P73" s="23"/>
@@ -12925,22 +12974,22 @@
       </c>
       <c r="C74" s="22"/>
       <c r="D74" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E74" s="24">
         <v>3</v>
       </c>
       <c r="F74" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G74" s="24">
         <v>2</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I74" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J74" s="24">
         <v>1</v>
@@ -12949,13 +12998,13 @@
         <v>1</v>
       </c>
       <c r="L74" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M74" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N74" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O74" s="23"/>
       <c r="P74" s="23"/>
@@ -13001,16 +13050,16 @@
         <v>3</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G75" s="24">
         <v>3</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J75" s="24">
         <v>2</v>
@@ -13019,13 +13068,13 @@
         <v>1</v>
       </c>
       <c r="L75" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M75" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N75" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O75" s="23"/>
       <c r="P75" s="23"/>
@@ -13061,22 +13110,22 @@
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E76" s="24">
         <v>3</v>
       </c>
       <c r="F76" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G76" s="24">
         <v>3</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I76" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J76" s="24">
         <v>2</v>
@@ -13085,13 +13134,13 @@
         <v>1</v>
       </c>
       <c r="L76" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M76" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N76" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O76" s="23"/>
       <c r="P76" s="23"/>
@@ -13133,16 +13182,16 @@
         <v>3</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G77" s="24">
         <v>4</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J77" s="24">
         <v>2</v>
@@ -13151,13 +13200,13 @@
         <v>2</v>
       </c>
       <c r="L77" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M77" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N77" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O77" s="23"/>
       <c r="P77" s="23"/>
@@ -13193,22 +13242,22 @@
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E78" s="24">
         <v>3</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G78" s="24">
         <v>4</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I78" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J78" s="24">
         <v>2</v>
@@ -13217,13 +13266,13 @@
         <v>2</v>
       </c>
       <c r="L78" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M78" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N78" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O78" s="23"/>
       <c r="P78" s="23"/>
@@ -13265,16 +13314,16 @@
         <v>3</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G79" s="24">
         <v>5</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I79" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J79" s="24">
         <v>2</v>
@@ -13283,13 +13332,13 @@
         <v>3</v>
       </c>
       <c r="L79" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M79" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N79" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O79" s="23"/>
       <c r="P79" s="23"/>
@@ -13325,22 +13374,22 @@
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E80" s="24">
         <v>3</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G80" s="24">
         <v>5</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J80" s="24">
         <v>2</v>
@@ -13349,13 +13398,13 @@
         <v>3</v>
       </c>
       <c r="L80" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M80" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N80" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O80" s="23"/>
       <c r="P80" s="23"/>
@@ -13397,16 +13446,16 @@
         <v>3</v>
       </c>
       <c r="F81" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G81" s="24">
         <v>6</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I81" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J81" s="24">
         <v>2</v>
@@ -13415,13 +13464,13 @@
         <v>4</v>
       </c>
       <c r="L81" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M81" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N81" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O81" s="23"/>
       <c r="P81" s="23"/>
@@ -13457,22 +13506,22 @@
       </c>
       <c r="C82" s="40"/>
       <c r="D82" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E82" s="42">
         <v>3</v>
       </c>
       <c r="F82" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G82" s="42">
         <v>6</v>
       </c>
       <c r="H82" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I82" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J82" s="42">
         <v>2</v>
@@ -13481,13 +13530,13 @@
         <v>4</v>
       </c>
       <c r="L82" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M82" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N82" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O82" s="41"/>
       <c r="P82" s="41"/>
@@ -13523,22 +13572,22 @@
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E83" s="3">
         <v>4</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G83" s="3">
         <v>1</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J83" s="3">
         <v>1</v>
@@ -13547,13 +13596,13 @@
         <v>0</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
@@ -13589,22 +13638,22 @@
       </c>
       <c r="C84" s="22"/>
       <c r="D84" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E84" s="24">
         <v>4</v>
       </c>
       <c r="F84" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G84" s="24">
         <v>2</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I84" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J84" s="24">
         <v>2</v>
@@ -13613,13 +13662,13 @@
         <v>0</v>
       </c>
       <c r="L84" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M84" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N84" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O84" s="23"/>
       <c r="P84" s="23"/>
@@ -13655,22 +13704,22 @@
       </c>
       <c r="C85" s="22"/>
       <c r="D85" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E85" s="24">
         <v>4</v>
       </c>
       <c r="F85" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G85" s="24">
         <v>3</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I85" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J85" s="24">
         <v>3</v>
@@ -13679,13 +13728,13 @@
         <v>0</v>
       </c>
       <c r="L85" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M85" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N85" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O85" s="23"/>
       <c r="P85" s="23"/>
@@ -13721,22 +13770,22 @@
       </c>
       <c r="C86" s="22"/>
       <c r="D86" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E86" s="24">
         <v>4</v>
       </c>
       <c r="F86" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G86" s="24">
         <v>4</v>
       </c>
       <c r="H86" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I86" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J86" s="24">
         <v>3</v>
@@ -13745,13 +13794,13 @@
         <v>1</v>
       </c>
       <c r="L86" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M86" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N86" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O86" s="23"/>
       <c r="P86" s="23"/>
@@ -13787,22 +13836,22 @@
       </c>
       <c r="C87" s="22"/>
       <c r="D87" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E87" s="24">
         <v>4</v>
       </c>
       <c r="F87" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G87" s="24">
         <v>5</v>
       </c>
       <c r="H87" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I87" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J87" s="24">
         <v>3</v>
@@ -13811,13 +13860,13 @@
         <v>2</v>
       </c>
       <c r="L87" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M87" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N87" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O87" s="23"/>
       <c r="P87" s="23"/>
@@ -13853,22 +13902,22 @@
       </c>
       <c r="C88" s="22"/>
       <c r="D88" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E88" s="24">
         <v>4</v>
       </c>
       <c r="F88" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G88" s="24">
         <v>6</v>
       </c>
       <c r="H88" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I88" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J88" s="24">
         <v>3</v>
@@ -13877,13 +13926,13 @@
         <v>3</v>
       </c>
       <c r="L88" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M88" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N88" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O88" s="23"/>
       <c r="P88" s="23"/>
@@ -13919,22 +13968,22 @@
       </c>
       <c r="C89" s="27"/>
       <c r="D89" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E89" s="29">
         <v>4</v>
       </c>
       <c r="F89" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G89" s="29">
         <v>7</v>
       </c>
       <c r="H89" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I89" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J89" s="29">
         <v>4</v>
@@ -13943,13 +13992,13 @@
         <v>3</v>
       </c>
       <c r="L89" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M89" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N89" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O89" s="28"/>
       <c r="P89" s="28"/>
@@ -13978,134 +14027,134 @@
     <row r="90" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A1:AAB3 W2:W33 N3:N33 F4:F5 A4:E7 G4:AAB7 V5:V33 A8 C8 H8:M8 V8:W8 X8:AAB14 A9:W14 A15:AAB10000">
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="42" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="43" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="44" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="45" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AAB10000">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:AAB10000 A1:AAB3 W2:W33 N3:N33 F4:F5 A4:E7 G4:AAB7 V5:V33 A8 C8 H8:M8 V8:W8 X8:AAB14 A9:W14">
-    <cfRule type="cellIs" dxfId="37" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="73" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="72" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="70" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="69" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="68" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="71" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="61" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="67" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="66" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="65" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="64" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="63" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="62" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="58" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="59" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="60" operator="equal">
       <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="61" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="62" operator="equal">
-      <formula>"FLA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="63" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="64" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="65" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="66" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="67" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="68" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="69" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="70" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="71" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="72" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="73" operator="equal">
-      <formula>"BOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+      <formula>"EDM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K99">
@@ -14133,7 +14182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J62:K62 J63">
-    <cfRule type="colorScale" priority="84">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -14143,7 +14192,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="85">
+    <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -14165,12 +14214,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG22:AJ37 AG41:AJ48 AG52:AJ55">
-    <cfRule type="cellIs" dxfId="1" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="82" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG59:AJ60">
-    <cfRule type="cellIs" dxfId="0" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14425,7 +14474,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB22:CB37">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14435,7 +14484,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D1B17D-EB8D-4E59-BB58-2930E5AC9C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5011C53-0A36-4224-97B4-741A79731140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="177">
   <si>
     <t>DATE</t>
   </si>
@@ -825,250 +814,6 @@
   </cellStyles>
   <dxfs count="67">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFA00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003DB8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD11515"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3F6228"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF6969"/>
@@ -1317,6 +1062,250 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
@@ -1499,9 +1488,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1539,7 +1528,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1645,7 +1634,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1787,7 +1776,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1797,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819ACA58-DCD7-4A09-9052-0851D3ECB0FF}">
   <dimension ref="A1:CJ90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,7 +2072,7 @@
         <v>56</v>
       </c>
       <c r="N3" s="2" t="str">
-        <f t="shared" ref="N3:N33" si="3">IF(OR(ISBLANK(O3), ISBLANK($P3)), "", IF($O3&gt;$P3, $L3,$M3))</f>
+        <f t="shared" ref="N3:N34" si="3">IF(OR(ISBLANK(O3), ISBLANK($P3)), "", IF($O3&gt;$P3, $L3,$M3))</f>
         <v>DAL</v>
       </c>
       <c r="O3" s="2">
@@ -2242,7 +2231,7 @@
       <c r="AB4" s="8"/>
       <c r="AC4" s="13">
         <f>MAX(SUM(AH3:AH10), 32)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AD4" s="8"/>
       <c r="AE4" s="14" t="s">
@@ -2358,7 +2347,7 @@
       <c r="AB5" s="8"/>
       <c r="AC5" s="13">
         <f>COUNTA(J2:J99)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD5" s="8"/>
       <c r="AE5" s="14" t="s">
@@ -2502,11 +2491,11 @@
       </c>
       <c r="AK6">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -2590,7 +2579,7 @@
       <c r="AB7" s="8"/>
       <c r="AC7" s="13">
         <f>AC6/AC5</f>
-        <v>0.47058823529411764</v>
+        <v>0.46511627906976744</v>
       </c>
       <c r="AD7" s="8"/>
       <c r="AE7" s="14" t="s">
@@ -2728,11 +2717,11 @@
       </c>
       <c r="AK8">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AL8">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
@@ -2826,7 +2815,7 @@
       </c>
       <c r="AH9">
         <f t="array" ref="AH9">INDEX(G:G, MATCH(2, 1/(F:F=AE9)))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI9">
         <f t="shared" si="6"/>
@@ -2834,15 +2823,15 @@
       </c>
       <c r="AJ9">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AK9">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL9">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
@@ -3426,7 +3415,7 @@
         <v>170</v>
       </c>
       <c r="J15" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" s="48">
         <v>0</v>
@@ -3453,16 +3442,22 @@
       <c r="R15" s="47">
         <v>45770</v>
       </c>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="5" t="str">
+      <c r="S15" s="30">
+        <v>1</v>
+      </c>
+      <c r="T15" s="30">
+        <v>3</v>
+      </c>
+      <c r="U15" s="30">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>WSH</v>
       </c>
       <c r="AB15" s="8"/>
       <c r="AE15" s="6" t="s">
@@ -3527,7 +3522,7 @@
         <v>48</v>
       </c>
       <c r="J16" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" s="8">
         <v>1</v>
@@ -3554,16 +3549,22 @@
       <c r="R16" s="7">
         <v>45770</v>
       </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5" t="str">
+      <c r="S16" s="5">
+        <v>2</v>
+      </c>
+      <c r="T16" s="5">
+        <v>1</v>
+      </c>
+      <c r="U16" s="5">
+        <v>1</v>
+      </c>
+      <c r="V16" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W16" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DAL</v>
       </c>
       <c r="AB16" s="8"/>
       <c r="AE16" s="16" t="s">
@@ -3633,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="J17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -3660,16 +3661,22 @@
       <c r="R17" s="12">
         <v>45770</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="5" t="str">
+      <c r="S17" s="2">
+        <v>2</v>
+      </c>
+      <c r="T17" s="2">
+        <v>6</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W17" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>LAK</v>
       </c>
       <c r="AB17" s="8"/>
       <c r="AE17" s="17" t="s">
@@ -4153,7 +4160,7 @@
         <v>170</v>
       </c>
       <c r="J22" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" s="8">
         <v>0</v>
@@ -4217,15 +4224,15 @@
       </c>
       <c r="AN22">
         <f t="shared" ref="AN22:AN37" si="16">AP22+AR22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO22">
         <f t="shared" ref="AO22:AO37" si="17">AK22-AN22</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP22">
         <f t="shared" ref="AP22:AP37" si="18">SUMPRODUCT(($M$2:$M$100=AF22)*($T$2:$T$100&gt;$S$2:$S$100))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <f t="shared" ref="AQ22:AQ37" si="19">SUMPRODUCT(($M$2:$M$100=AF22)*($T$2:$T$100&lt;$S$2:$S$100))</f>
@@ -4249,7 +4256,7 @@
       </c>
       <c r="AV22">
         <f t="shared" ref="AV22:AV37" si="24">SUMIFS($T$2:$T$100, $M$2:$M$100, AF22,$E$2:$E$100, 1)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW22">
         <f t="shared" ref="AW22:AW37" si="25">SUMIFS($S$2:$S$100, $L$2:$L$100, AF22,$E$2:$E$100, 1)</f>
@@ -4257,7 +4264,7 @@
       </c>
       <c r="AX22">
         <f t="shared" ref="AX22:AX37" si="26">SUMIFS($S$2:$S$100, $M$2:$M$100, AF22,$E$2:$E$100, 1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY22">
         <f t="shared" ref="AY22:AY37" si="27">SUMIFS($T$2:$T$100, $L$2:$L$100, AF22,$E$2:$E$100, 1)</f>
@@ -4265,7 +4272,7 @@
       </c>
       <c r="AZ22">
         <f>AV22-AX22</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA22">
         <f>AW22-AY22</f>
@@ -4273,19 +4280,19 @@
       </c>
       <c r="BB22">
         <f>AV22+AW22</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC22">
         <f>AX22+AY22</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD22">
         <f>(AV22+AW22)-(AX22+AY22)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE22">
         <f>AV22/AT22</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="BF22">
         <f>AW22/AU22</f>
@@ -4293,7 +4300,7 @@
       </c>
       <c r="BG22">
         <f>AX22/AT22</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="BH22">
         <f>AY22/AU22</f>
@@ -4301,11 +4308,11 @@
       </c>
       <c r="BI22">
         <f t="shared" ref="BI22:BI37" si="28">BB22/AG22</f>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="BJ22">
         <f t="shared" ref="BJ22:BJ37" si="29">BC22/AG22</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="BL22" t="str">
         <f t="shared" ref="BL22:BL37" si="30">AF22</f>
@@ -4325,15 +4332,15 @@
       </c>
       <c r="BP22" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ22" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BR22" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS22" s="15">
         <f t="shared" si="31"/>
@@ -4349,7 +4356,7 @@
       </c>
       <c r="BV22" s="15">
         <f t="shared" ref="BV22:BV37" si="32">SUMIFS($T$2:$T$100,$M$2:$M$100,AF22,$E$2:$E$100,1)+SUMIFS($T$2:$T$100,$M$2:$M$100,AF22,$E$2:$E$100,2)+SUMIFS($T$2:$T$100,$M$2:$M$100,AF22,$E$2:$E$100,3)+SUMIFS($T$2:$T$100,$M$2:$M$100,AF22,$E$2:$E$100,4)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BW22" s="15">
         <f t="shared" ref="BW22:BW37" si="33">SUMIFS($S$2:$S$100,$L$2:$L$100,AF22,$E$2:$E$100,1) + SUMIFS($S$2:$S$100,$L$2:$L$100,AF22,$E$2:$E$100,2)+SUMIFS($S$2:$S$100,$L$2:$L$100,AF22,$E$2:$E$100,3)+SUMIFS($S$2:$S$100,$L$2:$L$100,AF22,$E$2:$E$100,4)</f>
@@ -4357,7 +4364,7 @@
       </c>
       <c r="BX22" s="15">
         <f t="shared" ref="BX22:BX37" si="34">SUMIFS($S$2:$S$100,$M$2:$M$100,AF22,$E$2:$E$100,1)+SUMIFS($S$2:$S$100,$M$2:$M$100,AF22,$E$2:$E$100,2)+SUMIFS($S$2:$S$100,$M$2:$M$100,AF22,$E$2:$E$100,3)+SUMIFS($S$2:$S$100,$M$2:$M$100,AF22,$E$2:$E$100,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BY22" s="15">
         <f t="shared" ref="BY22:BY37" si="35">SUMIFS($T$2:$T$100,$L$2:$L$100,AF22,$E$2:$E$100,1)+(SUMIFS($T$2:$T$100,$L$2:$L$100,AF22,$E$2:$E$100,2)+SUMIFS($T$2:$T$100,$L$2:$L$100,AF22,$E$2:$E$100,3)+SUMIFS($T$2:$T$100,$L$2:$L$100,AF22,$E$2:$E$100,4))</f>
@@ -4365,7 +4372,7 @@
       </c>
       <c r="BZ22" s="15">
         <f t="shared" ref="BZ22:CA37" si="36">BV22-BX22</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CA22" s="15">
         <f t="shared" si="36"/>
@@ -4373,19 +4380,19 @@
       </c>
       <c r="CB22" s="15">
         <f t="shared" ref="CB22:CB37" si="37">BV22+BW22</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CC22" s="15">
         <f t="shared" ref="CC22:CC37" si="38">BX22+BY22</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CD22" s="15">
         <f t="shared" ref="CD22:CD37" si="39">(BV22+BW22)-(BX22+BY22)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CE22" s="20">
         <f t="shared" ref="CE22:CF37" si="40">BV22/BN22</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="CF22" s="20">
         <f t="shared" si="40"/>
@@ -4393,7 +4400,7 @@
       </c>
       <c r="CG22" s="20">
         <f t="shared" ref="CG22:CH37" si="41">BX22/BN22</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="CH22" s="20">
         <f t="shared" si="41"/>
@@ -4401,11 +4408,11 @@
       </c>
       <c r="CI22" s="20">
         <f t="shared" ref="CI22:CI37" si="42">CB22/BM22</f>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="CJ22" s="20">
         <f t="shared" ref="CJ22:CJ37" si="43">CC22/BM22</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="23" spans="1:88" x14ac:dyDescent="0.25">
@@ -4522,7 +4529,7 @@
       </c>
       <c r="AS23">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT23">
         <f t="shared" si="22"/>
@@ -4538,7 +4545,7 @@
       </c>
       <c r="AW23">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX23">
         <f t="shared" si="26"/>
@@ -4546,7 +4553,7 @@
       </c>
       <c r="AY23">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AZ23">
         <f t="shared" ref="AZ23:BA37" si="45">AV23-AX23</f>
@@ -4554,19 +4561,19 @@
       </c>
       <c r="BA23">
         <f t="shared" si="45"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="BB23">
         <f t="shared" ref="BB23:BB37" si="46">AV23+AW23</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC23">
         <f t="shared" ref="BC23:BC37" si="47">AX23+AY23</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BD23">
         <f t="shared" ref="BD23:BD37" si="48">(AV23+AW23)-(AX23+AY23)</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="BE23">
         <f t="shared" ref="BE23:BF37" si="49">AV23/AT23</f>
@@ -4574,7 +4581,7 @@
       </c>
       <c r="BF23">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="BG23">
         <f t="shared" ref="BG23:BH37" si="50">AX23/AT23</f>
@@ -4582,15 +4589,15 @@
       </c>
       <c r="BH23">
         <f t="shared" si="50"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="BI23">
         <f t="shared" si="28"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="BJ23">
         <f t="shared" si="29"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="BL23" t="str">
         <f t="shared" si="30"/>
@@ -4630,7 +4637,7 @@
       </c>
       <c r="BU23" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV23" s="15">
         <f t="shared" si="32"/>
@@ -4638,7 +4645,7 @@
       </c>
       <c r="BW23" s="15">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BX23" s="15">
         <f t="shared" si="34"/>
@@ -4646,7 +4653,7 @@
       </c>
       <c r="BY23" s="15">
         <f t="shared" si="35"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BZ23" s="15">
         <f t="shared" si="36"/>
@@ -4654,19 +4661,19 @@
       </c>
       <c r="CA23" s="15">
         <f t="shared" si="36"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="CB23" s="15">
         <f t="shared" si="37"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC23" s="15">
         <f t="shared" si="38"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CD23" s="15">
         <f t="shared" si="39"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="CE23" s="20">
         <f t="shared" si="40"/>
@@ -4674,7 +4681,7 @@
       </c>
       <c r="CF23" s="20">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="CG23" s="20">
         <f t="shared" si="41"/>
@@ -4682,15 +4689,15 @@
       </c>
       <c r="CH23" s="20">
         <f t="shared" si="41"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="CI23" s="20">
         <f t="shared" si="42"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="CJ23" s="20">
         <f t="shared" si="43"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:88" x14ac:dyDescent="0.25">
@@ -4723,7 +4730,7 @@
         <v>58</v>
       </c>
       <c r="J24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -5863,7 +5870,7 @@
         <v>48</v>
       </c>
       <c r="J28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" s="3">
         <v>1</v>
@@ -6718,7 +6725,7 @@
         <v>170</v>
       </c>
       <c r="J31" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" s="8">
         <v>0</v>
@@ -7003,7 +7010,7 @@
         <v>58</v>
       </c>
       <c r="J32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -7039,7 +7046,7 @@
       </c>
       <c r="AG32">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH32">
         <f t="shared" si="11"/>
@@ -7055,11 +7062,11 @@
       </c>
       <c r="AK32">
         <f t="shared" si="44"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL32">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM32">
         <f t="shared" si="15"/>
@@ -7067,7 +7074,7 @@
       </c>
       <c r="AN32">
         <f t="shared" si="16"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO32">
         <f t="shared" si="17"/>
@@ -7083,7 +7090,7 @@
       </c>
       <c r="AR32">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS32">
         <f t="shared" si="21"/>
@@ -7091,7 +7098,7 @@
       </c>
       <c r="AT32">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU32">
         <f t="shared" si="23"/>
@@ -7103,7 +7110,7 @@
       </c>
       <c r="AW32">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX32">
         <f t="shared" si="26"/>
@@ -7111,7 +7118,7 @@
       </c>
       <c r="AY32">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ32">
         <f t="shared" si="45"/>
@@ -7119,43 +7126,43 @@
       </c>
       <c r="BA32">
         <f t="shared" si="45"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="BB32">
         <f t="shared" si="46"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC32">
         <f t="shared" si="47"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD32">
         <f t="shared" si="48"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="BE32">
         <f t="shared" si="49"/>
-        <v>2.75</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BF32">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BG32">
         <f t="shared" si="50"/>
-        <v>2.75</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BH32">
         <f t="shared" si="50"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="BI32">
         <f t="shared" si="28"/>
-        <v>1.5714285714285714</v>
+        <v>1.625</v>
       </c>
       <c r="BJ32">
         <f t="shared" si="29"/>
-        <v>1.8571428571428572</v>
+        <v>1.75</v>
       </c>
       <c r="BL32" t="str">
         <f t="shared" si="30"/>
@@ -7163,11 +7170,11 @@
       </c>
       <c r="BM32" s="15">
         <f t="shared" si="31"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BN32" s="15">
         <f t="shared" si="31"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BO32" s="15">
         <f t="shared" si="31"/>
@@ -7175,7 +7182,7 @@
       </c>
       <c r="BP32" s="15">
         <f t="shared" si="31"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BQ32" s="15">
         <f t="shared" si="31"/>
@@ -7191,7 +7198,7 @@
       </c>
       <c r="BT32" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BU32" s="15">
         <f t="shared" si="31"/>
@@ -7203,7 +7210,7 @@
       </c>
       <c r="BW32" s="15">
         <f t="shared" si="33"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BX32" s="15">
         <f t="shared" si="34"/>
@@ -7211,7 +7218,7 @@
       </c>
       <c r="BY32" s="15">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BZ32" s="15">
         <f t="shared" si="36"/>
@@ -7219,43 +7226,43 @@
       </c>
       <c r="CA32" s="15">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CB32" s="15">
         <f t="shared" si="37"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="CC32" s="15">
         <f t="shared" si="38"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="CD32" s="15">
         <f t="shared" si="39"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE32" s="20">
         <f t="shared" si="40"/>
-        <v>2.8</v>
+        <v>2.5454545454545454</v>
       </c>
       <c r="CF32" s="20">
         <f t="shared" si="40"/>
-        <v>2.1111111111111112</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="CG32" s="20">
         <f t="shared" si="41"/>
-        <v>2.9</v>
+        <v>2.6363636363636362</v>
       </c>
       <c r="CH32" s="20">
         <f t="shared" si="41"/>
-        <v>1.6666666666666667</v>
+        <v>1.7777777777777777</v>
       </c>
       <c r="CI32" s="20">
         <f t="shared" si="42"/>
-        <v>2.4736842105263159</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="CJ32" s="20">
         <f t="shared" si="43"/>
-        <v>2.3157894736842106</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="33" spans="1:88" x14ac:dyDescent="0.25">
@@ -7324,7 +7331,7 @@
       </c>
       <c r="AG33">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH33">
         <f t="shared" si="11"/>
@@ -7340,7 +7347,7 @@
       </c>
       <c r="AK33">
         <f t="shared" si="44"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL33">
         <f t="shared" si="14"/>
@@ -7348,7 +7355,7 @@
       </c>
       <c r="AM33">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN33">
         <f t="shared" si="16"/>
@@ -7356,7 +7363,7 @@
       </c>
       <c r="AO33">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP33">
         <f t="shared" si="18"/>
@@ -7364,7 +7371,7 @@
       </c>
       <c r="AQ33">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR33">
         <f t="shared" si="20"/>
@@ -7380,11 +7387,11 @@
       </c>
       <c r="AU33">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV33">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW33">
         <f t="shared" si="25"/>
@@ -7392,7 +7399,7 @@
       </c>
       <c r="AX33">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY33">
         <f t="shared" si="27"/>
@@ -7400,7 +7407,7 @@
       </c>
       <c r="AZ33">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BA33">
         <f t="shared" si="45"/>
@@ -7408,39 +7415,39 @@
       </c>
       <c r="BB33">
         <f t="shared" si="46"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC33">
         <f t="shared" si="47"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD33">
         <f t="shared" si="48"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BE33">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BF33">
         <f t="shared" si="49"/>
-        <v>4.666666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="BG33">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH33">
         <f t="shared" si="50"/>
-        <v>2.6666666666666665</v>
+        <v>2</v>
       </c>
       <c r="BI33">
         <f t="shared" si="28"/>
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="BJ33">
         <f t="shared" si="29"/>
-        <v>1.6</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="BL33" t="str">
         <f t="shared" si="30"/>
@@ -7448,7 +7455,7 @@
       </c>
       <c r="BM33" s="15">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BN33" s="15">
         <f t="shared" si="31"/>
@@ -7456,7 +7463,7 @@
       </c>
       <c r="BO33" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BP33" s="15">
         <f t="shared" si="31"/>
@@ -7464,7 +7471,7 @@
       </c>
       <c r="BQ33" s="15">
         <f t="shared" si="31"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR33" s="15">
         <f t="shared" si="31"/>
@@ -7472,7 +7479,7 @@
       </c>
       <c r="BS33" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT33" s="15">
         <f t="shared" si="31"/>
@@ -7484,7 +7491,7 @@
       </c>
       <c r="BV33" s="15">
         <f t="shared" si="32"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BW33" s="15">
         <f t="shared" si="33"/>
@@ -7492,7 +7499,7 @@
       </c>
       <c r="BX33" s="15">
         <f t="shared" si="34"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BY33" s="15">
         <f t="shared" si="35"/>
@@ -7500,7 +7507,7 @@
       </c>
       <c r="BZ33" s="15">
         <f t="shared" si="36"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="CA33" s="15">
         <f t="shared" si="36"/>
@@ -7508,39 +7515,39 @@
       </c>
       <c r="CB33" s="15">
         <f t="shared" si="37"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CC33" s="15">
         <f t="shared" si="38"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CD33" s="15">
         <f t="shared" si="39"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="CE33" s="20">
         <f t="shared" si="40"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="CF33" s="20">
         <f t="shared" si="40"/>
-        <v>4.166666666666667</v>
+        <v>3.5714285714285716</v>
       </c>
       <c r="CG33" s="20">
         <f t="shared" si="41"/>
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="CH33" s="20">
         <f t="shared" si="41"/>
-        <v>3.1666666666666665</v>
+        <v>2.7142857142857144</v>
       </c>
       <c r="CI33" s="20">
         <f t="shared" si="42"/>
-        <v>2.5454545454545454</v>
+        <v>2.4166666666666665</v>
       </c>
       <c r="CJ33" s="20">
         <f t="shared" si="43"/>
-        <v>2.7272727272727271</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="34" spans="1:88" x14ac:dyDescent="0.25">
@@ -7551,18 +7558,43 @@
       <c r="B34" s="12">
         <v>45775</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="C34" s="46">
+        <v>0.9375</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="3">
+        <v>5</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -7574,9 +7606,9 @@
         <f>IF($S34=$T34, 0, IF($L35=$N34, IF($S34&gt;$T34, 1, 0), IF($T34&gt;$S34, 1, 0)))</f>
         <v>0</v>
       </c>
-      <c r="W34" s="5">
+      <c r="W34" s="5" t="str">
         <f t="shared" ref="W34:W65" si="51">IF(S34&gt;T34,L34,M34)</f>
-        <v>0</v>
+        <v>DAL</v>
       </c>
       <c r="AB34" s="8"/>
       <c r="AF34" t="s">
@@ -8126,15 +8158,15 @@
       </c>
       <c r="AN36">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO36">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP36">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <f t="shared" si="19"/>
@@ -8158,7 +8190,7 @@
       </c>
       <c r="AV36">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AW36">
         <f t="shared" si="25"/>
@@ -8166,7 +8198,7 @@
       </c>
       <c r="AX36">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY36">
         <f t="shared" si="27"/>
@@ -8174,7 +8206,7 @@
       </c>
       <c r="AZ36">
         <f t="shared" si="45"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BA36">
         <f t="shared" si="45"/>
@@ -8182,19 +8214,19 @@
       </c>
       <c r="BB36">
         <f t="shared" si="46"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BC36">
         <f t="shared" si="47"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD36">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE36">
         <f t="shared" si="49"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BF36">
         <f t="shared" si="49"/>
@@ -8202,7 +8234,7 @@
       </c>
       <c r="BG36">
         <f t="shared" si="50"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="BH36">
         <f t="shared" si="50"/>
@@ -8210,11 +8242,11 @@
       </c>
       <c r="BI36">
         <f t="shared" si="28"/>
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="BJ36">
         <f t="shared" si="29"/>
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BL36" t="str">
         <f t="shared" si="30"/>
@@ -8234,15 +8266,15 @@
       </c>
       <c r="BP36" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ36" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BR36" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS36" s="15">
         <f t="shared" si="31"/>
@@ -8258,7 +8290,7 @@
       </c>
       <c r="BV36" s="15">
         <f t="shared" si="32"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BW36" s="15">
         <f t="shared" si="33"/>
@@ -8266,7 +8298,7 @@
       </c>
       <c r="BX36" s="15">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BY36" s="15">
         <f t="shared" si="35"/>
@@ -8274,7 +8306,7 @@
       </c>
       <c r="BZ36" s="15">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CA36" s="15">
         <f t="shared" si="36"/>
@@ -8282,19 +8314,19 @@
       </c>
       <c r="CB36" s="15">
         <f t="shared" si="37"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="CC36" s="15">
         <f t="shared" si="38"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CD36" s="15">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CE36" s="20">
         <f t="shared" si="40"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CF36" s="20">
         <f t="shared" si="40"/>
@@ -8302,7 +8334,7 @@
       </c>
       <c r="CG36" s="20">
         <f t="shared" si="41"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="CH36" s="20">
         <f t="shared" si="41"/>
@@ -8310,11 +8342,11 @@
       </c>
       <c r="CI36" s="20">
         <f t="shared" si="42"/>
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="CJ36" s="20">
         <f t="shared" si="43"/>
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:88" x14ac:dyDescent="0.25">
@@ -8434,7 +8466,7 @@
       </c>
       <c r="AS37">
         <f t="shared" si="21"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT37">
         <f t="shared" si="22"/>
@@ -8450,7 +8482,7 @@
       </c>
       <c r="AW37">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX37">
         <f t="shared" si="26"/>
@@ -8458,7 +8490,7 @@
       </c>
       <c r="AY37">
         <f t="shared" si="27"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AZ37">
         <f t="shared" si="45"/>
@@ -8466,19 +8498,19 @@
       </c>
       <c r="BA37">
         <f t="shared" si="45"/>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="BB37">
         <f t="shared" si="46"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC37">
         <f t="shared" si="47"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BD37">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="BE37">
         <f t="shared" si="49"/>
@@ -8486,7 +8518,7 @@
       </c>
       <c r="BF37">
         <f t="shared" si="49"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="BG37">
         <f t="shared" si="50"/>
@@ -8494,15 +8526,15 @@
       </c>
       <c r="BH37">
         <f t="shared" si="50"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI37">
         <f t="shared" si="28"/>
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BJ37">
         <f t="shared" si="29"/>
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="BL37" t="str">
         <f t="shared" si="30"/>
@@ -8542,7 +8574,7 @@
       </c>
       <c r="BU37" s="15">
         <f t="shared" si="31"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV37" s="15">
         <f t="shared" si="32"/>
@@ -8550,7 +8582,7 @@
       </c>
       <c r="BW37" s="15">
         <f t="shared" si="33"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BX37" s="15">
         <f t="shared" si="34"/>
@@ -8558,7 +8590,7 @@
       </c>
       <c r="BY37" s="15">
         <f t="shared" si="35"/>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="BZ37" s="15">
         <f t="shared" si="36"/>
@@ -8566,19 +8598,19 @@
       </c>
       <c r="CA37" s="15">
         <f t="shared" si="36"/>
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="CB37" s="15">
         <f t="shared" si="37"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="CC37" s="15">
         <f t="shared" si="38"/>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="CD37" s="15">
         <f t="shared" si="39"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="CE37" s="20">
         <f t="shared" si="40"/>
@@ -8586,7 +8618,7 @@
       </c>
       <c r="CF37" s="20">
         <f t="shared" si="40"/>
-        <v>2.4615384615384617</v>
+        <v>2.6153846153846154</v>
       </c>
       <c r="CG37" s="20">
         <f t="shared" si="41"/>
@@ -8594,15 +8626,15 @@
       </c>
       <c r="CH37" s="20">
         <f t="shared" si="41"/>
-        <v>2.8461538461538463</v>
+        <v>3.3076923076923075</v>
       </c>
       <c r="CI37" s="20">
         <f t="shared" si="42"/>
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="CJ37" s="20">
         <f t="shared" si="43"/>
-        <v>2.44</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="38" spans="1:88" x14ac:dyDescent="0.25">
@@ -9945,7 +9977,7 @@
       </c>
       <c r="AS46">
         <f t="shared" si="65"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT46">
         <f t="shared" si="66"/>
@@ -10086,7 +10118,7 @@
       </c>
       <c r="AG47">
         <f t="shared" si="53"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH47">
         <f t="shared" si="54"/>
@@ -10102,11 +10134,11 @@
       </c>
       <c r="AK47">
         <f t="shared" si="57"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL47">
         <f t="shared" si="58"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM47">
         <f t="shared" si="59"/>
@@ -10114,7 +10146,7 @@
       </c>
       <c r="AN47">
         <f t="shared" si="60"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO47">
         <f t="shared" si="61"/>
@@ -10130,7 +10162,7 @@
       </c>
       <c r="AR47">
         <f t="shared" si="64"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS47">
         <f t="shared" si="65"/>
@@ -10198,11 +10230,11 @@
       </c>
       <c r="BI47">
         <f t="shared" si="78"/>
-        <v>3.1428571428571428</v>
+        <v>2.75</v>
       </c>
       <c r="BJ47">
         <f t="shared" si="79"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="48" spans="1:88" x14ac:dyDescent="0.25">
@@ -10275,7 +10307,7 @@
       </c>
       <c r="AG48">
         <f t="shared" si="53"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH48">
         <f t="shared" si="54"/>
@@ -10291,7 +10323,7 @@
       </c>
       <c r="AK48">
         <f t="shared" si="57"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL48">
         <f t="shared" si="58"/>
@@ -10299,7 +10331,7 @@
       </c>
       <c r="AM48">
         <f t="shared" si="59"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN48">
         <f t="shared" si="60"/>
@@ -10307,7 +10339,7 @@
       </c>
       <c r="AO48">
         <f t="shared" si="61"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP48">
         <f t="shared" si="62"/>
@@ -10387,11 +10419,11 @@
       </c>
       <c r="BI48">
         <f t="shared" si="78"/>
-        <v>2.8</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BJ48">
         <f t="shared" si="79"/>
-        <v>4.4000000000000004</v>
+        <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="49" spans="1:62" x14ac:dyDescent="0.25">
@@ -11179,7 +11211,7 @@
       </c>
       <c r="AS54">
         <f t="shared" si="96"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT54">
         <f t="shared" si="97"/>
@@ -11320,7 +11352,7 @@
       </c>
       <c r="AG55">
         <f t="shared" si="84"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH55">
         <f t="shared" si="85"/>
@@ -11336,11 +11368,11 @@
       </c>
       <c r="AK55">
         <f t="shared" si="88"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL55">
         <f t="shared" si="89"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM55">
         <f t="shared" si="90"/>
@@ -11348,7 +11380,7 @@
       </c>
       <c r="AN55">
         <f t="shared" si="91"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO55">
         <f t="shared" si="92"/>
@@ -11364,7 +11396,7 @@
       </c>
       <c r="AR55">
         <f t="shared" si="95"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS55">
         <f t="shared" si="96"/>
@@ -11432,11 +11464,11 @@
       </c>
       <c r="BI55">
         <f t="shared" si="106"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="BJ55">
         <f t="shared" si="107"/>
-        <v>2.4285714285714284</v>
+        <v>2.125</v>
       </c>
     </row>
     <row r="56" spans="1:62" x14ac:dyDescent="0.25">
@@ -12035,7 +12067,7 @@
       </c>
       <c r="AS60">
         <f>SUMPRODUCT(($L$2:$L$100=AF60)*($T$2:$T$100&gt;$S$2:$S$100))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT60">
         <f>COUNTIFS($M$2:$M$100,AF60,$E$2:$E$100,4)</f>
@@ -14027,133 +14059,133 @@
     <row r="90" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A1:AAB3 W2:W33 N3:N33 F4:F5 A4:E7 G4:AAB7 V5:V33 A8 C8 H8:M8 V8:W8 X8:AAB14 A9:W14 A15:AAB10000">
-    <cfRule type="cellIs" dxfId="20" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AAB10000">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:AAB10000 A1:AAB3 W2:W33 N3:N33 F4:F5 A4:E7 G4:AAB7 V5:V33 A8 C8 H8:M8 V8:W8 X8:AAB14 A9:W14">
-    <cfRule type="cellIs" dxfId="15" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="73" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="72" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="70" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="69" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="68" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="71" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="61" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="67" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="66" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="65" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="64" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="63" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="62" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="58" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="59" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="60" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14214,12 +14246,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG22:AJ37 AG41:AJ48 AG52:AJ55">
-    <cfRule type="cellIs" dxfId="22" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="82" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG59:AJ60">
-    <cfRule type="cellIs" dxfId="21" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5011C53-0A36-4224-97B4-741A79731140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FE0BF7-9C17-40A9-93FD-F9A84334E275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="177">
   <si>
     <t>DATE</t>
   </si>
@@ -1488,9 +1499,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1528,7 +1539,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1634,7 +1645,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1776,7 +1787,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1786,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819ACA58-DCD7-4A09-9052-0851D3ECB0FF}">
   <dimension ref="A1:CJ90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3759,12 +3770,20 @@
       </c>
       <c r="N18" s="5" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="7"/>
+        <v>FLA</v>
+      </c>
+      <c r="O18" s="5">
+        <v>4</v>
+      </c>
+      <c r="P18" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="R18" s="7">
+        <v>45771</v>
+      </c>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -3821,12 +3840,20 @@
       </c>
       <c r="N19" s="5" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="7"/>
+        <v>OTT</v>
+      </c>
+      <c r="O19" s="5">
+        <v>2</v>
+      </c>
+      <c r="P19" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="R19" s="7">
+        <v>45771</v>
+      </c>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -3883,12 +3910,20 @@
       </c>
       <c r="N20" s="5" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="7"/>
+        <v>MIN</v>
+      </c>
+      <c r="O20" s="5">
+        <v>3</v>
+      </c>
+      <c r="P20" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="R20" s="7">
+        <v>45771</v>
+      </c>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -3945,12 +3980,20 @@
       </c>
       <c r="N21" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="12"/>
+        <v>WPG</v>
+      </c>
+      <c r="O21" s="2">
+        <v>5</v>
+      </c>
+      <c r="P21" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="R21" s="12">
+        <v>45771</v>
+      </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FE0BF7-9C17-40A9-93FD-F9A84334E275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588C4195-3A7C-4BE1-BF64-8E58B6476652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1499,9 +1488,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1539,7 +1528,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1645,7 +1634,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1787,7 +1776,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1798,7 +1787,7 @@
   <dimension ref="A1:CJ90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,15 +2139,15 @@
       </c>
       <c r="AK3">
         <f>SUMIFS($T$2:$T$100,$M$2:$M$100,AF3,$E$2:$E$100,1) + SUMIFS($S$2:$S$100,$L$2:$L$100,AF3,$E$2:$E$100,1)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AL3">
         <f t="shared" ref="AL3" si="5">SUMIFS($T$2:$T$99,$M$2:$M$99,AG3,$E$2:$E$99,1) + SUMIFS($S$2:$S$99,$L$2:$L$99,AG3,$E$2:$E$99,1)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AM3">
         <f>SUMIFS(T2:T79,F2:F79,AE3)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -3827,7 +3816,7 @@
         <v>168</v>
       </c>
       <c r="J19" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" s="8">
         <v>0</v>
@@ -3854,16 +3843,22 @@
       <c r="R19" s="7">
         <v>45771</v>
       </c>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5" t="str">
+      <c r="S19" s="5">
+        <v>3</v>
+      </c>
+      <c r="T19" s="5">
+        <v>2</v>
+      </c>
+      <c r="U19" s="5">
+        <v>1</v>
+      </c>
+      <c r="V19" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W19" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>TOR</v>
       </c>
       <c r="AB19" s="8"/>
     </row>
@@ -5407,11 +5402,11 @@
       </c>
       <c r="AN26">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO26">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP26">
         <f t="shared" si="18"/>
@@ -5423,7 +5418,7 @@
       </c>
       <c r="AR26">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS26">
         <f t="shared" si="21"/>
@@ -5443,7 +5438,7 @@
       </c>
       <c r="AW26">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX26">
         <f t="shared" si="26"/>
@@ -5451,7 +5446,7 @@
       </c>
       <c r="AY26">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ26">
         <f t="shared" si="45"/>
@@ -5459,19 +5454,19 @@
       </c>
       <c r="BA26">
         <f t="shared" si="45"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BB26">
         <f t="shared" si="46"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BC26">
         <f t="shared" si="47"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD26">
         <f t="shared" si="48"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE26">
         <f t="shared" si="49"/>
@@ -5479,7 +5474,7 @@
       </c>
       <c r="BF26">
         <f t="shared" si="49"/>
-        <v>0.33333333333333331</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="BG26">
         <f t="shared" si="50"/>
@@ -5487,15 +5482,15 @@
       </c>
       <c r="BH26">
         <f t="shared" si="50"/>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="BI26">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="BJ26">
         <f t="shared" si="29"/>
-        <v>1.1666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="BL26" t="str">
         <f t="shared" si="30"/>
@@ -5515,11 +5510,11 @@
       </c>
       <c r="BP26" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BQ26" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BR26" s="15">
         <f t="shared" si="31"/>
@@ -5531,7 +5526,7 @@
       </c>
       <c r="BT26" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU26" s="15">
         <f t="shared" si="31"/>
@@ -5543,7 +5538,7 @@
       </c>
       <c r="BW26" s="15">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BX26" s="15">
         <f t="shared" si="34"/>
@@ -5551,7 +5546,7 @@
       </c>
       <c r="BY26" s="15">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BZ26" s="15">
         <f t="shared" si="36"/>
@@ -5559,19 +5554,19 @@
       </c>
       <c r="CA26" s="15">
         <f t="shared" si="36"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CB26" s="15">
         <f t="shared" si="37"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="CC26" s="15">
         <f t="shared" si="38"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CD26" s="15">
         <f t="shared" si="39"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CE26" s="20">
         <f t="shared" si="40"/>
@@ -5579,7 +5574,7 @@
       </c>
       <c r="CF26" s="20">
         <f t="shared" si="40"/>
-        <v>0.33333333333333331</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="CG26" s="20">
         <f t="shared" si="41"/>
@@ -5587,15 +5582,15 @@
       </c>
       <c r="CH26" s="20">
         <f t="shared" si="41"/>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="CI26" s="20">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="CJ26" s="20">
         <f t="shared" si="43"/>
-        <v>1.1666666666666667</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="1:88" x14ac:dyDescent="0.25">
@@ -5628,7 +5623,7 @@
         <v>168</v>
       </c>
       <c r="J27" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27" s="8">
         <v>0</v>
@@ -5704,7 +5699,7 @@
       </c>
       <c r="AQ27">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <f t="shared" si="20"/>
@@ -5724,7 +5719,7 @@
       </c>
       <c r="AV27">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW27">
         <f t="shared" si="25"/>
@@ -5732,7 +5727,7 @@
       </c>
       <c r="AX27">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY27">
         <f t="shared" si="27"/>
@@ -5740,7 +5735,7 @@
       </c>
       <c r="AZ27">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BA27">
         <f t="shared" si="45"/>
@@ -5748,19 +5743,19 @@
       </c>
       <c r="BB27">
         <f t="shared" si="46"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC27">
         <f t="shared" si="47"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD27">
         <f t="shared" si="48"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="BE27">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF27">
         <f t="shared" si="49"/>
@@ -5768,7 +5763,7 @@
       </c>
       <c r="BG27">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BH27">
         <f t="shared" si="50"/>
@@ -5776,11 +5771,11 @@
       </c>
       <c r="BI27">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="BJ27">
         <f t="shared" si="29"/>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="BL27" t="str">
         <f t="shared" si="30"/>
@@ -5812,7 +5807,7 @@
       </c>
       <c r="BS27" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT27" s="15">
         <f t="shared" si="31"/>
@@ -5824,7 +5819,7 @@
       </c>
       <c r="BV27" s="15">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW27" s="15">
         <f t="shared" si="33"/>
@@ -5832,7 +5827,7 @@
       </c>
       <c r="BX27" s="15">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BY27" s="15">
         <f t="shared" si="35"/>
@@ -5840,7 +5835,7 @@
       </c>
       <c r="BZ27" s="15">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CA27" s="15">
         <f t="shared" si="36"/>
@@ -5848,19 +5843,19 @@
       </c>
       <c r="CB27" s="15">
         <f t="shared" si="37"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CC27" s="15">
         <f t="shared" si="38"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="CD27" s="15">
         <f t="shared" si="39"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="CE27" s="20">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF27" s="20">
         <f t="shared" si="40"/>
@@ -5868,7 +5863,7 @@
       </c>
       <c r="CG27" s="20">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="CH27" s="20">
         <f t="shared" si="41"/>
@@ -5876,11 +5871,11 @@
       </c>
       <c r="CI27" s="20">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="CJ27" s="20">
         <f t="shared" si="43"/>
-        <v>2.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:88" x14ac:dyDescent="0.25">
@@ -10012,7 +10007,7 @@
       </c>
       <c r="AQ46">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <f t="shared" si="64"/>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1079AF6-F555-4F48-817F-5EFACDFA3941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF0ED7C-EEE9-4851-9624-3AF1BAF3EC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="180">
   <si>
     <t>DATE</t>
   </si>
@@ -645,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -736,30 +747,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="92">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -776,7 +782,229 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
       </font>
       <fill>
         <patternFill>
@@ -884,11 +1112,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF002060"/>
         </patternFill>
       </fill>
     </dxf>
@@ -896,11 +1124,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF002060"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -949,6 +1177,18 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1005,288 +1245,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFA00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003DB8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD11515"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3F6228"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1324,6 +1282,40 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1740,21 +1732,21 @@
     </tableColumn>
     <tableColumn id="15" xr3:uid="{3265132F-9519-4D83-9071-5A806C9B66A7}" name="PAWAYSCORE" dataDxfId="53"/>
     <tableColumn id="16" xr3:uid="{61D192BF-2F44-45CA-B41E-2E154B58B73C}" name="PHOMESCORE" dataDxfId="52"/>
-    <tableColumn id="17" xr3:uid="{4FBCD938-E47F-4A71-B757-19409794237B}" name="PResult" dataDxfId="23"/>
-    <tableColumn id="18" xr3:uid="{910345CE-2F3B-453D-B129-551EEF8A2ED1}" name="LOCKEDIN" dataDxfId="21"/>
-    <tableColumn id="19" xr3:uid="{B5B3650D-B08F-4959-92AE-19041FF77E90}" name="AAWAYSCORE" dataDxfId="22"/>
-    <tableColumn id="20" xr3:uid="{335FAADC-EF48-4918-8FC4-59E64D4FF575}" name="AHOMESCORE" dataDxfId="51"/>
-    <tableColumn id="21" xr3:uid="{D0C1DED2-3AB8-4A82-B413-410B2E943C31}" name="OTROUNDNUM" dataDxfId="50"/>
-    <tableColumn id="22" xr3:uid="{13F2CA6A-0805-4608-99D8-D82B730F1411}" name="CORRECT" dataDxfId="49">
+    <tableColumn id="17" xr3:uid="{4FBCD938-E47F-4A71-B757-19409794237B}" name="PResult" dataDxfId="51"/>
+    <tableColumn id="18" xr3:uid="{910345CE-2F3B-453D-B129-551EEF8A2ED1}" name="LOCKEDIN" dataDxfId="50"/>
+    <tableColumn id="19" xr3:uid="{B5B3650D-B08F-4959-92AE-19041FF77E90}" name="AAWAYSCORE" dataDxfId="49"/>
+    <tableColumn id="20" xr3:uid="{335FAADC-EF48-4918-8FC4-59E64D4FF575}" name="AHOMESCORE" dataDxfId="48"/>
+    <tableColumn id="21" xr3:uid="{D0C1DED2-3AB8-4A82-B413-410B2E943C31}" name="OTROUNDNUM" dataDxfId="47"/>
+    <tableColumn id="22" xr3:uid="{13F2CA6A-0805-4608-99D8-D82B730F1411}" name="CORRECT" dataDxfId="46">
       <calculatedColumnFormula>IF(ISBLANK($U2),"",IF($S2=$T2,0,IF($L2=$N2,IF($S2&gt;$T2,1,0),IF($T2&gt;$S2,1,0))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{C52B97FA-25BE-428D-BE11-A51A7A6F4023}" name="WINNER" dataDxfId="48">
+    <tableColumn id="23" xr3:uid="{C52B97FA-25BE-428D-BE11-A51A7A6F4023}" name="WINNER" dataDxfId="45">
       <calculatedColumnFormula>IF(OR(ISBLANK($S2), ISBLANK($T2), ISBLANK($U2)), "", IF(S2&gt;T2,L2,M2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{5D5BFFE0-4374-4A91-BEA2-4CDF401FCD34}" name="Column2" dataDxfId="47">
+    <tableColumn id="26" xr3:uid="{5D5BFFE0-4374-4A91-BEA2-4CDF401FCD34}" name="Column2" dataDxfId="44">
       <calculatedColumnFormula>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{ACD0F41D-B80B-4A4E-9591-78757C8DFA9E}" name="Column1" dataDxfId="46">
+    <tableColumn id="25" xr3:uid="{ACD0F41D-B80B-4A4E-9591-78757C8DFA9E}" name="Column1" dataDxfId="43">
       <calculatedColumnFormula>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" xr3:uid="{4CBA132A-C7C7-46A0-A3B6-3B6E14F287C5}" name="Notes"/>
@@ -1764,9 +1756,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1804,7 +1796,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1910,7 +1902,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2052,7 +2044,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2062,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819ACA58-DCD7-4A09-9052-0851D3ECB0FF}">
   <dimension ref="A1:CL89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:Z38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2324,7 +2316,7 @@
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A36" si="2">TEXT($B3,"dddd")</f>
+        <f t="shared" ref="A3:A35" si="2">TEXT($B3,"dddd")</f>
         <v>Saturday</v>
       </c>
       <c r="B3" s="12">
@@ -8056,12 +8048,20 @@
       </c>
       <c r="N33" s="5" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="7"/>
+        <v>FLA</v>
+      </c>
+      <c r="O33" s="5">
+        <v>2</v>
+      </c>
+      <c r="P33" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="R33" s="7">
+        <v>45775</v>
+      </c>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
@@ -8349,12 +8349,20 @@
       </c>
       <c r="N34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="12"/>
+        <v>DAL</v>
+      </c>
+      <c r="O34" s="2">
+        <v>3</v>
+      </c>
+      <c r="P34" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="R34" s="12">
+        <v>45775</v>
+      </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
@@ -8897,53 +8905,53 @@
         <f t="shared" ref="A36:A43" si="52">TEXT($B36,"dddd")</f>
         <v>Tuesday</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="7">
         <v>45776</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="23">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="38">
-        <v>1</v>
-      </c>
-      <c r="F36" s="39" t="s">
+      <c r="E36" s="8">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="8">
         <v>5</v>
       </c>
-      <c r="H36" s="38" t="s">
+      <c r="H36" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="38" t="s">
+      <c r="I36" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="J36" s="38">
-        <v>2</v>
-      </c>
-      <c r="K36" s="38">
-        <v>1</v>
-      </c>
-      <c r="L36" s="39" t="s">
+      <c r="J36" s="8">
+        <v>2</v>
+      </c>
+      <c r="K36" s="8">
+        <v>1</v>
+      </c>
+      <c r="L36" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="M36" s="39" t="s">
+      <c r="M36" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N36" s="39" t="str">
+      <c r="N36" s="5" t="str">
         <f t="shared" ref="N36:N43" si="53">IF(OR(ISBLANK(O36), ISBLANK($P36)), "", IF($O36&gt;$P36, $L36,$M36))</f>
         <v/>
       </c>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
       <c r="V36" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8952,11 +8960,11 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="X36" s="40" t="str">
+      <c r="X36" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y36" s="40" t="str">
+      <c r="Y36" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
@@ -9190,53 +9198,53 @@
         <f t="shared" si="52"/>
         <v>Tuesday</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="7">
         <v>45776</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="23">
         <v>0.9375</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="38">
-        <v>1</v>
-      </c>
-      <c r="F37" s="39" t="s">
+      <c r="E37" s="8">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="8">
         <v>5</v>
       </c>
-      <c r="H37" s="38" t="s">
+      <c r="H37" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I37" s="38" t="s">
+      <c r="I37" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="J37" s="38">
-        <v>2</v>
-      </c>
-      <c r="K37" s="38">
-        <v>2</v>
-      </c>
-      <c r="L37" s="39" t="s">
+      <c r="J37" s="8">
+        <v>2</v>
+      </c>
+      <c r="K37" s="8">
+        <v>2</v>
+      </c>
+      <c r="L37" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="M37" s="39" t="s">
+      <c r="M37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N37" s="39" t="str">
+      <c r="N37" s="5" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
       <c r="V37" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9245,11 +9253,11 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="X37" s="40" t="str">
+      <c r="X37" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y37" s="40" t="str">
+      <c r="Y37" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
@@ -9483,53 +9491,53 @@
         <f t="shared" si="52"/>
         <v>Tuesday</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="7">
         <v>45776</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="23">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="38">
-        <v>1</v>
-      </c>
-      <c r="F38" s="39" t="s">
+      <c r="E38" s="8">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38" s="8">
         <v>5</v>
       </c>
-      <c r="H38" s="38" t="s">
+      <c r="H38" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I38" s="38" t="s">
+      <c r="I38" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J38" s="38">
-        <v>2</v>
-      </c>
-      <c r="K38" s="38">
-        <v>1</v>
-      </c>
-      <c r="L38" s="39" t="s">
+      <c r="J38" s="8">
+        <v>2</v>
+      </c>
+      <c r="K38" s="8">
+        <v>1</v>
+      </c>
+      <c r="L38" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M38" s="39" t="s">
+      <c r="M38" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N38" s="39" t="str">
+      <c r="N38" s="5" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="39"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
       <c r="V38" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9538,11 +9546,11 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="X38" s="40" t="str">
+      <c r="X38" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y38" s="40" t="str">
+      <c r="Y38" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
@@ -9553,53 +9561,53 @@
         <f t="shared" si="52"/>
         <v>Wednesday</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="7">
         <v>45777</v>
       </c>
-      <c r="C39" s="37">
+      <c r="C39" s="23">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="38">
-        <v>1</v>
-      </c>
-      <c r="F39" s="39" t="s">
+      <c r="E39" s="8">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="38">
+      <c r="G39" s="8">
         <v>5</v>
       </c>
-      <c r="H39" s="38" t="s">
+      <c r="H39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I39" s="38" t="s">
+      <c r="I39" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="J39" s="38">
-        <v>2</v>
-      </c>
-      <c r="K39" s="38">
-        <v>1</v>
-      </c>
-      <c r="L39" s="39" t="s">
+      <c r="J39" s="8">
+        <v>2</v>
+      </c>
+      <c r="K39" s="8">
+        <v>1</v>
+      </c>
+      <c r="L39" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="M39" s="39" t="s">
+      <c r="M39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N39" s="39" t="str">
+      <c r="N39" s="5" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
       <c r="V39" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9608,11 +9616,11 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="X39" s="40" t="str">
+      <c r="X39" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y39" s="40" t="str">
+      <c r="Y39" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
@@ -9623,53 +9631,53 @@
         <f t="shared" si="52"/>
         <v>Wednesday</v>
       </c>
-      <c r="B40" s="36">
+      <c r="B40" s="7">
         <v>45777</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="23">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="38">
-        <v>1</v>
-      </c>
-      <c r="F40" s="39" t="s">
+      <c r="E40" s="8">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="38">
+      <c r="G40" s="8">
         <v>5</v>
       </c>
-      <c r="H40" s="38" t="s">
+      <c r="H40" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I40" s="38" t="s">
+      <c r="I40" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="38">
-        <v>2</v>
-      </c>
-      <c r="K40" s="38">
-        <v>1</v>
-      </c>
-      <c r="L40" s="39" t="s">
+      <c r="J40" s="8">
+        <v>2</v>
+      </c>
+      <c r="K40" s="8">
+        <v>1</v>
+      </c>
+      <c r="L40" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M40" s="39" t="s">
+      <c r="M40" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N40" s="39" t="str">
+      <c r="N40" s="5" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
       <c r="V40" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9678,11 +9686,11 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="X40" s="40" t="str">
+      <c r="X40" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y40" s="40" t="str">
+      <c r="Y40" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
@@ -9784,53 +9792,53 @@
         <f t="shared" si="52"/>
         <v>Wednesday</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="7">
         <v>45777</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="23">
         <v>0.9375</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="38">
-        <v>1</v>
-      </c>
-      <c r="F41" s="39" t="s">
+      <c r="E41" s="8">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G41" s="38">
+      <c r="G41" s="8">
         <v>5</v>
       </c>
-      <c r="H41" s="38" t="s">
+      <c r="H41" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="38" t="s">
+      <c r="I41" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J41" s="38">
-        <v>2</v>
-      </c>
-      <c r="K41" s="38">
-        <v>2</v>
-      </c>
-      <c r="L41" s="39" t="s">
+      <c r="J41" s="8">
+        <v>2</v>
+      </c>
+      <c r="K41" s="8">
+        <v>2</v>
+      </c>
+      <c r="L41" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="M41" s="39" t="s">
+      <c r="M41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N41" s="39" t="str">
+      <c r="N41" s="5" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
       <c r="V41" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9839,11 +9847,11 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="X41" s="40" t="str">
+      <c r="X41" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y41" s="40" t="str">
+      <c r="Y41" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
@@ -9974,29 +9982,27 @@
         <f t="shared" si="52"/>
         <v>Saturday</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39" t="str">
+      <c r="B42" s="7"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="7"/>
+      <c r="F42" s="5"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
       <c r="V42" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10005,11 +10011,11 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="X42" s="40" t="str">
+      <c r="X42" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y42" s="40" t="str">
+      <c r="Y42" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
@@ -10135,50 +10141,47 @@
       </c>
     </row>
     <row r="43" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="str">
+      <c r="A43" t="str">
         <f t="shared" si="52"/>
         <v>Saturday</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39" t="str">
+      <c r="B43" s="7"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="7"/>
+      <c r="F43" s="5"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
-      <c r="V43" s="39" t="str">
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W43" s="39" t="str">
+      <c r="W43" s="5" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="X43" s="42" t="str">
+      <c r="X43" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y43" s="42" t="str">
+      <c r="Y43" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
-      <c r="Z43" s="41"/>
       <c r="AI43">
         <f t="shared" si="54"/>
         <v>0</v>
@@ -13012,134 +13015,134 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 A15:AAD10000 N3:N33 F4:F5 A4:E7 V5:V33 A8 C8 H8:M8 Z8:AAD14">
-    <cfRule type="cellIs" dxfId="20" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AAD10000">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:AAD10000 A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 N3:N33 F4:F5 A4:E7 V5:V33 A8 C8 H8:M8 Z8:AAD14">
-    <cfRule type="cellIs" dxfId="15" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="60" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="61" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="74" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="73" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="71" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="72" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="70" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="72" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="62" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="69" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="68" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="67" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="66" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="65" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="64" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="63" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="60" operator="equal">
-      <formula>"LAK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="75" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="45" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
-      <formula>"OTT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
-      <formula>"NJD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
-      <formula>"MIN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
-      <formula>"STL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
-      <formula>"LAK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="11" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
-      <formula>"NYR"</formula>
+    <cfRule type="cellIs" dxfId="3" priority="22" operator="equal">
+      <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="23" operator="equal">
       <formula>"BOS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
-      <formula>"TBL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K99">
@@ -13188,6 +13191,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
     <cfRule type="colorScale" priority="90">
       <colorScale>
@@ -13211,12 +13224,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI22:AL37 AI41:AL48 AI52:AL55">
-    <cfRule type="cellIs" dxfId="25" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="84" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI59:AL60">
-    <cfRule type="cellIs" dxfId="24" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13449,7 +13462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO22:BO37">
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13459,7 +13472,7 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13578,16 +13591,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF0ED7C-EEE9-4851-9624-3AF1BAF3EC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42768A5B-47D2-4B23-866D-1134AF7F768F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1756,9 +1745,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1796,7 +1785,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1902,7 +1891,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2044,7 +2033,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2055,7 +2044,7 @@
   <dimension ref="A1:CL89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:Z38"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2551,19 +2540,19 @@
       </c>
       <c r="AK4">
         <f t="shared" ref="AK4:AK17" si="6">SUMIFS($V$2:$V$100,$F$2:$F$100,AG4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL4">
         <f t="shared" si="4"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AM4">
         <f t="shared" ref="AM4:AN10" si="7">SUMIFS($T$2:$T$99,$M$2:$M$99,AH4,$E$2:$E$99,1) + SUMIFS($S$2:$S$99,$L$2:$L$99,AH4,$E$2:$E$99,1)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AN4">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
@@ -2779,7 +2768,7 @@
       <c r="AD6" s="8"/>
       <c r="AE6" s="13">
         <f>SUM(V2:V99)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF6" s="8"/>
       <c r="AG6" s="14" t="s">
@@ -2903,7 +2892,7 @@
       <c r="AD7" s="8"/>
       <c r="AE7" s="13">
         <f>AE6/AE5</f>
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AF7" s="8"/>
       <c r="AG7" s="14" t="s">
@@ -3159,19 +3148,19 @@
       </c>
       <c r="AK9">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL9">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AM9">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AN9">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
@@ -6606,7 +6595,7 @@
       </c>
       <c r="AU28">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV28">
         <f t="shared" si="22"/>
@@ -6622,7 +6611,7 @@
       </c>
       <c r="AY28">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ28">
         <f t="shared" si="26"/>
@@ -6630,7 +6619,7 @@
       </c>
       <c r="BA28">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB28">
         <f t="shared" si="45"/>
@@ -6638,19 +6627,19 @@
       </c>
       <c r="BC28">
         <f t="shared" si="45"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD28">
         <f t="shared" si="46"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BE28">
         <f t="shared" si="47"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BF28">
         <f t="shared" si="48"/>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="BG28">
         <f t="shared" si="49"/>
@@ -6658,7 +6647,7 @@
       </c>
       <c r="BH28">
         <f t="shared" si="49"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="BI28">
         <f t="shared" si="50"/>
@@ -6666,15 +6655,15 @@
       </c>
       <c r="BJ28">
         <f t="shared" si="50"/>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="BK28">
         <f t="shared" si="28"/>
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="BL28">
         <f t="shared" si="29"/>
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="BN28" t="str">
         <f t="shared" si="30"/>
@@ -6714,7 +6703,7 @@
       </c>
       <c r="BW28" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX28" s="15">
         <f t="shared" si="32"/>
@@ -6722,7 +6711,7 @@
       </c>
       <c r="BY28" s="15">
         <f t="shared" si="33"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BZ28" s="15">
         <f t="shared" si="34"/>
@@ -6730,7 +6719,7 @@
       </c>
       <c r="CA28" s="15">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CB28" s="15">
         <f t="shared" si="36"/>
@@ -6738,19 +6727,19 @@
       </c>
       <c r="CC28" s="15">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CD28" s="15">
         <f t="shared" si="37"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CE28" s="15">
         <f t="shared" si="38"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="CF28" s="15">
         <f t="shared" si="39"/>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="CG28" s="20">
         <f t="shared" si="40"/>
@@ -6758,7 +6747,7 @@
       </c>
       <c r="CH28" s="20">
         <f t="shared" si="40"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="CI28" s="20">
         <f t="shared" si="41"/>
@@ -6766,15 +6755,15 @@
       </c>
       <c r="CJ28" s="20">
         <f t="shared" si="41"/>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="CK28" s="20">
         <f t="shared" si="42"/>
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="CL28" s="20">
         <f t="shared" si="43"/>
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="29" spans="1:90" x14ac:dyDescent="0.25">
@@ -6893,15 +6882,15 @@
       </c>
       <c r="AP29">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ29">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS29">
         <f t="shared" si="19"/>
@@ -6925,7 +6914,7 @@
       </c>
       <c r="AX29">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY29">
         <f t="shared" si="25"/>
@@ -6933,7 +6922,7 @@
       </c>
       <c r="AZ29">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA29">
         <f t="shared" si="27"/>
@@ -6941,7 +6930,7 @@
       </c>
       <c r="BB29">
         <f t="shared" si="45"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="BC29">
         <f t="shared" si="45"/>
@@ -6949,19 +6938,19 @@
       </c>
       <c r="BD29">
         <f t="shared" si="46"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BE29">
         <f t="shared" si="47"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BF29">
         <f t="shared" si="48"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG29">
         <f t="shared" si="49"/>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="BH29">
         <f t="shared" si="49"/>
@@ -6969,7 +6958,7 @@
       </c>
       <c r="BI29">
         <f t="shared" si="50"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="BJ29">
         <f t="shared" si="50"/>
@@ -6977,11 +6966,11 @@
       </c>
       <c r="BK29">
         <f t="shared" si="28"/>
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="BL29">
         <f t="shared" si="29"/>
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="BN29" t="str">
         <f t="shared" si="30"/>
@@ -7001,15 +6990,15 @@
       </c>
       <c r="BR29" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS29" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BT29" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU29" s="15">
         <f t="shared" si="31"/>
@@ -7025,7 +7014,7 @@
       </c>
       <c r="BX29" s="15">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BY29" s="15">
         <f t="shared" si="33"/>
@@ -7033,7 +7022,7 @@
       </c>
       <c r="BZ29" s="15">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CA29" s="15">
         <f t="shared" si="35"/>
@@ -7041,7 +7030,7 @@
       </c>
       <c r="CB29" s="15">
         <f t="shared" si="36"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="CC29" s="15">
         <f t="shared" si="36"/>
@@ -7049,19 +7038,19 @@
       </c>
       <c r="CD29" s="15">
         <f t="shared" si="37"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="CE29" s="15">
         <f t="shared" si="38"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CF29" s="15">
         <f t="shared" si="39"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CG29" s="20">
         <f t="shared" si="40"/>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="CH29" s="20">
         <f t="shared" si="40"/>
@@ -7069,7 +7058,7 @@
       </c>
       <c r="CI29" s="20">
         <f t="shared" si="41"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="CJ29" s="20">
         <f t="shared" si="41"/>
@@ -7077,11 +7066,11 @@
       </c>
       <c r="CK29" s="20">
         <f t="shared" si="42"/>
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="CL29" s="20">
         <f t="shared" si="43"/>
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="30" spans="1:90" x14ac:dyDescent="0.25">
@@ -7114,7 +7103,7 @@
         <v>161</v>
       </c>
       <c r="J30" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K30" s="8">
         <v>1</v>
@@ -7421,7 +7410,7 @@
         <v>164</v>
       </c>
       <c r="J31" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31" s="8">
         <v>1</v>
@@ -7731,7 +7720,7 @@
         <v>2</v>
       </c>
       <c r="K32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>53</v>
@@ -7814,15 +7803,15 @@
       </c>
       <c r="AP32">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ32">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS32">
         <f t="shared" si="19"/>
@@ -7846,7 +7835,7 @@
       </c>
       <c r="AX32">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AY32">
         <f t="shared" si="25"/>
@@ -7854,7 +7843,7 @@
       </c>
       <c r="AZ32">
         <f t="shared" si="26"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA32">
         <f t="shared" si="27"/>
@@ -7862,7 +7851,7 @@
       </c>
       <c r="BB32">
         <f t="shared" si="45"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="BC32">
         <f t="shared" si="45"/>
@@ -7870,19 +7859,19 @@
       </c>
       <c r="BD32">
         <f t="shared" si="46"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BE32">
         <f t="shared" si="47"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BF32">
         <f t="shared" si="48"/>
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="BG32">
         <f t="shared" si="49"/>
-        <v>1.6666666666666667</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="BH32">
         <f t="shared" si="49"/>
@@ -7890,7 +7879,7 @@
       </c>
       <c r="BI32">
         <f t="shared" si="50"/>
-        <v>2.6666666666666665</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="BJ32">
         <f t="shared" si="50"/>
@@ -7898,11 +7887,11 @@
       </c>
       <c r="BK32">
         <f t="shared" si="28"/>
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="BL32">
         <f t="shared" si="29"/>
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="BN32" t="str">
         <f t="shared" si="30"/>
@@ -7922,15 +7911,15 @@
       </c>
       <c r="BR32" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS32" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BT32" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BU32" s="15">
         <f t="shared" si="31"/>
@@ -7946,7 +7935,7 @@
       </c>
       <c r="BX32" s="15">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BY32" s="15">
         <f t="shared" si="33"/>
@@ -7954,7 +7943,7 @@
       </c>
       <c r="BZ32" s="15">
         <f t="shared" si="34"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CA32" s="15">
         <f t="shared" si="35"/>
@@ -7962,7 +7951,7 @@
       </c>
       <c r="CB32" s="15">
         <f t="shared" si="36"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="CC32" s="15">
         <f t="shared" si="36"/>
@@ -7970,19 +7959,19 @@
       </c>
       <c r="CD32" s="15">
         <f t="shared" si="37"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="CE32" s="15">
         <f t="shared" si="38"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CF32" s="15">
         <f t="shared" si="39"/>
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="CG32" s="20">
         <f t="shared" si="40"/>
-        <v>1.6666666666666667</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="CH32" s="20">
         <f t="shared" si="40"/>
@@ -7990,7 +7979,7 @@
       </c>
       <c r="CI32" s="20">
         <f t="shared" si="41"/>
-        <v>2.6666666666666665</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="CJ32" s="20">
         <f t="shared" si="41"/>
@@ -7998,11 +7987,11 @@
       </c>
       <c r="CK32" s="20">
         <f t="shared" si="42"/>
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="CL32" s="20">
         <f t="shared" si="43"/>
-        <v>2.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:90" x14ac:dyDescent="0.25">
@@ -8038,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>36</v>
@@ -8062,24 +8051,30 @@
       <c r="R33" s="7">
         <v>45775</v>
       </c>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5" t="str">
+      <c r="S33" s="5">
+        <v>2</v>
+      </c>
+      <c r="T33" s="5">
+        <v>4</v>
+      </c>
+      <c r="U33" s="5">
+        <v>0</v>
+      </c>
+      <c r="V33" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W33" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X33" s="5" t="str">
+        <v>FLA</v>
+      </c>
+      <c r="X33" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y33" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AD33" s="8"/>
       <c r="AH33" t="s">
@@ -8135,7 +8130,7 @@
       </c>
       <c r="AU33">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV33">
         <f t="shared" si="22"/>
@@ -8151,7 +8146,7 @@
       </c>
       <c r="AY33">
         <f t="shared" si="25"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ33">
         <f t="shared" si="26"/>
@@ -8159,7 +8154,7 @@
       </c>
       <c r="BA33">
         <f t="shared" si="27"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BB33">
         <f t="shared" si="45"/>
@@ -8167,19 +8162,19 @@
       </c>
       <c r="BC33">
         <f t="shared" si="45"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BD33">
         <f t="shared" si="46"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BE33">
         <f t="shared" si="47"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BF33">
         <f t="shared" si="48"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BG33">
         <f t="shared" si="49"/>
@@ -8187,7 +8182,7 @@
       </c>
       <c r="BH33">
         <f t="shared" si="49"/>
-        <v>2.6666666666666665</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="BI33">
         <f t="shared" si="50"/>
@@ -8195,15 +8190,15 @@
       </c>
       <c r="BJ33">
         <f t="shared" si="50"/>
-        <v>1.6666666666666667</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="BK33">
         <f t="shared" si="28"/>
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="BL33">
         <f t="shared" si="29"/>
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="BN33" t="str">
         <f t="shared" si="30"/>
@@ -8243,7 +8238,7 @@
       </c>
       <c r="BW33" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX33" s="15">
         <f t="shared" si="32"/>
@@ -8251,7 +8246,7 @@
       </c>
       <c r="BY33" s="15">
         <f t="shared" si="33"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BZ33" s="15">
         <f t="shared" si="34"/>
@@ -8259,7 +8254,7 @@
       </c>
       <c r="CA33" s="15">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="CB33" s="15">
         <f t="shared" si="36"/>
@@ -8267,19 +8262,19 @@
       </c>
       <c r="CC33" s="15">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="CD33" s="15">
         <f t="shared" si="37"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CE33" s="15">
         <f t="shared" si="38"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="CF33" s="15">
         <f t="shared" si="39"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CG33" s="20">
         <f t="shared" si="40"/>
@@ -8287,7 +8282,7 @@
       </c>
       <c r="CH33" s="20">
         <f t="shared" si="40"/>
-        <v>2.6666666666666665</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="CI33" s="20">
         <f t="shared" si="41"/>
@@ -8295,15 +8290,15 @@
       </c>
       <c r="CJ33" s="20">
         <f t="shared" si="41"/>
-        <v>1.6666666666666667</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="CK33" s="20">
         <f t="shared" si="42"/>
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="CL33" s="20">
         <f t="shared" si="43"/>
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="34" spans="1:90" x14ac:dyDescent="0.25">
@@ -8336,7 +8331,7 @@
         <v>44</v>
       </c>
       <c r="J34" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K34" s="3">
         <v>2</v>
@@ -8363,24 +8358,30 @@
       <c r="R34" s="12">
         <v>45775</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="5" t="str">
+      <c r="S34" s="2">
+        <v>2</v>
+      </c>
+      <c r="T34" s="2">
+        <v>6</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W34" s="5" t="str">
         <f t="shared" ref="W34:W89" si="51">IF(OR(ISBLANK($S34), ISBLANK($T34), ISBLANK($U34)), "", IF(S34&gt;T34,L34,M34))</f>
-        <v/>
-      </c>
-      <c r="X34" s="5" t="str">
+        <v>DAL</v>
+      </c>
+      <c r="X34" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y34" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>-2</v>
       </c>
       <c r="AD34" s="8"/>
       <c r="AH34" t="s">
@@ -8930,7 +8931,7 @@
         <v>161</v>
       </c>
       <c r="J36" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K36" s="8">
         <v>1</v>
@@ -9519,7 +9520,7 @@
         <v>2</v>
       </c>
       <c r="K38" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>52</v>
@@ -9586,7 +9587,7 @@
         <v>164</v>
       </c>
       <c r="J39" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K39" s="8">
         <v>1</v>
@@ -9656,10 +9657,10 @@
         <v>35</v>
       </c>
       <c r="J40" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>35</v>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42768A5B-47D2-4B23-866D-1134AF7F768F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E443BBE-F845-4B60-94C3-86C85F92B2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
+    <workbookView xWindow="28680" yWindow="-7680" windowWidth="16440" windowHeight="28440" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="180">
   <si>
     <t>DATE</t>
   </si>
@@ -645,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -735,6 +746,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1698,8 +1731,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CAF60155-77BE-48E5-AA58-5D8F46940651}" name="Table2" displayName="Table2" ref="A1:Z43" totalsRowShown="0" headerRowDxfId="67">
-  <autoFilter ref="A1:Z43" xr:uid="{CAF60155-77BE-48E5-AA58-5D8F46940651}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CAF60155-77BE-48E5-AA58-5D8F46940651}" name="Table2" displayName="Table2" ref="A1:Z55" totalsRowShown="0" headerRowDxfId="67">
+  <autoFilter ref="A1:Z55" xr:uid="{CAF60155-77BE-48E5-AA58-5D8F46940651}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{DDB71618-B495-4370-A2C8-F807AB26F35C}" name="WEEKDATE">
       <calculatedColumnFormula>TEXT($B2,"dddd")</calculatedColumnFormula>
@@ -1745,9 +1778,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1785,7 +1818,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1891,7 +1924,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2033,7 +2066,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2043,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819ACA58-DCD7-4A09-9052-0851D3ECB0FF}">
   <dimension ref="A1:CL89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,7 +2553,7 @@
       <c r="AD4" s="8"/>
       <c r="AE4" s="13">
         <f>MAX(SUM(AJ3:AJ10), 32)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AF4" s="8"/>
       <c r="AG4" s="14" t="s">
@@ -2536,7 +2569,7 @@
       </c>
       <c r="AJ4">
         <f t="array" ref="AJ4">INDEX(G:G, MATCH(2, 1/(F:F=AG4)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK4">
         <f t="shared" ref="AK4:AK17" si="6">SUMIFS($V$2:$V$100,$F$2:$F$100,AG4)</f>
@@ -2544,7 +2577,7 @@
       </c>
       <c r="AL4">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AM4">
         <f t="shared" ref="AM4:AN10" si="7">SUMIFS($T$2:$T$99,$M$2:$M$99,AH4,$E$2:$E$99,1) + SUMIFS($S$2:$S$99,$L$2:$L$99,AH4,$E$2:$E$99,1)</f>
@@ -2644,7 +2677,7 @@
       <c r="AD5" s="8"/>
       <c r="AE5" s="13">
         <f>COUNTA(J2:J99)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AF5" s="8"/>
       <c r="AG5" s="14" t="s">
@@ -2892,7 +2925,7 @@
       <c r="AD7" s="8"/>
       <c r="AE7" s="13">
         <f>AE6/AE5</f>
-        <v>0.45</v>
+        <v>0.40909090909090912</v>
       </c>
       <c r="AF7" s="8"/>
       <c r="AG7" s="14" t="s">
@@ -2908,7 +2941,7 @@
       </c>
       <c r="AJ7">
         <f t="array" ref="AJ7">INDEX(G:G, MATCH(2, 1/(F:F=AG7)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK7">
         <f t="shared" si="6"/>
@@ -2916,7 +2949,7 @@
       </c>
       <c r="AL7">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AM7">
         <f t="shared" si="7"/>
@@ -3026,7 +3059,7 @@
       </c>
       <c r="AJ8">
         <f t="array" ref="AJ8">INDEX(G:G, MATCH(2, 1/(F:F=AG8)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK8">
         <f t="shared" si="6"/>
@@ -3034,7 +3067,7 @@
       </c>
       <c r="AL8">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AM8">
         <f t="shared" si="7"/>
@@ -3144,7 +3177,7 @@
       </c>
       <c r="AJ9">
         <f t="array" ref="AJ9">INDEX(G:G, MATCH(2, 1/(F:F=AG9)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK9">
         <f t="shared" si="6"/>
@@ -3152,7 +3185,7 @@
       </c>
       <c r="AL9">
         <f t="shared" si="4"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AM9">
         <f t="shared" si="7"/>
@@ -6547,7 +6580,7 @@
       </c>
       <c r="AI28">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ28">
         <f t="shared" si="11"/>
@@ -6563,11 +6596,11 @@
       </c>
       <c r="AM28">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN28">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO28">
         <f t="shared" si="15"/>
@@ -6579,7 +6612,7 @@
       </c>
       <c r="AQ28">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR28">
         <f t="shared" si="18"/>
@@ -6599,7 +6632,7 @@
       </c>
       <c r="AV28">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW28">
         <f t="shared" si="23"/>
@@ -6643,7 +6676,7 @@
       </c>
       <c r="BG28">
         <f t="shared" si="49"/>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="BH28">
         <f t="shared" si="49"/>
@@ -6651,7 +6684,7 @@
       </c>
       <c r="BI28">
         <f t="shared" si="50"/>
-        <v>2.6666666666666665</v>
+        <v>2</v>
       </c>
       <c r="BJ28">
         <f t="shared" si="50"/>
@@ -6659,11 +6692,11 @@
       </c>
       <c r="BK28">
         <f t="shared" si="28"/>
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="BL28">
         <f t="shared" si="29"/>
-        <v>2.6</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="BN28" t="str">
         <f t="shared" si="30"/>
@@ -6671,23 +6704,23 @@
       </c>
       <c r="BO28" s="15">
         <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="BP28" s="15">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="BQ28" s="15">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="BR28" s="15">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="BS28" s="15">
+        <f t="shared" si="31"/>
         <v>5</v>
-      </c>
-      <c r="BP28" s="15">
-        <f t="shared" si="31"/>
-        <v>3</v>
-      </c>
-      <c r="BQ28" s="15">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
-      <c r="BR28" s="15">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="BS28" s="15">
-        <f t="shared" si="31"/>
-        <v>4</v>
       </c>
       <c r="BT28" s="15">
         <f t="shared" si="31"/>
@@ -6743,7 +6776,7 @@
       </c>
       <c r="CG28" s="20">
         <f t="shared" si="40"/>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="CH28" s="20">
         <f t="shared" si="40"/>
@@ -6751,7 +6784,7 @@
       </c>
       <c r="CI28" s="20">
         <f t="shared" si="41"/>
-        <v>2.6666666666666665</v>
+        <v>2</v>
       </c>
       <c r="CJ28" s="20">
         <f t="shared" si="41"/>
@@ -6759,11 +6792,11 @@
       </c>
       <c r="CK28" s="20">
         <f t="shared" si="42"/>
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="CL28" s="20">
         <f t="shared" si="43"/>
-        <v>2.6</v>
+        <v>2.1666666666666665</v>
       </c>
     </row>
     <row r="29" spans="1:90" x14ac:dyDescent="0.25">
@@ -6854,7 +6887,7 @@
       </c>
       <c r="AI29">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ29">
         <f t="shared" si="11"/>
@@ -6870,7 +6903,7 @@
       </c>
       <c r="AM29">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN29">
         <f t="shared" si="14"/>
@@ -6878,7 +6911,7 @@
       </c>
       <c r="AO29">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP29">
         <f t="shared" si="16"/>
@@ -6886,7 +6919,7 @@
       </c>
       <c r="AQ29">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR29">
         <f t="shared" si="18"/>
@@ -6910,7 +6943,7 @@
       </c>
       <c r="AW29">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX29">
         <f t="shared" si="24"/>
@@ -6954,7 +6987,7 @@
       </c>
       <c r="BH29">
         <f t="shared" si="49"/>
-        <v>2.6666666666666665</v>
+        <v>2</v>
       </c>
       <c r="BI29">
         <f t="shared" si="50"/>
@@ -6962,15 +6995,15 @@
       </c>
       <c r="BJ29">
         <f t="shared" si="50"/>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="BK29">
         <f t="shared" si="28"/>
-        <v>2.6</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="BL29">
         <f t="shared" si="29"/>
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="BN29" t="str">
         <f t="shared" si="30"/>
@@ -6978,7 +7011,7 @@
       </c>
       <c r="BO29" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP29" s="15">
         <f t="shared" si="31"/>
@@ -6986,7 +7019,7 @@
       </c>
       <c r="BQ29" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BR29" s="15">
         <f t="shared" si="31"/>
@@ -6994,7 +7027,7 @@
       </c>
       <c r="BS29" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT29" s="15">
         <f t="shared" si="31"/>
@@ -7054,7 +7087,7 @@
       </c>
       <c r="CH29" s="20">
         <f t="shared" si="40"/>
-        <v>2.6666666666666665</v>
+        <v>2</v>
       </c>
       <c r="CI29" s="20">
         <f t="shared" si="41"/>
@@ -7062,15 +7095,15 @@
       </c>
       <c r="CJ29" s="20">
         <f t="shared" si="41"/>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="CK29" s="20">
         <f t="shared" si="42"/>
-        <v>2.6</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="CL29" s="20">
         <f t="shared" si="43"/>
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="1:90" x14ac:dyDescent="0.25">
@@ -7775,7 +7808,7 @@
       </c>
       <c r="AI32">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ32">
         <f t="shared" si="11"/>
@@ -7791,11 +7824,11 @@
       </c>
       <c r="AM32">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN32">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO32">
         <f t="shared" si="15"/>
@@ -7807,7 +7840,7 @@
       </c>
       <c r="AQ32">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR32">
         <f t="shared" si="18"/>
@@ -7827,7 +7860,7 @@
       </c>
       <c r="AV32">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW32">
         <f t="shared" si="23"/>
@@ -7871,7 +7904,7 @@
       </c>
       <c r="BG32">
         <f t="shared" si="49"/>
-        <v>3.6666666666666665</v>
+        <v>2.75</v>
       </c>
       <c r="BH32">
         <f t="shared" si="49"/>
@@ -7879,7 +7912,7 @@
       </c>
       <c r="BI32">
         <f t="shared" si="50"/>
-        <v>3.3333333333333335</v>
+        <v>2.5</v>
       </c>
       <c r="BJ32">
         <f t="shared" si="50"/>
@@ -7887,11 +7920,11 @@
       </c>
       <c r="BK32">
         <f t="shared" si="28"/>
-        <v>2.6</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="BL32">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BN32" t="str">
         <f t="shared" si="30"/>
@@ -7899,11 +7932,11 @@
       </c>
       <c r="BO32" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP32" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BQ32" s="15">
         <f t="shared" si="31"/>
@@ -7915,7 +7948,7 @@
       </c>
       <c r="BS32" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT32" s="15">
         <f t="shared" si="31"/>
@@ -7971,7 +8004,7 @@
       </c>
       <c r="CG32" s="20">
         <f t="shared" si="40"/>
-        <v>3.6666666666666665</v>
+        <v>2.75</v>
       </c>
       <c r="CH32" s="20">
         <f t="shared" si="40"/>
@@ -7979,7 +8012,7 @@
       </c>
       <c r="CI32" s="20">
         <f t="shared" si="41"/>
-        <v>3.3333333333333335</v>
+        <v>2.5</v>
       </c>
       <c r="CJ32" s="20">
         <f t="shared" si="41"/>
@@ -7987,11 +8020,11 @@
       </c>
       <c r="CK32" s="20">
         <f t="shared" si="42"/>
-        <v>2.6</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="CL32" s="20">
         <f t="shared" si="43"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" spans="1:90" x14ac:dyDescent="0.25">
@@ -8082,7 +8115,7 @@
       </c>
       <c r="AI33">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ33">
         <f t="shared" si="11"/>
@@ -8098,7 +8131,7 @@
       </c>
       <c r="AM33">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN33">
         <f t="shared" si="14"/>
@@ -8106,7 +8139,7 @@
       </c>
       <c r="AO33">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP33">
         <f t="shared" si="16"/>
@@ -8114,7 +8147,7 @@
       </c>
       <c r="AQ33">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR33">
         <f t="shared" si="18"/>
@@ -8138,7 +8171,7 @@
       </c>
       <c r="AW33">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX33">
         <f t="shared" si="24"/>
@@ -8182,7 +8215,7 @@
       </c>
       <c r="BH33">
         <f t="shared" si="49"/>
-        <v>3.3333333333333335</v>
+        <v>2.5</v>
       </c>
       <c r="BI33">
         <f t="shared" si="50"/>
@@ -8190,15 +8223,15 @@
       </c>
       <c r="BJ33">
         <f t="shared" si="50"/>
-        <v>3.6666666666666665</v>
+        <v>2.75</v>
       </c>
       <c r="BK33">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BL33">
         <f t="shared" si="29"/>
-        <v>2.6</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="BN33" t="str">
         <f t="shared" si="30"/>
@@ -8206,7 +8239,7 @@
       </c>
       <c r="BO33" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP33" s="15">
         <f t="shared" si="31"/>
@@ -8214,7 +8247,7 @@
       </c>
       <c r="BQ33" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BR33" s="15">
         <f t="shared" si="31"/>
@@ -8222,7 +8255,7 @@
       </c>
       <c r="BS33" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT33" s="15">
         <f t="shared" si="31"/>
@@ -8282,7 +8315,7 @@
       </c>
       <c r="CH33" s="20">
         <f t="shared" si="40"/>
-        <v>3.3333333333333335</v>
+        <v>2.5</v>
       </c>
       <c r="CI33" s="20">
         <f t="shared" si="41"/>
@@ -8290,15 +8323,15 @@
       </c>
       <c r="CJ33" s="20">
         <f t="shared" si="41"/>
-        <v>3.6666666666666665</v>
+        <v>2.75</v>
       </c>
       <c r="CK33" s="20">
         <f t="shared" si="42"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="CL33" s="20">
         <f t="shared" si="43"/>
-        <v>2.6</v>
+        <v>2.1666666666666665</v>
       </c>
     </row>
     <row r="34" spans="1:90" x14ac:dyDescent="0.25">
@@ -8389,7 +8422,7 @@
       </c>
       <c r="AI34">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ34">
         <f t="shared" si="11"/>
@@ -8405,11 +8438,11 @@
       </c>
       <c r="AM34">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN34">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO34">
         <f t="shared" si="15"/>
@@ -8421,7 +8454,7 @@
       </c>
       <c r="AQ34">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR34">
         <f t="shared" si="18"/>
@@ -8441,7 +8474,7 @@
       </c>
       <c r="AV34">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW34">
         <f t="shared" si="23"/>
@@ -8485,7 +8518,7 @@
       </c>
       <c r="BG34">
         <f t="shared" si="49"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="BH34">
         <f t="shared" si="49"/>
@@ -8493,7 +8526,7 @@
       </c>
       <c r="BI34">
         <f t="shared" si="50"/>
-        <v>2.3333333333333335</v>
+        <v>1.75</v>
       </c>
       <c r="BJ34">
         <f t="shared" si="50"/>
@@ -8501,11 +8534,11 @@
       </c>
       <c r="BK34">
         <f t="shared" si="28"/>
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="BL34">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BN34" t="str">
         <f t="shared" si="30"/>
@@ -8513,11 +8546,11 @@
       </c>
       <c r="BO34" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP34" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BQ34" s="15">
         <f t="shared" si="31"/>
@@ -8529,7 +8562,7 @@
       </c>
       <c r="BS34" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT34" s="15">
         <f t="shared" si="31"/>
@@ -8585,7 +8618,7 @@
       </c>
       <c r="CG34" s="20">
         <f t="shared" si="40"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="CH34" s="20">
         <f t="shared" si="40"/>
@@ -8593,7 +8626,7 @@
       </c>
       <c r="CI34" s="20">
         <f t="shared" si="41"/>
-        <v>2.3333333333333335</v>
+        <v>1.75</v>
       </c>
       <c r="CJ34" s="20">
         <f t="shared" si="41"/>
@@ -8601,11 +8634,11 @@
       </c>
       <c r="CK34" s="20">
         <f t="shared" si="42"/>
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="CL34" s="20">
         <f t="shared" si="43"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="35" spans="1:90" x14ac:dyDescent="0.25">
@@ -8651,12 +8684,20 @@
       </c>
       <c r="N35" s="5" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="7"/>
+        <v>TOR</v>
+      </c>
+      <c r="O35" s="5">
+        <v>2</v>
+      </c>
+      <c r="P35" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="R35" s="7">
+        <v>45776</v>
+      </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
@@ -8682,7 +8723,7 @@
       </c>
       <c r="AI35">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ35">
         <f t="shared" si="11"/>
@@ -8698,7 +8739,7 @@
       </c>
       <c r="AM35">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN35">
         <f t="shared" si="14"/>
@@ -8706,7 +8747,7 @@
       </c>
       <c r="AO35">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP35">
         <f t="shared" si="16"/>
@@ -8714,7 +8755,7 @@
       </c>
       <c r="AQ35">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR35">
         <f t="shared" si="18"/>
@@ -8738,7 +8779,7 @@
       </c>
       <c r="AW35">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX35">
         <f t="shared" si="24"/>
@@ -8782,7 +8823,7 @@
       </c>
       <c r="BH35">
         <f t="shared" si="49"/>
-        <v>2.3333333333333335</v>
+        <v>1.75</v>
       </c>
       <c r="BI35">
         <f t="shared" si="50"/>
@@ -8790,15 +8831,15 @@
       </c>
       <c r="BJ35">
         <f t="shared" si="50"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="BK35">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BL35">
         <f t="shared" si="29"/>
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="BN35" t="str">
         <f t="shared" si="30"/>
@@ -8806,7 +8847,7 @@
       </c>
       <c r="BO35" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP35" s="15">
         <f t="shared" si="31"/>
@@ -8814,7 +8855,7 @@
       </c>
       <c r="BQ35" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BR35" s="15">
         <f t="shared" si="31"/>
@@ -8822,7 +8863,7 @@
       </c>
       <c r="BS35" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT35" s="15">
         <f t="shared" si="31"/>
@@ -8882,7 +8923,7 @@
       </c>
       <c r="CH35" s="20">
         <f t="shared" si="40"/>
-        <v>2.3333333333333335</v>
+        <v>1.75</v>
       </c>
       <c r="CI35" s="20">
         <f t="shared" si="41"/>
@@ -8890,15 +8931,15 @@
       </c>
       <c r="CJ35" s="20">
         <f t="shared" si="41"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="CK35" s="20">
         <f t="shared" si="42"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="CL35" s="20">
         <f t="shared" si="43"/>
-        <v>2.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:90" x14ac:dyDescent="0.25">
@@ -8944,12 +8985,20 @@
       </c>
       <c r="N36" s="5" t="str">
         <f t="shared" ref="N36:N43" si="53">IF(OR(ISBLANK(O36), ISBLANK($P36)), "", IF($O36&gt;$P36, $L36,$M36))</f>
-        <v/>
-      </c>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="7"/>
+        <v>CAR</v>
+      </c>
+      <c r="O36" s="5">
+        <v>2</v>
+      </c>
+      <c r="P36" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="R36" s="7">
+        <v>45776</v>
+      </c>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
@@ -8975,7 +9024,7 @@
       </c>
       <c r="AI36">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ36">
         <f t="shared" si="11"/>
@@ -8991,11 +9040,11 @@
       </c>
       <c r="AM36">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN36">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO36">
         <f t="shared" si="15"/>
@@ -9007,7 +9056,7 @@
       </c>
       <c r="AQ36">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR36">
         <f t="shared" si="18"/>
@@ -9027,7 +9076,7 @@
       </c>
       <c r="AV36">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW36">
         <f t="shared" si="23"/>
@@ -9071,7 +9120,7 @@
       </c>
       <c r="BG36">
         <f t="shared" si="49"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH36">
         <f t="shared" si="49"/>
@@ -9079,7 +9128,7 @@
       </c>
       <c r="BI36">
         <f t="shared" si="50"/>
-        <v>2.3333333333333335</v>
+        <v>1.75</v>
       </c>
       <c r="BJ36">
         <f t="shared" si="50"/>
@@ -9087,11 +9136,11 @@
       </c>
       <c r="BK36">
         <f t="shared" si="28"/>
-        <v>3.8</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="BL36">
         <f t="shared" si="29"/>
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="BN36" t="str">
         <f t="shared" si="30"/>
@@ -9099,11 +9148,11 @@
       </c>
       <c r="BO36" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP36" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BQ36" s="15">
         <f t="shared" si="31"/>
@@ -9115,7 +9164,7 @@
       </c>
       <c r="BS36" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT36" s="15">
         <f t="shared" si="31"/>
@@ -9171,7 +9220,7 @@
       </c>
       <c r="CG36" s="20">
         <f t="shared" si="40"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CH36" s="20">
         <f t="shared" si="40"/>
@@ -9179,7 +9228,7 @@
       </c>
       <c r="CI36" s="20">
         <f t="shared" si="41"/>
-        <v>2.3333333333333335</v>
+        <v>1.75</v>
       </c>
       <c r="CJ36" s="20">
         <f t="shared" si="41"/>
@@ -9187,11 +9236,11 @@
       </c>
       <c r="CK36" s="20">
         <f t="shared" si="42"/>
-        <v>3.8</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="CL36" s="20">
         <f t="shared" si="43"/>
-        <v>3.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:90" x14ac:dyDescent="0.25">
@@ -9237,12 +9286,20 @@
       </c>
       <c r="N37" s="5" t="str">
         <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="7"/>
+        <v>MIN</v>
+      </c>
+      <c r="O37" s="5">
+        <v>4</v>
+      </c>
+      <c r="P37" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="R37" s="7">
+        <v>45776</v>
+      </c>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
@@ -9268,7 +9325,7 @@
       </c>
       <c r="AI37">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ37">
         <f t="shared" si="11"/>
@@ -9284,7 +9341,7 @@
       </c>
       <c r="AM37">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN37">
         <f t="shared" si="14"/>
@@ -9292,7 +9349,7 @@
       </c>
       <c r="AO37">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP37">
         <f t="shared" si="16"/>
@@ -9300,7 +9357,7 @@
       </c>
       <c r="AQ37">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR37">
         <f t="shared" si="18"/>
@@ -9324,7 +9381,7 @@
       </c>
       <c r="AW37">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX37">
         <f t="shared" si="24"/>
@@ -9368,7 +9425,7 @@
       </c>
       <c r="BH37">
         <f t="shared" si="49"/>
-        <v>2.3333333333333335</v>
+        <v>1.75</v>
       </c>
       <c r="BI37">
         <f t="shared" si="50"/>
@@ -9376,15 +9433,15 @@
       </c>
       <c r="BJ37">
         <f t="shared" si="50"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BK37">
         <f t="shared" si="28"/>
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="BL37">
         <f t="shared" si="29"/>
-        <v>3.8</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="BN37" t="str">
         <f t="shared" si="30"/>
@@ -9392,7 +9449,7 @@
       </c>
       <c r="BO37" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP37" s="15">
         <f t="shared" si="31"/>
@@ -9400,7 +9457,7 @@
       </c>
       <c r="BQ37" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BR37" s="15">
         <f t="shared" si="31"/>
@@ -9408,7 +9465,7 @@
       </c>
       <c r="BS37" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT37" s="15">
         <f t="shared" si="31"/>
@@ -9468,7 +9525,7 @@
       </c>
       <c r="CH37" s="20">
         <f t="shared" si="40"/>
-        <v>2.3333333333333335</v>
+        <v>1.75</v>
       </c>
       <c r="CI37" s="20">
         <f t="shared" si="41"/>
@@ -9476,69 +9533,77 @@
       </c>
       <c r="CJ37" s="20">
         <f t="shared" si="41"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CK37" s="20">
         <f t="shared" si="42"/>
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="CL37" s="20">
         <f t="shared" si="43"/>
-        <v>3.8</v>
+        <v>3.1666666666666665</v>
       </c>
     </row>
     <row r="38" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
+      <c r="A38" s="1" t="str">
         <f t="shared" si="52"/>
         <v>Tuesday</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="12">
         <v>45776</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="24">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="8">
-        <v>1</v>
-      </c>
-      <c r="F38" s="5" t="s">
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="3">
         <v>5</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J38" s="8">
-        <v>2</v>
-      </c>
-      <c r="K38" s="8">
-        <v>2</v>
-      </c>
-      <c r="L38" s="5" t="s">
+      <c r="J38" s="3">
+        <v>2</v>
+      </c>
+      <c r="K38" s="3">
+        <v>2</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N38" s="5" t="str">
+      <c r="N38" s="2" t="str">
         <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
+        <v>LAK</v>
+      </c>
+      <c r="O38" s="2">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="R38" s="12">
+        <v>45776</v>
+      </c>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
       <c r="V38" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9981,18 +10046,42 @@
     <row r="42" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="52"/>
-        <v>Saturday</v>
-      </c>
-      <c r="B42" s="7"/>
+        <v>Thursday</v>
+      </c>
+      <c r="B42" s="7">
+        <v>45778</v>
+      </c>
       <c r="C42" s="23"/>
-      <c r="D42" s="7"/>
-      <c r="F42" s="5"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
+      <c r="D42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="8">
+        <v>6</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="8">
+        <v>1</v>
+      </c>
+      <c r="K42" s="8">
+        <v>3</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="N42" s="5" t="str">
         <f t="shared" si="53"/>
         <v/>
@@ -10144,18 +10233,42 @@
     <row r="43" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="52"/>
-        <v>Saturday</v>
-      </c>
-      <c r="B43" s="7"/>
+        <v>Thursday</v>
+      </c>
+      <c r="B43" s="7">
+        <v>45778</v>
+      </c>
       <c r="C43" s="23"/>
-      <c r="D43" s="7"/>
-      <c r="F43" s="5"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
+      <c r="D43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="8">
+        <v>6</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J43" s="8">
+        <v>2</v>
+      </c>
+      <c r="K43" s="8">
+        <v>2</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="N43" s="5" t="str">
         <f t="shared" si="53"/>
         <v/>
@@ -10305,29 +10418,69 @@
       </c>
     </row>
     <row r="44" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="F44" s="5"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
+      <c r="A44" t="str">
+        <f t="shared" ref="A44:A55" si="81">TEXT($B44,"dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="B44" s="36">
+        <v>45778</v>
+      </c>
+      <c r="C44" s="37"/>
+      <c r="D44" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="38">
+        <v>1</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="38">
+        <v>6</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="38">
+        <v>3</v>
+      </c>
+      <c r="K44" s="38">
+        <v>2</v>
+      </c>
+      <c r="L44" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="M44" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="N44" s="39" t="str">
+        <f t="shared" ref="N44:N55" si="82">IF(OR(ISBLANK(O44), ISBLANK($P44)), "", IF($O44&gt;$P44, $L44,$M44))</f>
+        <v/>
+      </c>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
       <c r="V44" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W44" s="5" t="str">
         <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="X44" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
+        <v/>
+      </c>
+      <c r="Y44" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
       <c r="AI44">
@@ -10452,29 +10605,69 @@
       </c>
     </row>
     <row r="45" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="F45" s="5"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
+      <c r="A45" t="str">
+        <f t="shared" si="81"/>
+        <v>Thursday</v>
+      </c>
+      <c r="B45" s="36">
+        <v>45778</v>
+      </c>
+      <c r="C45" s="37"/>
+      <c r="D45" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="38">
+        <v>1</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="38">
+        <v>6</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" s="38">
+        <v>2</v>
+      </c>
+      <c r="K45" s="38">
+        <v>2</v>
+      </c>
+      <c r="L45" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="M45" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="N45" s="39" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
       <c r="V45" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W45" s="5" t="str">
         <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="X45" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
+        <v/>
+      </c>
+      <c r="Y45" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
       <c r="AI45">
@@ -10599,29 +10792,47 @@
       </c>
     </row>
     <row r="46" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="F46" s="5"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
+      <c r="A46" t="str">
+        <f t="shared" si="81"/>
+        <v>Saturday</v>
+      </c>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
       <c r="V46" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W46" s="5" t="str">
         <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="X46" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
+        <v/>
+      </c>
+      <c r="Y46" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
       <c r="AI46">
@@ -10746,29 +10957,47 @@
       </c>
     </row>
     <row r="47" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="F47" s="5"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
+      <c r="A47" t="str">
+        <f t="shared" si="81"/>
+        <v>Saturday</v>
+      </c>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
       <c r="V47" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W47" s="5" t="str">
         <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="X47" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
+        <v/>
+      </c>
+      <c r="Y47" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
       <c r="AI47">
@@ -10893,29 +11122,47 @@
       </c>
     </row>
     <row r="48" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="F48" s="5"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
+      <c r="A48" t="str">
+        <f t="shared" si="81"/>
+        <v>Saturday</v>
+      </c>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
       <c r="V48" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W48" s="5" t="str">
         <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="X48" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
+        <v/>
+      </c>
+      <c r="Y48" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
       <c r="AI48">
@@ -11039,24 +11286,34 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="F49" s="5"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
+    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="81"/>
+        <v>Saturday</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
       <c r="V49" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11065,25 +11322,43 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
+      <c r="X49" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
+        <v/>
+      </c>
+      <c r="Y49" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
+        <v/>
+      </c>
     </row>
-    <row r="50" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="F50" s="5"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
+    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="81"/>
+        <v>Saturday</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
       <c r="V50" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11092,31 +11367,57 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
+      <c r="X50" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
+        <v/>
+      </c>
+      <c r="Y50" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
+        <v/>
+      </c>
     </row>
-    <row r="51" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="F51" s="5"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
+    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="81"/>
+        <v>Saturday</v>
+      </c>
+      <c r="B51" s="36"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
       <c r="V51" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W51" s="5" t="str">
         <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="X51" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
+        <v/>
+      </c>
+      <c r="Y51" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
       <c r="AH51" s="1"/>
@@ -11211,23 +11512,34 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
+    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="81"/>
+        <v>Saturday</v>
+      </c>
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
       <c r="V52" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11236,6 +11548,14 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
+      <c r="X52" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
+        <v/>
+      </c>
+      <c r="Y52" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
+        <v/>
+      </c>
       <c r="AI52">
         <f>COUNTIFS($L$2:$L$100, AH52, $E$2:$E$100, 1) + COUNTIFS($M$2:$M$100, AH52, $E$2:$E$100, 1)</f>
         <v>0</v>
@@ -11313,11 +11633,11 @@
         <v>0</v>
       </c>
       <c r="BB52">
-        <f t="shared" ref="BB52:BC55" si="81">AX52-AZ52</f>
+        <f t="shared" ref="BB52:BC55" si="83">AX52-AZ52</f>
         <v>0</v>
       </c>
       <c r="BC52">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="BD52">
@@ -11333,19 +11653,19 @@
         <v>0</v>
       </c>
       <c r="BG52" t="e">
-        <f t="shared" ref="BG52:BH55" si="82">AX52/AV52</f>
+        <f t="shared" ref="BG52:BH55" si="84">AX52/AV52</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BH52" t="e">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BI52" t="e">
-        <f t="shared" ref="BI52:BJ55" si="83">AZ52/AV52</f>
+        <f t="shared" ref="BI52:BJ55" si="85">AZ52/AV52</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ52" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK52" t="e">
@@ -11357,23 +11677,34 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
+    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="81"/>
+        <v>Saturday</v>
+      </c>
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
       <c r="V53" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11382,144 +11713,163 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
+      <c r="X53" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
+        <v/>
+      </c>
+      <c r="Y53" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
+        <v/>
+      </c>
       <c r="AI53">
-        <f t="shared" ref="AI53:AI55" si="84">COUNTIFS($L$2:$L$100, AH53, $E$2:$E$100, 1) + COUNTIFS($M$2:$M$100, AH53, $E$2:$E$100, 1)</f>
+        <f t="shared" ref="AI53:AI55" si="86">COUNTIFS($L$2:$L$100, AH53, $E$2:$E$100, 1) + COUNTIFS($M$2:$M$100, AH53, $E$2:$E$100, 1)</f>
         <v>0</v>
       </c>
       <c r="AJ53">
-        <f t="shared" ref="AJ53:AJ55" si="85">COUNTIFS($L$2:$L$100, AH53, $E$2:$E$100, 2) + COUNTIFS($M$2:$M$100, AH53, $E$2:$E$100, 2)</f>
+        <f t="shared" ref="AJ53:AJ55" si="87">COUNTIFS($L$2:$L$100, AH53, $E$2:$E$100, 2) + COUNTIFS($M$2:$M$100, AH53, $E$2:$E$100, 2)</f>
         <v>0</v>
       </c>
       <c r="AK53">
-        <f t="shared" ref="AK53:AK55" si="86">COUNTIFS($L$2:$L$100, AH53, $E$2:$E$100, 3) + COUNTIFS($M$2:$M$100, AH53, $E$2:$E$100, 3)</f>
+        <f t="shared" ref="AK53:AK55" si="88">COUNTIFS($L$2:$L$100, AH53, $E$2:$E$100, 3) + COUNTIFS($M$2:$M$100, AH53, $E$2:$E$100, 3)</f>
         <v>0</v>
       </c>
       <c r="AL53">
-        <f t="shared" ref="AL53:AL55" si="87">COUNTIFS($L$2:$L$100, AH53, $E$2:$E$100, 4) + COUNTIFS($M$2:$M$100, AH53, $E$2:$E$100, 4)</f>
+        <f t="shared" ref="AL53:AL55" si="89">COUNTIFS($L$2:$L$100, AH53, $E$2:$E$100, 4) + COUNTIFS($M$2:$M$100, AH53, $E$2:$E$100, 4)</f>
         <v>0</v>
       </c>
       <c r="AM53">
-        <f t="shared" ref="AM53:AM55" si="88">AI53+AJ53+AK53+AL53</f>
+        <f t="shared" ref="AM53:AM55" si="90">AI53+AJ53+AK53+AL53</f>
         <v>0</v>
       </c>
       <c r="AN53">
-        <f t="shared" ref="AN53:AN55" si="89">COUNTIF($M$2:$M$100, AH53)</f>
+        <f t="shared" ref="AN53:AN55" si="91">COUNTIF($M$2:$M$100, AH53)</f>
         <v>0</v>
       </c>
       <c r="AO53">
-        <f t="shared" ref="AO53:AO55" si="90">COUNTIF($L$2:$L$100, AH53)</f>
+        <f t="shared" ref="AO53:AO55" si="92">COUNTIF($L$2:$L$100, AH53)</f>
         <v>0</v>
       </c>
       <c r="AP53">
-        <f t="shared" ref="AP53:AP55" si="91">AR53+AT53</f>
+        <f t="shared" ref="AP53:AP55" si="93">AR53+AT53</f>
         <v>0</v>
       </c>
       <c r="AQ53">
-        <f t="shared" ref="AQ53:AQ55" si="92">AM53-AP53</f>
+        <f t="shared" ref="AQ53:AQ55" si="94">AM53-AP53</f>
         <v>0</v>
       </c>
       <c r="AR53">
-        <f t="shared" ref="AR53:AR55" si="93">SUMPRODUCT(($M$2:$M$100=AH53)*($T$2:$T$100&gt;$S$2:$S$100))</f>
+        <f t="shared" ref="AR53:AR55" si="95">SUMPRODUCT(($M$2:$M$100=AH53)*($T$2:$T$100&gt;$S$2:$S$100))</f>
         <v>0</v>
       </c>
       <c r="AS53">
-        <f t="shared" ref="AS53:AS55" si="94">SUMPRODUCT(($M$2:$M$100=AH53)*($T$2:$T$100&lt;$S$2:$S$100))</f>
+        <f t="shared" ref="AS53:AS55" si="96">SUMPRODUCT(($M$2:$M$100=AH53)*($T$2:$T$100&lt;$S$2:$S$100))</f>
         <v>0</v>
       </c>
       <c r="AT53">
-        <f t="shared" ref="AT53:AT55" si="95">SUMPRODUCT(($L$2:$L$100=AH53)*($T$2:$T$100&lt;$S$2:$S$100))</f>
+        <f t="shared" ref="AT53:AT55" si="97">SUMPRODUCT(($L$2:$L$100=AH53)*($T$2:$T$100&lt;$S$2:$S$100))</f>
         <v>0</v>
       </c>
       <c r="AU53">
-        <f t="shared" ref="AU53:AU55" si="96">SUMPRODUCT(($L$2:$L$100=AH53)*($T$2:$T$100&gt;$S$2:$S$100))</f>
+        <f t="shared" ref="AU53:AU55" si="98">SUMPRODUCT(($L$2:$L$100=AH53)*($T$2:$T$100&gt;$S$2:$S$100))</f>
         <v>0</v>
       </c>
       <c r="AV53">
-        <f t="shared" ref="AV53:AV55" si="97">COUNTIFS($M$2:$M$100,AH53,$E$2:$E$100,3)</f>
+        <f t="shared" ref="AV53:AV55" si="99">COUNTIFS($M$2:$M$100,AH53,$E$2:$E$100,3)</f>
         <v>0</v>
       </c>
       <c r="AW53">
-        <f t="shared" ref="AW53:AW55" si="98">COUNTIFS($L$2:$L$100,AH53,$E$2:$E$100,3)</f>
+        <f t="shared" ref="AW53:AW55" si="100">COUNTIFS($L$2:$L$100,AH53,$E$2:$E$100,3)</f>
         <v>0</v>
       </c>
       <c r="AX53">
-        <f t="shared" ref="AX53:AX55" si="99">SUMIFS($T$2:$T$100, $M$2:$M$100, AH53,$E$2:$E$100, 3)</f>
+        <f t="shared" ref="AX53:AX55" si="101">SUMIFS($T$2:$T$100, $M$2:$M$100, AH53,$E$2:$E$100, 3)</f>
         <v>0</v>
       </c>
       <c r="AY53">
-        <f t="shared" ref="AY53:AY55" si="100">SUMIFS($S$2:$S$100, $L$2:$L$100, AH53,$E$2:$E$100, 3)</f>
+        <f t="shared" ref="AY53:AY55" si="102">SUMIFS($S$2:$S$100, $L$2:$L$100, AH53,$E$2:$E$100, 3)</f>
         <v>0</v>
       </c>
       <c r="AZ53">
-        <f t="shared" ref="AZ53:AZ55" si="101">SUMIFS($S$2:$S$100, $M$2:$M$100, AH53,$E$2:$E$100, 3)</f>
+        <f t="shared" ref="AZ53:AZ55" si="103">SUMIFS($S$2:$S$100, $M$2:$M$100, AH53,$E$2:$E$100, 3)</f>
         <v>0</v>
       </c>
       <c r="BA53">
-        <f t="shared" ref="BA53:BA55" si="102">SUMIFS($T$2:$T$100, $L$2:$L$100, AH53,$E$2:$E$100, 3)</f>
+        <f t="shared" ref="BA53:BA55" si="104">SUMIFS($T$2:$T$100, $L$2:$L$100, AH53,$E$2:$E$100, 3)</f>
         <v>0</v>
       </c>
       <c r="BB53">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BD53">
+        <f t="shared" ref="BD53:BD55" si="105">AX53+AY53</f>
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <f t="shared" ref="BE53:BE55" si="106">AZ53+BA53</f>
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <f t="shared" ref="BF53:BF55" si="107">(AX53+AY53)-(AZ53+BA53)</f>
+        <v>0</v>
+      </c>
+      <c r="BG53" t="e">
+        <f t="shared" si="84"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH53" t="e">
+        <f t="shared" si="84"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI53" t="e">
+        <f t="shared" si="85"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ53" t="e">
+        <f t="shared" si="85"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK53" t="e">
+        <f t="shared" ref="BK53:BK55" si="108">BD53/AI53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL53" t="e">
+        <f t="shared" ref="BL53:BL55" si="109">BE53/AI53</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
         <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="BC53">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="BD53">
-        <f t="shared" ref="BD53:BD55" si="103">AX53+AY53</f>
-        <v>0</v>
-      </c>
-      <c r="BE53">
-        <f t="shared" ref="BE53:BE55" si="104">AZ53+BA53</f>
-        <v>0</v>
-      </c>
-      <c r="BF53">
-        <f t="shared" ref="BF53:BF55" si="105">(AX53+AY53)-(AZ53+BA53)</f>
-        <v>0</v>
-      </c>
-      <c r="BG53" t="e">
+        <v>Saturday</v>
+      </c>
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39" t="str">
         <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH53" t="e">
-        <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI53" t="e">
-        <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ53" t="e">
-        <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BK53" t="e">
-        <f t="shared" ref="BK53:BK55" si="106">BD53/AI53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL53" t="e">
-        <f t="shared" ref="BL53:BL55" si="107">BE53/AI53</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
+        <v/>
+      </c>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
       <c r="V54" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11528,274 +11878,302 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
+      <c r="X54" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
+        <v/>
+      </c>
+      <c r="Y54" s="41" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
+        <v/>
+      </c>
       <c r="AI54">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="AV54">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="AW54">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="AX54">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="AY54">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="AZ54">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BA54">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BB54">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BD54">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="BE54">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="BG54" t="e">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="AJ54">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH54" t="e">
+        <f t="shared" si="84"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI54" t="e">
         <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="AK54">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ54" t="e">
+        <f t="shared" si="85"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK54" t="e">
+        <f t="shared" si="108"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL54" t="e">
+        <f t="shared" si="109"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A55" s="42" t="str">
+        <f t="shared" si="81"/>
+        <v>Saturday</v>
+      </c>
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W55" s="39" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="X55" s="43" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
+        <v/>
+      </c>
+      <c r="Y55" s="43" t="str">
+        <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
+        <v/>
+      </c>
+      <c r="Z55" s="42"/>
+      <c r="AI55">
         <f t="shared" si="86"/>
         <v>0</v>
       </c>
-      <c r="AL54">
+      <c r="AJ55">
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="AM54">
+      <c r="AK55">
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
-      <c r="AN54">
+      <c r="AL55">
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
-      <c r="AO54">
+      <c r="AM55">
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="AP54">
+      <c r="AN55">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="AQ54">
+      <c r="AO55">
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
-      <c r="AR54">
+      <c r="AP55">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="AS54">
+      <c r="AQ55">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="AT54">
+      <c r="AR55">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AU54">
+      <c r="AS55">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="AV54">
+      <c r="AT55">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="AW54">
+      <c r="AU55">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="AX54">
+      <c r="AV55">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="AY54">
+      <c r="AW55">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="AZ54">
+      <c r="AX55">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="BA54">
+      <c r="AY55">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="BB54">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="BC54">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="BD54">
+      <c r="AZ55">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="BE54">
+      <c r="BA55">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="BF54">
+      <c r="BB55">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="BD55">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="BG54" t="e">
-        <f t="shared" si="82"/>
+      <c r="BE55">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="BG55" t="e">
+        <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BH54" t="e">
-        <f t="shared" si="82"/>
+      <c r="BH55" t="e">
+        <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BI54" t="e">
-        <f t="shared" si="83"/>
+      <c r="BI55" t="e">
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ54" t="e">
-        <f t="shared" si="83"/>
+      <c r="BJ55" t="e">
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK54" t="e">
-        <f t="shared" si="106"/>
+      <c r="BK55" t="e">
+        <f t="shared" si="108"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BL54" t="e">
-        <f t="shared" si="107"/>
+      <c r="BL55" t="e">
+        <f t="shared" si="109"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="W55" s="5" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="AI55">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="AJ55">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="AK55">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="AM55">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="AN55">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="AO55">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="AP55">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="AQ55">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AR55">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="AS55">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="AT55">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="AU55">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="AV55">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="AW55">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="AX55">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="AY55">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="AZ55">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="BA55">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="BB55">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="BC55">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="BD55">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="BE55">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="BF55">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="BG55" t="e">
-        <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH55" t="e">
-        <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI55" t="e">
-        <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ55" t="e">
-        <f t="shared" si="83"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BK55" t="e">
-        <f t="shared" si="106"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL55" t="e">
-        <f t="shared" si="107"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="56" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="H56" s="8"/>
@@ -11821,7 +12199,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="H57" s="8"/>
@@ -11847,7 +12225,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="H58" s="8"/>
@@ -11964,7 +12342,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="H59" s="8"/>
@@ -12066,11 +12444,11 @@
         <v>0</v>
       </c>
       <c r="BB59">
-        <f t="shared" ref="BB59:BC60" si="108">AX59-AZ59</f>
+        <f t="shared" ref="BB59:BC60" si="110">AX59-AZ59</f>
         <v>0</v>
       </c>
       <c r="BC59">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="BD59">
@@ -12086,19 +12464,19 @@
         <v>0</v>
       </c>
       <c r="BG59" t="e">
-        <f t="shared" ref="BG59:BH60" si="109">AX59/AV59</f>
+        <f t="shared" ref="BG59:BH60" si="111">AX59/AV59</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BH59" t="e">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BI59" t="e">
-        <f t="shared" ref="BI59:BJ60" si="110">AZ59/AV59</f>
+        <f t="shared" ref="BI59:BJ60" si="112">AZ59/AV59</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ59" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK59" t="e">
@@ -12110,7 +12488,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="H60" s="8"/>
@@ -12136,23 +12514,23 @@
         <v/>
       </c>
       <c r="AI60">
-        <f t="shared" ref="AI60" si="111">COUNTIFS($L$2:$L$100, AH60, $E$2:$E$100, 1) + COUNTIFS($M$2:$M$100, AH60, $E$2:$E$100, 1)</f>
+        <f t="shared" ref="AI60" si="113">COUNTIFS($L$2:$L$100, AH60, $E$2:$E$100, 1) + COUNTIFS($M$2:$M$100, AH60, $E$2:$E$100, 1)</f>
         <v>0</v>
       </c>
       <c r="AJ60">
-        <f t="shared" ref="AJ60" si="112">COUNTIFS($L$2:$L$100, AH60, $E$2:$E$100, 2) + COUNTIFS($M$2:$M$100, AH60, $E$2:$E$100, 2)</f>
+        <f t="shared" ref="AJ60" si="114">COUNTIFS($L$2:$L$100, AH60, $E$2:$E$100, 2) + COUNTIFS($M$2:$M$100, AH60, $E$2:$E$100, 2)</f>
         <v>0</v>
       </c>
       <c r="AK60">
-        <f t="shared" ref="AK60" si="113">COUNTIFS($L$2:$L$100, AH60, $E$2:$E$100, 3) + COUNTIFS($M$2:$M$100, AH60, $E$2:$E$100, 3)</f>
+        <f t="shared" ref="AK60" si="115">COUNTIFS($L$2:$L$100, AH60, $E$2:$E$100, 3) + COUNTIFS($M$2:$M$100, AH60, $E$2:$E$100, 3)</f>
         <v>0</v>
       </c>
       <c r="AL60">
-        <f t="shared" ref="AL60" si="114">COUNTIFS($L$2:$L$100, AH60, $E$2:$E$100, 4) + COUNTIFS($M$2:$M$100, AH60, $E$2:$E$100, 4)</f>
+        <f t="shared" ref="AL60" si="116">COUNTIFS($L$2:$L$100, AH60, $E$2:$E$100, 4) + COUNTIFS($M$2:$M$100, AH60, $E$2:$E$100, 4)</f>
         <v>0</v>
       </c>
       <c r="AM60">
-        <f t="shared" ref="AM60" si="115">AI60+AJ60+AK60+AL60</f>
+        <f t="shared" ref="AM60" si="117">AI60+AJ60+AK60+AL60</f>
         <v>0</v>
       </c>
       <c r="AN60">
@@ -12212,51 +12590,51 @@
         <v>0</v>
       </c>
       <c r="BB60">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="BC60">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="BD60">
-        <f t="shared" ref="BD60" si="116">AX60+AY60</f>
+        <f t="shared" ref="BD60" si="118">AX60+AY60</f>
         <v>0</v>
       </c>
       <c r="BE60">
-        <f t="shared" ref="BE60" si="117">AZ60+BA60</f>
+        <f t="shared" ref="BE60" si="119">AZ60+BA60</f>
         <v>0</v>
       </c>
       <c r="BF60">
-        <f t="shared" ref="BF60" si="118">(AX60+AY60)-(AZ60+BA60)</f>
+        <f t="shared" ref="BF60" si="120">(AX60+AY60)-(AZ60+BA60)</f>
         <v>0</v>
       </c>
       <c r="BG60" t="e">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BH60" t="e">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BI60" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ60" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK60" t="e">
-        <f t="shared" ref="BK60" si="119">BD60/AI60</f>
+        <f t="shared" ref="BK60" si="121">BD60/AI60</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BL60" t="e">
-        <f t="shared" ref="BL60" si="120">BE60/AI60</f>
+        <f t="shared" ref="BL60" si="122">BE60/AI60</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="H61" s="8"/>
@@ -12282,7 +12660,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="H62" s="8"/>
@@ -12308,7 +12686,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="H63" s="8"/>
@@ -12334,7 +12712,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="H64" s="8"/>
@@ -12404,7 +12782,7 @@
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5" t="str">
-        <f t="shared" ref="V66:V89" si="121">IF(ISBLANK($U66),"",IF($S66=$T66,0,IF($L66=$N66,IF($S66&gt;$T66,1,0),IF($T66&gt;$S66,1,0))))</f>
+        <f t="shared" ref="V66:V89" si="123">IF(ISBLANK($U66),"",IF($S66=$T66,0,IF($L66=$N66,IF($S66&gt;$T66,1,0),IF($T66&gt;$S66,1,0))))</f>
         <v/>
       </c>
       <c r="W66" s="5" t="str">
@@ -12430,7 +12808,7 @@
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
       <c r="V67" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W67" s="5" t="str">
@@ -12456,7 +12834,7 @@
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
       <c r="V68" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W68" s="5" t="str">
@@ -12482,7 +12860,7 @@
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
       <c r="V69" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W69" s="5" t="str">
@@ -12508,7 +12886,7 @@
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
       <c r="V70" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W70" s="5" t="str">
@@ -12534,7 +12912,7 @@
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
       <c r="V71" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W71" s="5" t="str">
@@ -12560,7 +12938,7 @@
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
       <c r="V72" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W72" s="5" t="str">
@@ -12586,7 +12964,7 @@
       <c r="T73" s="5"/>
       <c r="U73" s="5"/>
       <c r="V73" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W73" s="5" t="str">
@@ -12612,7 +12990,7 @@
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
       <c r="V74" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W74" s="5" t="str">
@@ -12642,7 +13020,7 @@
       <c r="T75" s="5"/>
       <c r="U75" s="5"/>
       <c r="V75" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W75" s="5" t="str">
@@ -12668,7 +13046,7 @@
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
       <c r="V76" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W76" s="5" t="str">
@@ -12694,7 +13072,7 @@
       <c r="T77" s="5"/>
       <c r="U77" s="5"/>
       <c r="V77" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W77" s="5" t="str">
@@ -12720,7 +13098,7 @@
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
       <c r="V78" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W78" s="5" t="str">
@@ -12746,7 +13124,7 @@
       <c r="T79" s="5"/>
       <c r="U79" s="5"/>
       <c r="V79" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W79" s="5" t="str">
@@ -12772,7 +13150,7 @@
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
       <c r="V80" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W80" s="5" t="str">
@@ -12798,7 +13176,7 @@
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
       <c r="V81" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W81" s="5" t="str">
@@ -12824,7 +13202,7 @@
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
       <c r="V82" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W82" s="5" t="str">
@@ -12850,7 +13228,7 @@
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
       <c r="V83" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W83" s="5" t="str">
@@ -12876,7 +13254,7 @@
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W84" s="5" t="str">
@@ -12902,7 +13280,7 @@
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
       <c r="V85" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W85" s="5" t="str">
@@ -12928,7 +13306,7 @@
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W86" s="5" t="str">
@@ -12954,7 +13332,7 @@
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W87" s="5" t="str">
@@ -12980,7 +13358,7 @@
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W88" s="5" t="str">
@@ -13006,7 +13384,7 @@
       <c r="T89" s="5"/>
       <c r="U89" s="5"/>
       <c r="V89" s="5" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="W89" s="5" t="str">

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E443BBE-F845-4B60-94C3-86C85F92B2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BE5E71-160D-47D9-93AA-F58EADB6D652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7680" windowWidth="16440" windowHeight="28440" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="180">
   <si>
     <t>DATE</t>
   </si>
@@ -656,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -746,28 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1778,9 +1745,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1818,7 +1785,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1924,7 +1891,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2066,7 +2033,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2076,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819ACA58-DCD7-4A09-9052-0851D3ECB0FF}">
   <dimension ref="A1:CL89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="V39" sqref="V39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,7 +2408,7 @@
       </c>
       <c r="AJ3">
         <f t="array" ref="AJ3">INDEX(G:G, MATCH(2, 1/(F:F=AG3)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK3">
         <f>SUMIFS($V$2:$V$100,$F$2:$F$100,AG3)</f>
@@ -2449,7 +2416,7 @@
       </c>
       <c r="AL3">
         <f t="shared" ref="AL3:AL17" si="4">AK3/AJ3</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AM3">
         <f>SUMIFS($T$2:$T$100,$M$2:$M$100,AH3,$E$2:$E$100,1) + SUMIFS($S$2:$S$100,$L$2:$L$100,AH3,$E$2:$E$100,1)</f>
@@ -2457,7 +2424,7 @@
       </c>
       <c r="AN3">
         <f t="shared" ref="AN3" si="5">SUMIFS($T$2:$T$99,$M$2:$M$99,AI3,$E$2:$E$99,1) + SUMIFS($S$2:$S$99,$L$2:$L$99,AI3,$E$2:$E$99,1)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO3">
         <f>SUMIFS(T2:T79,F2:F79,AG3)</f>
@@ -2553,7 +2520,7 @@
       <c r="AD4" s="8"/>
       <c r="AE4" s="13">
         <f>MAX(SUM(AJ3:AJ10), 32)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF4" s="8"/>
       <c r="AG4" s="14" t="s">
@@ -2677,7 +2644,7 @@
       <c r="AD5" s="8"/>
       <c r="AE5" s="13">
         <f>COUNTA(J2:J99)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF5" s="8"/>
       <c r="AG5" s="14" t="s">
@@ -2705,11 +2672,11 @@
       </c>
       <c r="AM5">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AN5">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
@@ -2925,7 +2892,7 @@
       <c r="AD7" s="8"/>
       <c r="AE7" s="13">
         <f>AE6/AE5</f>
-        <v>0.40909090909090912</v>
+        <v>0.4</v>
       </c>
       <c r="AF7" s="8"/>
       <c r="AG7" s="14" t="s">
@@ -5392,7 +5359,7 @@
       </c>
       <c r="AS24">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24">
         <f t="shared" si="20"/>
@@ -5412,7 +5379,7 @@
       </c>
       <c r="AX24">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AY24">
         <f t="shared" si="25"/>
@@ -5420,7 +5387,7 @@
       </c>
       <c r="AZ24">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BA24">
         <f t="shared" si="27"/>
@@ -5428,7 +5395,7 @@
       </c>
       <c r="BB24">
         <f t="shared" si="45"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC24">
         <f t="shared" si="45"/>
@@ -5436,19 +5403,19 @@
       </c>
       <c r="BD24">
         <f t="shared" si="46"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BE24">
         <f t="shared" si="47"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BF24">
         <f t="shared" si="48"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG24">
         <f t="shared" si="49"/>
-        <v>2.3333333333333335</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="BH24">
         <f t="shared" si="49"/>
@@ -5456,7 +5423,7 @@
       </c>
       <c r="BI24">
         <f t="shared" si="50"/>
-        <v>0.66666666666666663</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BJ24">
         <f t="shared" si="50"/>
@@ -5464,11 +5431,11 @@
       </c>
       <c r="BK24">
         <f t="shared" si="28"/>
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="BL24">
         <f t="shared" si="29"/>
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="BN24" t="str">
         <f t="shared" si="30"/>
@@ -5500,7 +5467,7 @@
       </c>
       <c r="BU24" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV24" s="15">
         <f t="shared" si="31"/>
@@ -5512,7 +5479,7 @@
       </c>
       <c r="BX24" s="15">
         <f t="shared" si="32"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BY24" s="15">
         <f t="shared" si="33"/>
@@ -5520,7 +5487,7 @@
       </c>
       <c r="BZ24" s="15">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CA24" s="15">
         <f t="shared" si="35"/>
@@ -5528,7 +5495,7 @@
       </c>
       <c r="CB24" s="15">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC24" s="15">
         <f t="shared" si="36"/>
@@ -5536,19 +5503,19 @@
       </c>
       <c r="CD24" s="15">
         <f t="shared" si="37"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="CE24" s="15">
         <f t="shared" si="38"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="CF24" s="15">
         <f t="shared" si="39"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CG24" s="20">
         <f t="shared" si="40"/>
-        <v>2.3333333333333335</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="CH24" s="20">
         <f t="shared" si="40"/>
@@ -5556,7 +5523,7 @@
       </c>
       <c r="CI24" s="20">
         <f t="shared" si="41"/>
-        <v>0.66666666666666663</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="CJ24" s="20">
         <f t="shared" si="41"/>
@@ -5564,11 +5531,11 @@
       </c>
       <c r="CK24" s="20">
         <f t="shared" si="42"/>
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="CL24" s="20">
         <f t="shared" si="43"/>
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="25" spans="1:90" x14ac:dyDescent="0.25">
@@ -5687,11 +5654,11 @@
       </c>
       <c r="AP25">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR25">
         <f t="shared" si="18"/>
@@ -5703,7 +5670,7 @@
       </c>
       <c r="AT25">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <f t="shared" si="21"/>
@@ -5723,7 +5690,7 @@
       </c>
       <c r="AY25">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AZ25">
         <f t="shared" si="26"/>
@@ -5731,7 +5698,7 @@
       </c>
       <c r="BA25">
         <f t="shared" si="27"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BB25">
         <f t="shared" si="45"/>
@@ -5739,19 +5706,19 @@
       </c>
       <c r="BC25">
         <f t="shared" si="45"/>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="BD25">
         <f t="shared" si="46"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BE25">
         <f t="shared" si="47"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BF25">
         <f t="shared" si="48"/>
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="BG25">
         <f t="shared" si="49"/>
@@ -5759,7 +5726,7 @@
       </c>
       <c r="BH25">
         <f t="shared" si="49"/>
-        <v>0.66666666666666663</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BI25">
         <f t="shared" si="50"/>
@@ -5767,15 +5734,15 @@
       </c>
       <c r="BJ25">
         <f t="shared" si="50"/>
-        <v>2.3333333333333335</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="BK25">
         <f t="shared" si="28"/>
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="BL25">
         <f t="shared" si="29"/>
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="BN25" t="str">
         <f t="shared" si="30"/>
@@ -5795,11 +5762,11 @@
       </c>
       <c r="BR25" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS25" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BT25" s="15">
         <f t="shared" si="31"/>
@@ -5811,7 +5778,7 @@
       </c>
       <c r="BV25" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW25" s="15">
         <f t="shared" si="31"/>
@@ -5823,7 +5790,7 @@
       </c>
       <c r="BY25" s="15">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BZ25" s="15">
         <f t="shared" si="34"/>
@@ -5831,7 +5798,7 @@
       </c>
       <c r="CA25" s="15">
         <f t="shared" si="35"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="CB25" s="15">
         <f t="shared" si="36"/>
@@ -5839,19 +5806,19 @@
       </c>
       <c r="CC25" s="15">
         <f t="shared" si="36"/>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="CD25" s="15">
         <f t="shared" si="37"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="CE25" s="15">
         <f t="shared" si="38"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="CF25" s="15">
         <f t="shared" si="39"/>
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="CG25" s="20">
         <f t="shared" si="40"/>
@@ -5859,7 +5826,7 @@
       </c>
       <c r="CH25" s="20">
         <f t="shared" si="40"/>
-        <v>0.66666666666666663</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="CI25" s="20">
         <f t="shared" si="41"/>
@@ -5867,15 +5834,15 @@
       </c>
       <c r="CJ25" s="20">
         <f t="shared" si="41"/>
-        <v>2.3333333333333335</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="CK25" s="20">
         <f t="shared" si="42"/>
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="CL25" s="20">
         <f t="shared" si="43"/>
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="26" spans="1:90" x14ac:dyDescent="0.25">
@@ -5966,7 +5933,7 @@
       </c>
       <c r="AI26">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ26">
         <f t="shared" si="11"/>
@@ -5982,11 +5949,11 @@
       </c>
       <c r="AM26">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN26">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO26">
         <f t="shared" si="15"/>
@@ -5998,7 +5965,7 @@
       </c>
       <c r="AQ26">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR26">
         <f t="shared" si="18"/>
@@ -6006,7 +5973,7 @@
       </c>
       <c r="AS26">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT26">
         <f t="shared" si="20"/>
@@ -6018,7 +5985,7 @@
       </c>
       <c r="AV26">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW26">
         <f t="shared" si="23"/>
@@ -6034,7 +6001,7 @@
       </c>
       <c r="AZ26">
         <f t="shared" si="26"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA26">
         <f t="shared" si="27"/>
@@ -6042,7 +6009,7 @@
       </c>
       <c r="BB26">
         <f t="shared" si="45"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC26">
         <f t="shared" si="45"/>
@@ -6054,15 +6021,15 @@
       </c>
       <c r="BE26">
         <f t="shared" si="47"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BF26">
         <f t="shared" si="48"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BG26">
         <f t="shared" si="49"/>
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="BH26">
         <f t="shared" si="49"/>
@@ -6070,7 +6037,7 @@
       </c>
       <c r="BI26">
         <f t="shared" si="50"/>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="BJ26">
         <f t="shared" si="50"/>
@@ -6078,11 +6045,11 @@
       </c>
       <c r="BK26">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BL26">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BN26" t="str">
         <f t="shared" si="30"/>
@@ -6090,11 +6057,11 @@
       </c>
       <c r="BO26" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP26" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BQ26" s="15">
         <f t="shared" si="31"/>
@@ -6106,7 +6073,7 @@
       </c>
       <c r="BS26" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT26" s="15">
         <f t="shared" si="31"/>
@@ -6114,7 +6081,7 @@
       </c>
       <c r="BU26" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV26" s="15">
         <f t="shared" si="31"/>
@@ -6134,7 +6101,7 @@
       </c>
       <c r="BZ26" s="15">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="CA26" s="15">
         <f t="shared" si="35"/>
@@ -6142,7 +6109,7 @@
       </c>
       <c r="CB26" s="15">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CC26" s="15">
         <f t="shared" si="36"/>
@@ -6154,15 +6121,15 @@
       </c>
       <c r="CE26" s="15">
         <f t="shared" si="38"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="CF26" s="15">
         <f t="shared" si="39"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CG26" s="20">
         <f t="shared" si="40"/>
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="CH26" s="20">
         <f t="shared" si="40"/>
@@ -6170,7 +6137,7 @@
       </c>
       <c r="CI26" s="20">
         <f t="shared" si="41"/>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="CJ26" s="20">
         <f t="shared" si="41"/>
@@ -6178,11 +6145,11 @@
       </c>
       <c r="CK26" s="20">
         <f t="shared" si="42"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="CL26" s="20">
         <f t="shared" si="43"/>
-        <v>2</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="27" spans="1:90" x14ac:dyDescent="0.25">
@@ -6273,7 +6240,7 @@
       </c>
       <c r="AI27">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ27">
         <f t="shared" si="11"/>
@@ -6289,7 +6256,7 @@
       </c>
       <c r="AM27">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN27">
         <f t="shared" si="14"/>
@@ -6297,11 +6264,11 @@
       </c>
       <c r="AO27">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP27">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <f t="shared" si="17"/>
@@ -6317,7 +6284,7 @@
       </c>
       <c r="AT27">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <f t="shared" si="21"/>
@@ -6329,7 +6296,7 @@
       </c>
       <c r="AW27">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX27">
         <f t="shared" si="24"/>
@@ -6337,7 +6304,7 @@
       </c>
       <c r="AY27">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ27">
         <f t="shared" si="26"/>
@@ -6353,11 +6320,11 @@
       </c>
       <c r="BC27">
         <f t="shared" si="45"/>
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="BD27">
         <f t="shared" si="46"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BE27">
         <f t="shared" si="47"/>
@@ -6365,7 +6332,7 @@
       </c>
       <c r="BF27">
         <f t="shared" si="48"/>
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="BG27">
         <f t="shared" si="49"/>
@@ -6373,7 +6340,7 @@
       </c>
       <c r="BH27">
         <f t="shared" si="49"/>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="BI27">
         <f t="shared" si="50"/>
@@ -6381,15 +6348,15 @@
       </c>
       <c r="BJ27">
         <f t="shared" si="50"/>
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="BK27">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BL27">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BN27" t="str">
         <f t="shared" si="30"/>
@@ -6397,7 +6364,7 @@
       </c>
       <c r="BO27" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP27" s="15">
         <f t="shared" si="31"/>
@@ -6405,11 +6372,11 @@
       </c>
       <c r="BQ27" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BR27" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS27" s="15">
         <f t="shared" si="31"/>
@@ -6425,7 +6392,7 @@
       </c>
       <c r="BV27" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW27" s="15">
         <f t="shared" si="31"/>
@@ -6437,7 +6404,7 @@
       </c>
       <c r="BY27" s="15">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BZ27" s="15">
         <f t="shared" si="34"/>
@@ -6453,11 +6420,11 @@
       </c>
       <c r="CC27" s="15">
         <f t="shared" si="36"/>
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="CD27" s="15">
         <f t="shared" si="37"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="CE27" s="15">
         <f t="shared" si="38"/>
@@ -6465,7 +6432,7 @@
       </c>
       <c r="CF27" s="15">
         <f t="shared" si="39"/>
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="CG27" s="20">
         <f t="shared" si="40"/>
@@ -6473,7 +6440,7 @@
       </c>
       <c r="CH27" s="20">
         <f t="shared" si="40"/>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="CI27" s="20">
         <f t="shared" si="41"/>
@@ -6481,15 +6448,15 @@
       </c>
       <c r="CJ27" s="20">
         <f t="shared" si="41"/>
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="CK27" s="20">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="CL27" s="20">
         <f t="shared" si="43"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="28" spans="1:90" x14ac:dyDescent="0.25">
@@ -8674,7 +8641,7 @@
         <v>3</v>
       </c>
       <c r="K35" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>162</v>
@@ -8698,24 +8665,30 @@
       <c r="R35" s="7">
         <v>45776</v>
       </c>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5" t="str">
+      <c r="S35" s="5">
+        <v>4</v>
+      </c>
+      <c r="T35" s="5">
+        <v>0</v>
+      </c>
+      <c r="U35" s="5">
+        <v>0</v>
+      </c>
+      <c r="V35" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W35" s="5" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="X35" s="5" t="str">
+        <v>OTT</v>
+      </c>
+      <c r="X35" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y35" s="5" t="str">
+        <v>-2</v>
+      </c>
+      <c r="Y35" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="AD35" s="8"/>
       <c r="AH35" t="s">
@@ -8972,7 +8945,7 @@
         <v>161</v>
       </c>
       <c r="J36" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K36" s="8">
         <v>1</v>
@@ -8999,24 +8972,30 @@
       <c r="R36" s="7">
         <v>45776</v>
       </c>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5" t="str">
+      <c r="S36" s="5">
+        <v>5</v>
+      </c>
+      <c r="T36" s="5">
+        <v>4</v>
+      </c>
+      <c r="U36" s="5">
+        <v>2</v>
+      </c>
+      <c r="V36" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W36" s="5" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="X36" s="5" t="str">
+        <v>NJD</v>
+      </c>
+      <c r="X36" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y36" s="5" t="str">
+        <v>-3</v>
+      </c>
+      <c r="Y36" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AD36" s="8"/>
       <c r="AH36" t="s">
@@ -10338,7 +10317,7 @@
       </c>
       <c r="AS43">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT43">
         <f t="shared" si="65"/>
@@ -10422,51 +10401,51 @@
         <f t="shared" ref="A44:A55" si="81">TEXT($B44,"dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B44" s="7">
         <v>45778</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="36" t="s">
+      <c r="C44" s="23"/>
+      <c r="D44" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="38">
-        <v>1</v>
-      </c>
-      <c r="F44" s="39" t="s">
+      <c r="E44" s="8">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="38">
+      <c r="G44" s="8">
         <v>6</v>
       </c>
-      <c r="H44" s="38" t="s">
+      <c r="H44" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I44" s="38" t="s">
+      <c r="I44" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J44" s="38">
-        <v>3</v>
-      </c>
-      <c r="K44" s="38">
-        <v>2</v>
-      </c>
-      <c r="L44" s="39" t="s">
+      <c r="J44" s="8">
+        <v>3</v>
+      </c>
+      <c r="K44" s="8">
+        <v>2</v>
+      </c>
+      <c r="L44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M44" s="39" t="s">
+      <c r="M44" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N44" s="39" t="str">
+      <c r="N44" s="5" t="str">
         <f t="shared" ref="N44:N55" si="82">IF(OR(ISBLANK(O44), ISBLANK($P44)), "", IF($O44&gt;$P44, $L44,$M44))</f>
         <v/>
       </c>
-      <c r="O44" s="39"/>
-      <c r="P44" s="39"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="12"/>
       <c r="S44" s="2"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="39"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
       <c r="V44" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10475,11 +10454,11 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="X44" s="41" t="str">
+      <c r="X44" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y44" s="41" t="str">
+      <c r="Y44" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
@@ -10609,51 +10588,51 @@
         <f t="shared" si="81"/>
         <v>Thursday</v>
       </c>
-      <c r="B45" s="36">
+      <c r="B45" s="7">
         <v>45778</v>
       </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="36" t="s">
+      <c r="C45" s="23"/>
+      <c r="D45" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="38">
-        <v>1</v>
-      </c>
-      <c r="F45" s="39" t="s">
+      <c r="E45" s="8">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="38">
+      <c r="G45" s="8">
         <v>6</v>
       </c>
-      <c r="H45" s="38" t="s">
+      <c r="H45" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I45" s="38" t="s">
+      <c r="I45" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J45" s="38">
-        <v>2</v>
-      </c>
-      <c r="K45" s="38">
-        <v>2</v>
-      </c>
-      <c r="L45" s="39" t="s">
+      <c r="J45" s="8">
+        <v>2</v>
+      </c>
+      <c r="K45" s="8">
+        <v>2</v>
+      </c>
+      <c r="L45" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M45" s="39" t="s">
+      <c r="M45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N45" s="39" t="str">
+      <c r="N45" s="5" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="12"/>
       <c r="S45" s="2"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
       <c r="V45" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10662,11 +10641,11 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="X45" s="41" t="str">
+      <c r="X45" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y45" s="41" t="str">
+      <c r="Y45" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
@@ -10712,7 +10691,7 @@
       </c>
       <c r="AS45">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT45">
         <f t="shared" si="65"/>
@@ -10794,31 +10773,53 @@
     <row r="46" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="81"/>
-        <v>Saturday</v>
-      </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39" t="str">
+        <v>Friday</v>
+      </c>
+      <c r="B46" s="7">
+        <v>45779</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="8">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="8">
+        <v>6</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J46" s="8">
+        <v>3</v>
+      </c>
+      <c r="K46" s="8">
+        <v>2</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N46" s="5" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="12"/>
       <c r="S46" s="2"/>
-      <c r="T46" s="39"/>
-      <c r="U46" s="39"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
       <c r="V46" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10827,11 +10828,11 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="X46" s="41" t="str">
+      <c r="X46" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y46" s="41" t="str">
+      <c r="Y46" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
@@ -10961,29 +10962,27 @@
         <f t="shared" si="81"/>
         <v>Saturday</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39" t="str">
+      <c r="B47" s="7"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="7"/>
+      <c r="F47" s="5"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="12"/>
       <c r="S47" s="2"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
       <c r="V47" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10992,11 +10991,11 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="X47" s="41" t="str">
+      <c r="X47" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y47" s="41" t="str">
+      <c r="Y47" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
@@ -11126,29 +11125,27 @@
         <f t="shared" si="81"/>
         <v>Saturday</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39" t="str">
+      <c r="B48" s="7"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="7"/>
+      <c r="F48" s="5"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="12"/>
       <c r="S48" s="2"/>
-      <c r="T48" s="39"/>
-      <c r="U48" s="39"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
       <c r="V48" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11157,11 +11154,11 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="X48" s="41" t="str">
+      <c r="X48" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y48" s="41" t="str">
+      <c r="Y48" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
@@ -11291,29 +11288,27 @@
         <f t="shared" si="81"/>
         <v>Saturday</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39" t="str">
+      <c r="B49" s="7"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="7"/>
+      <c r="F49" s="5"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="12"/>
       <c r="S49" s="2"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
       <c r="V49" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11322,11 +11317,11 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="X49" s="41" t="str">
+      <c r="X49" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y49" s="41" t="str">
+      <c r="Y49" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
@@ -11336,29 +11331,27 @@
         <f t="shared" si="81"/>
         <v>Saturday</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39" t="str">
+      <c r="B50" s="7"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="7"/>
+      <c r="F50" s="5"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="O50" s="39"/>
-      <c r="P50" s="39"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="12"/>
       <c r="S50" s="2"/>
-      <c r="T50" s="39"/>
-      <c r="U50" s="39"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
       <c r="V50" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11367,11 +11360,11 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="X50" s="41" t="str">
+      <c r="X50" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y50" s="41" t="str">
+      <c r="Y50" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
@@ -11381,29 +11374,27 @@
         <f t="shared" si="81"/>
         <v>Saturday</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39" t="str">
+      <c r="B51" s="7"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="7"/>
+      <c r="F51" s="5"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="12"/>
       <c r="S51" s="2"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
       <c r="V51" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11412,11 +11403,11 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="X51" s="41" t="str">
+      <c r="X51" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y51" s="41" t="str">
+      <c r="Y51" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
@@ -11517,29 +11508,26 @@
         <f t="shared" si="81"/>
         <v>Saturday</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39" t="str">
+      <c r="B52" s="7"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="7"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="12"/>
       <c r="S52" s="2"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
       <c r="V52" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11548,11 +11536,11 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="X52" s="41" t="str">
+      <c r="X52" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y52" s="41" t="str">
+      <c r="Y52" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
@@ -11682,29 +11670,26 @@
         <f t="shared" si="81"/>
         <v>Saturday</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39" t="str">
+      <c r="B53" s="7"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="7"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="12"/>
       <c r="S53" s="2"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
       <c r="V53" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11713,11 +11698,11 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="X53" s="41" t="str">
+      <c r="X53" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y53" s="41" t="str">
+      <c r="Y53" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
@@ -11847,29 +11832,26 @@
         <f t="shared" si="81"/>
         <v>Saturday</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39" t="str">
+      <c r="B54" s="7"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="7"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="12"/>
       <c r="S54" s="2"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
       <c r="V54" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11878,11 +11860,11 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="X54" s="41" t="str">
+      <c r="X54" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y54" s="41" t="str">
+      <c r="Y54" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
@@ -12008,50 +11990,46 @@
       </c>
     </row>
     <row r="55" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A55" s="42" t="str">
+      <c r="A55" t="str">
         <f t="shared" si="81"/>
         <v>Saturday</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39" t="str">
+      <c r="B55" s="7"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="7"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39" t="str">
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W55" s="39" t="str">
+      <c r="W55" s="5" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="X55" s="43" t="str">
+      <c r="X55" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y55" s="43" t="str">
+      <c r="Y55" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
-      <c r="Z55" s="42"/>
       <c r="AI55">
         <f t="shared" si="86"/>
         <v>0</v>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BE5E71-160D-47D9-93AA-F58EADB6D652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EE5CB2-EAAE-4E24-8854-C66376A2C239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="179">
   <si>
     <t>DATE</t>
   </si>
@@ -535,9 +546,6 @@
   </si>
   <si>
     <t>Edmonton was down 0-4 mid-way through the game and brought it all the way back to 5-5, only to have Skinner let in a soft goal less than 2 minutes later, with only 41 seconds left in regulation, to give the Kings back the lead and the game.</t>
-  </si>
-  <si>
-    <t>mtl</t>
   </si>
   <si>
     <t>WEEKDATE</t>
@@ -1745,9 +1753,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1785,7 +1793,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1891,7 +1899,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2033,7 +2041,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2043,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819ACA58-DCD7-4A09-9052-0851D3ECB0FF}">
   <dimension ref="A1:CL89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2099,13 +2107,13 @@
   <sheetData>
     <row r="1" spans="1:45" s="34" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>171</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>172</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>1</v>
@@ -2147,16 +2155,16 @@
         <v>165</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R1" s="30" t="s">
         <v>12</v>
       </c>
       <c r="S1" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="T1" s="30" t="s">
         <v>175</v>
-      </c>
-      <c r="T1" s="30" t="s">
-        <v>176</v>
       </c>
       <c r="U1" s="30" t="s">
         <v>13</v>
@@ -2168,10 +2176,10 @@
         <v>15</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Z1" s="33" t="s">
         <v>168</v>
@@ -2920,11 +2928,11 @@
       </c>
       <c r="AM7">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AN7">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
@@ -3038,11 +3046,11 @@
       </c>
       <c r="AM8">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN8">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
@@ -4192,7 +4200,7 @@
         <v>3</v>
       </c>
       <c r="Z18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AD18" s="8"/>
     </row>
@@ -4697,7 +4705,7 @@
         <v>-3</v>
       </c>
       <c r="Z22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AD22" s="8"/>
       <c r="AH22" t="s">
@@ -5008,7 +5016,7 @@
       </c>
       <c r="AD23" s="8"/>
       <c r="AH23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AI23">
         <f t="shared" si="10"/>
@@ -5132,7 +5140,7 @@
       </c>
       <c r="BN23" t="str">
         <f t="shared" si="30"/>
-        <v>mtl</v>
+        <v>MTL</v>
       </c>
       <c r="BO23" s="15">
         <f t="shared" si="31"/>
@@ -8417,15 +8425,15 @@
       </c>
       <c r="AP34">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ34">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR34">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS34">
         <f t="shared" si="19"/>
@@ -8449,7 +8457,7 @@
       </c>
       <c r="AX34">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY34">
         <f t="shared" si="25"/>
@@ -8457,7 +8465,7 @@
       </c>
       <c r="AZ34">
         <f t="shared" si="26"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA34">
         <f t="shared" si="27"/>
@@ -8465,7 +8473,7 @@
       </c>
       <c r="BB34">
         <f t="shared" si="45"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC34">
         <f t="shared" si="45"/>
@@ -8473,19 +8481,19 @@
       </c>
       <c r="BD34">
         <f t="shared" si="46"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BE34">
         <f t="shared" si="47"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BF34">
         <f t="shared" si="48"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="BG34">
         <f t="shared" si="49"/>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="BH34">
         <f t="shared" si="49"/>
@@ -8493,7 +8501,7 @@
       </c>
       <c r="BI34">
         <f t="shared" si="50"/>
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="BJ34">
         <f t="shared" si="50"/>
@@ -8501,11 +8509,11 @@
       </c>
       <c r="BK34">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="BL34">
         <f t="shared" si="29"/>
-        <v>2.5</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="BN34" t="str">
         <f t="shared" si="30"/>
@@ -8525,15 +8533,15 @@
       </c>
       <c r="BR34" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS34" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BT34" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BU34" s="15">
         <f t="shared" si="31"/>
@@ -8549,7 +8557,7 @@
       </c>
       <c r="BX34" s="15">
         <f t="shared" si="32"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BY34" s="15">
         <f t="shared" si="33"/>
@@ -8557,7 +8565,7 @@
       </c>
       <c r="BZ34" s="15">
         <f t="shared" si="34"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CA34" s="15">
         <f t="shared" si="35"/>
@@ -8565,7 +8573,7 @@
       </c>
       <c r="CB34" s="15">
         <f t="shared" si="36"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CC34" s="15">
         <f t="shared" si="36"/>
@@ -8573,19 +8581,19 @@
       </c>
       <c r="CD34" s="15">
         <f t="shared" si="37"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="CE34" s="15">
         <f t="shared" si="38"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CF34" s="15">
         <f t="shared" si="39"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="CG34" s="20">
         <f t="shared" si="40"/>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="CH34" s="20">
         <f t="shared" si="40"/>
@@ -8593,7 +8601,7 @@
       </c>
       <c r="CI34" s="20">
         <f t="shared" si="41"/>
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="CJ34" s="20">
         <f t="shared" si="41"/>
@@ -8601,11 +8609,11 @@
       </c>
       <c r="CK34" s="20">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="CL34" s="20">
         <f t="shared" si="43"/>
-        <v>2.5</v>
+        <v>2.8333333333333335</v>
       </c>
     </row>
     <row r="35" spans="1:90" x14ac:dyDescent="0.25">
@@ -8744,7 +8752,7 @@
       </c>
       <c r="AU35">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV35">
         <f t="shared" si="22"/>
@@ -8760,7 +8768,7 @@
       </c>
       <c r="AY35">
         <f t="shared" si="25"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ35">
         <f t="shared" si="26"/>
@@ -8768,7 +8776,7 @@
       </c>
       <c r="BA35">
         <f t="shared" si="27"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BB35">
         <f t="shared" si="45"/>
@@ -8776,19 +8784,19 @@
       </c>
       <c r="BC35">
         <f t="shared" si="45"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD35">
         <f t="shared" si="46"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BE35">
         <f t="shared" si="47"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BF35">
         <f t="shared" si="48"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG35">
         <f t="shared" si="49"/>
@@ -8796,7 +8804,7 @@
       </c>
       <c r="BH35">
         <f t="shared" si="49"/>
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="BI35">
         <f t="shared" si="50"/>
@@ -8804,15 +8812,15 @@
       </c>
       <c r="BJ35">
         <f t="shared" si="50"/>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="BK35">
         <f t="shared" si="28"/>
-        <v>2.5</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="BL35">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="BN35" t="str">
         <f t="shared" si="30"/>
@@ -8852,7 +8860,7 @@
       </c>
       <c r="BW35" s="15">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX35" s="15">
         <f t="shared" si="32"/>
@@ -8860,7 +8868,7 @@
       </c>
       <c r="BY35" s="15">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BZ35" s="15">
         <f t="shared" si="34"/>
@@ -8868,7 +8876,7 @@
       </c>
       <c r="CA35" s="15">
         <f t="shared" si="35"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CB35" s="15">
         <f t="shared" si="36"/>
@@ -8876,19 +8884,19 @@
       </c>
       <c r="CC35" s="15">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD35" s="15">
         <f t="shared" si="37"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CE35" s="15">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="CF35" s="15">
         <f t="shared" si="39"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CG35" s="20">
         <f t="shared" si="40"/>
@@ -8896,7 +8904,7 @@
       </c>
       <c r="CH35" s="20">
         <f t="shared" si="40"/>
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="CI35" s="20">
         <f t="shared" si="41"/>
@@ -8904,15 +8912,15 @@
       </c>
       <c r="CJ35" s="20">
         <f t="shared" si="41"/>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="CK35" s="20">
         <f t="shared" si="42"/>
-        <v>2.5</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="CL35" s="20">
         <f t="shared" si="43"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="36" spans="1:90" x14ac:dyDescent="0.25">
@@ -9043,7 +9051,7 @@
       </c>
       <c r="AS36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT36">
         <f t="shared" si="20"/>
@@ -9063,7 +9071,7 @@
       </c>
       <c r="AX36">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY36">
         <f t="shared" si="25"/>
@@ -9071,7 +9079,7 @@
       </c>
       <c r="AZ36">
         <f t="shared" si="26"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA36">
         <f t="shared" si="27"/>
@@ -9079,7 +9087,7 @@
       </c>
       <c r="BB36">
         <f t="shared" si="45"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC36">
         <f t="shared" si="45"/>
@@ -9087,19 +9095,19 @@
       </c>
       <c r="BD36">
         <f t="shared" si="46"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BE36">
         <f t="shared" si="47"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BF36">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BG36">
         <f t="shared" si="49"/>
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="BH36">
         <f t="shared" si="49"/>
@@ -9107,7 +9115,7 @@
       </c>
       <c r="BI36">
         <f t="shared" si="50"/>
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="BJ36">
         <f t="shared" si="50"/>
@@ -9115,11 +9123,11 @@
       </c>
       <c r="BK36">
         <f t="shared" si="28"/>
-        <v>3.1666666666666665</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="BL36">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BN36" t="str">
         <f t="shared" si="30"/>
@@ -9151,7 +9159,7 @@
       </c>
       <c r="BU36" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV36" s="15">
         <f t="shared" si="31"/>
@@ -9163,7 +9171,7 @@
       </c>
       <c r="BX36" s="15">
         <f t="shared" si="32"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BY36" s="15">
         <f t="shared" si="33"/>
@@ -9171,7 +9179,7 @@
       </c>
       <c r="BZ36" s="15">
         <f t="shared" si="34"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CA36" s="15">
         <f t="shared" si="35"/>
@@ -9179,7 +9187,7 @@
       </c>
       <c r="CB36" s="15">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CC36" s="15">
         <f t="shared" si="36"/>
@@ -9187,19 +9195,19 @@
       </c>
       <c r="CD36" s="15">
         <f t="shared" si="37"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CE36" s="15">
         <f t="shared" si="38"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="CF36" s="15">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CG36" s="20">
         <f t="shared" si="40"/>
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="CH36" s="20">
         <f t="shared" si="40"/>
@@ -9207,7 +9215,7 @@
       </c>
       <c r="CI36" s="20">
         <f t="shared" si="41"/>
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="CJ36" s="20">
         <f t="shared" si="41"/>
@@ -9215,11 +9223,11 @@
       </c>
       <c r="CK36" s="20">
         <f t="shared" si="42"/>
-        <v>3.1666666666666665</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="CL36" s="20">
         <f t="shared" si="43"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="37" spans="1:90" x14ac:dyDescent="0.25">
@@ -9252,7 +9260,7 @@
         <v>163</v>
       </c>
       <c r="J37" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K37" s="8">
         <v>2</v>
@@ -9279,24 +9287,30 @@
       <c r="R37" s="7">
         <v>45776</v>
       </c>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5" t="str">
+      <c r="S37" s="5">
+        <v>2</v>
+      </c>
+      <c r="T37" s="5">
+        <v>3</v>
+      </c>
+      <c r="U37" s="5">
+        <v>1</v>
+      </c>
+      <c r="V37" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W37" s="5" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="X37" s="5" t="str">
+        <v>VGK</v>
+      </c>
+      <c r="X37" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y37" s="5" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y37" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AD37" s="8"/>
       <c r="AH37" t="s">
@@ -9332,11 +9346,11 @@
       </c>
       <c r="AP37">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ37">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR37">
         <f t="shared" si="18"/>
@@ -9348,7 +9362,7 @@
       </c>
       <c r="AT37">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU37">
         <f t="shared" si="21"/>
@@ -9368,7 +9382,7 @@
       </c>
       <c r="AY37">
         <f t="shared" si="25"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ37">
         <f t="shared" si="26"/>
@@ -9376,7 +9390,7 @@
       </c>
       <c r="BA37">
         <f t="shared" si="27"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB37">
         <f t="shared" si="45"/>
@@ -9384,19 +9398,19 @@
       </c>
       <c r="BC37">
         <f t="shared" si="45"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="BD37">
         <f t="shared" si="46"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BE37">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BF37">
         <f t="shared" si="48"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BG37">
         <f t="shared" si="49"/>
@@ -9404,7 +9418,7 @@
       </c>
       <c r="BH37">
         <f t="shared" si="49"/>
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="BI37">
         <f t="shared" si="50"/>
@@ -9412,15 +9426,15 @@
       </c>
       <c r="BJ37">
         <f t="shared" si="50"/>
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="BK37">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BL37">
         <f t="shared" si="29"/>
-        <v>3.1666666666666665</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="BN37" t="str">
         <f t="shared" si="30"/>
@@ -9440,11 +9454,11 @@
       </c>
       <c r="BR37" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS37" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BT37" s="15">
         <f t="shared" si="31"/>
@@ -9456,7 +9470,7 @@
       </c>
       <c r="BV37" s="15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW37" s="15">
         <f t="shared" si="31"/>
@@ -9468,7 +9482,7 @@
       </c>
       <c r="BY37" s="15">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BZ37" s="15">
         <f t="shared" si="34"/>
@@ -9476,7 +9490,7 @@
       </c>
       <c r="CA37" s="15">
         <f t="shared" si="35"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CB37" s="15">
         <f t="shared" si="36"/>
@@ -9484,19 +9498,19 @@
       </c>
       <c r="CC37" s="15">
         <f t="shared" si="36"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="CD37" s="15">
         <f t="shared" si="37"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="CE37" s="15">
         <f t="shared" si="38"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CF37" s="15">
         <f t="shared" si="39"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="CG37" s="20">
         <f t="shared" si="40"/>
@@ -9504,7 +9518,7 @@
       </c>
       <c r="CH37" s="20">
         <f t="shared" si="40"/>
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="CI37" s="20">
         <f t="shared" si="41"/>
@@ -9512,15 +9526,15 @@
       </c>
       <c r="CJ37" s="20">
         <f t="shared" si="41"/>
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="CK37" s="20">
         <f t="shared" si="42"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="CL37" s="20">
         <f t="shared" si="43"/>
-        <v>3.1666666666666665</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="38" spans="1:90" x14ac:dyDescent="0.25">
@@ -9556,7 +9570,7 @@
         <v>2</v>
       </c>
       <c r="K38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>52</v>
@@ -9580,24 +9594,30 @@
       <c r="R38" s="12">
         <v>45776</v>
       </c>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="5" t="str">
+      <c r="S38" s="2">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2">
+        <v>1</v>
+      </c>
+      <c r="U38" s="2">
+        <v>0</v>
+      </c>
+      <c r="V38" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W38" s="5" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="X38" s="5" t="str">
+        <v>EDM</v>
+      </c>
+      <c r="X38" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y38" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="AD38" s="8"/>
     </row>
@@ -9644,12 +9664,20 @@
       </c>
       <c r="N39" s="5" t="str">
         <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="7"/>
+        <v>MTL</v>
+      </c>
+      <c r="O39" s="5">
+        <v>3</v>
+      </c>
+      <c r="P39" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="R39" s="7">
+        <v>45777</v>
+      </c>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
@@ -9714,12 +9742,20 @@
       </c>
       <c r="N40" s="5" t="str">
         <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="7"/>
+        <v>FLA</v>
+      </c>
+      <c r="O40" s="5">
+        <v>4</v>
+      </c>
+      <c r="P40" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="R40" s="7">
+        <v>45777</v>
+      </c>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -9875,12 +9911,20 @@
       </c>
       <c r="N41" s="5" t="str">
         <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="7"/>
+        <v>STL</v>
+      </c>
+      <c r="O41" s="5">
+        <v>3</v>
+      </c>
+      <c r="P41" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="R41" s="7">
+        <v>45777</v>
+      </c>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -10237,7 +10281,7 @@
         <v>163</v>
       </c>
       <c r="J43" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K43" s="8">
         <v>2</v>
@@ -10614,7 +10658,7 @@
         <v>2</v>
       </c>
       <c r="K45" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>52</v>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EE5CB2-EAAE-4E24-8854-C66376A2C239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC861AA-4211-47D3-A2EA-2E9A34A32D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="179">
   <si>
     <t>DATE</t>
   </si>
@@ -653,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -744,25 +733,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="92">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="219">
     <dxf>
       <font>
         <b/>
@@ -791,6 +778,18 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
@@ -899,11 +898,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -915,6 +914,18 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -933,6 +944,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <color rgb="FFFFFA00"/>
@@ -977,11 +998,143 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1001,11 +1154,231 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1025,11 +1398,183 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1041,7 +1586,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF9900"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1065,7 +1610,217 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1085,11 +1840,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1101,7 +1856,133 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1113,7 +1994,19 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF002060"/>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1145,11 +2038,209 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1162,6 +2253,384 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1628,76 +3097,76 @@
     <tableColumn id="1" xr3:uid="{35E4500A-DA09-4BF2-A9DD-981973613A2E}" name="Team">
       <calculatedColumnFormula>AH22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A33C8BB1-51F1-4EE0-BAF3-79A0072A877D}" name="GP TOT" dataDxfId="91">
+    <tableColumn id="2" xr3:uid="{A33C8BB1-51F1-4EE0-BAF3-79A0072A877D}" name="GP TOT" dataDxfId="218">
       <calculatedColumnFormula>AM22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B7BD47C3-C6CD-433B-8763-2E7BF28F91A9}" name="GP H" dataDxfId="90">
+    <tableColumn id="3" xr3:uid="{B7BD47C3-C6CD-433B-8763-2E7BF28F91A9}" name="GP H" dataDxfId="217">
       <calculatedColumnFormula>AN22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A7C2CDB8-1006-4E42-85C9-739B917E0E3B}" name="GP A" dataDxfId="89">
+    <tableColumn id="4" xr3:uid="{A7C2CDB8-1006-4E42-85C9-739B917E0E3B}" name="GP A" dataDxfId="216">
       <calculatedColumnFormula>AO22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FBF9C9A1-A231-4AC5-98EC-8575F964E9E7}" name="W TOT" dataDxfId="88">
+    <tableColumn id="5" xr3:uid="{FBF9C9A1-A231-4AC5-98EC-8575F964E9E7}" name="W TOT" dataDxfId="215">
       <calculatedColumnFormula>AP22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4F1AF376-3B42-4A7B-88AE-2AEB54C684FD}" name="L TOT" dataDxfId="87">
+    <tableColumn id="6" xr3:uid="{4F1AF376-3B42-4A7B-88AE-2AEB54C684FD}" name="L TOT" dataDxfId="214">
       <calculatedColumnFormula>AQ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CD4CF37C-B565-4072-A8DF-97ABD75AC2BE}" name="W H" dataDxfId="86">
+    <tableColumn id="7" xr3:uid="{CD4CF37C-B565-4072-A8DF-97ABD75AC2BE}" name="W H" dataDxfId="213">
       <calculatedColumnFormula>AR22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1F359623-5047-4AA5-8DFE-2A1235BD0244}" name="L H" dataDxfId="85">
+    <tableColumn id="8" xr3:uid="{1F359623-5047-4AA5-8DFE-2A1235BD0244}" name="L H" dataDxfId="212">
       <calculatedColumnFormula>AS22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F8112AD4-AB28-4E89-97C1-D0AD9007C7A5}" name="W A" dataDxfId="84">
+    <tableColumn id="9" xr3:uid="{F8112AD4-AB28-4E89-97C1-D0AD9007C7A5}" name="W A" dataDxfId="211">
       <calculatedColumnFormula>AT22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E0BC1C3D-B833-4A33-A2F7-C67BE06DEDA1}" name="L A" dataDxfId="83">
+    <tableColumn id="10" xr3:uid="{E0BC1C3D-B833-4A33-A2F7-C67BE06DEDA1}" name="L A" dataDxfId="210">
       <calculatedColumnFormula>AU22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B9A986DF-FE9E-415D-924B-8EB61CBE5CC3}" name="GF H" dataDxfId="82">
+    <tableColumn id="11" xr3:uid="{B9A986DF-FE9E-415D-924B-8EB61CBE5CC3}" name="GF H" dataDxfId="209">
       <calculatedColumnFormula>SUMIFS($T$2:$T$100,$M$2:$M$100,AH22,$E$2:$E$100,1)+SUMIFS($T$2:$T$100,$M$2:$M$100,AH22,$E$2:$E$100,2)+SUMIFS($T$2:$T$100,$M$2:$M$100,AH22,$E$2:$E$100,3)+SUMIFS($T$2:$T$100,$M$2:$M$100,AH22,$E$2:$E$100,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{83BAED9D-BBE1-4C76-BBCA-313CCD921E11}" name="GF A" dataDxfId="81">
+    <tableColumn id="12" xr3:uid="{83BAED9D-BBE1-4C76-BBCA-313CCD921E11}" name="GF A" dataDxfId="208">
       <calculatedColumnFormula>SUMIFS($S$2:$S$100,$L$2:$L$100,AH22,$E$2:$E$100,1) + SUMIFS($S$2:$S$100,$L$2:$L$100,AH22,$E$2:$E$100,2)+SUMIFS($S$2:$S$100,$L$2:$L$100,AH22,$E$2:$E$100,3)+SUMIFS($S$2:$S$100,$L$2:$L$100,AH22,$E$2:$E$100,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9D239E38-642E-49BB-AFCC-7F4B50408CD9}" name="GA H" dataDxfId="80">
+    <tableColumn id="13" xr3:uid="{9D239E38-642E-49BB-AFCC-7F4B50408CD9}" name="GA H" dataDxfId="207">
       <calculatedColumnFormula>SUMIFS($S$2:$S$100,$M$2:$M$100,AH22,$E$2:$E$100,1)+SUMIFS($S$2:$S$100,$M$2:$M$100,AH22,$E$2:$E$100,2)+SUMIFS($S$2:$S$100,$M$2:$M$100,AH22,$E$2:$E$100,3)+SUMIFS($S$2:$S$100,$M$2:$M$100,AH22,$E$2:$E$100,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{C28D4692-8893-4399-B12F-0EFEC4ACE55F}" name="GA A" dataDxfId="79">
+    <tableColumn id="14" xr3:uid="{C28D4692-8893-4399-B12F-0EFEC4ACE55F}" name="GA A" dataDxfId="206">
       <calculatedColumnFormula>SUMIFS($T$2:$T$100,$L$2:$L$100,AH22,$E$2:$E$100,1)+(SUMIFS($T$2:$T$100,$L$2:$L$100,AH22,$E$2:$E$100,2)+SUMIFS($T$2:$T$100,$L$2:$L$100,AH22,$E$2:$E$100,3)+SUMIFS($T$2:$T$100,$L$2:$L$100,AH22,$E$2:$E$100,4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{EFE9EFE5-C5A6-4D37-BAFD-4A00F7B02584}" name="DIFF H" dataDxfId="78">
+    <tableColumn id="15" xr3:uid="{EFE9EFE5-C5A6-4D37-BAFD-4A00F7B02584}" name="DIFF H" dataDxfId="205">
       <calculatedColumnFormula>BX22-BZ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{B9AF8DC9-F982-4D02-B43F-486449573036}" name="DIFF A" dataDxfId="77">
+    <tableColumn id="16" xr3:uid="{B9AF8DC9-F982-4D02-B43F-486449573036}" name="DIFF A" dataDxfId="204">
       <calculatedColumnFormula>BY22-CA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E94B86FE-AA74-466B-A7F6-2C43B9EEA68A}" name="GF T" dataDxfId="76">
+    <tableColumn id="17" xr3:uid="{E94B86FE-AA74-466B-A7F6-2C43B9EEA68A}" name="GF T" dataDxfId="203">
       <calculatedColumnFormula>BX22+BY22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{437A09FB-7E7B-457E-AD72-B615E2FEC992}" name="GA T" dataDxfId="75">
+    <tableColumn id="18" xr3:uid="{437A09FB-7E7B-457E-AD72-B615E2FEC992}" name="GA T" dataDxfId="202">
       <calculatedColumnFormula>BZ22+CA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{D83A9D62-4017-4FF7-BA18-93B627CB0BEF}" name="DIFF T" dataDxfId="74">
+    <tableColumn id="19" xr3:uid="{D83A9D62-4017-4FF7-BA18-93B627CB0BEF}" name="DIFF T" dataDxfId="201">
       <calculatedColumnFormula>(BX22+BY22)-(BZ22+CA22)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{139C299F-4896-455D-A9B3-7CA4FF9ECE1D}" name="GFPG H" dataDxfId="73">
+    <tableColumn id="20" xr3:uid="{139C299F-4896-455D-A9B3-7CA4FF9ECE1D}" name="GFPG H" dataDxfId="200">
       <calculatedColumnFormula>BX22/BP22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{5ED7F4F1-4524-4204-90BC-07DFE35665ED}" name="GFPG A" dataDxfId="72">
+    <tableColumn id="21" xr3:uid="{5ED7F4F1-4524-4204-90BC-07DFE35665ED}" name="GFPG A" dataDxfId="199">
       <calculatedColumnFormula>BY22/BQ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{3BAC0D7E-D609-46FC-BB96-6327BEC9045F}" name="GAPG H" dataDxfId="71">
+    <tableColumn id="22" xr3:uid="{3BAC0D7E-D609-46FC-BB96-6327BEC9045F}" name="GAPG H" dataDxfId="198">
       <calculatedColumnFormula>BZ22/BP22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{894AF6A4-2FD4-468F-8740-6E39104F12C5}" name="GAPG A" dataDxfId="70">
+    <tableColumn id="23" xr3:uid="{894AF6A4-2FD4-468F-8740-6E39104F12C5}" name="GAPG A" dataDxfId="197">
       <calculatedColumnFormula>CA22/BQ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{CFA1DE8E-0094-499E-B287-EEFFFC39239B}" name="GFPG " dataDxfId="69">
+    <tableColumn id="24" xr3:uid="{CFA1DE8E-0094-499E-B287-EEFFFC39239B}" name="GFPG " dataDxfId="196">
       <calculatedColumnFormula>CD22/BO22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{5723B53A-51E1-40DB-A91D-49D133C87D25}" name="GAPG " dataDxfId="68">
+    <tableColumn id="25" xr3:uid="{5723B53A-51E1-40DB-A91D-49D133C87D25}" name="GAPG " dataDxfId="195">
       <calculatedColumnFormula>CE22/BO22</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1706,44 +3175,44 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CAF60155-77BE-48E5-AA58-5D8F46940651}" name="Table2" displayName="Table2" ref="A1:Z55" totalsRowShown="0" headerRowDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CAF60155-77BE-48E5-AA58-5D8F46940651}" name="Table2" displayName="Table2" ref="A1:Z55" totalsRowShown="0" headerRowDxfId="194">
   <autoFilter ref="A1:Z55" xr:uid="{CAF60155-77BE-48E5-AA58-5D8F46940651}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{DDB71618-B495-4370-A2C8-F807AB26F35C}" name="WEEKDATE">
       <calculatedColumnFormula>TEXT($B2,"dddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D87BCC97-C12B-42BA-ACD3-847AD72294EC}" name="DATE" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{6E19CA59-B6A3-4131-B285-CE1F7BAF3D31}" name="TIME" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{02F4D888-3BD5-4016-BA9A-EC8A0CBEA44E}" name="CONF" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{DEBF2CDE-9CD3-427B-90BB-33C4A230FDB2}" name="ROUNDNUM" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{0B2FA3E5-A739-4507-920E-FD6BD73D06FC}" name="SERIESCODE" dataDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{E0FB355A-FF65-48EA-9A64-1208BDA18DEA}" name="GAMENUM" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{48075340-6AD4-4735-8D81-DCE8BDEA7894}" name="TOPSEED" dataDxfId="60"/>
-    <tableColumn id="9" xr3:uid="{47D97FCE-3C11-4B03-A932-BB3CCC5294A3}" name="LOWSEED" dataDxfId="59"/>
-    <tableColumn id="10" xr3:uid="{2657E2A1-FA3E-4247-AB77-0882735B5D98}" name="TOPSEEDWINS" dataDxfId="58"/>
-    <tableColumn id="11" xr3:uid="{F857D9CD-319A-4A1F-8A87-5B89AB0E3AE4}" name="LOWSEEDWINS" dataDxfId="57"/>
-    <tableColumn id="12" xr3:uid="{F49B8205-50A8-4D22-BDFA-A8C59906257D}" name="AWAYTEAM" dataDxfId="56"/>
-    <tableColumn id="13" xr3:uid="{10A989E8-E464-444A-B995-FE5CD8D50A3E}" name="HOMETEAM" dataDxfId="55"/>
-    <tableColumn id="14" xr3:uid="{BEBB472F-C00C-43D1-BA57-177EECF3D1A4}" name="MYCHOICE" dataDxfId="54">
+    <tableColumn id="2" xr3:uid="{D87BCC97-C12B-42BA-ACD3-847AD72294EC}" name="DATE" dataDxfId="193"/>
+    <tableColumn id="3" xr3:uid="{6E19CA59-B6A3-4131-B285-CE1F7BAF3D31}" name="TIME" dataDxfId="192"/>
+    <tableColumn id="4" xr3:uid="{02F4D888-3BD5-4016-BA9A-EC8A0CBEA44E}" name="CONF" dataDxfId="191"/>
+    <tableColumn id="5" xr3:uid="{DEBF2CDE-9CD3-427B-90BB-33C4A230FDB2}" name="ROUNDNUM" dataDxfId="190"/>
+    <tableColumn id="6" xr3:uid="{0B2FA3E5-A739-4507-920E-FD6BD73D06FC}" name="SERIESCODE" dataDxfId="189"/>
+    <tableColumn id="7" xr3:uid="{E0FB355A-FF65-48EA-9A64-1208BDA18DEA}" name="GAMENUM" dataDxfId="188"/>
+    <tableColumn id="8" xr3:uid="{48075340-6AD4-4735-8D81-DCE8BDEA7894}" name="TOPSEED" dataDxfId="187"/>
+    <tableColumn id="9" xr3:uid="{47D97FCE-3C11-4B03-A932-BB3CCC5294A3}" name="LOWSEED" dataDxfId="186"/>
+    <tableColumn id="10" xr3:uid="{2657E2A1-FA3E-4247-AB77-0882735B5D98}" name="TOPSEEDWINS" dataDxfId="185"/>
+    <tableColumn id="11" xr3:uid="{F857D9CD-319A-4A1F-8A87-5B89AB0E3AE4}" name="LOWSEEDWINS" dataDxfId="184"/>
+    <tableColumn id="12" xr3:uid="{F49B8205-50A8-4D22-BDFA-A8C59906257D}" name="AWAYTEAM" dataDxfId="183"/>
+    <tableColumn id="13" xr3:uid="{10A989E8-E464-444A-B995-FE5CD8D50A3E}" name="HOMETEAM" dataDxfId="182"/>
+    <tableColumn id="14" xr3:uid="{BEBB472F-C00C-43D1-BA57-177EECF3D1A4}" name="MYCHOICE" dataDxfId="181">
       <calculatedColumnFormula>IF(OR(ISBLANK(O2), ISBLANK($P2)), "", IF($O2&gt;$P2, $L2,$M2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{3265132F-9519-4D83-9071-5A806C9B66A7}" name="PAWAYSCORE" dataDxfId="53"/>
-    <tableColumn id="16" xr3:uid="{61D192BF-2F44-45CA-B41E-2E154B58B73C}" name="PHOMESCORE" dataDxfId="52"/>
-    <tableColumn id="17" xr3:uid="{4FBCD938-E47F-4A71-B757-19409794237B}" name="PResult" dataDxfId="51"/>
-    <tableColumn id="18" xr3:uid="{910345CE-2F3B-453D-B129-551EEF8A2ED1}" name="LOCKEDIN" dataDxfId="50"/>
-    <tableColumn id="19" xr3:uid="{B5B3650D-B08F-4959-92AE-19041FF77E90}" name="AAWAYSCORE" dataDxfId="49"/>
-    <tableColumn id="20" xr3:uid="{335FAADC-EF48-4918-8FC4-59E64D4FF575}" name="AHOMESCORE" dataDxfId="48"/>
-    <tableColumn id="21" xr3:uid="{D0C1DED2-3AB8-4A82-B413-410B2E943C31}" name="OTROUNDNUM" dataDxfId="47"/>
-    <tableColumn id="22" xr3:uid="{13F2CA6A-0805-4608-99D8-D82B730F1411}" name="CORRECT" dataDxfId="46">
+    <tableColumn id="15" xr3:uid="{3265132F-9519-4D83-9071-5A806C9B66A7}" name="PAWAYSCORE" dataDxfId="180"/>
+    <tableColumn id="16" xr3:uid="{61D192BF-2F44-45CA-B41E-2E154B58B73C}" name="PHOMESCORE" dataDxfId="179"/>
+    <tableColumn id="17" xr3:uid="{4FBCD938-E47F-4A71-B757-19409794237B}" name="PResult" dataDxfId="178"/>
+    <tableColumn id="18" xr3:uid="{910345CE-2F3B-453D-B129-551EEF8A2ED1}" name="LOCKEDIN" dataDxfId="177"/>
+    <tableColumn id="19" xr3:uid="{B5B3650D-B08F-4959-92AE-19041FF77E90}" name="AAWAYSCORE" dataDxfId="176"/>
+    <tableColumn id="20" xr3:uid="{335FAADC-EF48-4918-8FC4-59E64D4FF575}" name="AHOMESCORE" dataDxfId="175"/>
+    <tableColumn id="21" xr3:uid="{D0C1DED2-3AB8-4A82-B413-410B2E943C31}" name="OTROUNDNUM" dataDxfId="174"/>
+    <tableColumn id="22" xr3:uid="{13F2CA6A-0805-4608-99D8-D82B730F1411}" name="CORRECT" dataDxfId="173">
       <calculatedColumnFormula>IF(ISBLANK($U2),"",IF($S2=$T2,0,IF($L2=$N2,IF($S2&gt;$T2,1,0),IF($T2&gt;$S2,1,0))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{C52B97FA-25BE-428D-BE11-A51A7A6F4023}" name="WINNER" dataDxfId="45">
+    <tableColumn id="23" xr3:uid="{C52B97FA-25BE-428D-BE11-A51A7A6F4023}" name="WINNER" dataDxfId="172">
       <calculatedColumnFormula>IF(OR(ISBLANK($S2), ISBLANK($T2), ISBLANK($U2)), "", IF(S2&gt;T2,L2,M2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{5D5BFFE0-4374-4A91-BEA2-4CDF401FCD34}" name="Column2" dataDxfId="44">
+    <tableColumn id="26" xr3:uid="{5D5BFFE0-4374-4A91-BEA2-4CDF401FCD34}" name="Column2" dataDxfId="171">
       <calculatedColumnFormula>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{ACD0F41D-B80B-4A4E-9591-78757C8DFA9E}" name="Column1" dataDxfId="43">
+    <tableColumn id="25" xr3:uid="{ACD0F41D-B80B-4A4E-9591-78757C8DFA9E}" name="Column1" dataDxfId="170">
       <calculatedColumnFormula>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" xr3:uid="{4CBA132A-C7C7-46A0-A3B6-3B6E14F287C5}" name="Notes"/>
@@ -1753,9 +3222,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1793,7 +3262,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1899,7 +3368,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2041,7 +3510,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2051,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819ACA58-DCD7-4A09-9052-0851D3ECB0FF}">
   <dimension ref="A1:CL89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46:M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,7 +4013,7 @@
       </c>
       <c r="AJ4">
         <f t="array" ref="AJ4">INDEX(G:G, MATCH(2, 1/(F:F=AG4)))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK4">
         <f t="shared" ref="AK4:AK17" si="6">SUMIFS($V$2:$V$100,$F$2:$F$100,AG4)</f>
@@ -2552,7 +4021,7 @@
       </c>
       <c r="AL4">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="AM4">
         <f t="shared" ref="AM4:AN10" si="7">SUMIFS($T$2:$T$99,$M$2:$M$99,AH4,$E$2:$E$99,1) + SUMIFS($S$2:$S$99,$L$2:$L$99,AH4,$E$2:$E$99,1)</f>
@@ -2804,11 +4273,11 @@
       </c>
       <c r="AM6">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AN6">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
@@ -3273,7 +4742,7 @@
       </c>
       <c r="AJ10" s="1">
         <f t="array" ref="AJ10">INDEX(G:G, MATCH(2, 1/(F:F=AG10)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK10" s="1">
         <f t="shared" si="6"/>
@@ -3281,15 +4750,15 @@
       </c>
       <c r="AL10" s="1">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AM10" s="1">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AN10" s="1">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
@@ -4741,15 +6210,15 @@
       </c>
       <c r="AP22">
         <f t="shared" ref="AP22:AP37" si="16">AR22+AT22</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ22">
         <f t="shared" ref="AQ22:AQ37" si="17">AM22-AP22</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <f t="shared" ref="AR22:AR37" si="18">SUMPRODUCT(($M$2:$M$100=AH22)*($T$2:$T$100&gt;$S$2:$S$100))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS22">
         <f t="shared" ref="AS22:AS37" si="19">SUMPRODUCT(($M$2:$M$100=AH22)*($T$2:$T$100&lt;$S$2:$S$100))</f>
@@ -4773,7 +6242,7 @@
       </c>
       <c r="AX22">
         <f t="shared" ref="AX22:AX37" si="24">SUMIFS($T$2:$T$100, $M$2:$M$100, AH22,$E$2:$E$100, 1)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AY22">
         <f t="shared" ref="AY22:AY37" si="25">SUMIFS($S$2:$S$100, $L$2:$L$100, AH22,$E$2:$E$100, 1)</f>
@@ -4781,7 +6250,7 @@
       </c>
       <c r="AZ22">
         <f t="shared" ref="AZ22:AZ37" si="26">SUMIFS($S$2:$S$100, $M$2:$M$100, AH22,$E$2:$E$100, 1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA22">
         <f t="shared" ref="BA22:BA37" si="27">SUMIFS($T$2:$T$100, $L$2:$L$100, AH22,$E$2:$E$100, 1)</f>
@@ -4789,7 +6258,7 @@
       </c>
       <c r="BB22">
         <f>AX22-AZ22</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC22">
         <f>AY22-BA22</f>
@@ -4797,19 +6266,19 @@
       </c>
       <c r="BD22">
         <f>AX22+AY22</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BE22">
         <f>AZ22+BA22</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BF22">
         <f>(AX22+AY22)-(AZ22+BA22)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG22">
         <f>AX22/AV22</f>
-        <v>2</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="BH22">
         <f>AY22/AW22</f>
@@ -4817,7 +6286,7 @@
       </c>
       <c r="BI22">
         <f>AZ22/AV22</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="BJ22">
         <f>BA22/AW22</f>
@@ -4825,11 +6294,11 @@
       </c>
       <c r="BK22">
         <f t="shared" ref="BK22:BK37" si="28">BD22/AI22</f>
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="BL22">
         <f t="shared" ref="BL22:BL37" si="29">BE22/AI22</f>
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="BN22" t="str">
         <f t="shared" ref="BN22:BN37" si="30">AH22</f>
@@ -4849,15 +6318,15 @@
       </c>
       <c r="BR22" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS22" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BT22" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU22" s="15">
         <f t="shared" si="31"/>
@@ -4873,7 +6342,7 @@
       </c>
       <c r="BX22" s="15">
         <f t="shared" ref="BX22:BX37" si="32">SUMIFS($T$2:$T$100,$M$2:$M$100,AH22,$E$2:$E$100,1)+SUMIFS($T$2:$T$100,$M$2:$M$100,AH22,$E$2:$E$100,2)+SUMIFS($T$2:$T$100,$M$2:$M$100,AH22,$E$2:$E$100,3)+SUMIFS($T$2:$T$100,$M$2:$M$100,AH22,$E$2:$E$100,4)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BY22" s="15">
         <f t="shared" ref="BY22:BY37" si="33">SUMIFS($S$2:$S$100,$L$2:$L$100,AH22,$E$2:$E$100,1) + SUMIFS($S$2:$S$100,$L$2:$L$100,AH22,$E$2:$E$100,2)+SUMIFS($S$2:$S$100,$L$2:$L$100,AH22,$E$2:$E$100,3)+SUMIFS($S$2:$S$100,$L$2:$L$100,AH22,$E$2:$E$100,4)</f>
@@ -4881,7 +6350,7 @@
       </c>
       <c r="BZ22" s="15">
         <f t="shared" ref="BZ22:BZ37" si="34">SUMIFS($S$2:$S$100,$M$2:$M$100,AH22,$E$2:$E$100,1)+SUMIFS($S$2:$S$100,$M$2:$M$100,AH22,$E$2:$E$100,2)+SUMIFS($S$2:$S$100,$M$2:$M$100,AH22,$E$2:$E$100,3)+SUMIFS($S$2:$S$100,$M$2:$M$100,AH22,$E$2:$E$100,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CA22" s="15">
         <f t="shared" ref="CA22:CA37" si="35">SUMIFS($T$2:$T$100,$L$2:$L$100,AH22,$E$2:$E$100,1)+(SUMIFS($T$2:$T$100,$L$2:$L$100,AH22,$E$2:$E$100,2)+SUMIFS($T$2:$T$100,$L$2:$L$100,AH22,$E$2:$E$100,3)+SUMIFS($T$2:$T$100,$L$2:$L$100,AH22,$E$2:$E$100,4))</f>
@@ -4889,7 +6358,7 @@
       </c>
       <c r="CB22" s="15">
         <f t="shared" ref="CB22:CC37" si="36">BX22-BZ22</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CC22" s="15">
         <f t="shared" si="36"/>
@@ -4897,19 +6366,19 @@
       </c>
       <c r="CD22" s="15">
         <f t="shared" ref="CD22:CD37" si="37">BX22+BY22</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="CE22" s="15">
         <f t="shared" ref="CE22:CE37" si="38">BZ22+CA22</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CF22" s="15">
         <f t="shared" ref="CF22:CF37" si="39">(BX22+BY22)-(BZ22+CA22)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CG22" s="20">
         <f t="shared" ref="CG22:CH37" si="40">BX22/BP22</f>
-        <v>2</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="CH22" s="20">
         <f t="shared" si="40"/>
@@ -4917,7 +6386,7 @@
       </c>
       <c r="CI22" s="20">
         <f t="shared" ref="CI22:CJ37" si="41">BZ22/BP22</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="CJ22" s="20">
         <f t="shared" si="41"/>
@@ -4925,11 +6394,11 @@
       </c>
       <c r="CK22" s="20">
         <f t="shared" ref="CK22:CK37" si="42">CD22/BO22</f>
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="CL22" s="20">
         <f t="shared" ref="CL22:CL37" si="43">CE22/BO22</f>
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23" spans="1:90" x14ac:dyDescent="0.25">
@@ -5068,7 +6537,7 @@
       </c>
       <c r="AU23">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV23">
         <f t="shared" si="22"/>
@@ -5084,7 +6553,7 @@
       </c>
       <c r="AY23">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ23">
         <f t="shared" si="26"/>
@@ -5092,7 +6561,7 @@
       </c>
       <c r="BA23">
         <f t="shared" si="27"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BB23">
         <f t="shared" ref="BB23:BC37" si="45">AX23-AZ23</f>
@@ -5100,19 +6569,19 @@
       </c>
       <c r="BC23">
         <f t="shared" si="45"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BD23">
         <f t="shared" ref="BD23:BD37" si="46">AX23+AY23</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BE23">
         <f t="shared" ref="BE23:BE37" si="47">AZ23+BA23</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BF23">
         <f t="shared" ref="BF23:BF37" si="48">(AX23+AY23)-(AZ23+BA23)</f>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="BG23">
         <f t="shared" ref="BG23:BH37" si="49">AX23/AV23</f>
@@ -5120,7 +6589,7 @@
       </c>
       <c r="BH23">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="BI23">
         <f t="shared" ref="BI23:BJ37" si="50">AZ23/AV23</f>
@@ -5128,15 +6597,15 @@
       </c>
       <c r="BJ23">
         <f t="shared" si="50"/>
-        <v>2</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="BK23">
         <f t="shared" si="28"/>
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="BL23">
         <f t="shared" si="29"/>
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="BN23" t="str">
         <f t="shared" si="30"/>
@@ -5176,7 +6645,7 @@
       </c>
       <c r="BW23" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BX23" s="15">
         <f t="shared" si="32"/>
@@ -5184,7 +6653,7 @@
       </c>
       <c r="BY23" s="15">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BZ23" s="15">
         <f t="shared" si="34"/>
@@ -5192,7 +6661,7 @@
       </c>
       <c r="CA23" s="15">
         <f t="shared" si="35"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="CB23" s="15">
         <f t="shared" si="36"/>
@@ -5200,19 +6669,19 @@
       </c>
       <c r="CC23" s="15">
         <f t="shared" si="36"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="CD23" s="15">
         <f t="shared" si="37"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CE23" s="15">
         <f t="shared" si="38"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="CF23" s="15">
         <f t="shared" si="39"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="CG23" s="20">
         <f t="shared" si="40"/>
@@ -5220,7 +6689,7 @@
       </c>
       <c r="CH23" s="20">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="CI23" s="20">
         <f t="shared" si="41"/>
@@ -5228,15 +6697,15 @@
       </c>
       <c r="CJ23" s="20">
         <f t="shared" si="41"/>
-        <v>2</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="CK23" s="20">
         <f t="shared" si="42"/>
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="CL23" s="20">
         <f t="shared" si="43"/>
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="24" spans="1:90" x14ac:dyDescent="0.25">
@@ -6555,7 +8024,7 @@
       </c>
       <c r="AI28">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ28">
         <f t="shared" si="11"/>
@@ -6571,11 +8040,11 @@
       </c>
       <c r="AM28">
         <f t="shared" si="44"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN28">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO28">
         <f t="shared" si="15"/>
@@ -6587,7 +8056,7 @@
       </c>
       <c r="AQ28">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR28">
         <f t="shared" si="18"/>
@@ -6607,7 +8076,7 @@
       </c>
       <c r="AV28">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW28">
         <f t="shared" si="23"/>
@@ -6651,7 +8120,7 @@
       </c>
       <c r="BG28">
         <f t="shared" si="49"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BH28">
         <f t="shared" si="49"/>
@@ -6659,7 +8128,7 @@
       </c>
       <c r="BI28">
         <f t="shared" si="50"/>
-        <v>2</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="BJ28">
         <f t="shared" si="50"/>
@@ -6667,11 +8136,11 @@
       </c>
       <c r="BK28">
         <f t="shared" si="28"/>
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="BL28">
         <f t="shared" si="29"/>
-        <v>2.1666666666666665</v>
+        <v>2.6</v>
       </c>
       <c r="BN28" t="str">
         <f t="shared" si="30"/>
@@ -6679,11 +8148,11 @@
       </c>
       <c r="BO28" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BP28" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BQ28" s="15">
         <f t="shared" si="31"/>
@@ -6695,7 +8164,7 @@
       </c>
       <c r="BS28" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BT28" s="15">
         <f t="shared" si="31"/>
@@ -6751,7 +8220,7 @@
       </c>
       <c r="CG28" s="20">
         <f t="shared" si="40"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CH28" s="20">
         <f t="shared" si="40"/>
@@ -6759,7 +8228,7 @@
       </c>
       <c r="CI28" s="20">
         <f t="shared" si="41"/>
-        <v>2</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="CJ28" s="20">
         <f t="shared" si="41"/>
@@ -6767,11 +8236,11 @@
       </c>
       <c r="CK28" s="20">
         <f t="shared" si="42"/>
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="CL28" s="20">
         <f t="shared" si="43"/>
-        <v>2.1666666666666665</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="29" spans="1:90" x14ac:dyDescent="0.25">
@@ -6862,7 +8331,7 @@
       </c>
       <c r="AI29">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ29">
         <f t="shared" si="11"/>
@@ -6878,7 +8347,7 @@
       </c>
       <c r="AM29">
         <f t="shared" si="44"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN29">
         <f t="shared" si="14"/>
@@ -6886,7 +8355,7 @@
       </c>
       <c r="AO29">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP29">
         <f t="shared" si="16"/>
@@ -6894,7 +8363,7 @@
       </c>
       <c r="AQ29">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <f t="shared" si="18"/>
@@ -6918,7 +8387,7 @@
       </c>
       <c r="AW29">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX29">
         <f t="shared" si="24"/>
@@ -6962,7 +8431,7 @@
       </c>
       <c r="BH29">
         <f t="shared" si="49"/>
-        <v>2</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="BI29">
         <f t="shared" si="50"/>
@@ -6970,15 +8439,15 @@
       </c>
       <c r="BJ29">
         <f t="shared" si="50"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BK29">
         <f t="shared" si="28"/>
-        <v>2.1666666666666665</v>
+        <v>2.6</v>
       </c>
       <c r="BL29">
         <f t="shared" si="29"/>
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="BN29" t="str">
         <f t="shared" si="30"/>
@@ -6986,7 +8455,7 @@
       </c>
       <c r="BO29" s="15">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BP29" s="15">
         <f t="shared" si="31"/>
@@ -6994,7 +8463,7 @@
       </c>
       <c r="BQ29" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BR29" s="15">
         <f t="shared" si="31"/>
@@ -7002,7 +8471,7 @@
       </c>
       <c r="BS29" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BT29" s="15">
         <f t="shared" si="31"/>
@@ -7062,7 +8531,7 @@
       </c>
       <c r="CH29" s="20">
         <f t="shared" si="40"/>
-        <v>2</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="CI29" s="20">
         <f t="shared" si="41"/>
@@ -7070,15 +8539,15 @@
       </c>
       <c r="CJ29" s="20">
         <f t="shared" si="41"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CK29" s="20">
         <f t="shared" si="42"/>
-        <v>2.1666666666666665</v>
+        <v>2.6</v>
       </c>
       <c r="CL29" s="20">
         <f t="shared" si="43"/>
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="30" spans="1:90" x14ac:dyDescent="0.25">
@@ -7169,7 +8638,7 @@
       </c>
       <c r="AI30">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ30">
         <f t="shared" si="11"/>
@@ -7185,11 +8654,11 @@
       </c>
       <c r="AM30">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN30">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO30">
         <f t="shared" si="15"/>
@@ -7197,7 +8666,7 @@
       </c>
       <c r="AP30">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ30">
         <f t="shared" si="17"/>
@@ -7205,7 +8674,7 @@
       </c>
       <c r="AR30">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS30">
         <f t="shared" si="19"/>
@@ -7221,7 +8690,7 @@
       </c>
       <c r="AV30">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW30">
         <f t="shared" si="23"/>
@@ -7229,7 +8698,7 @@
       </c>
       <c r="AX30">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AY30">
         <f t="shared" si="25"/>
@@ -7237,7 +8706,7 @@
       </c>
       <c r="AZ30">
         <f t="shared" si="26"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA30">
         <f t="shared" si="27"/>
@@ -7245,7 +8714,7 @@
       </c>
       <c r="BB30">
         <f t="shared" si="45"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC30">
         <f t="shared" si="45"/>
@@ -7253,19 +8722,19 @@
       </c>
       <c r="BD30">
         <f t="shared" si="46"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BE30">
         <f t="shared" si="47"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BF30">
         <f t="shared" si="48"/>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="BG30">
         <f t="shared" si="49"/>
-        <v>2.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="BH30">
         <f t="shared" si="49"/>
@@ -7273,7 +8742,7 @@
       </c>
       <c r="BI30">
         <f t="shared" si="50"/>
-        <v>1.3333333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="BJ30">
         <f t="shared" si="50"/>
@@ -7281,11 +8750,11 @@
       </c>
       <c r="BK30">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="BL30">
         <f t="shared" si="29"/>
-        <v>3.2</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="BN30" t="str">
         <f t="shared" si="30"/>
@@ -7293,11 +8762,11 @@
       </c>
       <c r="BO30" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP30" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BQ30" s="15">
         <f t="shared" si="31"/>
@@ -7305,7 +8774,7 @@
       </c>
       <c r="BR30" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS30" s="15">
         <f t="shared" si="31"/>
@@ -7313,7 +8782,7 @@
       </c>
       <c r="BT30" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU30" s="15">
         <f t="shared" si="31"/>
@@ -7329,7 +8798,7 @@
       </c>
       <c r="BX30" s="15">
         <f t="shared" si="32"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BY30" s="15">
         <f t="shared" si="33"/>
@@ -7337,7 +8806,7 @@
       </c>
       <c r="BZ30" s="15">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CA30" s="15">
         <f t="shared" si="35"/>
@@ -7345,7 +8814,7 @@
       </c>
       <c r="CB30" s="15">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CC30" s="15">
         <f t="shared" si="36"/>
@@ -7353,19 +8822,19 @@
       </c>
       <c r="CD30" s="15">
         <f t="shared" si="37"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="CE30" s="15">
         <f t="shared" si="38"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="CF30" s="15">
         <f t="shared" si="39"/>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="CG30" s="20">
         <f t="shared" si="40"/>
-        <v>2.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="CH30" s="20">
         <f t="shared" si="40"/>
@@ -7373,7 +8842,7 @@
       </c>
       <c r="CI30" s="20">
         <f t="shared" si="41"/>
-        <v>1.3333333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="CJ30" s="20">
         <f t="shared" si="41"/>
@@ -7381,11 +8850,11 @@
       </c>
       <c r="CK30" s="20">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="CL30" s="20">
         <f t="shared" si="43"/>
-        <v>3.2</v>
+        <v>3.1666666666666665</v>
       </c>
     </row>
     <row r="31" spans="1:90" x14ac:dyDescent="0.25">
@@ -7476,7 +8945,7 @@
       </c>
       <c r="AI31">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ31">
         <f t="shared" si="11"/>
@@ -7492,7 +8961,7 @@
       </c>
       <c r="AM31">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN31">
         <f t="shared" si="14"/>
@@ -7500,7 +8969,7 @@
       </c>
       <c r="AO31">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP31">
         <f t="shared" si="16"/>
@@ -7508,7 +8977,7 @@
       </c>
       <c r="AQ31">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR31">
         <f t="shared" si="18"/>
@@ -7524,7 +8993,7 @@
       </c>
       <c r="AU31">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV31">
         <f t="shared" si="22"/>
@@ -7532,7 +9001,7 @@
       </c>
       <c r="AW31">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX31">
         <f t="shared" si="24"/>
@@ -7540,7 +9009,7 @@
       </c>
       <c r="AY31">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ31">
         <f t="shared" si="26"/>
@@ -7548,7 +9017,7 @@
       </c>
       <c r="BA31">
         <f t="shared" si="27"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BB31">
         <f t="shared" si="45"/>
@@ -7556,19 +9025,19 @@
       </c>
       <c r="BC31">
         <f t="shared" si="45"/>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="BD31">
         <f t="shared" si="46"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BE31">
         <f t="shared" si="47"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BF31">
         <f t="shared" si="48"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG31">
         <f t="shared" si="49"/>
@@ -7576,7 +9045,7 @@
       </c>
       <c r="BH31">
         <f t="shared" si="49"/>
-        <v>1.3333333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="BI31">
         <f t="shared" si="50"/>
@@ -7584,15 +9053,15 @@
       </c>
       <c r="BJ31">
         <f t="shared" si="50"/>
-        <v>2.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="BK31">
         <f t="shared" si="28"/>
-        <v>3.2</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="BL31">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="BN31" t="str">
         <f t="shared" si="30"/>
@@ -7600,7 +9069,7 @@
       </c>
       <c r="BO31" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP31" s="15">
         <f t="shared" si="31"/>
@@ -7608,7 +9077,7 @@
       </c>
       <c r="BQ31" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BR31" s="15">
         <f t="shared" si="31"/>
@@ -7616,7 +9085,7 @@
       </c>
       <c r="BS31" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT31" s="15">
         <f t="shared" si="31"/>
@@ -7632,7 +9101,7 @@
       </c>
       <c r="BW31" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BX31" s="15">
         <f t="shared" si="32"/>
@@ -7640,7 +9109,7 @@
       </c>
       <c r="BY31" s="15">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BZ31" s="15">
         <f t="shared" si="34"/>
@@ -7648,7 +9117,7 @@
       </c>
       <c r="CA31" s="15">
         <f t="shared" si="35"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="CB31" s="15">
         <f t="shared" si="36"/>
@@ -7656,19 +9125,19 @@
       </c>
       <c r="CC31" s="15">
         <f t="shared" si="36"/>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="CD31" s="15">
         <f t="shared" si="37"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="CE31" s="15">
         <f t="shared" si="38"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="CF31" s="15">
         <f t="shared" si="39"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CG31" s="20">
         <f t="shared" si="40"/>
@@ -7676,7 +9145,7 @@
       </c>
       <c r="CH31" s="20">
         <f t="shared" si="40"/>
-        <v>1.3333333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="CI31" s="20">
         <f t="shared" si="41"/>
@@ -7684,15 +9153,15 @@
       </c>
       <c r="CJ31" s="20">
         <f t="shared" si="41"/>
-        <v>2.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="CK31" s="20">
         <f t="shared" si="42"/>
-        <v>3.2</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="CL31" s="20">
         <f t="shared" si="43"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="32" spans="1:90" x14ac:dyDescent="0.25">
@@ -8925,7 +10394,7 @@
     </row>
     <row r="36" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f t="shared" ref="A36:A43" si="52">TEXT($B36,"dddd")</f>
+        <f t="shared" ref="A36:A55" si="52">TEXT($B36,"dddd")</f>
         <v>Tuesday</v>
       </c>
       <c r="B36" s="7">
@@ -9651,7 +11120,7 @@
         <v>164</v>
       </c>
       <c r="J39" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K39" s="8">
         <v>1</v>
@@ -9678,24 +11147,30 @@
       <c r="R39" s="7">
         <v>45777</v>
       </c>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5" t="str">
+      <c r="S39" s="5">
+        <v>1</v>
+      </c>
+      <c r="T39" s="5">
+        <v>4</v>
+      </c>
+      <c r="U39" s="5">
+        <v>0</v>
+      </c>
+      <c r="V39" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W39" s="5" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="X39" s="5" t="str">
+        <v>WSH</v>
+      </c>
+      <c r="X39" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y39" s="5" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>-2</v>
       </c>
       <c r="AD39" s="8"/>
     </row>
@@ -9732,7 +11207,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>35</v>
@@ -9898,7 +11373,7 @@
         <v>158</v>
       </c>
       <c r="J41" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K41" s="8">
         <v>2</v>
@@ -9925,29 +11400,38 @@
       <c r="R41" s="7">
         <v>45777</v>
       </c>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5" t="str">
+      <c r="S41" s="5">
+        <v>3</v>
+      </c>
+      <c r="T41" s="5">
+        <v>5</v>
+      </c>
+      <c r="U41" s="5">
+        <v>0</v>
+      </c>
+      <c r="V41" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W41" s="5" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="X41" s="5" t="str">
+        <v>WPG</v>
+      </c>
+      <c r="X41" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y41" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>-3</v>
       </c>
       <c r="AD41" s="8"/>
+      <c r="AH41" t="s">
+        <v>39</v>
+      </c>
       <c r="AI41">
         <f>COUNTIFS($L$2:$L$100, AH41, $E$2:$E$100, 1) + COUNTIFS($M$2:$M$100, AH41, $E$2:$E$100, 1)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ41">
         <f>COUNTIFS($L$2:$L$100, AH41, $E$2:$E$100, 2) + COUNTIFS($M$2:$M$100, AH41, $E$2:$E$100, 2)</f>
@@ -9963,27 +11447,27 @@
       </c>
       <c r="AM41">
         <f>AI41+AJ41+AK41+AL41</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN41">
         <f>COUNTIF($M$2:$M$100, AH41)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO41">
         <f>COUNTIF($L$2:$L$100, AH41)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP41">
         <f>AR41+AT41</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ41">
         <f>AM41-AP41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <f>SUMPRODUCT(($M$2:$M$100=AH41)*($T$2:$T$100&gt;$S$2:$S$100))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS41">
         <f>SUMPRODUCT(($M$2:$M$100=AH22)*($T$2:$T$100&lt;$S$2:$S$100))</f>
@@ -9991,11 +11475,11 @@
       </c>
       <c r="AT41">
         <f>SUMPRODUCT(($L$2:$L$100=AH41)*($T$2:$T$100&lt;$S$2:$S$100))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU41">
         <f>SUMPRODUCT(($L$2:$L$100=AH41)*($T$2:$T$100&gt;$S$2:$S$100))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV41">
         <f>COUNTIFS($M$2:$M$100,AH41,$E$2:$E$100,2)</f>
@@ -10057,13 +11541,13 @@
         <f>BA41/AW41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK41" t="e">
+      <c r="BK41">
         <f>BD41/AI41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL41" t="e">
+        <v>0</v>
+      </c>
+      <c r="BL41">
         <f>BE41/AI41</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:90" x14ac:dyDescent="0.25">
@@ -10074,39 +11558,41 @@
       <c r="B42" s="7">
         <v>45778</v>
       </c>
-      <c r="C42" s="23"/>
+      <c r="C42" s="23">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="D42" s="7" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E42" s="8">
         <v>1</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G42" s="8">
         <v>6</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="J42" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K42" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="N42" s="5" t="str">
-        <f t="shared" si="53"/>
+        <f>IF(OR(ISBLANK(O42), ISBLANK($P42)), "", IF($O42&gt;$P42,#REF!,#REF!))</f>
         <v/>
       </c>
       <c r="O42" s="5"/>
@@ -10117,11 +11603,11 @@
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK($U42),"",IF($S42=$T42,0,IF(#REF!=$N42,IF($S42&gt;$T42,1,0),IF($T42&gt;$S42,1,0))))</f>
         <v/>
       </c>
       <c r="W42" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f>IF(OR(ISBLANK($S42), ISBLANK($T42), ISBLANK($U42)), "", IF(S42&gt;T42,#REF!,#REF!))</f>
         <v/>
       </c>
       <c r="X42" s="5" t="str">
@@ -10132,9 +11618,12 @@
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
+      <c r="AH42" t="s">
+        <v>18</v>
+      </c>
       <c r="AI42">
         <f t="shared" ref="AI42:AI48" si="54">COUNTIFS($L$2:$L$100, AH42, $E$2:$E$100, 1) + COUNTIFS($M$2:$M$100, AH42, $E$2:$E$100, 1)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ42">
         <f t="shared" ref="AJ42:AJ48" si="55">COUNTIFS($L$2:$L$100, AH42, $E$2:$E$100, 2) + COUNTIFS($M$2:$M$100, AH42, $E$2:$E$100, 2)</f>
@@ -10150,27 +11639,27 @@
       </c>
       <c r="AM42">
         <f t="shared" ref="AM42:AM48" si="58">AI42+AJ42+AK42+AL42</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN42">
         <f t="shared" ref="AN42:AN48" si="59">COUNTIF($M$2:$M$100, AH42)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO42">
         <f t="shared" ref="AO42:AO48" si="60">COUNTIF($L$2:$L$100, AH42)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP42">
         <f t="shared" ref="AP42:AP48" si="61">AR42+AT42</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ42">
         <f t="shared" ref="AQ42:AQ48" si="62">AM42-AP42</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR42">
         <f t="shared" ref="AR42:AR48" si="63">SUMPRODUCT(($M$2:$M$100=AH42)*($T$2:$T$100&gt;$S$2:$S$100))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS42">
         <f t="shared" ref="AS42:AS48" si="64">SUMPRODUCT(($M$2:$M$100=AH23)*($T$2:$T$100&lt;$S$2:$S$100))</f>
@@ -10178,11 +11667,11 @@
       </c>
       <c r="AT42">
         <f t="shared" ref="AT42:AT48" si="65">SUMPRODUCT(($L$2:$L$100=AH42)*($T$2:$T$100&lt;$S$2:$S$100))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU42">
         <f t="shared" ref="AU42:AU48" si="66">SUMPRODUCT(($L$2:$L$100=AH42)*($T$2:$T$100&gt;$S$2:$S$100))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV42">
         <f t="shared" ref="AV42:AV48" si="67">COUNTIFS($M$2:$M$100,AH42,$E$2:$E$100,2)</f>
@@ -10244,13 +11733,13 @@
         <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK42" t="e">
+      <c r="BK42">
         <f t="shared" ref="BK42:BK48" si="79">BD42/AI42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL42" t="e">
+        <v>0</v>
+      </c>
+      <c r="BL42">
         <f t="shared" ref="BL42:BL48" si="80">BE42/AI42</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:90" x14ac:dyDescent="0.25">
@@ -10258,42 +11747,44 @@
         <f t="shared" si="52"/>
         <v>Thursday</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="36">
         <v>45778</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="8">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" s="8">
+      <c r="C43" s="37">
+        <v>0.9375</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="38">
+        <v>1</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="38">
         <v>6</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J43" s="8">
+      <c r="H43" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43" s="38">
         <v>3</v>
       </c>
-      <c r="K43" s="8">
-        <v>2</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>51</v>
+      <c r="K43" s="38">
+        <v>2</v>
+      </c>
+      <c r="L43" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="M43" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="N43" s="5" t="str">
-        <f t="shared" si="53"/>
+        <f>IF(OR(ISBLANK(O43), ISBLANK($P43)), "", IF($O43&gt;$P43, $L42,$M42))</f>
         <v/>
       </c>
       <c r="O43" s="5"/>
@@ -10304,11 +11795,11 @@
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
       <c r="V43" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK($U43),"",IF($S43=$T43,0,IF($L42=$N43,IF($S43&gt;$T43,1,0),IF($T43&gt;$S43,1,0))))</f>
         <v/>
       </c>
       <c r="W43" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f>IF(OR(ISBLANK($S43), ISBLANK($T43), ISBLANK($U43)), "", IF(S43&gt;T43,L42,M42))</f>
         <v/>
       </c>
       <c r="X43" s="5" t="str">
@@ -10442,45 +11933,47 @@
     </row>
     <row r="44" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f t="shared" ref="A44:A55" si="81">TEXT($B44,"dddd")</f>
+        <f t="shared" si="52"/>
         <v>Thursday</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="36">
         <v>45778</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="7" t="s">
+      <c r="C44" s="37">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D44" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="8">
-        <v>1</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" s="8">
+      <c r="E44" s="38">
+        <v>1</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="38">
         <v>6</v>
       </c>
-      <c r="H44" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J44" s="8">
+      <c r="H44" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" s="38">
+        <v>2</v>
+      </c>
+      <c r="K44" s="38">
         <v>3</v>
       </c>
-      <c r="K44" s="8">
-        <v>2</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>50</v>
+      <c r="L44" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="M44" s="39" t="s">
+        <v>53</v>
       </c>
       <c r="N44" s="5" t="str">
-        <f t="shared" ref="N44:N55" si="82">IF(OR(ISBLANK(O44), ISBLANK($P44)), "", IF($O44&gt;$P44, $L44,$M44))</f>
+        <f>IF(OR(ISBLANK(O44), ISBLANK($P44)), "", IF($O44&gt;$P44, $L43,$M43))</f>
         <v/>
       </c>
       <c r="O44" s="5"/>
@@ -10491,11 +11984,11 @@
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK($U44),"",IF($S44=$T44,0,IF($L43=$N44,IF($S44&gt;$T44,1,0),IF($T44&gt;$S44,1,0))))</f>
         <v/>
       </c>
       <c r="W44" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f>IF(OR(ISBLANK($S44), ISBLANK($T44), ISBLANK($U44)), "", IF(S44&gt;T44,L43,M43))</f>
         <v/>
       </c>
       <c r="X44" s="5" t="str">
@@ -10506,9 +11999,12 @@
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
+      <c r="AH44" t="s">
+        <v>35</v>
+      </c>
       <c r="AI44">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ44">
         <f t="shared" si="55"/>
@@ -10524,27 +12020,27 @@
       </c>
       <c r="AM44">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN44">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO44">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP44">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ44">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS44">
         <f t="shared" si="64"/>
@@ -10552,7 +12048,7 @@
       </c>
       <c r="AT44">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU44">
         <f t="shared" si="66"/>
@@ -10618,56 +12114,56 @@
         <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK44" t="e">
+      <c r="BK44">
         <f t="shared" si="79"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL44" t="e">
+        <v>0</v>
+      </c>
+      <c r="BL44">
         <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f t="shared" si="81"/>
-        <v>Thursday</v>
-      </c>
-      <c r="B45" s="7">
-        <v>45778</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="8">
-        <v>1</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" s="8">
+        <f t="shared" si="52"/>
+        <v>Friday</v>
+      </c>
+      <c r="B45" s="36">
+        <v>45779</v>
+      </c>
+      <c r="C45" s="37"/>
+      <c r="D45" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="38">
+        <v>1</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="38">
         <v>6</v>
       </c>
-      <c r="H45" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J45" s="8">
-        <v>2</v>
-      </c>
-      <c r="K45" s="8">
+      <c r="H45" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="J45" s="38">
         <v>3</v>
       </c>
-      <c r="L45" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>53</v>
+      <c r="K45" s="38">
+        <v>2</v>
+      </c>
+      <c r="L45" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="M45" s="39" t="s">
+        <v>32</v>
       </c>
       <c r="N45" s="5" t="str">
-        <f t="shared" si="82"/>
+        <f>IF(OR(ISBLANK(O45), ISBLANK($P45)), "", IF($O45&gt;$P45, $L44,$M44))</f>
         <v/>
       </c>
       <c r="O45" s="5"/>
@@ -10678,11 +12174,11 @@
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
       <c r="V45" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK($U45),"",IF($S45=$T45,0,IF($L44=$N45,IF($S45&gt;$T45,1,0),IF($T45&gt;$S45,1,0))))</f>
         <v/>
       </c>
       <c r="W45" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f>IF(OR(ISBLANK($S45), ISBLANK($T45), ISBLANK($U45)), "", IF(S45&gt;T45,L44,M44))</f>
         <v/>
       </c>
       <c r="X45" s="5" t="str">
@@ -10816,45 +12312,45 @@
     </row>
     <row r="46" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="52"/>
         <v>Friday</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="12">
         <v>45779</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="8">
-        <v>1</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" s="8">
+      <c r="C46" s="24"/>
+      <c r="D46" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="3">
         <v>6</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="J46" s="8">
+        <v>158</v>
+      </c>
+      <c r="J46" s="3">
         <v>3</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="3">
         <v>2</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N46" s="5" t="str">
-        <f t="shared" si="82"/>
+        <f>IF(OR(ISBLANK(O46), ISBLANK($P46)), "", IF($O46&gt;$P46, $L45,$M45))</f>
         <v/>
       </c>
       <c r="O46" s="5"/>
@@ -10865,11 +12361,11 @@
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK($U46),"",IF($S46=$T46,0,IF($L45=$N46,IF($S46&gt;$T46,1,0),IF($T46&gt;$S46,1,0))))</f>
         <v/>
       </c>
       <c r="W46" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f>IF(OR(ISBLANK($S46), ISBLANK($T46), ISBLANK($U46)), "", IF(S46&gt;T46,L45,M45))</f>
         <v/>
       </c>
       <c r="X46" s="5" t="str">
@@ -11003,7 +12499,7 @@
     </row>
     <row r="47" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="52"/>
         <v>Saturday</v>
       </c>
       <c r="B47" s="7"/>
@@ -11017,7 +12513,7 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" ref="N44:N55" si="81">IF(OR(ISBLANK(O47), ISBLANK($P47)), "", IF($O47&gt;$P47, $L47,$M47))</f>
         <v/>
       </c>
       <c r="O47" s="5"/>
@@ -11166,7 +12662,7 @@
     </row>
     <row r="48" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="52"/>
         <v>Saturday</v>
       </c>
       <c r="B48" s="7"/>
@@ -11180,7 +12676,7 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="O48" s="5"/>
@@ -11329,7 +12825,7 @@
     </row>
     <row r="49" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="52"/>
         <v>Saturday</v>
       </c>
       <c r="B49" s="7"/>
@@ -11343,7 +12839,7 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="O49" s="5"/>
@@ -11372,7 +12868,7 @@
     </row>
     <row r="50" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="52"/>
         <v>Saturday</v>
       </c>
       <c r="B50" s="7"/>
@@ -11386,7 +12882,7 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="O50" s="5"/>
@@ -11415,7 +12911,7 @@
     </row>
     <row r="51" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="52"/>
         <v>Saturday</v>
       </c>
       <c r="B51" s="7"/>
@@ -11429,7 +12925,7 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="O51" s="5"/>
@@ -11549,7 +13045,7 @@
     </row>
     <row r="52" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="52"/>
         <v>Saturday</v>
       </c>
       <c r="B52" s="7"/>
@@ -11562,7 +13058,7 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="O52" s="5"/>
@@ -11665,11 +13161,11 @@
         <v>0</v>
       </c>
       <c r="BB52">
-        <f t="shared" ref="BB52:BC55" si="83">AX52-AZ52</f>
+        <f t="shared" ref="BB52:BC55" si="82">AX52-AZ52</f>
         <v>0</v>
       </c>
       <c r="BC52">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="BD52">
@@ -11685,19 +13181,19 @@
         <v>0</v>
       </c>
       <c r="BG52" t="e">
-        <f t="shared" ref="BG52:BH55" si="84">AX52/AV52</f>
+        <f t="shared" ref="BG52:BH55" si="83">AX52/AV52</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BH52" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI52" t="e">
+        <f t="shared" ref="BI52:BJ55" si="84">AZ52/AV52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ52" t="e">
         <f t="shared" si="84"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI52" t="e">
-        <f t="shared" ref="BI52:BJ55" si="85">AZ52/AV52</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ52" t="e">
-        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK52" t="e">
@@ -11711,7 +13207,7 @@
     </row>
     <row r="53" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="52"/>
         <v>Saturday</v>
       </c>
       <c r="B53" s="7"/>
@@ -11724,7 +13220,7 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="O53" s="5"/>
@@ -11751,129 +13247,129 @@
         <v/>
       </c>
       <c r="AI53">
-        <f t="shared" ref="AI53:AI55" si="86">COUNTIFS($L$2:$L$100, AH53, $E$2:$E$100, 1) + COUNTIFS($M$2:$M$100, AH53, $E$2:$E$100, 1)</f>
+        <f t="shared" ref="AI53:AI55" si="85">COUNTIFS($L$2:$L$100, AH53, $E$2:$E$100, 1) + COUNTIFS($M$2:$M$100, AH53, $E$2:$E$100, 1)</f>
         <v>0</v>
       </c>
       <c r="AJ53">
-        <f t="shared" ref="AJ53:AJ55" si="87">COUNTIFS($L$2:$L$100, AH53, $E$2:$E$100, 2) + COUNTIFS($M$2:$M$100, AH53, $E$2:$E$100, 2)</f>
+        <f t="shared" ref="AJ53:AJ55" si="86">COUNTIFS($L$2:$L$100, AH53, $E$2:$E$100, 2) + COUNTIFS($M$2:$M$100, AH53, $E$2:$E$100, 2)</f>
         <v>0</v>
       </c>
       <c r="AK53">
-        <f t="shared" ref="AK53:AK55" si="88">COUNTIFS($L$2:$L$100, AH53, $E$2:$E$100, 3) + COUNTIFS($M$2:$M$100, AH53, $E$2:$E$100, 3)</f>
+        <f t="shared" ref="AK53:AK55" si="87">COUNTIFS($L$2:$L$100, AH53, $E$2:$E$100, 3) + COUNTIFS($M$2:$M$100, AH53, $E$2:$E$100, 3)</f>
         <v>0</v>
       </c>
       <c r="AL53">
-        <f t="shared" ref="AL53:AL55" si="89">COUNTIFS($L$2:$L$100, AH53, $E$2:$E$100, 4) + COUNTIFS($M$2:$M$100, AH53, $E$2:$E$100, 4)</f>
+        <f t="shared" ref="AL53:AL55" si="88">COUNTIFS($L$2:$L$100, AH53, $E$2:$E$100, 4) + COUNTIFS($M$2:$M$100, AH53, $E$2:$E$100, 4)</f>
         <v>0</v>
       </c>
       <c r="AM53">
-        <f t="shared" ref="AM53:AM55" si="90">AI53+AJ53+AK53+AL53</f>
+        <f t="shared" ref="AM53:AM55" si="89">AI53+AJ53+AK53+AL53</f>
         <v>0</v>
       </c>
       <c r="AN53">
-        <f t="shared" ref="AN53:AN55" si="91">COUNTIF($M$2:$M$100, AH53)</f>
+        <f t="shared" ref="AN53:AN55" si="90">COUNTIF($M$2:$M$100, AH53)</f>
         <v>0</v>
       </c>
       <c r="AO53">
-        <f t="shared" ref="AO53:AO55" si="92">COUNTIF($L$2:$L$100, AH53)</f>
+        <f t="shared" ref="AO53:AO55" si="91">COUNTIF($L$2:$L$100, AH53)</f>
         <v>0</v>
       </c>
       <c r="AP53">
-        <f t="shared" ref="AP53:AP55" si="93">AR53+AT53</f>
+        <f t="shared" ref="AP53:AP55" si="92">AR53+AT53</f>
         <v>0</v>
       </c>
       <c r="AQ53">
-        <f t="shared" ref="AQ53:AQ55" si="94">AM53-AP53</f>
+        <f t="shared" ref="AQ53:AQ55" si="93">AM53-AP53</f>
         <v>0</v>
       </c>
       <c r="AR53">
-        <f t="shared" ref="AR53:AR55" si="95">SUMPRODUCT(($M$2:$M$100=AH53)*($T$2:$T$100&gt;$S$2:$S$100))</f>
+        <f t="shared" ref="AR53:AR55" si="94">SUMPRODUCT(($M$2:$M$100=AH53)*($T$2:$T$100&gt;$S$2:$S$100))</f>
         <v>0</v>
       </c>
       <c r="AS53">
-        <f t="shared" ref="AS53:AS55" si="96">SUMPRODUCT(($M$2:$M$100=AH53)*($T$2:$T$100&lt;$S$2:$S$100))</f>
+        <f t="shared" ref="AS53:AS55" si="95">SUMPRODUCT(($M$2:$M$100=AH53)*($T$2:$T$100&lt;$S$2:$S$100))</f>
         <v>0</v>
       </c>
       <c r="AT53">
-        <f t="shared" ref="AT53:AT55" si="97">SUMPRODUCT(($L$2:$L$100=AH53)*($T$2:$T$100&lt;$S$2:$S$100))</f>
+        <f t="shared" ref="AT53:AT55" si="96">SUMPRODUCT(($L$2:$L$100=AH53)*($T$2:$T$100&lt;$S$2:$S$100))</f>
         <v>0</v>
       </c>
       <c r="AU53">
-        <f t="shared" ref="AU53:AU55" si="98">SUMPRODUCT(($L$2:$L$100=AH53)*($T$2:$T$100&gt;$S$2:$S$100))</f>
+        <f t="shared" ref="AU53:AU55" si="97">SUMPRODUCT(($L$2:$L$100=AH53)*($T$2:$T$100&gt;$S$2:$S$100))</f>
         <v>0</v>
       </c>
       <c r="AV53">
-        <f t="shared" ref="AV53:AV55" si="99">COUNTIFS($M$2:$M$100,AH53,$E$2:$E$100,3)</f>
+        <f t="shared" ref="AV53:AV55" si="98">COUNTIFS($M$2:$M$100,AH53,$E$2:$E$100,3)</f>
         <v>0</v>
       </c>
       <c r="AW53">
-        <f t="shared" ref="AW53:AW55" si="100">COUNTIFS($L$2:$L$100,AH53,$E$2:$E$100,3)</f>
+        <f t="shared" ref="AW53:AW55" si="99">COUNTIFS($L$2:$L$100,AH53,$E$2:$E$100,3)</f>
         <v>0</v>
       </c>
       <c r="AX53">
-        <f t="shared" ref="AX53:AX55" si="101">SUMIFS($T$2:$T$100, $M$2:$M$100, AH53,$E$2:$E$100, 3)</f>
+        <f t="shared" ref="AX53:AX55" si="100">SUMIFS($T$2:$T$100, $M$2:$M$100, AH53,$E$2:$E$100, 3)</f>
         <v>0</v>
       </c>
       <c r="AY53">
-        <f t="shared" ref="AY53:AY55" si="102">SUMIFS($S$2:$S$100, $L$2:$L$100, AH53,$E$2:$E$100, 3)</f>
+        <f t="shared" ref="AY53:AY55" si="101">SUMIFS($S$2:$S$100, $L$2:$L$100, AH53,$E$2:$E$100, 3)</f>
         <v>0</v>
       </c>
       <c r="AZ53">
-        <f t="shared" ref="AZ53:AZ55" si="103">SUMIFS($S$2:$S$100, $M$2:$M$100, AH53,$E$2:$E$100, 3)</f>
+        <f t="shared" ref="AZ53:AZ55" si="102">SUMIFS($S$2:$S$100, $M$2:$M$100, AH53,$E$2:$E$100, 3)</f>
         <v>0</v>
       </c>
       <c r="BA53">
-        <f t="shared" ref="BA53:BA55" si="104">SUMIFS($T$2:$T$100, $L$2:$L$100, AH53,$E$2:$E$100, 3)</f>
+        <f t="shared" ref="BA53:BA55" si="103">SUMIFS($T$2:$T$100, $L$2:$L$100, AH53,$E$2:$E$100, 3)</f>
         <v>0</v>
       </c>
       <c r="BB53">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="BD53">
+        <f t="shared" ref="BD53:BD55" si="104">AX53+AY53</f>
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <f t="shared" ref="BE53:BE55" si="105">AZ53+BA53</f>
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <f t="shared" ref="BF53:BF55" si="106">(AX53+AY53)-(AZ53+BA53)</f>
+        <v>0</v>
+      </c>
+      <c r="BG53" t="e">
         <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="BC53">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH53" t="e">
         <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="BD53">
-        <f t="shared" ref="BD53:BD55" si="105">AX53+AY53</f>
-        <v>0</v>
-      </c>
-      <c r="BE53">
-        <f t="shared" ref="BE53:BE55" si="106">AZ53+BA53</f>
-        <v>0</v>
-      </c>
-      <c r="BF53">
-        <f t="shared" ref="BF53:BF55" si="107">(AX53+AY53)-(AZ53+BA53)</f>
-        <v>0</v>
-      </c>
-      <c r="BG53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI53" t="e">
         <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BH53" t="e">
+      <c r="BJ53" t="e">
         <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BI53" t="e">
-        <f t="shared" si="85"/>
+      <c r="BK53" t="e">
+        <f t="shared" ref="BK53:BK55" si="107">BD53/AI53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ53" t="e">
-        <f t="shared" si="85"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BK53" t="e">
-        <f t="shared" ref="BK53:BK55" si="108">BD53/AI53</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="BL53" t="e">
-        <f t="shared" ref="BL53:BL55" si="109">BE53/AI53</f>
+        <f t="shared" ref="BL53:BL55" si="108">BE53/AI53</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="54" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="52"/>
         <v>Saturday</v>
       </c>
       <c r="B54" s="7"/>
@@ -11886,7 +13382,7 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="O54" s="5"/>
@@ -11913,129 +13409,129 @@
         <v/>
       </c>
       <c r="AI54">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="AJ54">
         <f t="shared" si="86"/>
         <v>0</v>
       </c>
-      <c r="AJ54">
+      <c r="AK54">
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="AK54">
+      <c r="AL54">
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
-      <c r="AL54">
+      <c r="AM54">
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
-      <c r="AM54">
+      <c r="AN54">
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="AN54">
+      <c r="AO54">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="AO54">
+      <c r="AP54">
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
-      <c r="AP54">
+      <c r="AQ54">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="AQ54">
+      <c r="AR54">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="AR54">
+      <c r="AS54">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AS54">
+      <c r="AT54">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="AT54">
+      <c r="AU54">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="AU54">
+      <c r="AV54">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="AV54">
+      <c r="AW54">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="AW54">
+      <c r="AX54">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="AX54">
+      <c r="AY54">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="AY54">
+      <c r="AZ54">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="AZ54">
+      <c r="BA54">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="BA54">
+      <c r="BB54">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="BD54">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="BB54">
+      <c r="BE54">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="BG54" t="e">
         <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="BC54">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH54" t="e">
         <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="BD54">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="BE54">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="BF54">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="BG54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI54" t="e">
         <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BH54" t="e">
+      <c r="BJ54" t="e">
         <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BI54" t="e">
-        <f t="shared" si="85"/>
+      <c r="BK54" t="e">
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ54" t="e">
-        <f t="shared" si="85"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BK54" t="e">
+      <c r="BL54" t="e">
         <f t="shared" si="108"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL54" t="e">
-        <f t="shared" si="109"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="55" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="52"/>
         <v>Saturday</v>
       </c>
       <c r="B55" s="7"/>
@@ -12048,7 +13544,7 @@
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="O55" s="5"/>
@@ -12075,123 +13571,123 @@
         <v/>
       </c>
       <c r="AI55">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="AJ55">
         <f t="shared" si="86"/>
         <v>0</v>
       </c>
-      <c r="AJ55">
+      <c r="AK55">
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="AK55">
+      <c r="AL55">
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
-      <c r="AL55">
+      <c r="AM55">
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
-      <c r="AM55">
+      <c r="AN55">
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="AN55">
+      <c r="AO55">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="AO55">
+      <c r="AP55">
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
-      <c r="AP55">
+      <c r="AQ55">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="AQ55">
+      <c r="AR55">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="AR55">
+      <c r="AS55">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AS55">
+      <c r="AT55">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="AT55">
+      <c r="AU55">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="AU55">
+      <c r="AV55">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="AV55">
+      <c r="AW55">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="AW55">
+      <c r="AX55">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="AX55">
+      <c r="AY55">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="AY55">
+      <c r="AZ55">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="AZ55">
+      <c r="BA55">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="BA55">
+      <c r="BB55">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="BD55">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="BB55">
+      <c r="BE55">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="BG55" t="e">
         <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="BC55">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH55" t="e">
         <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="BD55">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="BE55">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="BF55">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="BG55" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI55" t="e">
         <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BH55" t="e">
+      <c r="BJ55" t="e">
         <f t="shared" si="84"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BI55" t="e">
-        <f t="shared" si="85"/>
+      <c r="BK55" t="e">
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ55" t="e">
-        <f t="shared" si="85"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BK55" t="e">
+      <c r="BL55" t="e">
         <f t="shared" si="108"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL55" t="e">
-        <f t="shared" si="109"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12466,11 +13962,11 @@
         <v>0</v>
       </c>
       <c r="BB59">
-        <f t="shared" ref="BB59:BC60" si="110">AX59-AZ59</f>
+        <f t="shared" ref="BB59:BC60" si="109">AX59-AZ59</f>
         <v>0</v>
       </c>
       <c r="BC59">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="BD59">
@@ -12486,19 +13982,19 @@
         <v>0</v>
       </c>
       <c r="BG59" t="e">
-        <f t="shared" ref="BG59:BH60" si="111">AX59/AV59</f>
+        <f t="shared" ref="BG59:BH60" si="110">AX59/AV59</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BH59" t="e">
+        <f t="shared" si="110"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI59" t="e">
+        <f t="shared" ref="BI59:BJ60" si="111">AZ59/AV59</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ59" t="e">
         <f t="shared" si="111"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI59" t="e">
-        <f t="shared" ref="BI59:BJ60" si="112">AZ59/AV59</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ59" t="e">
-        <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK59" t="e">
@@ -12536,23 +14032,23 @@
         <v/>
       </c>
       <c r="AI60">
-        <f t="shared" ref="AI60" si="113">COUNTIFS($L$2:$L$100, AH60, $E$2:$E$100, 1) + COUNTIFS($M$2:$M$100, AH60, $E$2:$E$100, 1)</f>
+        <f t="shared" ref="AI60" si="112">COUNTIFS($L$2:$L$100, AH60, $E$2:$E$100, 1) + COUNTIFS($M$2:$M$100, AH60, $E$2:$E$100, 1)</f>
         <v>0</v>
       </c>
       <c r="AJ60">
-        <f t="shared" ref="AJ60" si="114">COUNTIFS($L$2:$L$100, AH60, $E$2:$E$100, 2) + COUNTIFS($M$2:$M$100, AH60, $E$2:$E$100, 2)</f>
+        <f t="shared" ref="AJ60" si="113">COUNTIFS($L$2:$L$100, AH60, $E$2:$E$100, 2) + COUNTIFS($M$2:$M$100, AH60, $E$2:$E$100, 2)</f>
         <v>0</v>
       </c>
       <c r="AK60">
-        <f t="shared" ref="AK60" si="115">COUNTIFS($L$2:$L$100, AH60, $E$2:$E$100, 3) + COUNTIFS($M$2:$M$100, AH60, $E$2:$E$100, 3)</f>
+        <f t="shared" ref="AK60" si="114">COUNTIFS($L$2:$L$100, AH60, $E$2:$E$100, 3) + COUNTIFS($M$2:$M$100, AH60, $E$2:$E$100, 3)</f>
         <v>0</v>
       </c>
       <c r="AL60">
-        <f t="shared" ref="AL60" si="116">COUNTIFS($L$2:$L$100, AH60, $E$2:$E$100, 4) + COUNTIFS($M$2:$M$100, AH60, $E$2:$E$100, 4)</f>
+        <f t="shared" ref="AL60" si="115">COUNTIFS($L$2:$L$100, AH60, $E$2:$E$100, 4) + COUNTIFS($M$2:$M$100, AH60, $E$2:$E$100, 4)</f>
         <v>0</v>
       </c>
       <c r="AM60">
-        <f t="shared" ref="AM60" si="117">AI60+AJ60+AK60+AL60</f>
+        <f t="shared" ref="AM60" si="116">AI60+AJ60+AK60+AL60</f>
         <v>0</v>
       </c>
       <c r="AN60">
@@ -12612,47 +14108,47 @@
         <v>0</v>
       </c>
       <c r="BB60">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="BC60">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="BD60">
+        <f t="shared" ref="BD60" si="117">AX60+AY60</f>
+        <v>0</v>
+      </c>
+      <c r="BE60">
+        <f t="shared" ref="BE60" si="118">AZ60+BA60</f>
+        <v>0</v>
+      </c>
+      <c r="BF60">
+        <f t="shared" ref="BF60" si="119">(AX60+AY60)-(AZ60+BA60)</f>
+        <v>0</v>
+      </c>
+      <c r="BG60" t="e">
         <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="BC60">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BH60" t="e">
         <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="BD60">
-        <f t="shared" ref="BD60" si="118">AX60+AY60</f>
-        <v>0</v>
-      </c>
-      <c r="BE60">
-        <f t="shared" ref="BE60" si="119">AZ60+BA60</f>
-        <v>0</v>
-      </c>
-      <c r="BF60">
-        <f t="shared" ref="BF60" si="120">(AX60+AY60)-(AZ60+BA60)</f>
-        <v>0</v>
-      </c>
-      <c r="BG60" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BI60" t="e">
         <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BH60" t="e">
+      <c r="BJ60" t="e">
         <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BI60" t="e">
-        <f t="shared" si="112"/>
+      <c r="BK60" t="e">
+        <f t="shared" ref="BK60" si="120">BD60/AI60</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ60" t="e">
-        <f t="shared" si="112"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BK60" t="e">
-        <f t="shared" ref="BK60" si="121">BD60/AI60</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="BL60" t="e">
-        <f t="shared" ref="BL60" si="122">BE60/AI60</f>
+        <f t="shared" ref="BL60" si="121">BE60/AI60</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12804,7 +14300,7 @@
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5" t="str">
-        <f t="shared" ref="V66:V89" si="123">IF(ISBLANK($U66),"",IF($S66=$T66,0,IF($L66=$N66,IF($S66&gt;$T66,1,0),IF($T66&gt;$S66,1,0))))</f>
+        <f t="shared" ref="V66:V89" si="122">IF(ISBLANK($U66),"",IF($S66=$T66,0,IF($L66=$N66,IF($S66&gt;$T66,1,0),IF($T66&gt;$S66,1,0))))</f>
         <v/>
       </c>
       <c r="W66" s="5" t="str">
@@ -12830,7 +14326,7 @@
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
       <c r="V67" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W67" s="5" t="str">
@@ -12856,7 +14352,7 @@
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
       <c r="V68" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W68" s="5" t="str">
@@ -12882,7 +14378,7 @@
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
       <c r="V69" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W69" s="5" t="str">
@@ -12908,7 +14404,7 @@
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
       <c r="V70" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W70" s="5" t="str">
@@ -12934,7 +14430,7 @@
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
       <c r="V71" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W71" s="5" t="str">
@@ -12960,7 +14456,7 @@
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
       <c r="V72" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W72" s="5" t="str">
@@ -12986,7 +14482,7 @@
       <c r="T73" s="5"/>
       <c r="U73" s="5"/>
       <c r="V73" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W73" s="5" t="str">
@@ -13012,7 +14508,7 @@
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
       <c r="V74" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W74" s="5" t="str">
@@ -13042,7 +14538,7 @@
       <c r="T75" s="5"/>
       <c r="U75" s="5"/>
       <c r="V75" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W75" s="5" t="str">
@@ -13068,7 +14564,7 @@
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
       <c r="V76" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W76" s="5" t="str">
@@ -13094,7 +14590,7 @@
       <c r="T77" s="5"/>
       <c r="U77" s="5"/>
       <c r="V77" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W77" s="5" t="str">
@@ -13120,7 +14616,7 @@
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
       <c r="V78" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W78" s="5" t="str">
@@ -13146,7 +14642,7 @@
       <c r="T79" s="5"/>
       <c r="U79" s="5"/>
       <c r="V79" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W79" s="5" t="str">
@@ -13172,7 +14668,7 @@
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
       <c r="V80" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W80" s="5" t="str">
@@ -13198,7 +14694,7 @@
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
       <c r="V81" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W81" s="5" t="str">
@@ -13224,7 +14720,7 @@
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
       <c r="V82" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W82" s="5" t="str">
@@ -13250,7 +14746,7 @@
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
       <c r="V83" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W83" s="5" t="str">
@@ -13276,7 +14772,7 @@
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W84" s="5" t="str">
@@ -13302,7 +14798,7 @@
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
       <c r="V85" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W85" s="5" t="str">
@@ -13328,7 +14824,7 @@
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W86" s="5" t="str">
@@ -13354,7 +14850,7 @@
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W87" s="5" t="str">
@@ -13380,7 +14876,7 @@
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W88" s="5" t="str">
@@ -13406,7 +14902,7 @@
       <c r="T89" s="5"/>
       <c r="U89" s="5"/>
       <c r="V89" s="5" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="W89" s="5" t="str">
@@ -13415,139 +14911,139 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 A15:AAD10000 N3:N33 F4:F5 A4:E7 V5:V33 A8 C8 H8:M8 Z8:AAD14">
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+  <conditionalFormatting sqref="A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 N3:N33 F4:F5 A4:E7 V5:V33 A8 C8 H8:M8 Z8:AAD14 A15:AAD41 A56:AAD10000 N42:AAD46 B42:M45 B47:AAD55 A42:A55">
+    <cfRule type="cellIs" dxfId="169" priority="128" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="129" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="130" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="131" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AAD10000">
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+  <conditionalFormatting sqref="A1:AAD41 A56:AAD10000 N42:AAD46 B42:M45 B47:AAD55 A42:A55">
+    <cfRule type="cellIs" dxfId="165" priority="87" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:AAD10000 A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 N3:N33 F4:F5 A4:E7 V5:V33 A8 C8 H8:M8 Z8:AAD14">
-    <cfRule type="cellIs" dxfId="37" priority="60" operator="equal">
+  <conditionalFormatting sqref="A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 N3:N33 F4:F5 A4:E7 V5:V33 A8 C8 H8:M8 Z8:AAD14 A15:AAD41 A56:AAD10000 N42:AAD46 B42:M45 B47:AAD55 A42:A55">
+    <cfRule type="cellIs" dxfId="164" priority="144" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="145" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="146" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="147" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="148" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="149" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="150" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="151" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="152" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="153" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="154" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="155" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="156" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="157" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="158" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="73" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="71" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="72" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="70" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="62" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="69" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="68" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="67" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="66" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="65" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="64" operator="equal">
-      <formula>"FLA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="63" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="159" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="88" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="89" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="90" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="91" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="92" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="93" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="94" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="95" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="96" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="97" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="98" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="99" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="100" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="101" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="102" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="103" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="104" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="105" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
-      <formula>"OTT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
-      <formula>"NJD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
-      <formula>"MIN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
-      <formula>"STL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
-      <formula>"LAK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
-      <formula>"FLA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="106" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="107" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:K99">
-    <cfRule type="colorScale" priority="89">
+  <conditionalFormatting sqref="J2:K99">
+    <cfRule type="colorScale" priority="173">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -13559,7 +15055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:K33">
-    <cfRule type="colorScale" priority="88">
+    <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -13571,7 +15067,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J62:K62 J63">
-    <cfRule type="colorScale" priority="87">
+    <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -13581,7 +15077,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="86">
+    <cfRule type="colorScale" priority="171">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -13593,7 +15089,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13603,7 +15099,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="colorScale" priority="90">
+    <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13613,7 +15109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:Y1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13625,17 +15121,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI22:AL37 AI41:AL48 AI52:AL55">
-    <cfRule type="cellIs" dxfId="1" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="168" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI59:AL60">
-    <cfRule type="cellIs" dxfId="0" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="160" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL3:AL17">
-    <cfRule type="colorScale" priority="85">
+    <cfRule type="colorScale" priority="169">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13647,7 +15143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM22:AM37">
-    <cfRule type="colorScale" priority="78">
+    <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13659,7 +15155,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM41:AM48">
-    <cfRule type="colorScale" priority="102">
+    <cfRule type="colorScale" priority="186">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13671,7 +15167,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM52:AM55">
-    <cfRule type="colorScale" priority="96">
+    <cfRule type="colorScale" priority="180">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13683,7 +15179,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM59:AM60">
-    <cfRule type="colorScale" priority="77">
+    <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13695,7 +15191,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD22:BD37">
-    <cfRule type="colorScale" priority="80">
+    <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13707,7 +15203,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD41:BD48">
-    <cfRule type="colorScale" priority="91">
+    <cfRule type="colorScale" priority="175">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13719,7 +15215,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD52:BD55 BD59:BD60">
-    <cfRule type="colorScale" priority="97">
+    <cfRule type="colorScale" priority="181">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13731,7 +15227,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE22:BE37">
-    <cfRule type="colorScale" priority="79">
+    <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13743,7 +15239,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE41:BE48">
-    <cfRule type="colorScale" priority="92">
+    <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13755,7 +15251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE52:BE55 BE59:BE60">
-    <cfRule type="colorScale" priority="98">
+    <cfRule type="colorScale" priority="182">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13767,7 +15263,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF22:BF37 BB22:BC37">
-    <cfRule type="colorScale" priority="81">
+    <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13779,7 +15275,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF41:BF48 BB41:BC48">
-    <cfRule type="colorScale" priority="93">
+    <cfRule type="colorScale" priority="177">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13791,7 +15287,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF52:BF55 BB52:BC55 BF59:BF60 BB59:BC60">
-    <cfRule type="colorScale" priority="99">
+    <cfRule type="colorScale" priority="183">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13803,7 +15299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG22:BH37 BK22:BK37">
-    <cfRule type="colorScale" priority="83">
+    <cfRule type="colorScale" priority="167">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13813,7 +15309,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG41:BH48 BK41:BK48">
-    <cfRule type="colorScale" priority="94">
+    <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13823,7 +15319,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG52:BH55 BK52:BK55 BG59:BH60 BK59:BK60">
-    <cfRule type="colorScale" priority="100">
+    <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13833,7 +15329,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI22:BJ37 BL22:BL37">
-    <cfRule type="colorScale" priority="82">
+    <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13843,7 +15339,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI41:BJ48 BL41:BL48">
-    <cfRule type="colorScale" priority="95">
+    <cfRule type="colorScale" priority="179">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13853,7 +15349,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI52:BJ55 BL52:BL55 BI59:BJ60 BL59:BL60">
-    <cfRule type="colorScale" priority="101">
+    <cfRule type="colorScale" priority="185">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13863,7 +15359,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO22:BO37">
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13873,7 +15369,7 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13885,7 +15381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD22:CD37">
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13895,7 +15391,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13907,7 +15403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE22:CE37">
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13917,7 +15413,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13929,7 +15425,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF22:CF37 CB22:CC37">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13941,7 +15437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF22:CF37">
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13953,7 +15449,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG22:CH37 CK22:CK37">
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13963,7 +15459,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG22:CH37">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13973,7 +15469,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI22:CJ37 CL22:CL37">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13983,13 +15479,151 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI22:CJ37">
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46:I46">
+    <cfRule type="cellIs" dxfId="62" priority="44" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="45" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="46" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="47" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46:I46">
+    <cfRule type="cellIs" dxfId="58" priority="43" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46:I46">
+    <cfRule type="cellIs" dxfId="57" priority="48" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="49" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="50" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="51" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="56" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="57" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="58" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="59" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="60" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="61" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="62" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="63" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46:M46">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46:M46">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46:M46">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
+      <formula>"BOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC861AA-4211-47D3-A2EA-2E9A34A32D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CCF5E3-28B0-444A-A230-A7A9A577A4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="179">
   <si>
     <t>DATE</t>
   </si>
@@ -642,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -733,13 +744,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -749,739 +763,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="219">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFA00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003DB8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD11515"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3F6228"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFA00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003DB8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD11515"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3F6228"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFA00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003DB8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD11515"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3F6228"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="134">
     <dxf>
       <font>
         <b/>
@@ -1976,259 +1258,11 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF0070C0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFA00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003DB8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD11515"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3F6228"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2468,6 +1502,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFFC000"/>
@@ -2655,16 +1699,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3097,76 +2131,76 @@
     <tableColumn id="1" xr3:uid="{35E4500A-DA09-4BF2-A9DD-981973613A2E}" name="Team">
       <calculatedColumnFormula>AH22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A33C8BB1-51F1-4EE0-BAF3-79A0072A877D}" name="GP TOT" dataDxfId="218">
+    <tableColumn id="2" xr3:uid="{A33C8BB1-51F1-4EE0-BAF3-79A0072A877D}" name="GP TOT" dataDxfId="133">
       <calculatedColumnFormula>AM22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B7BD47C3-C6CD-433B-8763-2E7BF28F91A9}" name="GP H" dataDxfId="217">
+    <tableColumn id="3" xr3:uid="{B7BD47C3-C6CD-433B-8763-2E7BF28F91A9}" name="GP H" dataDxfId="132">
       <calculatedColumnFormula>AN22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A7C2CDB8-1006-4E42-85C9-739B917E0E3B}" name="GP A" dataDxfId="216">
+    <tableColumn id="4" xr3:uid="{A7C2CDB8-1006-4E42-85C9-739B917E0E3B}" name="GP A" dataDxfId="131">
       <calculatedColumnFormula>AO22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FBF9C9A1-A231-4AC5-98EC-8575F964E9E7}" name="W TOT" dataDxfId="215">
+    <tableColumn id="5" xr3:uid="{FBF9C9A1-A231-4AC5-98EC-8575F964E9E7}" name="W TOT" dataDxfId="130">
       <calculatedColumnFormula>AP22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4F1AF376-3B42-4A7B-88AE-2AEB54C684FD}" name="L TOT" dataDxfId="214">
+    <tableColumn id="6" xr3:uid="{4F1AF376-3B42-4A7B-88AE-2AEB54C684FD}" name="L TOT" dataDxfId="129">
       <calculatedColumnFormula>AQ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CD4CF37C-B565-4072-A8DF-97ABD75AC2BE}" name="W H" dataDxfId="213">
+    <tableColumn id="7" xr3:uid="{CD4CF37C-B565-4072-A8DF-97ABD75AC2BE}" name="W H" dataDxfId="128">
       <calculatedColumnFormula>AR22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1F359623-5047-4AA5-8DFE-2A1235BD0244}" name="L H" dataDxfId="212">
+    <tableColumn id="8" xr3:uid="{1F359623-5047-4AA5-8DFE-2A1235BD0244}" name="L H" dataDxfId="127">
       <calculatedColumnFormula>AS22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F8112AD4-AB28-4E89-97C1-D0AD9007C7A5}" name="W A" dataDxfId="211">
+    <tableColumn id="9" xr3:uid="{F8112AD4-AB28-4E89-97C1-D0AD9007C7A5}" name="W A" dataDxfId="126">
       <calculatedColumnFormula>AT22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E0BC1C3D-B833-4A33-A2F7-C67BE06DEDA1}" name="L A" dataDxfId="210">
+    <tableColumn id="10" xr3:uid="{E0BC1C3D-B833-4A33-A2F7-C67BE06DEDA1}" name="L A" dataDxfId="125">
       <calculatedColumnFormula>AU22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B9A986DF-FE9E-415D-924B-8EB61CBE5CC3}" name="GF H" dataDxfId="209">
+    <tableColumn id="11" xr3:uid="{B9A986DF-FE9E-415D-924B-8EB61CBE5CC3}" name="GF H" dataDxfId="124">
       <calculatedColumnFormula>SUMIFS($T$2:$T$100,$M$2:$M$100,AH22,$E$2:$E$100,1)+SUMIFS($T$2:$T$100,$M$2:$M$100,AH22,$E$2:$E$100,2)+SUMIFS($T$2:$T$100,$M$2:$M$100,AH22,$E$2:$E$100,3)+SUMIFS($T$2:$T$100,$M$2:$M$100,AH22,$E$2:$E$100,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{83BAED9D-BBE1-4C76-BBCA-313CCD921E11}" name="GF A" dataDxfId="208">
+    <tableColumn id="12" xr3:uid="{83BAED9D-BBE1-4C76-BBCA-313CCD921E11}" name="GF A" dataDxfId="123">
       <calculatedColumnFormula>SUMIFS($S$2:$S$100,$L$2:$L$100,AH22,$E$2:$E$100,1) + SUMIFS($S$2:$S$100,$L$2:$L$100,AH22,$E$2:$E$100,2)+SUMIFS($S$2:$S$100,$L$2:$L$100,AH22,$E$2:$E$100,3)+SUMIFS($S$2:$S$100,$L$2:$L$100,AH22,$E$2:$E$100,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9D239E38-642E-49BB-AFCC-7F4B50408CD9}" name="GA H" dataDxfId="207">
+    <tableColumn id="13" xr3:uid="{9D239E38-642E-49BB-AFCC-7F4B50408CD9}" name="GA H" dataDxfId="122">
       <calculatedColumnFormula>SUMIFS($S$2:$S$100,$M$2:$M$100,AH22,$E$2:$E$100,1)+SUMIFS($S$2:$S$100,$M$2:$M$100,AH22,$E$2:$E$100,2)+SUMIFS($S$2:$S$100,$M$2:$M$100,AH22,$E$2:$E$100,3)+SUMIFS($S$2:$S$100,$M$2:$M$100,AH22,$E$2:$E$100,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{C28D4692-8893-4399-B12F-0EFEC4ACE55F}" name="GA A" dataDxfId="206">
+    <tableColumn id="14" xr3:uid="{C28D4692-8893-4399-B12F-0EFEC4ACE55F}" name="GA A" dataDxfId="121">
       <calculatedColumnFormula>SUMIFS($T$2:$T$100,$L$2:$L$100,AH22,$E$2:$E$100,1)+(SUMIFS($T$2:$T$100,$L$2:$L$100,AH22,$E$2:$E$100,2)+SUMIFS($T$2:$T$100,$L$2:$L$100,AH22,$E$2:$E$100,3)+SUMIFS($T$2:$T$100,$L$2:$L$100,AH22,$E$2:$E$100,4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{EFE9EFE5-C5A6-4D37-BAFD-4A00F7B02584}" name="DIFF H" dataDxfId="205">
+    <tableColumn id="15" xr3:uid="{EFE9EFE5-C5A6-4D37-BAFD-4A00F7B02584}" name="DIFF H" dataDxfId="120">
       <calculatedColumnFormula>BX22-BZ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{B9AF8DC9-F982-4D02-B43F-486449573036}" name="DIFF A" dataDxfId="204">
+    <tableColumn id="16" xr3:uid="{B9AF8DC9-F982-4D02-B43F-486449573036}" name="DIFF A" dataDxfId="119">
       <calculatedColumnFormula>BY22-CA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E94B86FE-AA74-466B-A7F6-2C43B9EEA68A}" name="GF T" dataDxfId="203">
+    <tableColumn id="17" xr3:uid="{E94B86FE-AA74-466B-A7F6-2C43B9EEA68A}" name="GF T" dataDxfId="118">
       <calculatedColumnFormula>BX22+BY22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{437A09FB-7E7B-457E-AD72-B615E2FEC992}" name="GA T" dataDxfId="202">
+    <tableColumn id="18" xr3:uid="{437A09FB-7E7B-457E-AD72-B615E2FEC992}" name="GA T" dataDxfId="117">
       <calculatedColumnFormula>BZ22+CA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{D83A9D62-4017-4FF7-BA18-93B627CB0BEF}" name="DIFF T" dataDxfId="201">
+    <tableColumn id="19" xr3:uid="{D83A9D62-4017-4FF7-BA18-93B627CB0BEF}" name="DIFF T" dataDxfId="116">
       <calculatedColumnFormula>(BX22+BY22)-(BZ22+CA22)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{139C299F-4896-455D-A9B3-7CA4FF9ECE1D}" name="GFPG H" dataDxfId="200">
+    <tableColumn id="20" xr3:uid="{139C299F-4896-455D-A9B3-7CA4FF9ECE1D}" name="GFPG H" dataDxfId="115">
       <calculatedColumnFormula>BX22/BP22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{5ED7F4F1-4524-4204-90BC-07DFE35665ED}" name="GFPG A" dataDxfId="199">
+    <tableColumn id="21" xr3:uid="{5ED7F4F1-4524-4204-90BC-07DFE35665ED}" name="GFPG A" dataDxfId="114">
       <calculatedColumnFormula>BY22/BQ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{3BAC0D7E-D609-46FC-BB96-6327BEC9045F}" name="GAPG H" dataDxfId="198">
+    <tableColumn id="22" xr3:uid="{3BAC0D7E-D609-46FC-BB96-6327BEC9045F}" name="GAPG H" dataDxfId="113">
       <calculatedColumnFormula>BZ22/BP22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{894AF6A4-2FD4-468F-8740-6E39104F12C5}" name="GAPG A" dataDxfId="197">
+    <tableColumn id="23" xr3:uid="{894AF6A4-2FD4-468F-8740-6E39104F12C5}" name="GAPG A" dataDxfId="112">
       <calculatedColumnFormula>CA22/BQ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{CFA1DE8E-0094-499E-B287-EEFFFC39239B}" name="GFPG " dataDxfId="196">
+    <tableColumn id="24" xr3:uid="{CFA1DE8E-0094-499E-B287-EEFFFC39239B}" name="GFPG " dataDxfId="111">
       <calculatedColumnFormula>CD22/BO22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{5723B53A-51E1-40DB-A91D-49D133C87D25}" name="GAPG " dataDxfId="195">
+    <tableColumn id="25" xr3:uid="{5723B53A-51E1-40DB-A91D-49D133C87D25}" name="GAPG " dataDxfId="110">
       <calculatedColumnFormula>CE22/BO22</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3175,44 +2209,44 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CAF60155-77BE-48E5-AA58-5D8F46940651}" name="Table2" displayName="Table2" ref="A1:Z55" totalsRowShown="0" headerRowDxfId="194">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CAF60155-77BE-48E5-AA58-5D8F46940651}" name="Table2" displayName="Table2" ref="A1:Z55" totalsRowShown="0" headerRowDxfId="109">
   <autoFilter ref="A1:Z55" xr:uid="{CAF60155-77BE-48E5-AA58-5D8F46940651}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{DDB71618-B495-4370-A2C8-F807AB26F35C}" name="WEEKDATE">
       <calculatedColumnFormula>TEXT($B2,"dddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D87BCC97-C12B-42BA-ACD3-847AD72294EC}" name="DATE" dataDxfId="193"/>
-    <tableColumn id="3" xr3:uid="{6E19CA59-B6A3-4131-B285-CE1F7BAF3D31}" name="TIME" dataDxfId="192"/>
-    <tableColumn id="4" xr3:uid="{02F4D888-3BD5-4016-BA9A-EC8A0CBEA44E}" name="CONF" dataDxfId="191"/>
-    <tableColumn id="5" xr3:uid="{DEBF2CDE-9CD3-427B-90BB-33C4A230FDB2}" name="ROUNDNUM" dataDxfId="190"/>
-    <tableColumn id="6" xr3:uid="{0B2FA3E5-A739-4507-920E-FD6BD73D06FC}" name="SERIESCODE" dataDxfId="189"/>
-    <tableColumn id="7" xr3:uid="{E0FB355A-FF65-48EA-9A64-1208BDA18DEA}" name="GAMENUM" dataDxfId="188"/>
-    <tableColumn id="8" xr3:uid="{48075340-6AD4-4735-8D81-DCE8BDEA7894}" name="TOPSEED" dataDxfId="187"/>
-    <tableColumn id="9" xr3:uid="{47D97FCE-3C11-4B03-A932-BB3CCC5294A3}" name="LOWSEED" dataDxfId="186"/>
-    <tableColumn id="10" xr3:uid="{2657E2A1-FA3E-4247-AB77-0882735B5D98}" name="TOPSEEDWINS" dataDxfId="185"/>
-    <tableColumn id="11" xr3:uid="{F857D9CD-319A-4A1F-8A87-5B89AB0E3AE4}" name="LOWSEEDWINS" dataDxfId="184"/>
-    <tableColumn id="12" xr3:uid="{F49B8205-50A8-4D22-BDFA-A8C59906257D}" name="AWAYTEAM" dataDxfId="183"/>
-    <tableColumn id="13" xr3:uid="{10A989E8-E464-444A-B995-FE5CD8D50A3E}" name="HOMETEAM" dataDxfId="182"/>
-    <tableColumn id="14" xr3:uid="{BEBB472F-C00C-43D1-BA57-177EECF3D1A4}" name="MYCHOICE" dataDxfId="181">
+    <tableColumn id="2" xr3:uid="{D87BCC97-C12B-42BA-ACD3-847AD72294EC}" name="DATE" dataDxfId="108"/>
+    <tableColumn id="3" xr3:uid="{6E19CA59-B6A3-4131-B285-CE1F7BAF3D31}" name="TIME" dataDxfId="107"/>
+    <tableColumn id="4" xr3:uid="{02F4D888-3BD5-4016-BA9A-EC8A0CBEA44E}" name="CONF" dataDxfId="106"/>
+    <tableColumn id="5" xr3:uid="{DEBF2CDE-9CD3-427B-90BB-33C4A230FDB2}" name="ROUNDNUM" dataDxfId="105"/>
+    <tableColumn id="6" xr3:uid="{0B2FA3E5-A739-4507-920E-FD6BD73D06FC}" name="SERIESCODE" dataDxfId="104"/>
+    <tableColumn id="7" xr3:uid="{E0FB355A-FF65-48EA-9A64-1208BDA18DEA}" name="GAMENUM" dataDxfId="103"/>
+    <tableColumn id="8" xr3:uid="{48075340-6AD4-4735-8D81-DCE8BDEA7894}" name="TOPSEED" dataDxfId="102"/>
+    <tableColumn id="9" xr3:uid="{47D97FCE-3C11-4B03-A932-BB3CCC5294A3}" name="LOWSEED" dataDxfId="101"/>
+    <tableColumn id="10" xr3:uid="{2657E2A1-FA3E-4247-AB77-0882735B5D98}" name="TOPSEEDWINS" dataDxfId="100"/>
+    <tableColumn id="11" xr3:uid="{F857D9CD-319A-4A1F-8A87-5B89AB0E3AE4}" name="LOWSEEDWINS" dataDxfId="99"/>
+    <tableColumn id="12" xr3:uid="{F49B8205-50A8-4D22-BDFA-A8C59906257D}" name="AWAYTEAM" dataDxfId="98"/>
+    <tableColumn id="13" xr3:uid="{10A989E8-E464-444A-B995-FE5CD8D50A3E}" name="HOMETEAM" dataDxfId="97"/>
+    <tableColumn id="14" xr3:uid="{BEBB472F-C00C-43D1-BA57-177EECF3D1A4}" name="MYCHOICE" dataDxfId="96">
       <calculatedColumnFormula>IF(OR(ISBLANK(O2), ISBLANK($P2)), "", IF($O2&gt;$P2, $L2,$M2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{3265132F-9519-4D83-9071-5A806C9B66A7}" name="PAWAYSCORE" dataDxfId="180"/>
-    <tableColumn id="16" xr3:uid="{61D192BF-2F44-45CA-B41E-2E154B58B73C}" name="PHOMESCORE" dataDxfId="179"/>
-    <tableColumn id="17" xr3:uid="{4FBCD938-E47F-4A71-B757-19409794237B}" name="PResult" dataDxfId="178"/>
-    <tableColumn id="18" xr3:uid="{910345CE-2F3B-453D-B129-551EEF8A2ED1}" name="LOCKEDIN" dataDxfId="177"/>
-    <tableColumn id="19" xr3:uid="{B5B3650D-B08F-4959-92AE-19041FF77E90}" name="AAWAYSCORE" dataDxfId="176"/>
-    <tableColumn id="20" xr3:uid="{335FAADC-EF48-4918-8FC4-59E64D4FF575}" name="AHOMESCORE" dataDxfId="175"/>
-    <tableColumn id="21" xr3:uid="{D0C1DED2-3AB8-4A82-B413-410B2E943C31}" name="OTROUNDNUM" dataDxfId="174"/>
-    <tableColumn id="22" xr3:uid="{13F2CA6A-0805-4608-99D8-D82B730F1411}" name="CORRECT" dataDxfId="173">
+    <tableColumn id="15" xr3:uid="{3265132F-9519-4D83-9071-5A806C9B66A7}" name="PAWAYSCORE" dataDxfId="95"/>
+    <tableColumn id="16" xr3:uid="{61D192BF-2F44-45CA-B41E-2E154B58B73C}" name="PHOMESCORE" dataDxfId="94"/>
+    <tableColumn id="17" xr3:uid="{4FBCD938-E47F-4A71-B757-19409794237B}" name="PResult" dataDxfId="93"/>
+    <tableColumn id="18" xr3:uid="{910345CE-2F3B-453D-B129-551EEF8A2ED1}" name="LOCKEDIN" dataDxfId="92"/>
+    <tableColumn id="19" xr3:uid="{B5B3650D-B08F-4959-92AE-19041FF77E90}" name="AAWAYSCORE" dataDxfId="91"/>
+    <tableColumn id="20" xr3:uid="{335FAADC-EF48-4918-8FC4-59E64D4FF575}" name="AHOMESCORE" dataDxfId="90"/>
+    <tableColumn id="21" xr3:uid="{D0C1DED2-3AB8-4A82-B413-410B2E943C31}" name="OTROUNDNUM" dataDxfId="89"/>
+    <tableColumn id="22" xr3:uid="{13F2CA6A-0805-4608-99D8-D82B730F1411}" name="CORRECT" dataDxfId="88">
       <calculatedColumnFormula>IF(ISBLANK($U2),"",IF($S2=$T2,0,IF($L2=$N2,IF($S2&gt;$T2,1,0),IF($T2&gt;$S2,1,0))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{C52B97FA-25BE-428D-BE11-A51A7A6F4023}" name="WINNER" dataDxfId="172">
+    <tableColumn id="23" xr3:uid="{C52B97FA-25BE-428D-BE11-A51A7A6F4023}" name="WINNER" dataDxfId="87">
       <calculatedColumnFormula>IF(OR(ISBLANK($S2), ISBLANK($T2), ISBLANK($U2)), "", IF(S2&gt;T2,L2,M2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{5D5BFFE0-4374-4A91-BEA2-4CDF401FCD34}" name="Column2" dataDxfId="171">
+    <tableColumn id="26" xr3:uid="{5D5BFFE0-4374-4A91-BEA2-4CDF401FCD34}" name="Column2" dataDxfId="86">
       <calculatedColumnFormula>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{ACD0F41D-B80B-4A4E-9591-78757C8DFA9E}" name="Column1" dataDxfId="170">
+    <tableColumn id="25" xr3:uid="{ACD0F41D-B80B-4A4E-9591-78757C8DFA9E}" name="Column1" dataDxfId="85">
       <calculatedColumnFormula>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" xr3:uid="{4CBA132A-C7C7-46A0-A3B6-3B6E14F287C5}" name="Notes"/>
@@ -3222,9 +2256,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3262,7 +2296,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3368,7 +2402,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3510,7 +2544,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3521,7 +2555,7 @@
   <dimension ref="A1:CL89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46:M46"/>
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4017,19 +3051,19 @@
       </c>
       <c r="AK4">
         <f t="shared" ref="AK4:AK17" si="6">SUMIFS($V$2:$V$100,$F$2:$F$100,AG4)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL4">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AM4">
         <f t="shared" ref="AM4:AN10" si="7">SUMIFS($T$2:$T$99,$M$2:$M$99,AH4,$E$2:$E$99,1) + SUMIFS($S$2:$S$99,$L$2:$L$99,AH4,$E$2:$E$99,1)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AN4">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
@@ -4245,7 +3279,7 @@
       <c r="AD6" s="8"/>
       <c r="AE6" s="13">
         <f>SUM(V2:V99)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF6" s="8"/>
       <c r="AG6" s="14" t="s">
@@ -4369,7 +3403,7 @@
       <c r="AD7" s="8"/>
       <c r="AE7" s="13">
         <f>AE6/AE5</f>
-        <v>0.4</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="AF7" s="8"/>
       <c r="AG7" s="14" t="s">
@@ -7430,11 +6464,11 @@
       </c>
       <c r="AN26">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO26">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP26">
         <f t="shared" si="16"/>
@@ -7462,11 +6496,11 @@
       </c>
       <c r="AV26">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW26">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX26">
         <f t="shared" si="24"/>
@@ -7506,19 +6540,19 @@
       </c>
       <c r="BG26">
         <f t="shared" si="49"/>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="BH26">
         <f t="shared" si="49"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI26">
         <f t="shared" si="50"/>
-        <v>2</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="BJ26">
         <f t="shared" si="50"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BK26">
         <f t="shared" si="28"/>
@@ -7538,11 +6572,11 @@
       </c>
       <c r="BP26" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BQ26" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BR26" s="15">
         <f t="shared" si="31"/>
@@ -7606,19 +6640,19 @@
       </c>
       <c r="CG26" s="20">
         <f t="shared" si="40"/>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="CH26" s="20">
         <f t="shared" si="40"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CI26" s="20">
         <f t="shared" si="41"/>
-        <v>2</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="CJ26" s="20">
         <f t="shared" si="41"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CK26" s="20">
         <f t="shared" si="42"/>
@@ -7737,11 +6771,11 @@
       </c>
       <c r="AN27">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO27">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP27">
         <f t="shared" si="16"/>
@@ -7769,11 +6803,11 @@
       </c>
       <c r="AV27">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW27">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX27">
         <f t="shared" si="24"/>
@@ -7813,19 +6847,19 @@
       </c>
       <c r="BG27">
         <f t="shared" si="49"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH27">
         <f t="shared" si="49"/>
-        <v>2</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="BI27">
         <f t="shared" si="50"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ27">
         <f t="shared" si="50"/>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="BK27">
         <f t="shared" si="28"/>
@@ -7845,11 +6879,11 @@
       </c>
       <c r="BP27" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BQ27" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BR27" s="15">
         <f t="shared" si="31"/>
@@ -7913,19 +6947,19 @@
       </c>
       <c r="CG27" s="20">
         <f t="shared" si="40"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CH27" s="20">
         <f t="shared" si="40"/>
-        <v>2</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="CI27" s="20">
         <f t="shared" si="41"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CJ27" s="20">
         <f t="shared" si="41"/>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="CK27" s="20">
         <f t="shared" si="42"/>
@@ -8064,7 +7098,7 @@
       </c>
       <c r="AS28">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT28">
         <f t="shared" si="20"/>
@@ -8084,7 +7118,7 @@
       </c>
       <c r="AX28">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY28">
         <f t="shared" si="25"/>
@@ -8092,7 +7126,7 @@
       </c>
       <c r="AZ28">
         <f t="shared" si="26"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA28">
         <f t="shared" si="27"/>
@@ -8100,7 +7134,7 @@
       </c>
       <c r="BB28">
         <f t="shared" si="45"/>
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="BC28">
         <f t="shared" si="45"/>
@@ -8108,19 +7142,19 @@
       </c>
       <c r="BD28">
         <f t="shared" si="46"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BE28">
         <f t="shared" si="47"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BF28">
         <f t="shared" si="48"/>
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="BG28">
         <f t="shared" si="49"/>
-        <v>0.66666666666666663</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="BH28">
         <f t="shared" si="49"/>
@@ -8128,7 +7162,7 @@
       </c>
       <c r="BI28">
         <f t="shared" si="50"/>
-        <v>2.6666666666666665</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="BJ28">
         <f t="shared" si="50"/>
@@ -8136,11 +7170,11 @@
       </c>
       <c r="BK28">
         <f t="shared" si="28"/>
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="BL28">
         <f t="shared" si="29"/>
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="BN28" t="str">
         <f t="shared" si="30"/>
@@ -8172,7 +7206,7 @@
       </c>
       <c r="BU28" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BV28" s="15">
         <f t="shared" si="31"/>
@@ -8184,7 +7218,7 @@
       </c>
       <c r="BX28" s="15">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BY28" s="15">
         <f t="shared" si="33"/>
@@ -8192,7 +7226,7 @@
       </c>
       <c r="BZ28" s="15">
         <f t="shared" si="34"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="CA28" s="15">
         <f t="shared" si="35"/>
@@ -8200,7 +7234,7 @@
       </c>
       <c r="CB28" s="15">
         <f t="shared" si="36"/>
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="CC28" s="15">
         <f t="shared" si="36"/>
@@ -8208,19 +7242,19 @@
       </c>
       <c r="CD28" s="15">
         <f t="shared" si="37"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="CE28" s="15">
         <f t="shared" si="38"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="CF28" s="15">
         <f t="shared" si="39"/>
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="CG28" s="20">
         <f t="shared" si="40"/>
-        <v>0.66666666666666663</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="CH28" s="20">
         <f t="shared" si="40"/>
@@ -8228,7 +7262,7 @@
       </c>
       <c r="CI28" s="20">
         <f t="shared" si="41"/>
-        <v>2.6666666666666665</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="CJ28" s="20">
         <f t="shared" si="41"/>
@@ -8236,11 +7270,11 @@
       </c>
       <c r="CK28" s="20">
         <f t="shared" si="42"/>
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="CL28" s="20">
         <f t="shared" si="43"/>
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="29" spans="1:90" x14ac:dyDescent="0.25">
@@ -8359,11 +7393,11 @@
       </c>
       <c r="AP29">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ29">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <f t="shared" si="18"/>
@@ -8375,7 +7409,7 @@
       </c>
       <c r="AT29">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU29">
         <f t="shared" si="21"/>
@@ -8395,7 +7429,7 @@
       </c>
       <c r="AY29">
         <f t="shared" si="25"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ29">
         <f t="shared" si="26"/>
@@ -8403,7 +7437,7 @@
       </c>
       <c r="BA29">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB29">
         <f t="shared" si="45"/>
@@ -8411,19 +7445,19 @@
       </c>
       <c r="BC29">
         <f t="shared" si="45"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD29">
         <f t="shared" si="46"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BE29">
         <f t="shared" si="47"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BF29">
         <f t="shared" si="48"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG29">
         <f t="shared" si="49"/>
@@ -8431,7 +7465,7 @@
       </c>
       <c r="BH29">
         <f t="shared" si="49"/>
-        <v>2.6666666666666665</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="BI29">
         <f t="shared" si="50"/>
@@ -8439,15 +7473,15 @@
       </c>
       <c r="BJ29">
         <f t="shared" si="50"/>
-        <v>0.66666666666666663</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="BK29">
         <f t="shared" si="28"/>
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="BL29">
         <f t="shared" si="29"/>
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="BN29" t="str">
         <f t="shared" si="30"/>
@@ -8467,11 +7501,11 @@
       </c>
       <c r="BR29" s="15">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS29" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BT29" s="15">
         <f t="shared" si="31"/>
@@ -8483,7 +7517,7 @@
       </c>
       <c r="BV29" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW29" s="15">
         <f t="shared" si="31"/>
@@ -8495,7 +7529,7 @@
       </c>
       <c r="BY29" s="15">
         <f t="shared" si="33"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BZ29" s="15">
         <f t="shared" si="34"/>
@@ -8503,7 +7537,7 @@
       </c>
       <c r="CA29" s="15">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CB29" s="15">
         <f t="shared" si="36"/>
@@ -8511,19 +7545,19 @@
       </c>
       <c r="CC29" s="15">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CD29" s="15">
         <f t="shared" si="37"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="CE29" s="15">
         <f t="shared" si="38"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="CF29" s="15">
         <f t="shared" si="39"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CG29" s="20">
         <f t="shared" si="40"/>
@@ -8531,7 +7565,7 @@
       </c>
       <c r="CH29" s="20">
         <f t="shared" si="40"/>
-        <v>2.6666666666666665</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="CI29" s="20">
         <f t="shared" si="41"/>
@@ -8539,15 +7573,15 @@
       </c>
       <c r="CJ29" s="20">
         <f t="shared" si="41"/>
-        <v>0.66666666666666663</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="CK29" s="20">
         <f t="shared" si="42"/>
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="CL29" s="20">
         <f t="shared" si="43"/>
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="30" spans="1:90" x14ac:dyDescent="0.25">
@@ -9886,11 +8920,11 @@
       </c>
       <c r="AN34">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO34">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP34">
         <f t="shared" si="16"/>
@@ -9918,11 +8952,11 @@
       </c>
       <c r="AV34">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW34">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX34">
         <f t="shared" si="24"/>
@@ -9962,19 +8996,19 @@
       </c>
       <c r="BG34">
         <f t="shared" si="49"/>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="BH34">
         <f t="shared" si="49"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI34">
         <f t="shared" si="50"/>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="BJ34">
         <f t="shared" si="50"/>
-        <v>4</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="BK34">
         <f t="shared" si="28"/>
@@ -9994,11 +9028,11 @@
       </c>
       <c r="BP34" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BQ34" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BR34" s="15">
         <f t="shared" si="31"/>
@@ -10062,19 +9096,19 @@
       </c>
       <c r="CG34" s="20">
         <f t="shared" si="40"/>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="CH34" s="20">
         <f t="shared" si="40"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CI34" s="20">
         <f t="shared" si="41"/>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="CJ34" s="20">
         <f t="shared" si="41"/>
-        <v>4</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="CK34" s="20">
         <f t="shared" si="42"/>
@@ -10193,11 +9227,11 @@
       </c>
       <c r="AN35">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO35">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP35">
         <f t="shared" si="16"/>
@@ -10225,11 +9259,11 @@
       </c>
       <c r="AV35">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW35">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX35">
         <f t="shared" si="24"/>
@@ -10269,19 +9303,19 @@
       </c>
       <c r="BG35">
         <f t="shared" si="49"/>
-        <v>4</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="BH35">
         <f t="shared" si="49"/>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="BI35">
         <f t="shared" si="50"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ35">
         <f t="shared" si="50"/>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="BK35">
         <f t="shared" si="28"/>
@@ -10301,11 +9335,11 @@
       </c>
       <c r="BP35" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BQ35" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BR35" s="15">
         <f t="shared" si="31"/>
@@ -10369,19 +9403,19 @@
       </c>
       <c r="CG35" s="20">
         <f t="shared" si="40"/>
-        <v>4</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="CH35" s="20">
         <f t="shared" si="40"/>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="CI35" s="20">
         <f t="shared" si="41"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CJ35" s="20">
         <f t="shared" si="41"/>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="CK35" s="20">
         <f t="shared" si="42"/>
@@ -10434,7 +9468,7 @@
         <v>18</v>
       </c>
       <c r="N36" s="5" t="str">
-        <f t="shared" ref="N36:N43" si="53">IF(OR(ISBLANK(O36), ISBLANK($P36)), "", IF($O36&gt;$P36, $L36,$M36))</f>
+        <f t="shared" ref="N36:N46" si="53">IF(OR(ISBLANK(O36), ISBLANK($P36)), "", IF($O36&gt;$P36, $L36,$M36))</f>
         <v>CAR</v>
       </c>
       <c r="O36" s="5">
@@ -10500,11 +9534,11 @@
       </c>
       <c r="AN36">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO36">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP36">
         <f t="shared" si="16"/>
@@ -10532,11 +9566,11 @@
       </c>
       <c r="AV36">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW36">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX36">
         <f t="shared" si="24"/>
@@ -10576,19 +9610,19 @@
       </c>
       <c r="BG36">
         <f t="shared" si="49"/>
-        <v>3.25</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="BH36">
         <f t="shared" si="49"/>
-        <v>3.5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BI36">
         <f t="shared" si="50"/>
-        <v>2.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="BJ36">
         <f t="shared" si="50"/>
-        <v>5.5</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="BK36">
         <f t="shared" si="28"/>
@@ -10608,11 +9642,11 @@
       </c>
       <c r="BP36" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BQ36" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BR36" s="15">
         <f t="shared" si="31"/>
@@ -10676,19 +9710,19 @@
       </c>
       <c r="CG36" s="20">
         <f t="shared" si="40"/>
-        <v>3.25</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="CH36" s="20">
         <f t="shared" si="40"/>
-        <v>3.5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="CI36" s="20">
         <f t="shared" si="41"/>
-        <v>2.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="CJ36" s="20">
         <f t="shared" si="41"/>
-        <v>5.5</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="CK36" s="20">
         <f t="shared" si="42"/>
@@ -10807,11 +9841,11 @@
       </c>
       <c r="AN37">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO37">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP37">
         <f t="shared" si="16"/>
@@ -10839,11 +9873,11 @@
       </c>
       <c r="AV37">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW37">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX37">
         <f t="shared" si="24"/>
@@ -10883,19 +9917,19 @@
       </c>
       <c r="BG37">
         <f t="shared" si="49"/>
-        <v>5.5</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="BH37">
         <f t="shared" si="49"/>
-        <v>2.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="BI37">
         <f t="shared" si="50"/>
-        <v>3.5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BJ37">
         <f t="shared" si="50"/>
-        <v>3.25</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="BK37">
         <f t="shared" si="28"/>
@@ -10915,11 +9949,11 @@
       </c>
       <c r="BP37" s="15">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BQ37" s="15">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BR37" s="15">
         <f t="shared" si="31"/>
@@ -10983,19 +10017,19 @@
       </c>
       <c r="CG37" s="20">
         <f t="shared" si="40"/>
-        <v>5.5</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="CH37" s="20">
         <f t="shared" si="40"/>
-        <v>2.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="CI37" s="20">
         <f t="shared" si="41"/>
-        <v>3.5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="CJ37" s="20">
         <f t="shared" si="41"/>
-        <v>3.25</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="CK37" s="20">
         <f t="shared" si="42"/>
@@ -11231,24 +10265,30 @@
       <c r="R40" s="7">
         <v>45777</v>
       </c>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5" t="str">
+      <c r="S40" s="5">
+        <v>6</v>
+      </c>
+      <c r="T40" s="5">
+        <v>3</v>
+      </c>
+      <c r="U40" s="5">
+        <v>0</v>
+      </c>
+      <c r="V40" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W40" s="5" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="X40" s="5" t="str">
+        <v>FLA</v>
+      </c>
+      <c r="X40" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y40" s="5" t="str">
+        <v>-2</v>
+      </c>
+      <c r="Y40" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AD40" s="8"/>
       <c r="AH40" s="1"/>
@@ -11344,69 +10384,69 @@
       </c>
     </row>
     <row r="41" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
+      <c r="A41" s="1" t="str">
         <f t="shared" si="52"/>
         <v>Wednesday</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="12">
         <v>45777</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="24">
         <v>0.9375</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="8">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="3">
         <v>5</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J41" s="8">
-        <v>3</v>
-      </c>
-      <c r="K41" s="8">
-        <v>2</v>
-      </c>
-      <c r="L41" s="5" t="s">
+      <c r="J41" s="3">
+        <v>3</v>
+      </c>
+      <c r="K41" s="3">
+        <v>2</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="2" t="s">
         <v>43</v>
       </c>
       <c r="N41" s="5" t="str">
         <f t="shared" si="53"/>
         <v>STL</v>
       </c>
-      <c r="O41" s="5">
-        <v>3</v>
-      </c>
-      <c r="P41" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q41" s="5" t="s">
+      <c r="O41" s="2">
+        <v>3</v>
+      </c>
+      <c r="P41" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="R41" s="7">
+      <c r="R41" s="12">
         <v>45777</v>
       </c>
-      <c r="S41" s="5">
-        <v>3</v>
-      </c>
-      <c r="T41" s="5">
+      <c r="S41" s="2">
+        <v>3</v>
+      </c>
+      <c r="T41" s="2">
         <v>5</v>
       </c>
-      <c r="U41" s="5">
+      <c r="U41" s="2">
         <v>0</v>
       </c>
       <c r="V41" s="5">
@@ -11558,26 +10598,24 @@
       <c r="B42" s="7">
         <v>45778</v>
       </c>
-      <c r="C42" s="23">
-        <v>0.85416666666666663</v>
-      </c>
+      <c r="C42" s="23"/>
       <c r="D42" s="7" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E42" s="8">
         <v>1</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G42" s="8">
         <v>6</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J42" s="8">
         <v>3</v>
@@ -11586,19 +10624,27 @@
         <v>2</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="N42" s="5" t="str">
-        <f>IF(OR(ISBLANK(O42), ISBLANK($P42)), "", IF($O42&gt;$P42,#REF!,#REF!))</f>
-        <v/>
-      </c>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="7"/>
+        <f t="shared" si="53"/>
+        <v>TOR</v>
+      </c>
+      <c r="O42" s="2">
+        <v>4</v>
+      </c>
+      <c r="P42" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="R42" s="7">
+        <v>45778</v>
+      </c>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -11747,59 +10793,67 @@
         <f t="shared" si="52"/>
         <v>Thursday</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="7">
         <v>45778</v>
       </c>
-      <c r="C43" s="37">
-        <v>0.9375</v>
-      </c>
-      <c r="D43" s="36" t="s">
+      <c r="C43" s="23">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="38">
-        <v>1</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" s="38">
+      <c r="E43" s="8">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="8">
         <v>6</v>
       </c>
-      <c r="H43" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="I43" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="J43" s="38">
-        <v>3</v>
-      </c>
-      <c r="K43" s="38">
-        <v>2</v>
-      </c>
-      <c r="L43" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="M43" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="N43" s="5" t="str">
-        <f>IF(OR(ISBLANK(O43), ISBLANK($P43)), "", IF($O43&gt;$P43, $L42,$M42))</f>
-        <v/>
-      </c>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="7"/>
+      <c r="H43" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J43" s="8">
+        <v>3</v>
+      </c>
+      <c r="K43" s="8">
+        <v>2</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="N43" s="2" t="str">
+        <f t="shared" si="53"/>
+        <v>VGK</v>
+      </c>
+      <c r="O43" s="5">
+        <v>5</v>
+      </c>
+      <c r="P43" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="R43" s="7">
+        <v>45778</v>
+      </c>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
       <c r="V43" s="5" t="str">
-        <f>IF(ISBLANK($U43),"",IF($S43=$T43,0,IF($L42=$N43,IF($S43&gt;$T43,1,0),IF($T43&gt;$S43,1,0))))</f>
+        <f>IF(ISBLANK($U43),"",IF($S43=$T43,0,IF($L43=$N43,IF($S43&gt;$T43,1,0),IF($T43&gt;$S43,1,0))))</f>
         <v/>
       </c>
       <c r="W43" s="5" t="str">
-        <f>IF(OR(ISBLANK($S43), ISBLANK($T43), ISBLANK($U43)), "", IF(S43&gt;T43,L42,M42))</f>
+        <f>IF(OR(ISBLANK($S43), ISBLANK($T43), ISBLANK($U43)), "", IF(S43&gt;T43,L43,M43))</f>
         <v/>
       </c>
       <c r="X43" s="5" t="str">
@@ -11936,59 +10990,67 @@
         <f t="shared" si="52"/>
         <v>Thursday</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B44" s="7">
         <v>45778</v>
       </c>
-      <c r="C44" s="37">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D44" s="36" t="s">
+      <c r="C44" s="23">
+        <v>0.9375</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="38">
-        <v>1</v>
-      </c>
-      <c r="F44" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="G44" s="38">
+      <c r="E44" s="8">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="8">
         <v>6</v>
       </c>
-      <c r="H44" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="I44" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="J44" s="38">
-        <v>2</v>
-      </c>
-      <c r="K44" s="38">
-        <v>3</v>
-      </c>
-      <c r="L44" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="M44" s="39" t="s">
-        <v>53</v>
+      <c r="H44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="8">
+        <v>3</v>
+      </c>
+      <c r="K44" s="8">
+        <v>2</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="N44" s="5" t="str">
-        <f>IF(OR(ISBLANK(O44), ISBLANK($P44)), "", IF($O44&gt;$P44, $L43,$M43))</f>
-        <v/>
-      </c>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="12"/>
+        <f t="shared" si="53"/>
+        <v>COL</v>
+      </c>
+      <c r="O44" s="5">
+        <v>4</v>
+      </c>
+      <c r="P44" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="R44" s="12">
+        <v>45778</v>
+      </c>
       <c r="S44" s="2"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5" t="str">
-        <f>IF(ISBLANK($U44),"",IF($S44=$T44,0,IF($L43=$N44,IF($S44&gt;$T44,1,0),IF($T44&gt;$S44,1,0))))</f>
+        <f>IF(ISBLANK($U44),"",IF($S44=$T44,0,IF($L44=$N44,IF($S44&gt;$T44,1,0),IF($T44&gt;$S44,1,0))))</f>
         <v/>
       </c>
       <c r="W44" s="5" t="str">
-        <f>IF(OR(ISBLANK($S44), ISBLANK($T44), ISBLANK($U44)), "", IF(S44&gt;T44,L43,M43))</f>
+        <f>IF(OR(ISBLANK($S44), ISBLANK($T44), ISBLANK($U44)), "", IF(S44&gt;T44,L44,M44))</f>
         <v/>
       </c>
       <c r="X44" s="5" t="str">
@@ -12032,11 +11094,11 @@
       </c>
       <c r="AP44">
         <f t="shared" si="61"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ44">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <f t="shared" si="63"/>
@@ -12048,7 +11110,7 @@
       </c>
       <c r="AT44">
         <f t="shared" si="65"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU44">
         <f t="shared" si="66"/>
@@ -12126,59 +11188,69 @@
     <row r="45" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="52"/>
-        <v>Friday</v>
-      </c>
-      <c r="B45" s="36">
-        <v>45779</v>
-      </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="38">
-        <v>1</v>
-      </c>
-      <c r="F45" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" s="38">
+        <v>Thursday</v>
+      </c>
+      <c r="B45" s="7">
+        <v>45778</v>
+      </c>
+      <c r="C45" s="23">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="8">
         <v>6</v>
       </c>
-      <c r="H45" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="I45" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="J45" s="38">
-        <v>3</v>
-      </c>
-      <c r="K45" s="38">
-        <v>2</v>
-      </c>
-      <c r="L45" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="M45" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="N45" s="5" t="str">
-        <f>IF(OR(ISBLANK(O45), ISBLANK($P45)), "", IF($O45&gt;$P45, $L44,$M44))</f>
-        <v/>
-      </c>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="12"/>
+      <c r="H45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" s="8">
+        <v>2</v>
+      </c>
+      <c r="K45" s="8">
+        <v>3</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N45" s="2" t="str">
+        <f t="shared" si="53"/>
+        <v>EDM</v>
+      </c>
+      <c r="O45" s="5">
+        <v>4</v>
+      </c>
+      <c r="P45" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="R45" s="12">
+        <v>45778</v>
+      </c>
       <c r="S45" s="2"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
       <c r="V45" s="5" t="str">
-        <f>IF(ISBLANK($U45),"",IF($S45=$T45,0,IF($L44=$N45,IF($S45&gt;$T45,1,0),IF($T45&gt;$S45,1,0))))</f>
+        <f>IF(ISBLANK($U45),"",IF($S45=$T45,0,IF($L45=$N45,IF($S45&gt;$T45,1,0),IF($T45&gt;$S45,1,0))))</f>
         <v/>
       </c>
       <c r="W45" s="5" t="str">
-        <f>IF(OR(ISBLANK($S45), ISBLANK($T45), ISBLANK($U45)), "", IF(S45&gt;T45,L44,M44))</f>
+        <f>IF(OR(ISBLANK($S45), ISBLANK($T45), ISBLANK($U45)), "", IF(S45&gt;T45,L45,M45))</f>
         <v/>
       </c>
       <c r="X45" s="5" t="str">
@@ -12350,7 +11422,7 @@
         <v>43</v>
       </c>
       <c r="N46" s="5" t="str">
-        <f>IF(OR(ISBLANK(O46), ISBLANK($P46)), "", IF($O46&gt;$P46, $L45,$M45))</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="O46" s="5"/>
@@ -12361,11 +11433,11 @@
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5" t="str">
-        <f>IF(ISBLANK($U46),"",IF($S46=$T46,0,IF($L45=$N46,IF($S46&gt;$T46,1,0),IF($T46&gt;$S46,1,0))))</f>
+        <f>IF(ISBLANK($U46),"",IF($S46=$T46,0,IF($L42=$N46,IF($S46&gt;$T46,1,0),IF($T46&gt;$S46,1,0))))</f>
         <v/>
       </c>
       <c r="W46" s="5" t="str">
-        <f>IF(OR(ISBLANK($S46), ISBLANK($T46), ISBLANK($U46)), "", IF(S46&gt;T46,L45,M45))</f>
+        <f>IF(OR(ISBLANK($S46), ISBLANK($T46), ISBLANK($U46)), "", IF(S46&gt;T46,L42,M42))</f>
         <v/>
       </c>
       <c r="X46" s="5" t="str">
@@ -12503,17 +11575,19 @@
         <v>Saturday</v>
       </c>
       <c r="B47" s="7"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="7"/>
-      <c r="F47" s="5"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
       <c r="N47" s="5" t="str">
-        <f t="shared" ref="N44:N55" si="81">IF(OR(ISBLANK(O47), ISBLANK($P47)), "", IF($O47&gt;$P47, $L47,$M47))</f>
+        <f>IF(OR(ISBLANK(O47), ISBLANK($P47)), "", IF($O47&gt;$P47,#REF!,#REF!))</f>
         <v/>
       </c>
       <c r="O47" s="5"/>
@@ -12524,11 +11598,11 @@
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
       <c r="V47" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK($U47),"",IF($S47=$T47,0,IF(#REF!=$N47,IF($S47&gt;$T47,1,0),IF($T47&gt;$S47,1,0))))</f>
         <v/>
       </c>
       <c r="W47" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f>IF(OR(ISBLANK($S47), ISBLANK($T47), ISBLANK($U47)), "", IF(S47&gt;T47,#REF!,#REF!))</f>
         <v/>
       </c>
       <c r="X47" s="5" t="str">
@@ -12581,7 +11655,7 @@
       </c>
       <c r="AS47">
         <f t="shared" si="64"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT47">
         <f t="shared" si="65"/>
@@ -12666,17 +11740,19 @@
         <v>Saturday</v>
       </c>
       <c r="B48" s="7"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="7"/>
-      <c r="F48" s="5"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
       <c r="N48" s="5" t="str">
-        <f t="shared" si="81"/>
+        <f>IF(OR(ISBLANK(O48), ISBLANK($P48)), "", IF($O48&gt;$P48,#REF!,#REF!))</f>
         <v/>
       </c>
       <c r="O48" s="5"/>
@@ -12687,11 +11763,11 @@
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
       <c r="V48" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK($U48),"",IF($S48=$T48,0,IF(#REF!=$N48,IF($S48&gt;$T48,1,0),IF($T48&gt;$S48,1,0))))</f>
         <v/>
       </c>
       <c r="W48" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f>IF(OR(ISBLANK($S48), ISBLANK($T48), ISBLANK($U48)), "", IF(S48&gt;T48,#REF!,#REF!))</f>
         <v/>
       </c>
       <c r="X48" s="5" t="str">
@@ -12829,17 +11905,19 @@
         <v>Saturday</v>
       </c>
       <c r="B49" s="7"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="7"/>
-      <c r="F49" s="5"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
       <c r="N49" s="5" t="str">
-        <f t="shared" si="81"/>
+        <f>IF(OR(ISBLANK(O49), ISBLANK($P49)), "", IF($O49&gt;$P49,#REF!,#REF!))</f>
         <v/>
       </c>
       <c r="O49" s="5"/>
@@ -12850,11 +11928,11 @@
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
       <c r="V49" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK($U49),"",IF($S49=$T49,0,IF(#REF!=$N49,IF($S49&gt;$T49,1,0),IF($T49&gt;$S49,1,0))))</f>
         <v/>
       </c>
       <c r="W49" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f>IF(OR(ISBLANK($S49), ISBLANK($T49), ISBLANK($U49)), "", IF(S49&gt;T49,#REF!,#REF!))</f>
         <v/>
       </c>
       <c r="X49" s="5" t="str">
@@ -12882,7 +11960,7 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" ref="N47:N55" si="81">IF(OR(ISBLANK(O50), ISBLANK($P50)), "", IF($O50&gt;$P50, $L50,$M50))</f>
         <v/>
       </c>
       <c r="O50" s="5"/>
@@ -14911,138 +13989,203 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 N3:N33 F4:F5 A4:E7 V5:V33 A8 C8 H8:M8 Z8:AAD14 A15:AAD41 A56:AAD10000 N42:AAD46 B42:M45 B47:AAD55 A42:A55">
-    <cfRule type="cellIs" dxfId="169" priority="128" operator="equal">
+  <conditionalFormatting sqref="A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 A15:AAD39 A56:AAD10000 N3:N33 F4:F5 A4:E7 V5:V33 A8 C8 H8:M8 Z8:AAD14 A42:A55 B50:AAD55 B47:B49 B42:M45 A40:M41 N40:AAD49">
+    <cfRule type="cellIs" dxfId="20" priority="128" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="129" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="130" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="131" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AAD41 A56:AAD10000 N42:AAD46 B42:M45 B47:AAD55 A42:A55">
-    <cfRule type="cellIs" dxfId="165" priority="87" operator="equal">
+  <conditionalFormatting sqref="A1:AAD39 A56:AAD10000 A42:A55 B50:AAD55 B47:B49 B42:M45 A40:M41 N40:AAD49">
+    <cfRule type="cellIs" dxfId="16" priority="87" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 N3:N33 F4:F5 A4:E7 V5:V33 A8 C8 H8:M8 Z8:AAD14 A15:AAD41 A56:AAD10000 N42:AAD46 B42:M45 B47:AAD55 A42:A55">
-    <cfRule type="cellIs" dxfId="164" priority="144" operator="equal">
+  <conditionalFormatting sqref="A15:AAD39 A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 A56:AAD10000 N3:N33 F4:F5 A4:E7 V5:V33 A8 C8 H8:M8 Z8:AAD14 A42:A55 B50:AAD55 B47:B49 B42:M45 A40:M41 N40:AAD49">
+    <cfRule type="cellIs" dxfId="15" priority="144" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="145" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="146" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="147" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="148" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="149" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="150" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="151" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="152" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="153" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="154" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="155" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="156" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="157" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="158" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="159" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="148" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="88" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="89" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="90" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="91" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="92" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="93" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="94" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="95" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="96" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="97" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="98" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="99" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="100" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="101" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="102" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="103" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="104" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="105" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="106" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="107" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:K99">
+  <conditionalFormatting sqref="H46:I46">
+    <cfRule type="cellIs" dxfId="64" priority="43" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="44" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="45" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="46" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="47" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="48" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="49" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="50" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="52" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="53" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="56" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="57" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="58" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="59" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="60" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="61" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="62" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="63" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50:K99 J2:K46">
     <cfRule type="colorScale" priority="173">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15088,6 +14231,71 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L46:M46">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
     <cfRule type="colorScale" priority="85">
       <colorScale>
@@ -15121,12 +14329,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI22:AL37 AI41:AL48 AI52:AL55">
-    <cfRule type="cellIs" dxfId="128" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="168" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI59:AL60">
-    <cfRule type="cellIs" dxfId="127" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="160" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15488,144 +14696,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46:I46">
-    <cfRule type="cellIs" dxfId="62" priority="44" operator="equal">
-      <formula>"OTT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="45" operator="equal">
-      <formula>"NJD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="46" operator="equal">
-      <formula>"MIN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="47" operator="equal">
-      <formula>"STL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46:I46">
-    <cfRule type="cellIs" dxfId="58" priority="43" operator="equal">
-      <formula>"MTL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46:I46">
-    <cfRule type="cellIs" dxfId="57" priority="48" operator="equal">
-      <formula>"LAK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="49" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="50" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="51" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
-      <formula>"FLA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="56" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="57" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="58" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="59" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="60" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="61" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="62" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="63" operator="equal">
-      <formula>"BOS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L46:M46">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
-      <formula>"OTT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
-      <formula>"NJD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
-      <formula>"MIN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
-      <formula>"STL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L46:M46">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
-      <formula>"MTL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L46:M46">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
-      <formula>"LAK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>"FLA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="19" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
-      <formula>"BOS"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1B3751-CC8B-4324-89C6-F9B63E8F5CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDCF321-9031-4746-8330-94C53FB1097D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="179">
   <si>
     <t>DATE</t>
   </si>
@@ -657,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -748,22 +759,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -786,6 +781,32 @@
   </cellStyles>
   <dxfs count="302">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -801,22 +822,284 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="4" tint="0.39994506668294322"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -825,6 +1108,30 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
@@ -883,6 +1190,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FF002060"/>
@@ -909,10 +1226,222 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF002060"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
@@ -957,10 +1486,168 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -969,6 +1656,100 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0" tint="-0.14996795556505021"/>
       </font>
       <fill>
@@ -979,6 +1760,240 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF0070C0"/>
       </font>
       <fill>
@@ -989,6 +2004,204 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <color rgb="FFFFFA00"/>
@@ -1001,6 +2214,196 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFD11515"/>
       </font>
       <fill>
@@ -1011,6 +2414,86 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1021,22 +2504,452 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1045,6 +2958,166 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="4" tint="0.39994506668294322"/>
       </font>
       <fill>
@@ -1129,6 +3202,30 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF002060"/>
       </font>
       <fill>
@@ -1139,12 +3236,102 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1157,6 +3344,138 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
@@ -1165,6 +3484,54 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
       <fill>
@@ -1177,7 +3544,31 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="5"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
       </font>
       <fill>
         <patternFill>
@@ -1193,6 +3584,42 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1201,7 +3628,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
@@ -1213,7 +3640,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </font>
       <fill>
         <patternFill>
@@ -1223,6 +3650,18 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF0070C0"/>
       </font>
       <fill>
@@ -1233,6 +3672,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <color rgb="FFFFFA00"/>
@@ -1245,2475 +3704,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD11515"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3F6228"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFA00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003DB8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD11515"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3F6228"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFA00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003DB8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD11515"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3F6228"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFA00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003DB8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD11515"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3F6228"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFA00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003DB8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD11515"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3F6228"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFA00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003DB8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD11515"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3F6228"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFA00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003DB8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD11515"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3F6228"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFA00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003DB8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD11515"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3F6228"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFA00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003DB8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD11515"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3F6228"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFA00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003DB8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD11515"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3F6228"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFA00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF003DB8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD11515"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3F6228"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4229,9 +4224,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4269,7 +4264,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4375,7 +4370,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4517,7 +4512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4527,8 +4522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819ACA58-DCD7-4A09-9052-0851D3ECB0FF}">
   <dimension ref="A1:CL89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:T48"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12976,88 +12971,87 @@
       </c>
     </row>
     <row r="44" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="str">
+      <c r="A44" t="str">
         <f t="shared" si="51"/>
         <v>Thursday</v>
       </c>
-      <c r="B44" s="38">
+      <c r="B44" s="7">
         <v>45778</v>
       </c>
-      <c r="C44" s="39">
+      <c r="C44" s="23">
         <v>0.9375</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="40">
-        <v>1</v>
-      </c>
-      <c r="F44" s="36" t="s">
+      <c r="E44" s="8">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="40">
+      <c r="G44" s="8">
         <v>6</v>
       </c>
-      <c r="H44" s="40" t="s">
+      <c r="H44" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I44" s="40" t="s">
+      <c r="I44" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J44" s="40">
-        <v>3</v>
-      </c>
-      <c r="K44" s="40">
-        <v>3</v>
-      </c>
-      <c r="L44" s="36" t="s">
+      <c r="J44" s="8">
+        <v>3</v>
+      </c>
+      <c r="K44" s="8">
+        <v>3</v>
+      </c>
+      <c r="L44" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M44" s="36" t="s">
+      <c r="M44" s="5" t="s">
         <v>44</v>
       </c>
       <c r="N44" s="5" t="str">
         <f t="shared" si="52"/>
         <v>COL</v>
       </c>
-      <c r="O44" s="36">
-        <v>3</v>
-      </c>
-      <c r="P44" s="36">
+      <c r="O44" s="5">
+        <v>3</v>
+      </c>
+      <c r="P44" s="5">
         <v>4</v>
       </c>
-      <c r="Q44" s="36" t="s">
+      <c r="Q44" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="R44" s="38">
+      <c r="R44" s="7">
         <v>45778</v>
       </c>
-      <c r="S44" s="36">
+      <c r="S44" s="5">
         <v>4</v>
       </c>
-      <c r="T44" s="36">
+      <c r="T44" s="5">
         <v>7</v>
       </c>
-      <c r="U44" s="36">
+      <c r="U44" s="5">
         <v>0</v>
       </c>
       <c r="V44" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
         <v>1</v>
       </c>
-      <c r="W44" s="36" t="str">
+      <c r="W44" s="5" t="str">
         <f t="shared" si="53"/>
         <v>COL</v>
       </c>
-      <c r="X44" s="36">
+      <c r="X44" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v>-1</v>
       </c>
-      <c r="Y44" s="36">
+      <c r="Y44" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v>-3</v>
       </c>
-      <c r="Z44" s="37"/>
       <c r="AH44" t="s">
         <v>35</v>
       </c>
@@ -13183,88 +13177,87 @@
       </c>
     </row>
     <row r="45" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="str">
+      <c r="A45" t="str">
         <f t="shared" si="51"/>
         <v>Thursday</v>
       </c>
-      <c r="B45" s="38">
+      <c r="B45" s="7">
         <v>45778</v>
       </c>
-      <c r="C45" s="39">
+      <c r="C45" s="23">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="40">
-        <v>1</v>
-      </c>
-      <c r="F45" s="36" t="s">
+      <c r="E45" s="8">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="40">
+      <c r="G45" s="8">
         <v>6</v>
       </c>
-      <c r="H45" s="40" t="s">
+      <c r="H45" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I45" s="40" t="s">
+      <c r="I45" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J45" s="40">
-        <v>2</v>
-      </c>
-      <c r="K45" s="40">
+      <c r="J45" s="8">
+        <v>2</v>
+      </c>
+      <c r="K45" s="8">
         <v>4</v>
       </c>
-      <c r="L45" s="36" t="s">
+      <c r="L45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M45" s="36" t="s">
+      <c r="M45" s="5" t="s">
         <v>52</v>
       </c>
       <c r="N45" s="5" t="str">
         <f t="shared" si="52"/>
         <v>EDM</v>
       </c>
-      <c r="O45" s="36">
+      <c r="O45" s="5">
         <v>4</v>
       </c>
-      <c r="P45" s="36">
+      <c r="P45" s="5">
         <v>5</v>
       </c>
-      <c r="Q45" s="36" t="s">
+      <c r="Q45" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="R45" s="38">
+      <c r="R45" s="7">
         <v>45778</v>
       </c>
-      <c r="S45" s="36">
+      <c r="S45" s="5">
         <v>4</v>
       </c>
-      <c r="T45" s="36">
+      <c r="T45" s="5">
         <v>6</v>
       </c>
-      <c r="U45" s="36">
+      <c r="U45" s="5">
         <v>0</v>
       </c>
       <c r="V45" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
         <v>1</v>
       </c>
-      <c r="W45" s="36" t="str">
+      <c r="W45" s="5" t="str">
         <f t="shared" si="53"/>
         <v>EDM</v>
       </c>
-      <c r="X45" s="36">
+      <c r="X45" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v>0</v>
       </c>
-      <c r="Y45" s="36">
+      <c r="Y45" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v>-1</v>
       </c>
-      <c r="Z45" s="37"/>
       <c r="AH45" t="s">
         <v>43</v>
       </c>
@@ -13390,88 +13383,87 @@
       </c>
     </row>
     <row r="46" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A46" s="37" t="str">
+      <c r="A46" t="str">
         <f t="shared" si="51"/>
         <v>Friday</v>
       </c>
-      <c r="B46" s="38">
+      <c r="B46" s="7">
         <v>45779</v>
       </c>
-      <c r="C46" s="39">
+      <c r="C46" s="23">
         <v>0.875</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="40">
-        <v>1</v>
-      </c>
-      <c r="F46" s="41" t="s">
+      <c r="E46" s="8">
+        <v>1</v>
+      </c>
+      <c r="F46" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G46" s="40">
+      <c r="G46" s="8">
         <v>6</v>
       </c>
-      <c r="H46" s="40" t="s">
+      <c r="H46" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I46" s="40" t="s">
+      <c r="I46" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J46" s="40">
-        <v>3</v>
-      </c>
-      <c r="K46" s="40">
-        <v>3</v>
-      </c>
-      <c r="L46" s="36" t="s">
+      <c r="J46" s="8">
+        <v>3</v>
+      </c>
+      <c r="K46" s="8">
+        <v>3</v>
+      </c>
+      <c r="L46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M46" s="36" t="s">
+      <c r="M46" s="5" t="s">
         <v>158</v>
       </c>
       <c r="N46" s="5" t="str">
         <f t="shared" si="52"/>
         <v>WPG</v>
       </c>
-      <c r="O46" s="36">
+      <c r="O46" s="5">
         <v>4</v>
       </c>
-      <c r="P46" s="36">
-        <v>2</v>
-      </c>
-      <c r="Q46" s="36" t="s">
+      <c r="P46" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="R46" s="38">
+      <c r="R46" s="7">
         <v>45779</v>
       </c>
-      <c r="S46" s="36">
-        <v>2</v>
-      </c>
-      <c r="T46" s="36">
+      <c r="S46" s="5">
+        <v>2</v>
+      </c>
+      <c r="T46" s="5">
         <v>5</v>
       </c>
-      <c r="U46" s="36">
+      <c r="U46" s="5">
         <v>0</v>
       </c>
       <c r="V46" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
         <v>0</v>
       </c>
-      <c r="W46" s="36" t="str">
+      <c r="W46" s="5" t="str">
         <f>IF(OR(ISBLANK($S46), ISBLANK($T46), ISBLANK($U46)), "", IF(S46&gt;T46,L46,M46))</f>
         <v>STL</v>
       </c>
-      <c r="X46" s="36">
+      <c r="X46" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v>2</v>
       </c>
-      <c r="Y46" s="36">
+      <c r="Y46" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v>-3</v>
       </c>
-      <c r="Z46" s="37"/>
       <c r="AH46" t="s">
         <v>50</v>
       </c>
@@ -13597,88 +13589,87 @@
       </c>
     </row>
     <row r="47" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="str">
+      <c r="A47" t="str">
         <f t="shared" si="51"/>
         <v>Saturday</v>
       </c>
-      <c r="B47" s="38">
+      <c r="B47" s="7">
         <v>45780</v>
       </c>
-      <c r="C47" s="39">
+      <c r="C47" s="23">
         <v>0.875</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="40">
-        <v>1</v>
-      </c>
-      <c r="F47" s="41" t="s">
+      <c r="E47" s="8">
+        <v>1</v>
+      </c>
+      <c r="F47" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="40">
+      <c r="G47" s="8">
         <v>7</v>
       </c>
-      <c r="H47" s="40" t="s">
+      <c r="H47" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I47" s="40" t="s">
+      <c r="I47" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J47" s="40">
+      <c r="J47" s="8">
         <v>4</v>
       </c>
-      <c r="K47" s="40">
+      <c r="K47" s="8">
         <v>2.8584615384615399</v>
       </c>
-      <c r="L47" s="36" t="s">
+      <c r="L47" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M47" s="36" t="s">
+      <c r="M47" s="5" t="s">
         <v>50</v>
       </c>
       <c r="N47" s="5" t="str">
         <f t="shared" si="52"/>
         <v>COL</v>
       </c>
-      <c r="O47" s="36">
+      <c r="O47" s="5">
         <v>4</v>
       </c>
-      <c r="P47" s="36">
-        <v>3</v>
-      </c>
-      <c r="Q47" s="36" t="s">
+      <c r="P47" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="R47" s="38">
+      <c r="R47" s="7">
         <v>45779</v>
       </c>
-      <c r="S47" s="36">
-        <v>2</v>
-      </c>
-      <c r="T47" s="36">
+      <c r="S47" s="5">
+        <v>2</v>
+      </c>
+      <c r="T47" s="5">
         <v>4</v>
       </c>
-      <c r="U47" s="36">
+      <c r="U47" s="5">
         <v>0</v>
       </c>
       <c r="V47" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
         <v>0</v>
       </c>
-      <c r="W47" s="36" t="str">
+      <c r="W47" s="5" t="str">
         <f t="shared" ref="W47" si="81">IF(OR(ISBLANK($S47), ISBLANK($T47), ISBLANK($U47)), "", IF(S47&gt;T47,L47,M47))</f>
         <v>DAL</v>
       </c>
-      <c r="X47" s="36">
+      <c r="X47" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v>2</v>
       </c>
-      <c r="Y47" s="36">
+      <c r="Y47" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v>-1</v>
       </c>
-      <c r="Z47" s="37"/>
       <c r="AH47" t="s">
         <v>51</v>
       </c>
@@ -13804,88 +13795,88 @@
       </c>
     </row>
     <row r="48" spans="1:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="42" t="str">
+      <c r="A48" s="36" t="str">
         <f t="shared" si="51"/>
         <v>Sunday</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="37">
         <v>45781</v>
       </c>
-      <c r="C48" s="44">
+      <c r="C48" s="38">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="45">
-        <v>1</v>
-      </c>
-      <c r="F48" s="46" t="s">
+      <c r="E48" s="39">
+        <v>1</v>
+      </c>
+      <c r="F48" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="G48" s="45">
+      <c r="G48" s="39">
         <v>7</v>
       </c>
-      <c r="H48" s="45" t="s">
+      <c r="H48" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="I48" s="45" t="s">
+      <c r="I48" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="J48" s="45">
+      <c r="J48" s="39">
         <v>4</v>
       </c>
-      <c r="K48" s="45">
-        <v>3</v>
-      </c>
-      <c r="L48" s="47" t="s">
+      <c r="K48" s="39">
+        <v>3</v>
+      </c>
+      <c r="L48" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="M48" s="47" t="s">
+      <c r="M48" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="N48" s="47" t="str">
+      <c r="N48" s="41" t="str">
         <f t="shared" si="52"/>
         <v>WPG</v>
       </c>
-      <c r="O48" s="47">
-        <v>2</v>
-      </c>
-      <c r="P48" s="47">
-        <v>3</v>
-      </c>
-      <c r="Q48" s="47" t="s">
+      <c r="O48" s="41">
+        <v>2</v>
+      </c>
+      <c r="P48" s="41">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="R48" s="43">
+      <c r="R48" s="37">
         <v>45781</v>
       </c>
-      <c r="S48" s="47">
-        <v>3</v>
-      </c>
-      <c r="T48" s="47">
+      <c r="S48" s="41">
+        <v>3</v>
+      </c>
+      <c r="T48" s="41">
         <v>4</v>
       </c>
-      <c r="U48" s="47">
-        <v>2</v>
-      </c>
-      <c r="V48" s="47">
+      <c r="U48" s="41">
+        <v>2</v>
+      </c>
+      <c r="V48" s="41">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
         <v>1</v>
       </c>
-      <c r="W48" s="47" t="str">
+      <c r="W48" s="41" t="str">
         <f t="shared" ref="W48:W55" si="82">IF(OR(ISBLANK($S48), ISBLANK($T48), ISBLANK($U48)), "", IF(S48&gt;T48,L48,M48))</f>
         <v>WPG</v>
       </c>
-      <c r="X48" s="47">
+      <c r="X48" s="41">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v>-1</v>
       </c>
-      <c r="Y48" s="47">
+      <c r="Y48" s="41">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v>-1</v>
       </c>
-      <c r="Z48" s="42"/>
+      <c r="Z48" s="36"/>
       <c r="AH48" t="s">
         <v>52</v>
       </c>
@@ -14011,147 +14002,153 @@
       </c>
     </row>
     <row r="49" spans="1:64" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="str">
+      <c r="A49" t="str">
         <f t="shared" si="51"/>
         <v>Monday</v>
       </c>
-      <c r="B49" s="38">
+      <c r="B49" s="7">
         <v>45782</v>
       </c>
-      <c r="C49" s="39">
+      <c r="C49" s="23">
         <v>0.875</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="40">
-        <v>2</v>
-      </c>
-      <c r="F49" s="41" t="s">
+      <c r="E49" s="8">
+        <v>2</v>
+      </c>
+      <c r="F49" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="40">
-        <v>1</v>
-      </c>
-      <c r="H49" s="40" t="s">
+      <c r="G49" s="8">
+        <v>1</v>
+      </c>
+      <c r="H49" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I49" s="40" t="s">
+      <c r="I49" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="40">
-        <v>0</v>
-      </c>
-      <c r="K49" s="40">
-        <v>0</v>
-      </c>
-      <c r="L49" s="36" t="s">
+      <c r="J49" s="8">
+        <v>0</v>
+      </c>
+      <c r="K49" s="8">
+        <v>0</v>
+      </c>
+      <c r="L49" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M49" s="36" t="s">
+      <c r="M49" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N49" s="36" t="str">
+      <c r="N49" s="5" t="str">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
+        <v>FLA</v>
+      </c>
+      <c r="O49" s="5">
+        <v>4</v>
+      </c>
+      <c r="P49" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="R49" s="7">
+        <v>45782</v>
+      </c>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
       <c r="V49" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
         <v/>
       </c>
-      <c r="W49" s="36" t="str">
+      <c r="W49" s="5" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="X49" s="36" t="str">
+      <c r="X49" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y49" s="36" t="str">
+      <c r="Y49" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
-      <c r="Z49" s="37"/>
     </row>
     <row r="50" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A50" s="37" t="str">
+      <c r="A50" t="str">
         <f t="shared" si="51"/>
         <v>Tuesday</v>
       </c>
-      <c r="B50" s="38">
+      <c r="B50" s="7">
         <v>45783</v>
       </c>
-      <c r="C50" s="39">
+      <c r="C50" s="23">
         <v>0.875</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="40">
-        <v>2</v>
-      </c>
-      <c r="F50" s="41" t="s">
+      <c r="E50" s="8">
+        <v>2</v>
+      </c>
+      <c r="F50" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G50" s="40">
-        <v>1</v>
-      </c>
-      <c r="H50" s="40" t="s">
+      <c r="G50" s="8">
+        <v>1</v>
+      </c>
+      <c r="H50" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I50" s="40" t="s">
+      <c r="I50" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="40">
-        <v>0</v>
-      </c>
-      <c r="K50" s="40">
-        <v>0</v>
-      </c>
-      <c r="L50" s="36" t="s">
+      <c r="J50" s="8">
+        <v>0</v>
+      </c>
+      <c r="K50" s="8">
+        <v>0</v>
+      </c>
+      <c r="L50" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M50" s="36" t="s">
+      <c r="M50" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N50" s="36" t="str">
+      <c r="N50" s="5" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
       <c r="V50" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
         <v/>
       </c>
-      <c r="W50" s="36" t="str">
+      <c r="W50" s="5" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="X50" s="36" t="str">
+      <c r="X50" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y50" s="36" t="str">
+      <c r="Y50" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
-      <c r="Z50" s="37"/>
     </row>
     <row r="51" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A51" s="37" t="str">
+      <c r="A51" t="str">
         <f t="shared" si="51"/>
         <v>Tuesday</v>
       </c>
@@ -14176,49 +14173,48 @@
       <c r="H51" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I51" s="40" t="s">
+      <c r="I51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J51" s="40">
-        <v>0</v>
-      </c>
-      <c r="K51" s="40">
-        <v>0</v>
-      </c>
-      <c r="L51" s="40" t="s">
+      <c r="J51" s="8">
+        <v>0</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0</v>
+      </c>
+      <c r="L51" s="8" t="s">
         <v>52</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="N51" s="36" t="str">
+      <c r="N51" s="5" t="str">
         <f>IF(OR(ISBLANK(O51), ISBLANK($P51)), "", IF($O51&gt;$P51, $L52,$M52))</f>
         <v/>
       </c>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="38"/>
-      <c r="S51" s="36"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="36"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
       <c r="V51" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
         <v/>
       </c>
-      <c r="W51" s="36" t="str">
+      <c r="W51" s="5" t="str">
         <f>IF(OR(ISBLANK($S51), ISBLANK($T51), ISBLANK($U51)), "", IF(S51&gt;T51,L52,M52))</f>
         <v/>
       </c>
-      <c r="X51" s="36" t="str">
+      <c r="X51" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y51" s="36" t="str">
+      <c r="Y51" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
-      <c r="Z51" s="37"/>
       <c r="AH51" s="1"/>
       <c r="AI51" s="1" t="s">
         <v>61</v>
@@ -14312,74 +14308,73 @@
       </c>
     </row>
     <row r="52" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="str">
+      <c r="A52" t="str">
         <f t="shared" si="51"/>
         <v>Wednesday</v>
       </c>
-      <c r="B52" s="38">
+      <c r="B52" s="7">
         <v>45784</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="23">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="40">
-        <v>2</v>
-      </c>
-      <c r="F52" s="41" t="s">
+      <c r="E52" s="8">
+        <v>2</v>
+      </c>
+      <c r="F52" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G52" s="40">
-        <v>2</v>
-      </c>
-      <c r="H52" s="40" t="s">
+      <c r="G52" s="8">
+        <v>2</v>
+      </c>
+      <c r="H52" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I52" s="40" t="s">
+      <c r="I52" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J52" s="40">
-        <v>0</v>
-      </c>
-      <c r="K52" s="40">
-        <v>0</v>
-      </c>
-      <c r="L52" s="36" t="s">
+      <c r="J52" s="8">
+        <v>0</v>
+      </c>
+      <c r="K52" s="8">
+        <v>0</v>
+      </c>
+      <c r="L52" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M52" s="36" t="s">
+      <c r="M52" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N52" s="36" t="str">
+      <c r="N52" s="5" t="str">
         <f>IF(OR(ISBLANK(O52), ISBLANK($P52)), "", IF($O52&gt;$P52,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
       <c r="V52" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
         <v/>
       </c>
-      <c r="W52" s="36" t="str">
+      <c r="W52" s="5" t="str">
         <f>IF(OR(ISBLANK($S52), ISBLANK($T52), ISBLANK($U52)), "", IF(S52&gt;T52,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="X52" s="36" t="str">
+      <c r="X52" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y52" s="36" t="str">
+      <c r="Y52" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
-      <c r="Z52" s="37"/>
       <c r="AI52">
         <f>COUNTIFS($L$2:$L$100, AH52, $E$2:$E$100, 1) + COUNTIFS($M$2:$M$100, AH52, $E$2:$E$100, 1)</f>
         <v>0</v>
@@ -14502,11 +14497,11 @@
       </c>
     </row>
     <row r="53" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="str">
+      <c r="A53" t="str">
         <f t="shared" si="51"/>
         <v>Thursday</v>
       </c>
-      <c r="B53" s="38">
+      <c r="B53" s="7">
         <v>45785</v>
       </c>
       <c r="C53" s="24">
@@ -14524,52 +14519,51 @@
       <c r="G53" s="3">
         <v>2</v>
       </c>
-      <c r="H53" s="40" t="s">
+      <c r="H53" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I53" s="40" t="s">
+      <c r="I53" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J53" s="40">
-        <v>0</v>
-      </c>
-      <c r="K53" s="40">
-        <v>0</v>
-      </c>
-      <c r="L53" s="36" t="s">
+      <c r="J53" s="8">
+        <v>0</v>
+      </c>
+      <c r="K53" s="8">
+        <v>0</v>
+      </c>
+      <c r="L53" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M53" s="36" t="s">
+      <c r="M53" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N53" s="36" t="str">
+      <c r="N53" s="5" t="str">
         <f>IF(OR(ISBLANK(O53), ISBLANK($P53)), "", IF($O53&gt;$P53, $L54,$M54))</f>
         <v/>
       </c>
-      <c r="O53" s="36"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
       <c r="V53" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
         <v/>
       </c>
-      <c r="W53" s="36" t="str">
+      <c r="W53" s="5" t="str">
         <f>IF(OR(ISBLANK($S53), ISBLANK($T53), ISBLANK($U53)), "", IF(S53&gt;T53,L54,M54))</f>
         <v/>
       </c>
-      <c r="X53" s="36" t="str">
+      <c r="X53" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y53" s="36" t="str">
+      <c r="Y53" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
-      <c r="Z53" s="37"/>
       <c r="AI53">
         <f t="shared" ref="AI53:AI55" si="86">COUNTIFS($L$2:$L$100, AH53, $E$2:$E$100, 1) + COUNTIFS($M$2:$M$100, AH53, $E$2:$E$100, 1)</f>
         <v>0</v>
@@ -14692,14 +14686,14 @@
       </c>
     </row>
     <row r="54" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="str">
+      <c r="A54" t="str">
         <f t="shared" si="51"/>
         <v>Thursday</v>
       </c>
-      <c r="B54" s="38">
+      <c r="B54" s="7">
         <v>45785</v>
       </c>
-      <c r="C54" s="39">
+      <c r="C54" s="23">
         <v>0.9375</v>
       </c>
       <c r="D54" s="12" t="s">
@@ -14717,49 +14711,48 @@
       <c r="H54" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I54" s="40" t="s">
+      <c r="I54" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J54" s="40">
-        <v>0</v>
-      </c>
-      <c r="K54" s="40">
-        <v>0</v>
-      </c>
-      <c r="L54" s="40" t="s">
+      <c r="J54" s="8">
+        <v>0</v>
+      </c>
+      <c r="K54" s="8">
+        <v>0</v>
+      </c>
+      <c r="L54" s="8" t="s">
         <v>52</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="N54" s="36" t="str">
+      <c r="N54" s="5" t="str">
         <f>IF(OR(ISBLANK(O54), ISBLANK($P54)), "", IF($O54&gt;$P54,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="36"/>
-      <c r="R54" s="38"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
       <c r="V54" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
         <v/>
       </c>
-      <c r="W54" s="36" t="str">
+      <c r="W54" s="5" t="str">
         <f>IF(OR(ISBLANK($S54), ISBLANK($T54), ISBLANK($U54)), "", IF(S54&gt;T54,#REF!,#REF!))</f>
         <v/>
       </c>
-      <c r="X54" s="36" t="str">
+      <c r="X54" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y54" s="36" t="str">
+      <c r="Y54" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
-      <c r="Z54" s="37"/>
       <c r="AI54">
         <f t="shared" si="86"/>
         <v>0</v>
@@ -14882,50 +14875,46 @@
       </c>
     </row>
     <row r="55" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="str">
+      <c r="A55" t="str">
         <f t="shared" si="51"/>
         <v>Saturday</v>
       </c>
-      <c r="B55" s="38"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36" t="str">
+      <c r="B55" s="7"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="7"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="38"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
       <c r="V55" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
         <v/>
       </c>
-      <c r="W55" s="36" t="str">
+      <c r="W55" s="5" t="str">
         <f t="shared" si="82"/>
         <v/>
       </c>
-      <c r="X55" s="36" t="str">
+      <c r="X55" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
         <v/>
       </c>
-      <c r="Y55" s="36" t="str">
+      <c r="Y55" s="5" t="str">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v/>
       </c>
-      <c r="Z55" s="37"/>
       <c r="AI55">
         <f t="shared" si="86"/>
         <v>0</v>
@@ -15065,7 +15054,7 @@
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
       <c r="V56" s="5" t="str">
-        <f t="shared" ref="V2:V65" si="110">IF(ISBLANK($U56),"",IF($S56=$T56,0,IF($L56=$N56,IF($S56&gt;$T56,1,0),IF($T56&gt;$S56,1,0))))</f>
+        <f t="shared" ref="V56:V65" si="110">IF(ISBLANK($U56),"",IF($S56=$T56,0,IF($L56=$N56,IF($S56&gt;$T56,1,0),IF($T56&gt;$S56,1,0))))</f>
         <v/>
       </c>
       <c r="W56" s="5" t="str">
@@ -16268,200 +16257,460 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 A56:AAD10000 N3:N33 F4:F5 A4:E7 A8 C8 H8:M8 Z8:AAD14 A15:AAD37 B42:M45 H47:M47 A38:M41 N38:AAD47 B47:B50 H48:AAD50 N51:AAD51 A42:A55 J51:K51 B52:B55 H52:AAD55 V3:V55">
-    <cfRule type="cellIs" dxfId="252" priority="424" operator="equal">
-      <formula>"OTT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="425" operator="equal">
+  <conditionalFormatting sqref="A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 A15:AAD37 N38:AAD47 H48:AAD50 N51:AAD51 H52:AAD55 A56:AAD10000 N3:N33 V3:V55 F4:F5 A4:E7 A8 C8 H8:M8 Z8:AAD14 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 B52:B55">
+    <cfRule type="cellIs" dxfId="252" priority="425" operator="equal">
       <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="427" operator="equal">
+      <formula>"STL"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="250" priority="426" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="427" operator="equal">
-      <formula>"STL"</formula>
+    <cfRule type="cellIs" dxfId="249" priority="424" operator="equal">
+      <formula>"OTT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:AAD10000 B42:M45 H47:M47 A38:M41 N38:AAD47 B47:B50 H48:AAD50 N51:AAD51 A42:A55 J51:K51 B52:B55 H52:AAD55 A1:AAD37 V10:V55">
+  <conditionalFormatting sqref="A1:AAD37 N38:AAD47 H48:AAD50 N51:AAD51 H52:AAD55 A56:AAD10000 V10:V55 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 B52:B55">
     <cfRule type="cellIs" dxfId="248" priority="383" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 A56:AAD10000 N3:N33 F4:F5 A4:E7 A8 C8 H8:M8 Z8:AAD14 A15:AAD37 B42:M45 H47:M47 A38:M41 N38:AAD47 B47:B50 H48:AAD50 N51:AAD51 A42:A55 J51:K51 B52:B55 H52:AAD55 V3:V55">
-    <cfRule type="cellIs" dxfId="247" priority="440" operator="equal">
+  <conditionalFormatting sqref="A15:AAD37 A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 N38:AAD47 H48:AAD50 N51:AAD51 H52:AAD55 A56:AAD10000 N3:N33 V3:V55 F4:F5 A4:E7 A8 C8 H8:M8 Z8:AAD14 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 B52:B55">
+    <cfRule type="cellIs" dxfId="247" priority="455" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="454" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="453" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="452" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="451" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="450" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="449" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="448" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="447" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="446" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="444" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="443" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="442" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="441" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="233" priority="440" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="441" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="442" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="443" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="444" operator="equal">
-      <formula>"FLA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="445" operator="equal">
       <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="446" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="447" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="448" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="449" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="450" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="451" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="452" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="453" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="454" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="455" operator="equal">
-      <formula>"BOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="231" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="392" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="389" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="403" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="402" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="227" priority="401" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="400" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="399" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="398" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="397" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="396" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="395" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="394" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="393" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="391" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="390" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="388" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="215" priority="387" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="386" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="385" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="384" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="385" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="cellIs" dxfId="211" priority="288" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="280" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="287" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="289" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="290" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="291" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="292" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="293" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="294" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="295" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="296" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="286" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="285" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="284" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="283" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="282" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="281" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="279" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="278" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="277" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="191" priority="276" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="cellIs" dxfId="190" priority="71" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="72" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="86" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="85" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="84" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="74" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="83" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="82" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="81" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="80" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="79" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="78" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="68" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="69" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="70" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="388" operator="equal">
-      <formula>"LAK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="389" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="73" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="391" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="76" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="75" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="393" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="66" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="67" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="77" operator="equal">
       <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="395" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="396" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="397" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="398" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="399" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="400" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="401" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="402" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="403" operator="equal">
-      <formula>"BOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:I46">
-    <cfRule type="cellIs" dxfId="211" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="346" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="345" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="344" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="343" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="342" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="341" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="340" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="339" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="359" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="358" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="357" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="351" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="356" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="355" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="354" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="353" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="352" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="350" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="349" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="348" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="347" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51">
+    <cfRule type="cellIs" dxfId="148" priority="236" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="247" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="252" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="251" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="254" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="253" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="234" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="235" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="237" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="238" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="239" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="240" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="241" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="242" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="243" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="244" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="245" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="246" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="248" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="249" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="250" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="cellIs" dxfId="127" priority="47" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="52" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="51" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="50" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="49" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="62" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="48" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="343" operator="equal">
-      <formula>"STL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="344" operator="equal">
-      <formula>"LAK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="345" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="346" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="46" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="45" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="56" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="60" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="59" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="58" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="57" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="55" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="53" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="54" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="349" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="350" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="351" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="352" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="353" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="354" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="65" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="64" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="63" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="61" operator="equal">
       <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="356" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="357" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="358" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="359" operator="equal">
-      <formula>"BOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K52 J54:K99">
@@ -16476,7 +16725,39 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J53:K53">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="2"/>
+        <cfvo type="formula" val="4"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="2"/>
+        <cfvo type="formula" val="4"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J62:K62 J63">
+    <cfRule type="colorScale" priority="467">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="2"/>
+        <cfvo type="formula" val="4"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="466">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16487,80 +16768,330 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="467">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="2"/>
-        <cfvo type="formula" val="4"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51">
+    <cfRule type="cellIs" dxfId="106" priority="191" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="171" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="188" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="177" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="186" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="185" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="184" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="183" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="182" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="181" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="189" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="180" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="179" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="178" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="187" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="176" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="175" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="174" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="173" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="190" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="172" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54">
+    <cfRule type="cellIs" dxfId="85" priority="7" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="8" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="9" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="10" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="11" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="12" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="13" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="6" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="14" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="15" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="16" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="17" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="18" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="19" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="20" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="21" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="22" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="23" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="5" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="3" operator="equal">
+      <formula>"MTL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46:M46">
-    <cfRule type="cellIs" dxfId="190" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="299" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="300" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="301" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="302" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="304" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="305" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="306" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="307" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="308" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="310" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="303" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="313" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="314" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="315" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="311" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="309" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="312" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="297" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="298" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="317" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="316" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M51">
+    <cfRule type="cellIs" dxfId="43" priority="217" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="218" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="219" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="220" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="222" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="224" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="225" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="216" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="226" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="227" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="228" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="229" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="230" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="223" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="221" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="231" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="213" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="233" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="214" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="215" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="232" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M54">
+    <cfRule type="cellIs" dxfId="22" priority="42" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="41" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="40" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="39" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="38" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="36" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="35" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="34" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="33" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="32" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="30" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="29" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="301" operator="equal">
-      <formula>"STL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="302" operator="equal">
-      <formula>"LAK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="303" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="304" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="305" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="306" operator="equal">
-      <formula>"FLA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="307" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="308" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="309" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="26" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="25" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="24" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="37" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="311" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="312" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="313" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="314" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="315" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="44" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="43" operator="equal">
       <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="317" operator="equal">
-      <formula>"BOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
@@ -16596,12 +17127,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI22:AL37 AI41:AL48 AI52:AL55">
-    <cfRule type="cellIs" dxfId="169" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="464" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI59:AL60">
-    <cfRule type="cellIs" dxfId="168" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="456" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16834,7 +17365,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO22:BO37">
-    <cfRule type="colorScale" priority="438">
+    <cfRule type="colorScale" priority="439">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16844,7 +17375,7 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="439">
+    <cfRule type="colorScale" priority="438">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16963,582 +17494,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="167" priority="277" operator="equal">
-      <formula>"OTT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="278" operator="equal">
-      <formula>"NJD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="279" operator="equal">
-      <formula>"MIN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="280" operator="equal">
-      <formula>"STL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="163" priority="276" operator="equal">
-      <formula>"MTL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="162" priority="281" operator="equal">
-      <formula>"LAK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="282" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="283" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="284" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="285" operator="equal">
-      <formula>"FLA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="286" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="287" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="288" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="289" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="290" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="291" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="292" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="293" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="294" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="295" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="296" operator="equal">
-      <formula>"BOS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="146" priority="235" operator="equal">
-      <formula>"OTT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="236" operator="equal">
-      <formula>"NJD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="237" operator="equal">
-      <formula>"MIN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="238" operator="equal">
-      <formula>"STL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="142" priority="234" operator="equal">
-      <formula>"MTL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="141" priority="239" operator="equal">
-      <formula>"LAK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="240" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="241" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="242" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="243" operator="equal">
-      <formula>"FLA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="244" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="245" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="246" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="247" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="248" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="249" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="250" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="251" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="252" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="253" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="254" operator="equal">
-      <formula>"BOS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M51">
-    <cfRule type="cellIs" dxfId="125" priority="214" operator="equal">
-      <formula>"OTT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="215" operator="equal">
-      <formula>"NJD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="216" operator="equal">
-      <formula>"MIN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="217" operator="equal">
-      <formula>"STL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M51">
-    <cfRule type="cellIs" dxfId="121" priority="213" operator="equal">
-      <formula>"MTL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M51">
-    <cfRule type="cellIs" dxfId="120" priority="218" operator="equal">
-      <formula>"LAK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="219" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="220" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="221" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="222" operator="equal">
-      <formula>"FLA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="223" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="224" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="225" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="226" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="227" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="228" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="229" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="230" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="231" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="232" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="233" operator="equal">
-      <formula>"BOS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
-    <cfRule type="cellIs" dxfId="104" priority="172" operator="equal">
-      <formula>"OTT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="173" operator="equal">
-      <formula>"NJD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="174" operator="equal">
-      <formula>"MIN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="175" operator="equal">
-      <formula>"STL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
-    <cfRule type="cellIs" dxfId="100" priority="171" operator="equal">
-      <formula>"MTL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
-    <cfRule type="cellIs" dxfId="99" priority="176" operator="equal">
-      <formula>"LAK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="177" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="178" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="179" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="180" operator="equal">
-      <formula>"FLA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="181" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="182" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="183" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="184" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="185" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="186" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="187" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="188" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="189" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="190" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="191" operator="equal">
-      <formula>"BOS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="83" priority="67" operator="equal">
-      <formula>"OTT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="68" operator="equal">
-      <formula>"NJD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="69" operator="equal">
-      <formula>"MIN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="70" operator="equal">
-      <formula>"STL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="79" priority="66" operator="equal">
-      <formula>"MTL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="78" priority="71" operator="equal">
-      <formula>"LAK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="72" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="73" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="74" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
-      <formula>"FLA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="76" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="77" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="78" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="79" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="80" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="81" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="82" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="83" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="84" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="85" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="86" operator="equal">
-      <formula>"BOS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="62" priority="46" operator="equal">
-      <formula>"OTT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="47" operator="equal">
-      <formula>"NJD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="48" operator="equal">
-      <formula>"MIN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="49" operator="equal">
-      <formula>"STL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="58" priority="45" operator="equal">
-      <formula>"MTL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="57" priority="50" operator="equal">
-      <formula>"LAK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="52" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="53" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
-      <formula>"FLA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="56" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="57" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="58" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="59" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="60" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="61" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="62" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="63" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="64" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="65" operator="equal">
-      <formula>"BOS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M54">
-    <cfRule type="cellIs" dxfId="41" priority="25" operator="equal">
-      <formula>"OTT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="26" operator="equal">
-      <formula>"NJD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="27" operator="equal">
-      <formula>"MIN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
-      <formula>"STL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M54">
-    <cfRule type="cellIs" dxfId="37" priority="24" operator="equal">
-      <formula>"MTL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M54">
-    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
-      <formula>"LAK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
-      <formula>"FLA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="40" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="41" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="42" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="43" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="44" operator="equal">
-      <formula>"BOS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L54">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
-      <formula>"OTT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
-      <formula>"NJD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
-      <formula>"MIN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
-      <formula>"STL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L54">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
-      <formula>"MTL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L54">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
-      <formula>"LAK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>"FLA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="20" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
-      <formula>"BOS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53:K53">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="2"/>
-        <cfvo type="formula" val="4"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53:K53">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="2"/>
-        <cfvo type="formula" val="4"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDCF321-9031-4746-8330-94C53FB1097D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3200B749-4963-4D6F-824E-B90C5FA388B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4224,9 +4213,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4264,7 +4253,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4370,7 +4359,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4512,7 +4501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4523,7 +4512,7 @@
   <dimension ref="A1:CL89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="R49" sqref="R49"/>
+      <selection activeCell="V49" sqref="V49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5991,11 +5980,11 @@
       </c>
       <c r="AM12">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN12">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -8440,15 +8429,15 @@
       </c>
       <c r="AP26">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ26">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR26">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS26">
         <f t="shared" si="18"/>
@@ -8548,15 +8537,15 @@
       </c>
       <c r="BR26" s="15">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BS26" s="15">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BT26" s="15">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU26" s="15">
         <f t="shared" si="30"/>
@@ -8572,7 +8561,7 @@
       </c>
       <c r="BX26" s="15">
         <f t="shared" si="31"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BY26" s="15">
         <f t="shared" si="32"/>
@@ -8580,7 +8569,7 @@
       </c>
       <c r="BZ26" s="15">
         <f t="shared" si="33"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="CA26" s="15">
         <f t="shared" si="34"/>
@@ -8588,7 +8577,7 @@
       </c>
       <c r="CB26" s="15">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC26" s="15">
         <f t="shared" si="35"/>
@@ -8596,19 +8585,19 @@
       </c>
       <c r="CD26" s="15">
         <f t="shared" si="36"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="CE26" s="15">
         <f t="shared" si="37"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="CF26" s="15">
         <f t="shared" si="38"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CG26" s="20">
         <f t="shared" si="39"/>
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="CH26" s="20">
         <f t="shared" si="39"/>
@@ -8616,7 +8605,7 @@
       </c>
       <c r="CI26" s="20">
         <f t="shared" si="40"/>
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="CJ26" s="20">
         <f t="shared" si="40"/>
@@ -8624,11 +8613,11 @@
       </c>
       <c r="CK26" s="20">
         <f t="shared" si="41"/>
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="CL26" s="20">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="1:90" x14ac:dyDescent="0.25">
@@ -9381,7 +9370,7 @@
       </c>
       <c r="AU29">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV29">
         <f t="shared" si="21"/>
@@ -9489,7 +9478,7 @@
       </c>
       <c r="BW29" s="15">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX29" s="15">
         <f t="shared" si="31"/>
@@ -9497,7 +9486,7 @@
       </c>
       <c r="BY29" s="15">
         <f t="shared" si="32"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BZ29" s="15">
         <f t="shared" si="33"/>
@@ -9505,7 +9494,7 @@
       </c>
       <c r="CA29" s="15">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CB29" s="15">
         <f t="shared" si="35"/>
@@ -9513,19 +9502,19 @@
       </c>
       <c r="CC29" s="15">
         <f t="shared" si="35"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CD29" s="15">
         <f t="shared" si="36"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="CE29" s="15">
         <f t="shared" si="37"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="CF29" s="15">
         <f t="shared" si="38"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CG29" s="20">
         <f t="shared" si="39"/>
@@ -9533,7 +9522,7 @@
       </c>
       <c r="CH29" s="20">
         <f t="shared" si="39"/>
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="CI29" s="20">
         <f t="shared" si="40"/>
@@ -9541,15 +9530,15 @@
       </c>
       <c r="CJ29" s="20">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CK29" s="20">
         <f t="shared" si="41"/>
-        <v>2.7142857142857144</v>
+        <v>3.2857142857142856</v>
       </c>
       <c r="CL29" s="20">
         <f t="shared" si="42"/>
-        <v>1.7142857142857142</v>
+        <v>2.4285714285714284</v>
       </c>
     </row>
     <row r="30" spans="1:90" x14ac:dyDescent="0.25">
@@ -12879,15 +12868,15 @@
       </c>
       <c r="AP43">
         <f t="shared" si="61"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ43">
         <f t="shared" si="62"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR43">
         <f t="shared" si="63"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS43">
         <f t="shared" si="64"/>
@@ -12911,7 +12900,7 @@
       </c>
       <c r="AX43">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY43">
         <f t="shared" si="70"/>
@@ -12919,7 +12908,7 @@
       </c>
       <c r="AZ43">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA43">
         <f t="shared" si="72"/>
@@ -12927,7 +12916,7 @@
       </c>
       <c r="BB43">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC43">
         <f t="shared" si="73"/>
@@ -12935,19 +12924,19 @@
       </c>
       <c r="BD43">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BE43">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF43">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG43">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BH43" t="e">
         <f t="shared" si="77"/>
@@ -12955,7 +12944,7 @@
       </c>
       <c r="BI43">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ43" t="e">
         <f t="shared" si="78"/>
@@ -12963,11 +12952,11 @@
       </c>
       <c r="BK43">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="BL43">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="44" spans="1:90" x14ac:dyDescent="0.25">
@@ -13105,7 +13094,7 @@
       </c>
       <c r="AU44">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV44">
         <f t="shared" si="67"/>
@@ -13121,7 +13110,7 @@
       </c>
       <c r="AY44">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ44">
         <f t="shared" si="71"/>
@@ -13129,7 +13118,7 @@
       </c>
       <c r="BA44">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB44">
         <f t="shared" si="73"/>
@@ -13137,19 +13126,19 @@
       </c>
       <c r="BC44">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BD44">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE44">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BF44">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BG44" t="e">
         <f t="shared" si="77"/>
@@ -13157,7 +13146,7 @@
       </c>
       <c r="BH44">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI44" t="e">
         <f t="shared" si="78"/>
@@ -13165,15 +13154,15 @@
       </c>
       <c r="BJ44">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BK44">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="BL44">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:90" x14ac:dyDescent="0.25">
@@ -14058,24 +14047,30 @@
       <c r="R49" s="7">
         <v>45782</v>
       </c>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5" t="str">
+      <c r="S49" s="5">
+        <v>4</v>
+      </c>
+      <c r="T49" s="5">
+        <v>5</v>
+      </c>
+      <c r="U49" s="5">
+        <v>0</v>
+      </c>
+      <c r="V49" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W49" s="5" t="str">
         <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="X49" s="5" t="str">
+        <v>TOR</v>
+      </c>
+      <c r="X49" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y49" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>-2</v>
       </c>
     </row>
     <row r="50" spans="1:64" x14ac:dyDescent="0.25">

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D00F0B-1480-4486-908F-D43CD135DA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82441DD1-3E92-4551-AB78-B307871EE00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="186">
   <si>
     <t>DATE</t>
   </si>
@@ -592,6 +581,9 @@
   <si>
     <t>Edmonton becomes the first team in NHL history to trail in 5 consecutive playoff games, and then comback to win all 5</t>
   </si>
+  <si>
+    <t>Mikko Rantanen hattrick</t>
+  </si>
 </sst>
 </file>
 
@@ -8439,9 +8431,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8479,7 +8471,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8585,7 +8577,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8727,7 +8719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8737,8 +8729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819ACA58-DCD7-4A09-9052-0851D3ECB0FF}">
   <dimension ref="A1:CL94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="Z52" sqref="Z52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="V53" sqref="V53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9464,7 +9456,7 @@
       <c r="AD6" s="8"/>
       <c r="AE6" s="13">
         <f>SUM(V2:V104)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF6" s="8"/>
       <c r="AG6" s="14" t="s">
@@ -9588,7 +9580,7 @@
       <c r="AD7" s="8"/>
       <c r="AE7" s="13">
         <f>AE6/AE5</f>
-        <v>0.38095238095238093</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="AF7" s="8"/>
       <c r="AG7" s="14" t="s">
@@ -10200,19 +10192,19 @@
       </c>
       <c r="AK12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AM12">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AN12">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -10326,11 +10318,11 @@
       </c>
       <c r="AM13">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN13">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -12667,15 +12659,15 @@
       </c>
       <c r="AP26">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ26">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR26">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS26">
         <f t="shared" si="18"/>
@@ -12775,15 +12767,15 @@
       </c>
       <c r="BR26" s="15">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS26" s="15">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BT26" s="15">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BU26" s="15">
         <f t="shared" si="30"/>
@@ -12799,7 +12791,7 @@
       </c>
       <c r="BX26" s="15">
         <f t="shared" si="31"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BY26" s="15">
         <f t="shared" si="32"/>
@@ -12807,7 +12799,7 @@
       </c>
       <c r="BZ26" s="15">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="CA26" s="15">
         <f t="shared" si="34"/>
@@ -12815,7 +12807,7 @@
       </c>
       <c r="CB26" s="15">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC26" s="15">
         <f t="shared" si="35"/>
@@ -12823,19 +12815,19 @@
       </c>
       <c r="CD26" s="15">
         <f t="shared" si="36"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="CE26" s="15">
         <f t="shared" si="37"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="CF26" s="15">
         <f t="shared" si="38"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CG26" s="20">
         <f t="shared" si="39"/>
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="CH26" s="20">
         <f t="shared" si="39"/>
@@ -12843,7 +12835,7 @@
       </c>
       <c r="CI26" s="20">
         <f t="shared" si="40"/>
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="CJ26" s="20">
         <f t="shared" si="40"/>
@@ -12851,11 +12843,11 @@
       </c>
       <c r="CK26" s="20">
         <f t="shared" si="41"/>
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="CL26" s="20">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:90" x14ac:dyDescent="0.25">
@@ -13609,7 +13601,7 @@
       </c>
       <c r="AU29">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV29">
         <f t="shared" si="21"/>
@@ -13717,7 +13709,7 @@
       </c>
       <c r="BW29" s="15">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX29" s="15">
         <f t="shared" si="31"/>
@@ -13725,7 +13717,7 @@
       </c>
       <c r="BY29" s="15">
         <f t="shared" si="32"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BZ29" s="15">
         <f t="shared" si="33"/>
@@ -13733,7 +13725,7 @@
       </c>
       <c r="CA29" s="15">
         <f t="shared" si="34"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="CB29" s="15">
         <f t="shared" si="35"/>
@@ -13741,19 +13733,19 @@
       </c>
       <c r="CC29" s="15">
         <f t="shared" si="35"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CD29" s="15">
         <f t="shared" si="36"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="CE29" s="15">
         <f t="shared" si="37"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="CF29" s="15">
         <f t="shared" si="38"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CG29" s="20">
         <f t="shared" si="39"/>
@@ -13761,7 +13753,7 @@
       </c>
       <c r="CH29" s="20">
         <f t="shared" si="39"/>
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="CI29" s="20">
         <f t="shared" si="40"/>
@@ -13769,15 +13761,15 @@
       </c>
       <c r="CJ29" s="20">
         <f t="shared" si="40"/>
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="CK29" s="20">
         <f t="shared" si="41"/>
-        <v>2.5555555555555554</v>
+        <v>2.8888888888888888</v>
       </c>
       <c r="CL29" s="20">
         <f t="shared" si="42"/>
-        <v>1.8888888888888888</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="30" spans="1:90" x14ac:dyDescent="0.25">
@@ -13908,7 +13900,7 @@
       </c>
       <c r="AS30">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30">
         <f t="shared" si="19"/>
@@ -14016,7 +14008,7 @@
       </c>
       <c r="BU30" s="15">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV30" s="15">
         <f t="shared" si="30"/>
@@ -14028,7 +14020,7 @@
       </c>
       <c r="BX30" s="15">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BY30" s="15">
         <f t="shared" si="32"/>
@@ -14036,7 +14028,7 @@
       </c>
       <c r="BZ30" s="15">
         <f t="shared" si="33"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="CA30" s="15">
         <f t="shared" si="34"/>
@@ -14044,7 +14036,7 @@
       </c>
       <c r="CB30" s="15">
         <f t="shared" si="35"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CC30" s="15">
         <f t="shared" si="35"/>
@@ -14052,19 +14044,19 @@
       </c>
       <c r="CD30" s="15">
         <f t="shared" si="36"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CE30" s="15">
         <f t="shared" si="37"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="CF30" s="15">
         <f t="shared" si="38"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="CG30" s="20">
         <f t="shared" si="39"/>
-        <v>2.6666666666666665</v>
+        <v>3</v>
       </c>
       <c r="CH30" s="20">
         <f t="shared" si="39"/>
@@ -14072,7 +14064,7 @@
       </c>
       <c r="CI30" s="20">
         <f t="shared" si="40"/>
-        <v>1.6666666666666667</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="CJ30" s="20">
         <f t="shared" si="40"/>
@@ -14080,11 +14072,11 @@
       </c>
       <c r="CK30" s="20">
         <f t="shared" si="41"/>
-        <v>1.9090909090909092</v>
+        <v>2.0909090909090908</v>
       </c>
       <c r="CL30" s="20">
         <f t="shared" si="42"/>
-        <v>2.4545454545454546</v>
+        <v>2.7272727272727271</v>
       </c>
     </row>
     <row r="31" spans="1:90" x14ac:dyDescent="0.25">
@@ -14511,11 +14503,11 @@
       </c>
       <c r="AP32">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ32">
         <f t="shared" si="16"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR32">
         <f t="shared" si="17"/>
@@ -14527,7 +14519,7 @@
       </c>
       <c r="AT32">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU32">
         <f t="shared" si="20"/>
@@ -14619,11 +14611,11 @@
       </c>
       <c r="BR32" s="15">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BS32" s="15">
         <f t="shared" si="30"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BT32" s="15">
         <f t="shared" si="30"/>
@@ -14635,7 +14627,7 @@
       </c>
       <c r="BV32" s="15">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW32" s="15">
         <f t="shared" si="30"/>
@@ -14647,7 +14639,7 @@
       </c>
       <c r="BY32" s="15">
         <f t="shared" si="32"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BZ32" s="15">
         <f t="shared" si="33"/>
@@ -14655,7 +14647,7 @@
       </c>
       <c r="CA32" s="15">
         <f t="shared" si="34"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CB32" s="15">
         <f t="shared" si="35"/>
@@ -14663,19 +14655,19 @@
       </c>
       <c r="CC32" s="15">
         <f t="shared" si="35"/>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="CD32" s="15">
         <f t="shared" si="36"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="CE32" s="15">
         <f t="shared" si="37"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CF32" s="15">
         <f t="shared" si="38"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="CG32" s="20">
         <f t="shared" si="39"/>
@@ -14683,7 +14675,7 @@
       </c>
       <c r="CH32" s="20">
         <f t="shared" si="39"/>
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="CI32" s="20">
         <f t="shared" si="40"/>
@@ -14691,15 +14683,15 @@
       </c>
       <c r="CJ32" s="20">
         <f t="shared" si="40"/>
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="CK32" s="20">
         <f t="shared" si="41"/>
-        <v>1.9090909090909092</v>
+        <v>2.1818181818181817</v>
       </c>
       <c r="CL32" s="20">
         <f t="shared" si="42"/>
-        <v>2.1818181818181817</v>
+        <v>2.3636363636363638</v>
       </c>
     </row>
     <row r="33" spans="1:90" x14ac:dyDescent="0.25">
@@ -17114,15 +17106,15 @@
       </c>
       <c r="AP43">
         <f t="shared" si="71"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ43">
         <f t="shared" si="72"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR43">
         <f t="shared" si="59"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS43">
         <f t="shared" si="60"/>
@@ -17146,7 +17138,7 @@
       </c>
       <c r="AX43">
         <f t="shared" si="65"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY43">
         <f t="shared" si="66"/>
@@ -17154,7 +17146,7 @@
       </c>
       <c r="AZ43">
         <f t="shared" si="67"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA43">
         <f t="shared" si="68"/>
@@ -17162,7 +17154,7 @@
       </c>
       <c r="BB43">
         <f t="shared" si="73"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC43">
         <f t="shared" si="73"/>
@@ -17170,19 +17162,19 @@
       </c>
       <c r="BD43">
         <f t="shared" si="74"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BE43">
         <f t="shared" si="75"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BF43">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG43">
         <f t="shared" si="77"/>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="BH43">
         <f t="shared" si="77"/>
@@ -17190,7 +17182,7 @@
       </c>
       <c r="BI43">
         <f t="shared" si="78"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="BJ43">
         <f t="shared" si="78"/>
@@ -17198,11 +17190,11 @@
       </c>
       <c r="BK43">
         <f t="shared" si="79"/>
-        <v>0.83333333333333337</v>
+        <v>1.5</v>
       </c>
       <c r="BL43">
         <f t="shared" si="80"/>
-        <v>0.66666666666666663</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="44" spans="1:90" x14ac:dyDescent="0.25">
@@ -17340,7 +17332,7 @@
       </c>
       <c r="AU44">
         <f t="shared" si="62"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV44">
         <f t="shared" si="63"/>
@@ -17356,7 +17348,7 @@
       </c>
       <c r="AY44">
         <f t="shared" si="66"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ44">
         <f t="shared" si="67"/>
@@ -17364,7 +17356,7 @@
       </c>
       <c r="BA44">
         <f t="shared" si="68"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB44">
         <f t="shared" si="73"/>
@@ -17372,19 +17364,19 @@
       </c>
       <c r="BC44">
         <f t="shared" si="73"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="BD44">
         <f t="shared" si="74"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BE44">
         <f t="shared" si="75"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BF44">
         <f t="shared" si="76"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="BG44">
         <f t="shared" si="77"/>
@@ -17392,7 +17384,7 @@
       </c>
       <c r="BH44">
         <f t="shared" si="77"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="BI44">
         <f t="shared" si="78"/>
@@ -17400,15 +17392,15 @@
       </c>
       <c r="BJ44">
         <f t="shared" si="78"/>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="BK44">
         <f t="shared" si="79"/>
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="BL44">
         <f t="shared" si="80"/>
-        <v>1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="45" spans="1:90" x14ac:dyDescent="0.25">
@@ -17559,7 +17551,7 @@
       </c>
       <c r="AX45">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY45">
         <f t="shared" si="66"/>
@@ -17567,7 +17559,7 @@
       </c>
       <c r="AZ45">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA45">
         <f t="shared" si="68"/>
@@ -17575,7 +17567,7 @@
       </c>
       <c r="BB45">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BC45">
         <f t="shared" si="73"/>
@@ -17583,19 +17575,19 @@
       </c>
       <c r="BD45">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE45">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF45">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BG45">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH45">
         <f t="shared" si="77"/>
@@ -17603,7 +17595,7 @@
       </c>
       <c r="BI45">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BJ45">
         <f t="shared" si="78"/>
@@ -17611,11 +17603,11 @@
       </c>
       <c r="BK45">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="BL45">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="46" spans="1:90" x14ac:dyDescent="0.25">
@@ -17734,11 +17726,11 @@
       </c>
       <c r="AP46">
         <f t="shared" si="71"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ46">
         <f t="shared" si="72"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR46">
         <f t="shared" si="59"/>
@@ -17750,7 +17742,7 @@
       </c>
       <c r="AT46">
         <f t="shared" si="61"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU46">
         <f t="shared" si="62"/>
@@ -17770,7 +17762,7 @@
       </c>
       <c r="AY46">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ46">
         <f t="shared" si="67"/>
@@ -17778,7 +17770,7 @@
       </c>
       <c r="BA46">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB46">
         <f t="shared" si="73"/>
@@ -17786,19 +17778,19 @@
       </c>
       <c r="BC46">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD46">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE46">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF46">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG46">
         <f t="shared" si="77"/>
@@ -17806,7 +17798,7 @@
       </c>
       <c r="BH46">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BI46">
         <f t="shared" si="78"/>
@@ -17814,15 +17806,15 @@
       </c>
       <c r="BJ46">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK46">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="BL46">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="47" spans="1:90" x14ac:dyDescent="0.25">
@@ -18443,7 +18435,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>52</v>
@@ -18617,7 +18609,7 @@
         <v>35</v>
       </c>
       <c r="J52" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K52" s="8">
         <v>0</v>
@@ -18644,24 +18636,30 @@
       <c r="R52" s="7">
         <v>45784</v>
       </c>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5" t="str">
+      <c r="S52" s="5">
+        <v>3</v>
+      </c>
+      <c r="T52" s="5">
+        <v>4</v>
+      </c>
+      <c r="U52" s="5">
+        <v>0</v>
+      </c>
+      <c r="V52" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W52" s="5" t="str">
         <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="X52" s="5" t="str">
+        <v>TOR</v>
+      </c>
+      <c r="X52" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y52" s="5" t="str">
+        <v>-1</v>
+      </c>
+      <c r="Y52" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="AI52">
         <f>COUNTIFS($L$2:$L$105, AH52, $E$2:$E$105, 1) + COUNTIFS($M$2:$M$105, AH52, $E$2:$E$105, 1)</f>
@@ -18841,26 +18839,34 @@
       <c r="R53" s="12">
         <v>45784</v>
       </c>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2" t="str">
+      <c r="S53" s="2">
+        <v>3</v>
+      </c>
+      <c r="T53" s="2">
+        <v>2</v>
+      </c>
+      <c r="U53" s="2">
+        <v>0</v>
+      </c>
+      <c r="V53" s="2">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W53" s="5" t="str">
         <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="X53" s="2" t="str">
+        <v>DAL</v>
+      </c>
+      <c r="X53" s="2">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y53" s="2" t="str">
+        <v>-1</v>
+      </c>
+      <c r="Y53" s="2">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
-      </c>
-      <c r="Z53" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="Z53" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="AI53">
         <f>COUNTIFS($L$2:$L$105, AH53, $E$2:$E$105, 1) + COUNTIFS($M$2:$M$105, AH53, $E$2:$E$105, 1)</f>
         <v>0</v>
@@ -19204,7 +19210,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>52</v>
@@ -19391,7 +19397,7 @@
         <v>35</v>
       </c>
       <c r="J56" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K56" s="8">
         <v>0</v>
@@ -19693,7 +19699,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>51</v>
@@ -20069,7 +20075,7 @@
         <v>35</v>
       </c>
       <c r="J61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -20211,7 +20217,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>51</v>
@@ -21263,7 +21269,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 A15:AAD37 N38:AAD47 H48:AAD50 N51:V64 A75:Z10005 H54:M56 N3:N33 V3:V55 F4:F5 A4:E7 A8 C8 H8:M8 Z8:AAD14 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64 X51:AAD55 A65:V74 X56:Z74 W51:W74">
+  <conditionalFormatting sqref="A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 A15:AAD37 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 A65:V74 H54:M56 N3:N33 V3:V55 F4:F5 A4:E7 A8 C8 H8:M8 Z8:AAD14 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64">
     <cfRule type="cellIs" dxfId="609" priority="1918" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
@@ -21277,12 +21283,12 @@
       <formula>"OTT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AAD37 N38:AAD47 H48:AAD50 N51:V64 A75:Z10005 H54:M56 V10:V55 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64 X51:AAD55 A65:V74 X56:Z74 W51:W74">
+  <conditionalFormatting sqref="A1:AAD37 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 A65:V74 H54:M56 V10:V55 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64">
     <cfRule type="cellIs" dxfId="605" priority="1874" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:AAD37 A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 N38:AAD47 H48:AAD50 N51:V64 A75:Z10005 H54:M56 N3:N33 V3:V55 F4:F5 A4:E7 A8 C8 H8:M8 Z8:AAD14 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64 X51:AAD55 A65:V74 X56:Z74 W51:W74">
+  <conditionalFormatting sqref="A15:AAD37 A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 A65:V74 H54:M56 N3:N33 V3:V55 F4:F5 A4:E7 A8 C8 H8:M8 Z8:AAD14 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64">
     <cfRule type="cellIs" dxfId="604" priority="1945" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82441DD1-3E92-4551-AB78-B307871EE00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C81F3E-5071-487F-A315-3236EC96A7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="186">
   <si>
     <t>DATE</t>
   </si>
@@ -8431,9 +8442,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8471,7 +8482,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8577,7 +8588,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8719,7 +8730,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8730,7 +8741,7 @@
   <dimension ref="A1:CL94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="V53" sqref="V53"/>
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18815,7 +18826,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>50</v>
@@ -19031,12 +19042,20 @@
       </c>
       <c r="N54" s="5" t="str">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="7"/>
+        <v>WSH</v>
+      </c>
+      <c r="O54" s="5">
+        <v>2</v>
+      </c>
+      <c r="P54" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="R54" s="7">
+        <v>45785</v>
+      </c>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
@@ -19220,12 +19239,20 @@
       </c>
       <c r="N55" s="2" t="str">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="12"/>
+        <v>VGK</v>
+      </c>
+      <c r="O55" s="2">
+        <v>3</v>
+      </c>
+      <c r="P55" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="R55" s="12">
+        <v>45785</v>
+      </c>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
@@ -19469,7 +19496,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>50</v>
@@ -19889,7 +19916,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="8" t="s">
         <v>43</v>
@@ -20287,7 +20314,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>43</v>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C81F3E-5071-487F-A315-3236EC96A7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509F5A64-D7BB-49FA-9A4E-3DA29D7AAC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -8442,9 +8431,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8482,7 +8471,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8588,7 +8577,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8730,7 +8719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8741,7 +8730,7 @@
   <dimension ref="A1:CL94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+      <selection activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9467,7 +9456,7 @@
       <c r="AD6" s="8"/>
       <c r="AE6" s="13">
         <f>SUM(V2:V104)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF6" s="8"/>
       <c r="AG6" s="14" t="s">
@@ -9591,7 +9580,7 @@
       <c r="AD7" s="8"/>
       <c r="AE7" s="13">
         <f>AE6/AE5</f>
-        <v>0.3968253968253968</v>
+        <v>0.41269841269841268</v>
       </c>
       <c r="AF7" s="8"/>
       <c r="AG7" s="14" t="s">
@@ -10088,19 +10077,19 @@
       </c>
       <c r="AK11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AM11">
         <f t="shared" ref="AM11:AN14" si="8">SUMIFS($T$2:$T$104,$M$2:$M$104,AH11,$E$2:$E$104,2) + SUMIFS($S$2:$S$104,$L$2:$L$104,AH11,$E$2:$E$104,2)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN11">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
@@ -11441,15 +11430,15 @@
       </c>
       <c r="AP22">
         <f t="shared" ref="AP22:AP37" si="15">AR22+AT22</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ22">
         <f t="shared" ref="AQ22:AQ37" si="16">AM22-AP22</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR22">
         <f t="shared" ref="AR22:AR37" si="17">SUMPRODUCT(($M$2:$M$105=AH22)*($T$2:$T$105&gt;$S$2:$S$105))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS22">
         <f t="shared" ref="AS22:AS37" si="18">SUMPRODUCT(($M$2:$M$105=AH22)*($T$2:$T$105&lt;$S$2:$S$105))</f>
@@ -11549,15 +11538,15 @@
       </c>
       <c r="BR22" s="15">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BS22" s="15">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BT22" s="15">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BU22" s="15">
         <f t="shared" si="30"/>
@@ -11573,7 +11562,7 @@
       </c>
       <c r="BX22" s="15">
         <f t="shared" ref="BX22:BX37" si="31">SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,1)+SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,2)+SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,3)+SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,4)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BY22" s="15">
         <f t="shared" ref="BY22:BY37" si="32">SUMIFS($S$2:$S$105,$L$2:$L$105,AH22,$E$2:$E$105,1) + SUMIFS($S$2:$S$105,$L$2:$L$105,AH22,$E$2:$E$105,2)+SUMIFS($S$2:$S$105,$L$2:$L$105,AH22,$E$2:$E$105,3)+SUMIFS($S$2:$S$105,$L$2:$L$105,AH22,$E$2:$E$105,4)</f>
@@ -11581,7 +11570,7 @@
       </c>
       <c r="BZ22" s="15">
         <f t="shared" ref="BZ22:BZ37" si="33">SUMIFS($S$2:$S$105,$M$2:$M$105,AH22,$E$2:$E$105,1)+SUMIFS($S$2:$S$105,$M$2:$M$105,AH22,$E$2:$E$105,2)+SUMIFS($S$2:$S$105,$M$2:$M$105,AH22,$E$2:$E$105,3)+SUMIFS($S$2:$S$105,$M$2:$M$105,AH22,$E$2:$E$105,4)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CA22" s="15">
         <f t="shared" ref="CA22:CA37" si="34">SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,1)+(SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,2)+SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,3)+SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,4))</f>
@@ -11589,7 +11578,7 @@
       </c>
       <c r="CB22" s="15">
         <f t="shared" ref="CB22:CC37" si="35">BX22-BZ22</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CC22" s="15">
         <f t="shared" si="35"/>
@@ -11597,19 +11586,19 @@
       </c>
       <c r="CD22" s="15">
         <f t="shared" ref="CD22:CD37" si="36">BX22+BY22</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="CE22" s="15">
         <f t="shared" ref="CE22:CE37" si="37">BZ22+CA22</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CF22" s="15">
         <f t="shared" ref="CF22:CF37" si="38">(BX22+BY22)-(BZ22+CA22)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CG22" s="20">
         <f t="shared" ref="CG22:CH37" si="39">BX22/BP22</f>
-        <v>2.2000000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="CH22" s="20">
         <f t="shared" si="39"/>
@@ -11617,7 +11606,7 @@
       </c>
       <c r="CI22" s="20">
         <f t="shared" ref="CI22:CJ37" si="40">BZ22/BP22</f>
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="CJ22" s="20">
         <f t="shared" si="40"/>
@@ -11625,11 +11614,11 @@
       </c>
       <c r="CK22" s="20">
         <f t="shared" ref="CK22:CK37" si="41">CD22/BO22</f>
-        <v>2.1111111111111112</v>
+        <v>2.4444444444444446</v>
       </c>
       <c r="CL22" s="20">
         <f t="shared" ref="CL22:CL37" si="42">CE22/BO22</f>
-        <v>1.5555555555555556</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:90" x14ac:dyDescent="0.25">
@@ -12076,7 +12065,7 @@
       </c>
       <c r="AU24">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV24">
         <f t="shared" si="21"/>
@@ -12184,7 +12173,7 @@
       </c>
       <c r="BW24" s="15">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX24" s="15">
         <f t="shared" si="31"/>
@@ -12192,7 +12181,7 @@
       </c>
       <c r="BY24" s="15">
         <f t="shared" si="32"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BZ24" s="15">
         <f t="shared" si="33"/>
@@ -12200,7 +12189,7 @@
       </c>
       <c r="CA24" s="15">
         <f t="shared" si="34"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CB24" s="15">
         <f t="shared" si="35"/>
@@ -12208,19 +12197,19 @@
       </c>
       <c r="CC24" s="15">
         <f t="shared" si="35"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CD24" s="15">
         <f t="shared" si="36"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CE24" s="15">
         <f t="shared" si="37"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="CF24" s="15">
         <f t="shared" si="38"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CG24" s="20">
         <f t="shared" si="39"/>
@@ -12228,7 +12217,7 @@
       </c>
       <c r="CH24" s="20">
         <f t="shared" si="39"/>
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="CI24" s="20">
         <f t="shared" si="40"/>
@@ -12236,15 +12225,15 @@
       </c>
       <c r="CJ24" s="20">
         <f t="shared" si="40"/>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="CK24" s="20">
         <f t="shared" si="41"/>
-        <v>2.2222222222222223</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="CL24" s="20">
         <f t="shared" si="42"/>
-        <v>1.4444444444444444</v>
+        <v>1.7777777777777777</v>
       </c>
     </row>
     <row r="25" spans="1:90" x14ac:dyDescent="0.25">
@@ -16705,15 +16694,15 @@
       </c>
       <c r="AP41">
         <f>AR41+AT41</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ41">
         <f>AM41-AP41</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR41">
         <f t="shared" ref="AR41:AR48" si="59">SUMPRODUCT(($M$2:$M$105=AH41)*($T$2:$T$105&gt;$S$2:$S$105))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS41">
         <f t="shared" ref="AS41:AS48" si="60">SUMPRODUCT(($M$2:$M$105=AH22)*($T$2:$T$105&lt;$S$2:$S$105))</f>
@@ -16737,7 +16726,7 @@
       </c>
       <c r="AX41">
         <f t="shared" ref="AX41:AX48" si="65">SUMIFS($T$2:$T$105, $M$2:$M$105, AH41,$E$2:$E$105, 2)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY41">
         <f t="shared" ref="AY41:AY48" si="66">SUMIFS($S$2:$S$105, $L$2:$L$105, AH41,$E$2:$E$105, 2)</f>
@@ -16745,7 +16734,7 @@
       </c>
       <c r="AZ41">
         <f t="shared" ref="AZ41:AZ48" si="67">SUMIFS($S$2:$S$105, $M$2:$M$105, AH41,$E$2:$E$105, 2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA41">
         <f t="shared" ref="BA41:BA48" si="68">SUMIFS($T$2:$T$105, $L$2:$L$105, AH41,$E$2:$E$105, 2)</f>
@@ -16753,7 +16742,7 @@
       </c>
       <c r="BB41">
         <f>AX41-AZ41</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC41">
         <f>AY41-BA41</f>
@@ -16761,19 +16750,19 @@
       </c>
       <c r="BD41">
         <f>AX41+AY41</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BE41">
         <f>AZ41+BA41</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF41">
         <f>(AX41+AY41)-(AZ41+BA41)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BG41">
         <f>AX41/AV41</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="BH41">
         <f>AY41/AW41</f>
@@ -16781,7 +16770,7 @@
       </c>
       <c r="BI41">
         <f>AZ41/AV41</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="BJ41">
         <f>BA41/AW41</f>
@@ -16789,11 +16778,11 @@
       </c>
       <c r="BK41">
         <f>BD41/AI41</f>
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="BL41">
         <f>BE41/AI41</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42" spans="1:90" x14ac:dyDescent="0.25">
@@ -16931,7 +16920,7 @@
       </c>
       <c r="AU42">
         <f t="shared" si="62"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV42">
         <f t="shared" si="63"/>
@@ -16947,7 +16936,7 @@
       </c>
       <c r="AY42">
         <f t="shared" si="66"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ42">
         <f t="shared" si="67"/>
@@ -16955,7 +16944,7 @@
       </c>
       <c r="BA42">
         <f t="shared" si="68"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB42">
         <f t="shared" ref="BB42:BC48" si="73">AX42-AZ42</f>
@@ -16963,19 +16952,19 @@
       </c>
       <c r="BC42">
         <f t="shared" si="73"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BD42">
         <f t="shared" ref="BD42:BD48" si="74">AX42+AY42</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE42">
         <f t="shared" ref="BE42:BE48" si="75">AZ42+BA42</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF42">
         <f t="shared" ref="BF42:BF48" si="76">(AX42+AY42)-(AZ42+BA42)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BG42">
         <f t="shared" ref="BG42:BH48" si="77">AX42/AV42</f>
@@ -16983,7 +16972,7 @@
       </c>
       <c r="BH42">
         <f t="shared" si="77"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="BI42">
         <f t="shared" ref="BI42:BJ48" si="78">AZ42/AV42</f>
@@ -16991,15 +16980,15 @@
       </c>
       <c r="BJ42">
         <f t="shared" si="78"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="BK42">
         <f t="shared" ref="BK42:BK48" si="79">BD42/AI42</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="BL42">
         <f t="shared" ref="BL42:BL48" si="80">BE42/AI42</f>
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="43" spans="1:90" x14ac:dyDescent="0.25">
@@ -19029,7 +19018,7 @@
         <v>18</v>
       </c>
       <c r="J54" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="8">
         <v>1</v>
@@ -19056,24 +19045,30 @@
       <c r="R54" s="7">
         <v>45785</v>
       </c>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5" t="str">
+      <c r="S54" s="5">
+        <v>1</v>
+      </c>
+      <c r="T54" s="5">
+        <v>3</v>
+      </c>
+      <c r="U54" s="5">
+        <v>0</v>
+      </c>
+      <c r="V54" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W54" s="5" t="str">
         <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="X54" s="5" t="str">
+        <v>WSH</v>
+      </c>
+      <c r="X54" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y54" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AI54">
         <f>COUNTIFS($L$2:$L$105, AH54, $E$2:$E$105, 1) + COUNTIFS($M$2:$M$105, AH54, $E$2:$E$105, 1)</f>
@@ -19442,7 +19437,9 @@
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
-      <c r="R56" s="7"/>
+      <c r="R56" s="7">
+        <v>45786</v>
+      </c>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
@@ -19511,7 +19508,9 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-      <c r="R57" s="12"/>
+      <c r="R57" s="12">
+        <v>45786</v>
+      </c>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
@@ -19563,7 +19562,7 @@
         <v>18</v>
       </c>
       <c r="J58" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="8">
         <v>1</v>
@@ -20172,7 +20171,7 @@
         <v>18</v>
       </c>
       <c r="J62" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="8">
         <v>1</v>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509F5A64-D7BB-49FA-9A4E-3DA29D7AAC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EF080A-69BF-4D2E-AF04-577D326D5671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="188">
   <si>
     <t>DATE</t>
   </si>
@@ -584,6 +595,12 @@
   <si>
     <t>Mikko Rantanen hattrick</t>
   </si>
+  <si>
+    <t>Andrei Svechnikov hattrick</t>
+  </si>
+  <si>
+    <t>Edmonton makes it 5 straight comeback-win games in a row</t>
+  </si>
 </sst>
 </file>
 
@@ -8431,9 +8448,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8471,7 +8488,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8577,7 +8594,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8719,7 +8736,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8729,8 +8746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819ACA58-DCD7-4A09-9052-0851D3ECB0FF}">
   <dimension ref="A1:CL94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="R58" sqref="R58"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="Z56" sqref="Z56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10434,11 +10451,11 @@
       </c>
       <c r="AM14" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AN14" s="1">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
@@ -13854,6 +13871,9 @@
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v>1</v>
       </c>
+      <c r="Z30" t="s">
+        <v>186</v>
+      </c>
       <c r="AD30" s="8"/>
       <c r="AH30" t="s">
         <v>43</v>
@@ -15133,7 +15153,7 @@
       </c>
       <c r="AS34">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT34">
         <f t="shared" si="19"/>
@@ -15241,7 +15261,7 @@
       </c>
       <c r="BU34" s="15">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BV34" s="15">
         <f t="shared" si="30"/>
@@ -15253,7 +15273,7 @@
       </c>
       <c r="BX34" s="15">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BY34" s="15">
         <f t="shared" si="32"/>
@@ -15261,7 +15281,7 @@
       </c>
       <c r="BZ34" s="15">
         <f t="shared" si="33"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="CA34" s="15">
         <f t="shared" si="34"/>
@@ -15269,7 +15289,7 @@
       </c>
       <c r="CB34" s="15">
         <f t="shared" si="35"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="CC34" s="15">
         <f t="shared" si="35"/>
@@ -15277,19 +15297,19 @@
       </c>
       <c r="CD34" s="15">
         <f t="shared" si="36"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="CE34" s="15">
         <f t="shared" si="37"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="CF34" s="15">
         <f t="shared" si="38"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="CG34" s="20">
         <f t="shared" si="39"/>
-        <v>2.2000000000000002</v>
+        <v>3</v>
       </c>
       <c r="CH34" s="20">
         <f t="shared" si="39"/>
@@ -15297,7 +15317,7 @@
       </c>
       <c r="CI34" s="20">
         <f t="shared" si="40"/>
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="CJ34" s="20">
         <f t="shared" si="40"/>
@@ -15305,11 +15325,11 @@
       </c>
       <c r="CK34" s="20">
         <f t="shared" si="41"/>
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="CL34" s="20">
         <f t="shared" si="42"/>
-        <v>2.2999999999999998</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="35" spans="1:90" x14ac:dyDescent="0.25">
@@ -16042,11 +16062,11 @@
       </c>
       <c r="AP37">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ37">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR37">
         <f t="shared" si="17"/>
@@ -16058,7 +16078,7 @@
       </c>
       <c r="AT37">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU37">
         <f t="shared" si="20"/>
@@ -16150,11 +16170,11 @@
       </c>
       <c r="BR37" s="15">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS37" s="15">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BT37" s="15">
         <f t="shared" si="30"/>
@@ -16166,7 +16186,7 @@
       </c>
       <c r="BV37" s="15">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW37" s="15">
         <f t="shared" si="30"/>
@@ -16178,7 +16198,7 @@
       </c>
       <c r="BY37" s="15">
         <f t="shared" si="32"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BZ37" s="15">
         <f t="shared" si="33"/>
@@ -16186,7 +16206,7 @@
       </c>
       <c r="CA37" s="15">
         <f t="shared" si="34"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="CB37" s="15">
         <f t="shared" si="35"/>
@@ -16194,19 +16214,19 @@
       </c>
       <c r="CC37" s="15">
         <f t="shared" si="35"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CD37" s="15">
         <f t="shared" si="36"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="CE37" s="15">
         <f t="shared" si="37"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="CF37" s="15">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CG37" s="20">
         <f t="shared" si="39"/>
@@ -16214,7 +16234,7 @@
       </c>
       <c r="CH37" s="20">
         <f t="shared" si="39"/>
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="CI37" s="20">
         <f t="shared" si="40"/>
@@ -16222,15 +16242,15 @@
       </c>
       <c r="CJ37" s="20">
         <f t="shared" si="40"/>
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="CK37" s="20">
         <f t="shared" si="41"/>
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="CL37" s="20">
         <f t="shared" si="42"/>
-        <v>2.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:90" x14ac:dyDescent="0.25">
@@ -17967,7 +17987,7 @@
       </c>
       <c r="AX47">
         <f t="shared" si="65"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY47">
         <f t="shared" si="66"/>
@@ -17975,7 +17995,7 @@
       </c>
       <c r="AZ47">
         <f t="shared" si="67"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA47">
         <f t="shared" si="68"/>
@@ -17983,7 +18003,7 @@
       </c>
       <c r="BB47">
         <f t="shared" si="73"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="BC47">
         <f t="shared" si="73"/>
@@ -17991,19 +18011,19 @@
       </c>
       <c r="BD47">
         <f t="shared" si="74"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BE47">
         <f t="shared" si="75"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BF47">
         <f t="shared" si="76"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="BG47">
         <f t="shared" si="77"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH47">
         <f t="shared" si="77"/>
@@ -18011,7 +18031,7 @@
       </c>
       <c r="BI47">
         <f t="shared" si="78"/>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="BJ47">
         <f t="shared" si="78"/>
@@ -18019,11 +18039,11 @@
       </c>
       <c r="BK47">
         <f t="shared" si="79"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="BL47">
         <f t="shared" si="80"/>
-        <v>0.66666666666666663</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="48" spans="1:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18144,11 +18164,11 @@
       </c>
       <c r="AP48">
         <f t="shared" si="71"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ48">
         <f t="shared" si="72"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR48">
         <f t="shared" si="59"/>
@@ -18160,7 +18180,7 @@
       </c>
       <c r="AT48">
         <f t="shared" si="61"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU48">
         <f t="shared" si="62"/>
@@ -18180,7 +18200,7 @@
       </c>
       <c r="AY48">
         <f t="shared" si="66"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ48">
         <f t="shared" si="67"/>
@@ -18188,7 +18208,7 @@
       </c>
       <c r="BA48">
         <f t="shared" si="68"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB48">
         <f t="shared" si="73"/>
@@ -18196,19 +18216,19 @@
       </c>
       <c r="BC48">
         <f t="shared" si="73"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD48">
         <f t="shared" si="74"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BE48">
         <f t="shared" si="75"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BF48">
         <f t="shared" si="76"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG48">
         <f t="shared" si="77"/>
@@ -18216,7 +18236,7 @@
       </c>
       <c r="BH48">
         <f t="shared" si="77"/>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="BI48">
         <f t="shared" si="78"/>
@@ -18224,15 +18244,15 @@
       </c>
       <c r="BJ48">
         <f t="shared" si="78"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BK48">
         <f t="shared" si="79"/>
-        <v>0.66666666666666663</v>
+        <v>1.5</v>
       </c>
       <c r="BL48">
         <f t="shared" si="80"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:64" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -19224,7 +19244,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>52</v>
@@ -19248,26 +19268,34 @@
       <c r="R55" s="12">
         <v>45785</v>
       </c>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2" t="str">
+      <c r="S55" s="2">
+        <v>5</v>
+      </c>
+      <c r="T55" s="2">
+        <v>4</v>
+      </c>
+      <c r="U55" s="2">
+        <v>1</v>
+      </c>
+      <c r="V55" s="2">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W55" s="5" t="str">
         <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="X55" s="2" t="str">
+        <v>EDM</v>
+      </c>
+      <c r="X55" s="2">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y55" s="2" t="str">
+        <v>-2</v>
+      </c>
+      <c r="Y55" s="2">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
-      </c>
-      <c r="Z55" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="AI55">
         <f>COUNTIFS($L$2:$L$105, AH55, $E$2:$E$105, 1) + COUNTIFS($M$2:$M$105, AH55, $E$2:$E$105, 1)</f>
         <v>0</v>
@@ -19432,11 +19460,17 @@
       </c>
       <c r="N56" s="5" t="str">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
+        <v>FLA</v>
+      </c>
+      <c r="O56" s="5">
+        <v>1</v>
+      </c>
+      <c r="P56" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="R56" s="7">
         <v>45786</v>
       </c>
@@ -19503,11 +19537,17 @@
       </c>
       <c r="N57" s="2" t="str">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
+        <v>WPG</v>
+      </c>
+      <c r="O57" s="2">
+        <v>2</v>
+      </c>
+      <c r="P57" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="R57" s="12">
         <v>45786</v>
       </c>
@@ -19725,7 +19765,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>51</v>
@@ -20243,7 +20283,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>51</v>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EF080A-69BF-4D2E-AF04-577D326D5671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24550D1-86DB-4E64-9750-F473CDF8EBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="189">
   <si>
     <t>DATE</t>
   </si>
@@ -601,6 +590,9 @@
   <si>
     <t>Edmonton makes it 5 straight comeback-win games in a row</t>
   </si>
+  <si>
+    <t>Vegas scores with 0.4 seconds left in the 3rd period to win. Skinner left his net too agressively and Draistl accidently tipped it in.</t>
+  </si>
 </sst>
 </file>
 
@@ -848,7 +840,2935 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="660">
+  <dxfs count="912">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -8323,76 +11243,76 @@
     <tableColumn id="1" xr3:uid="{35E4500A-DA09-4BF2-A9DD-981973613A2E}" name="Team">
       <calculatedColumnFormula>AH22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A33C8BB1-51F1-4EE0-BAF3-79A0072A877D}" name="GP TOT" dataDxfId="659">
+    <tableColumn id="2" xr3:uid="{A33C8BB1-51F1-4EE0-BAF3-79A0072A877D}" name="GP TOT" dataDxfId="911">
       <calculatedColumnFormula>AM22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B7BD47C3-C6CD-433B-8763-2E7BF28F91A9}" name="GP H" dataDxfId="658">
+    <tableColumn id="3" xr3:uid="{B7BD47C3-C6CD-433B-8763-2E7BF28F91A9}" name="GP H" dataDxfId="910">
       <calculatedColumnFormula>AN22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A7C2CDB8-1006-4E42-85C9-739B917E0E3B}" name="GP A" dataDxfId="657">
+    <tableColumn id="4" xr3:uid="{A7C2CDB8-1006-4E42-85C9-739B917E0E3B}" name="GP A" dataDxfId="909">
       <calculatedColumnFormula>AO22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FBF9C9A1-A231-4AC5-98EC-8575F964E9E7}" name="W TOT" dataDxfId="656">
+    <tableColumn id="5" xr3:uid="{FBF9C9A1-A231-4AC5-98EC-8575F964E9E7}" name="W TOT" dataDxfId="908">
       <calculatedColumnFormula>AP22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4F1AF376-3B42-4A7B-88AE-2AEB54C684FD}" name="L TOT" dataDxfId="655">
+    <tableColumn id="6" xr3:uid="{4F1AF376-3B42-4A7B-88AE-2AEB54C684FD}" name="L TOT" dataDxfId="907">
       <calculatedColumnFormula>AQ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CD4CF37C-B565-4072-A8DF-97ABD75AC2BE}" name="W H" dataDxfId="654">
+    <tableColumn id="7" xr3:uid="{CD4CF37C-B565-4072-A8DF-97ABD75AC2BE}" name="W H" dataDxfId="906">
       <calculatedColumnFormula>AR22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1F359623-5047-4AA5-8DFE-2A1235BD0244}" name="L H" dataDxfId="653">
+    <tableColumn id="8" xr3:uid="{1F359623-5047-4AA5-8DFE-2A1235BD0244}" name="L H" dataDxfId="905">
       <calculatedColumnFormula>AS22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F8112AD4-AB28-4E89-97C1-D0AD9007C7A5}" name="W A" dataDxfId="652">
+    <tableColumn id="9" xr3:uid="{F8112AD4-AB28-4E89-97C1-D0AD9007C7A5}" name="W A" dataDxfId="904">
       <calculatedColumnFormula>AT22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E0BC1C3D-B833-4A33-A2F7-C67BE06DEDA1}" name="L A" dataDxfId="651">
+    <tableColumn id="10" xr3:uid="{E0BC1C3D-B833-4A33-A2F7-C67BE06DEDA1}" name="L A" dataDxfId="903">
       <calculatedColumnFormula>AU22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B9A986DF-FE9E-415D-924B-8EB61CBE5CC3}" name="GF H" dataDxfId="650">
+    <tableColumn id="11" xr3:uid="{B9A986DF-FE9E-415D-924B-8EB61CBE5CC3}" name="GF H" dataDxfId="902">
       <calculatedColumnFormula>SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,1)+SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,2)+SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,3)+SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{83BAED9D-BBE1-4C76-BBCA-313CCD921E11}" name="GF A" dataDxfId="649">
+    <tableColumn id="12" xr3:uid="{83BAED9D-BBE1-4C76-BBCA-313CCD921E11}" name="GF A" dataDxfId="901">
       <calculatedColumnFormula>SUMIFS($S$2:$S$105,$L$2:$L$105,AH22,$E$2:$E$105,1) + SUMIFS($S$2:$S$105,$L$2:$L$105,AH22,$E$2:$E$105,2)+SUMIFS($S$2:$S$105,$L$2:$L$105,AH22,$E$2:$E$105,3)+SUMIFS($S$2:$S$105,$L$2:$L$105,AH22,$E$2:$E$105,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9D239E38-642E-49BB-AFCC-7F4B50408CD9}" name="GA H" dataDxfId="648">
+    <tableColumn id="13" xr3:uid="{9D239E38-642E-49BB-AFCC-7F4B50408CD9}" name="GA H" dataDxfId="900">
       <calculatedColumnFormula>SUMIFS($S$2:$S$105,$M$2:$M$105,AH22,$E$2:$E$105,1)+SUMIFS($S$2:$S$105,$M$2:$M$105,AH22,$E$2:$E$105,2)+SUMIFS($S$2:$S$105,$M$2:$M$105,AH22,$E$2:$E$105,3)+SUMIFS($S$2:$S$105,$M$2:$M$105,AH22,$E$2:$E$105,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{C28D4692-8893-4399-B12F-0EFEC4ACE55F}" name="GA A" dataDxfId="647">
+    <tableColumn id="14" xr3:uid="{C28D4692-8893-4399-B12F-0EFEC4ACE55F}" name="GA A" dataDxfId="899">
       <calculatedColumnFormula>SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,1)+(SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,2)+SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,3)+SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{EFE9EFE5-C5A6-4D37-BAFD-4A00F7B02584}" name="DIFF H" dataDxfId="646">
+    <tableColumn id="15" xr3:uid="{EFE9EFE5-C5A6-4D37-BAFD-4A00F7B02584}" name="DIFF H" dataDxfId="898">
       <calculatedColumnFormula>BX22-BZ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{B9AF8DC9-F982-4D02-B43F-486449573036}" name="DIFF A" dataDxfId="645">
+    <tableColumn id="16" xr3:uid="{B9AF8DC9-F982-4D02-B43F-486449573036}" name="DIFF A" dataDxfId="897">
       <calculatedColumnFormula>BY22-CA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E94B86FE-AA74-466B-A7F6-2C43B9EEA68A}" name="GF T" dataDxfId="644">
+    <tableColumn id="17" xr3:uid="{E94B86FE-AA74-466B-A7F6-2C43B9EEA68A}" name="GF T" dataDxfId="896">
       <calculatedColumnFormula>BX22+BY22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{437A09FB-7E7B-457E-AD72-B615E2FEC992}" name="GA T" dataDxfId="643">
+    <tableColumn id="18" xr3:uid="{437A09FB-7E7B-457E-AD72-B615E2FEC992}" name="GA T" dataDxfId="895">
       <calculatedColumnFormula>BZ22+CA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{D83A9D62-4017-4FF7-BA18-93B627CB0BEF}" name="DIFF T" dataDxfId="642">
+    <tableColumn id="19" xr3:uid="{D83A9D62-4017-4FF7-BA18-93B627CB0BEF}" name="DIFF T" dataDxfId="894">
       <calculatedColumnFormula>(BX22+BY22)-(BZ22+CA22)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{139C299F-4896-455D-A9B3-7CA4FF9ECE1D}" name="GFPG H" dataDxfId="641">
+    <tableColumn id="20" xr3:uid="{139C299F-4896-455D-A9B3-7CA4FF9ECE1D}" name="GFPG H" dataDxfId="893">
       <calculatedColumnFormula>BX22/BP22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{5ED7F4F1-4524-4204-90BC-07DFE35665ED}" name="GFPG A" dataDxfId="640">
+    <tableColumn id="21" xr3:uid="{5ED7F4F1-4524-4204-90BC-07DFE35665ED}" name="GFPG A" dataDxfId="892">
       <calculatedColumnFormula>BY22/BQ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{3BAC0D7E-D609-46FC-BB96-6327BEC9045F}" name="GAPG H" dataDxfId="639">
+    <tableColumn id="22" xr3:uid="{3BAC0D7E-D609-46FC-BB96-6327BEC9045F}" name="GAPG H" dataDxfId="891">
       <calculatedColumnFormula>BZ22/BP22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{894AF6A4-2FD4-468F-8740-6E39104F12C5}" name="GAPG A" dataDxfId="638">
+    <tableColumn id="23" xr3:uid="{894AF6A4-2FD4-468F-8740-6E39104F12C5}" name="GAPG A" dataDxfId="890">
       <calculatedColumnFormula>CA22/BQ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{CFA1DE8E-0094-499E-B287-EEFFFC39239B}" name="GFPG " dataDxfId="637">
+    <tableColumn id="24" xr3:uid="{CFA1DE8E-0094-499E-B287-EEFFFC39239B}" name="GFPG " dataDxfId="889">
       <calculatedColumnFormula>CD22/BO22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{5723B53A-51E1-40DB-A91D-49D133C87D25}" name="GAPG " dataDxfId="636">
+    <tableColumn id="25" xr3:uid="{5723B53A-51E1-40DB-A91D-49D133C87D25}" name="GAPG " dataDxfId="888">
       <calculatedColumnFormula>CE22/BO22</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8401,44 +11321,44 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CAF60155-77BE-48E5-AA58-5D8F46940651}" name="Table2" displayName="Table2" ref="A1:Z74" totalsRowShown="0" headerRowDxfId="635" headerRowBorderDxfId="634">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CAF60155-77BE-48E5-AA58-5D8F46940651}" name="Table2" displayName="Table2" ref="A1:Z74" totalsRowShown="0" headerRowDxfId="887" headerRowBorderDxfId="886">
   <autoFilter ref="A1:Z74" xr:uid="{CAF60155-77BE-48E5-AA58-5D8F46940651}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{DDB71618-B495-4370-A2C8-F807AB26F35C}" name="WEEKDATE">
       <calculatedColumnFormula>TEXT($B2,"dddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D87BCC97-C12B-42BA-ACD3-847AD72294EC}" name="DATE" dataDxfId="633"/>
-    <tableColumn id="3" xr3:uid="{6E19CA59-B6A3-4131-B285-CE1F7BAF3D31}" name="TIME" dataDxfId="632"/>
-    <tableColumn id="4" xr3:uid="{02F4D888-3BD5-4016-BA9A-EC8A0CBEA44E}" name="CONF" dataDxfId="631"/>
-    <tableColumn id="5" xr3:uid="{DEBF2CDE-9CD3-427B-90BB-33C4A230FDB2}" name="ROUNDNUM" dataDxfId="630"/>
-    <tableColumn id="6" xr3:uid="{0B2FA3E5-A739-4507-920E-FD6BD73D06FC}" name="SERIESCODE" dataDxfId="629"/>
-    <tableColumn id="7" xr3:uid="{E0FB355A-FF65-48EA-9A64-1208BDA18DEA}" name="GAMENUM" dataDxfId="628"/>
-    <tableColumn id="8" xr3:uid="{48075340-6AD4-4735-8D81-DCE8BDEA7894}" name="TOPSEED" dataDxfId="627"/>
-    <tableColumn id="9" xr3:uid="{47D97FCE-3C11-4B03-A932-BB3CCC5294A3}" name="LOWSEED" dataDxfId="626"/>
-    <tableColumn id="10" xr3:uid="{2657E2A1-FA3E-4247-AB77-0882735B5D98}" name="TOPSEEDWINS" dataDxfId="625"/>
-    <tableColumn id="11" xr3:uid="{F857D9CD-319A-4A1F-8A87-5B89AB0E3AE4}" name="LOWSEEDWINS" dataDxfId="624"/>
-    <tableColumn id="12" xr3:uid="{F49B8205-50A8-4D22-BDFA-A8C59906257D}" name="AWAYTEAM" dataDxfId="623"/>
-    <tableColumn id="13" xr3:uid="{10A989E8-E464-444A-B995-FE5CD8D50A3E}" name="HOMETEAM" dataDxfId="622"/>
-    <tableColumn id="14" xr3:uid="{BEBB472F-C00C-43D1-BA57-177EECF3D1A4}" name="MYCHOICE" dataDxfId="621">
+    <tableColumn id="2" xr3:uid="{D87BCC97-C12B-42BA-ACD3-847AD72294EC}" name="DATE" dataDxfId="885"/>
+    <tableColumn id="3" xr3:uid="{6E19CA59-B6A3-4131-B285-CE1F7BAF3D31}" name="TIME" dataDxfId="884"/>
+    <tableColumn id="4" xr3:uid="{02F4D888-3BD5-4016-BA9A-EC8A0CBEA44E}" name="CONF" dataDxfId="883"/>
+    <tableColumn id="5" xr3:uid="{DEBF2CDE-9CD3-427B-90BB-33C4A230FDB2}" name="ROUNDNUM" dataDxfId="882"/>
+    <tableColumn id="6" xr3:uid="{0B2FA3E5-A739-4507-920E-FD6BD73D06FC}" name="SERIESCODE" dataDxfId="881"/>
+    <tableColumn id="7" xr3:uid="{E0FB355A-FF65-48EA-9A64-1208BDA18DEA}" name="GAMENUM" dataDxfId="880"/>
+    <tableColumn id="8" xr3:uid="{48075340-6AD4-4735-8D81-DCE8BDEA7894}" name="TOPSEED" dataDxfId="879"/>
+    <tableColumn id="9" xr3:uid="{47D97FCE-3C11-4B03-A932-BB3CCC5294A3}" name="LOWSEED" dataDxfId="878"/>
+    <tableColumn id="10" xr3:uid="{2657E2A1-FA3E-4247-AB77-0882735B5D98}" name="TOPSEEDWINS" dataDxfId="877"/>
+    <tableColumn id="11" xr3:uid="{F857D9CD-319A-4A1F-8A87-5B89AB0E3AE4}" name="LOWSEEDWINS" dataDxfId="876"/>
+    <tableColumn id="12" xr3:uid="{F49B8205-50A8-4D22-BDFA-A8C59906257D}" name="AWAYTEAM" dataDxfId="875"/>
+    <tableColumn id="13" xr3:uid="{10A989E8-E464-444A-B995-FE5CD8D50A3E}" name="HOMETEAM" dataDxfId="874"/>
+    <tableColumn id="14" xr3:uid="{BEBB472F-C00C-43D1-BA57-177EECF3D1A4}" name="MYCHOICE" dataDxfId="873">
       <calculatedColumnFormula>IF(OR(ISBLANK(O2), ISBLANK($P2)), "", IF($O2&gt;$P2, $L2,$M2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{3265132F-9519-4D83-9071-5A806C9B66A7}" name="PAWAYSCORE" dataDxfId="620"/>
-    <tableColumn id="16" xr3:uid="{61D192BF-2F44-45CA-B41E-2E154B58B73C}" name="PHOMESCORE" dataDxfId="619"/>
-    <tableColumn id="17" xr3:uid="{4FBCD938-E47F-4A71-B757-19409794237B}" name="PResult" dataDxfId="618"/>
-    <tableColumn id="18" xr3:uid="{910345CE-2F3B-453D-B129-551EEF8A2ED1}" name="LOCKEDIN" dataDxfId="617"/>
-    <tableColumn id="19" xr3:uid="{B5B3650D-B08F-4959-92AE-19041FF77E90}" name="AAWAYSCORE" dataDxfId="616"/>
-    <tableColumn id="20" xr3:uid="{335FAADC-EF48-4918-8FC4-59E64D4FF575}" name="AHOMESCORE" dataDxfId="615"/>
-    <tableColumn id="21" xr3:uid="{D0C1DED2-3AB8-4A82-B413-410B2E943C31}" name="OTROUNDNUM" dataDxfId="614"/>
-    <tableColumn id="22" xr3:uid="{13F2CA6A-0805-4608-99D8-D82B730F1411}" name="CORRECT" dataDxfId="613">
+    <tableColumn id="15" xr3:uid="{3265132F-9519-4D83-9071-5A806C9B66A7}" name="PAWAYSCORE" dataDxfId="872"/>
+    <tableColumn id="16" xr3:uid="{61D192BF-2F44-45CA-B41E-2E154B58B73C}" name="PHOMESCORE" dataDxfId="871"/>
+    <tableColumn id="17" xr3:uid="{4FBCD938-E47F-4A71-B757-19409794237B}" name="PResult" dataDxfId="870"/>
+    <tableColumn id="18" xr3:uid="{910345CE-2F3B-453D-B129-551EEF8A2ED1}" name="LOCKEDIN" dataDxfId="869"/>
+    <tableColumn id="19" xr3:uid="{B5B3650D-B08F-4959-92AE-19041FF77E90}" name="AAWAYSCORE" dataDxfId="868"/>
+    <tableColumn id="20" xr3:uid="{335FAADC-EF48-4918-8FC4-59E64D4FF575}" name="AHOMESCORE" dataDxfId="867"/>
+    <tableColumn id="21" xr3:uid="{D0C1DED2-3AB8-4A82-B413-410B2E943C31}" name="OTROUNDNUM" dataDxfId="866"/>
+    <tableColumn id="22" xr3:uid="{13F2CA6A-0805-4608-99D8-D82B730F1411}" name="CORRECT" dataDxfId="865">
       <calculatedColumnFormula>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{C52B97FA-25BE-428D-BE11-A51A7A6F4023}" name="WINNER" dataDxfId="612">
+    <tableColumn id="23" xr3:uid="{C52B97FA-25BE-428D-BE11-A51A7A6F4023}" name="WINNER" dataDxfId="864">
       <calculatedColumnFormula>IF(OR(ISBLANK($S2), ISBLANK($T2), ISBLANK($U2)), "", IF(S2&gt;T2,L2,M2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{5D5BFFE0-4374-4A91-BEA2-4CDF401FCD34}" name="Column2" dataDxfId="611">
+    <tableColumn id="26" xr3:uid="{5D5BFFE0-4374-4A91-BEA2-4CDF401FCD34}" name="Column2" dataDxfId="863">
       <calculatedColumnFormula>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{ACD0F41D-B80B-4A4E-9591-78757C8DFA9E}" name="Column1" dataDxfId="610">
+    <tableColumn id="25" xr3:uid="{ACD0F41D-B80B-4A4E-9591-78757C8DFA9E}" name="Column1" dataDxfId="862">
       <calculatedColumnFormula>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" xr3:uid="{4CBA132A-C7C7-46A0-A3B6-3B6E14F287C5}" name="Notes"/>
@@ -8448,9 +11368,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8488,7 +11408,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8594,7 +11514,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8736,7 +11656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8746,8 +11666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819ACA58-DCD7-4A09-9052-0851D3ECB0FF}">
   <dimension ref="A1:CL94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="Z56" sqref="Z56"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R63" sqref="R63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9244,11 +12164,11 @@
       </c>
       <c r="AK4">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL4">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AM4">
         <f t="shared" ref="AM4:AM10" si="6">SUMIFS($T$2:$T$104,$M$2:$M$104,AH4,$E$2:$E$104,1) + SUMIFS($S$2:$S$104,$L$2:$L$104,AH4,$E$2:$E$104,1)</f>
@@ -9347,8 +12267,8 @@
       <c r="AC5" s="5"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="13">
-        <f>COUNTA(J2:J104)</f>
-        <v>63</v>
+        <f>COUNT(Table2[CORRECT])</f>
+        <v>60</v>
       </c>
       <c r="AF5" s="8"/>
       <c r="AG5" s="14" t="s">
@@ -9368,11 +12288,11 @@
       </c>
       <c r="AK5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL5">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AM5">
         <f t="shared" si="6"/>
@@ -9472,8 +12392,8 @@
       <c r="AC6" s="5"/>
       <c r="AD6" s="8"/>
       <c r="AE6" s="13">
-        <f>SUM(V2:V104)</f>
-        <v>26</v>
+        <f>SUM(Table2[CORRECT])</f>
+        <v>29</v>
       </c>
       <c r="AF6" s="8"/>
       <c r="AG6" s="14" t="s">
@@ -9597,7 +12517,7 @@
       <c r="AD7" s="8"/>
       <c r="AE7" s="13">
         <f>AE6/AE5</f>
-        <v>0.41269841269841268</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="AF7" s="8"/>
       <c r="AG7" s="14" t="s">
@@ -10012,7 +12932,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G11" s="8">
         <v>2</v>
@@ -10090,15 +13010,15 @@
       </c>
       <c r="AJ11">
         <f t="array" ref="AJ11">INDEX(G:G, MATCH(2, 1/(F:F=AG11)))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK11">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL11">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AM11">
         <f t="shared" ref="AM11:AN14" si="8">SUMIFS($T$2:$T$104,$M$2:$M$104,AH11,$E$2:$E$104,2) + SUMIFS($S$2:$S$104,$L$2:$L$104,AH11,$E$2:$E$104,2)</f>
@@ -10106,7 +13026,7 @@
       </c>
       <c r="AN11">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
@@ -10205,23 +13125,23 @@
       </c>
       <c r="AJ12">
         <f t="array" ref="AJ12">INDEX(G:G, MATCH(2, 1/(F:F=AG12)))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK12">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL12">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AM12">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AN12">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -10323,23 +13243,23 @@
       </c>
       <c r="AJ13">
         <f t="array" ref="AJ13">INDEX(G:G, MATCH(2, 1/(F:F=AG13)))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM13">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AN13">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -10439,7 +13359,7 @@
       </c>
       <c r="AJ14" s="1">
         <f t="array" ref="AJ14">INDEX(G:G, MATCH(2, 1/(F:F=AG14)))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK14" s="1">
         <f t="shared" si="3"/>
@@ -10451,11 +13371,11 @@
       </c>
       <c r="AM14" s="1">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AN14" s="1">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
@@ -11423,7 +14343,7 @@
       </c>
       <c r="AJ22">
         <f t="shared" ref="AJ22:AJ37" si="10">COUNTIFS($L$2:$L$105, AH22, $E$2:$E$105, 2) + COUNTIFS($M$2:$M$105, AH22, $E$2:$E$105, 2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK22">
         <f t="shared" ref="AK22:AK37" si="11">COUNTIFS($L$2:$L$105, AH22, $E$2:$E$105, 3) + COUNTIFS($M$2:$M$105, AH22, $E$2:$E$105, 3)</f>
@@ -11435,11 +14355,11 @@
       </c>
       <c r="AM22">
         <f>AI22+AJ22+AK22+AL22</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN22">
         <f t="shared" ref="AN22:AN37" si="13">COUNTIF($M$2:$M$105, AH22)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO22">
         <f t="shared" ref="AO22:AO37" si="14">COUNTIF($L$2:$L$105, AH22)</f>
@@ -11451,7 +14371,7 @@
       </c>
       <c r="AQ22">
         <f t="shared" ref="AQ22:AQ37" si="16">AM22-AP22</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR22">
         <f t="shared" ref="AR22:AR37" si="17">SUMPRODUCT(($M$2:$M$105=AH22)*($T$2:$T$105&gt;$S$2:$S$105))</f>
@@ -11467,7 +14387,7 @@
       </c>
       <c r="AU22">
         <f t="shared" ref="AU22:AU37" si="20">SUMPRODUCT(($L$2:$L$105=AH22)*($T$2:$T$105&gt;$S$2:$S$105))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV22">
         <f t="shared" ref="AV22:AV37" si="21">COUNTIFS($M$2:$M$105,AH22,$E$2:$E$105,1)</f>
@@ -11543,11 +14463,11 @@
       </c>
       <c r="BO22" s="15">
         <f t="shared" ref="BO22:BW37" si="30">AM22</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BP22" s="15">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BQ22" s="15">
         <f t="shared" si="30"/>
@@ -11559,7 +14479,7 @@
       </c>
       <c r="BS22" s="15">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT22" s="15">
         <f t="shared" si="30"/>
@@ -11575,7 +14495,7 @@
       </c>
       <c r="BW22" s="15">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX22" s="15">
         <f t="shared" ref="BX22:BX37" si="31">SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,1)+SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,2)+SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,3)+SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,4)</f>
@@ -11591,7 +14511,7 @@
       </c>
       <c r="CA22" s="15">
         <f t="shared" ref="CA22:CA37" si="34">SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,1)+(SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,2)+SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,3)+SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,4))</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="CB22" s="15">
         <f t="shared" ref="CB22:CC37" si="35">BX22-BZ22</f>
@@ -11599,7 +14519,7 @@
       </c>
       <c r="CC22" s="15">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="CD22" s="15">
         <f t="shared" ref="CD22:CD37" si="36">BX22+BY22</f>
@@ -11607,15 +14527,15 @@
       </c>
       <c r="CE22" s="15">
         <f t="shared" ref="CE22:CE37" si="37">BZ22+CA22</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="CF22" s="15">
         <f t="shared" ref="CF22:CF37" si="38">(BX22+BY22)-(BZ22+CA22)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CG22" s="20">
         <f t="shared" ref="CG22:CH37" si="39">BX22/BP22</f>
-        <v>2.8</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="CH22" s="20">
         <f t="shared" si="39"/>
@@ -11623,19 +14543,19 @@
       </c>
       <c r="CI22" s="20">
         <f t="shared" ref="CI22:CJ37" si="40">BZ22/BP22</f>
-        <v>1.4</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="CJ22" s="20">
         <f t="shared" si="40"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CK22" s="20">
         <f t="shared" ref="CK22:CK37" si="41">CD22/BO22</f>
-        <v>2.4444444444444446</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="CL22" s="20">
         <f t="shared" ref="CL22:CL37" si="42">CE22/BO22</f>
-        <v>1.6666666666666667</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="23" spans="1:90" x14ac:dyDescent="0.25">
@@ -12038,7 +14958,7 @@
       </c>
       <c r="AJ24">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK24">
         <f t="shared" si="11"/>
@@ -12050,7 +14970,7 @@
       </c>
       <c r="AM24">
         <f t="shared" si="43"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN24">
         <f t="shared" si="13"/>
@@ -12058,11 +14978,11 @@
       </c>
       <c r="AO24">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP24">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ24">
         <f t="shared" si="16"/>
@@ -12070,7 +14990,7 @@
       </c>
       <c r="AR24">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS24">
         <f t="shared" si="18"/>
@@ -12158,7 +15078,7 @@
       </c>
       <c r="BO24" s="15">
         <f t="shared" si="30"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BP24" s="15">
         <f t="shared" si="30"/>
@@ -12166,11 +15086,11 @@
       </c>
       <c r="BQ24" s="15">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BR24" s="15">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BS24" s="15">
         <f t="shared" si="30"/>
@@ -12178,7 +15098,7 @@
       </c>
       <c r="BT24" s="15">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU24" s="15">
         <f t="shared" si="30"/>
@@ -12194,7 +15114,7 @@
       </c>
       <c r="BX24" s="15">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BY24" s="15">
         <f t="shared" si="32"/>
@@ -12210,7 +15130,7 @@
       </c>
       <c r="CB24" s="15">
         <f t="shared" si="35"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="CC24" s="15">
         <f t="shared" si="35"/>
@@ -12218,7 +15138,7 @@
       </c>
       <c r="CD24" s="15">
         <f t="shared" si="36"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="CE24" s="15">
         <f t="shared" si="37"/>
@@ -12226,15 +15146,15 @@
       </c>
       <c r="CF24" s="15">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CG24" s="20">
         <f t="shared" si="39"/>
-        <v>2.2000000000000002</v>
+        <v>3</v>
       </c>
       <c r="CH24" s="20">
         <f t="shared" si="39"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="CI24" s="20">
         <f t="shared" si="40"/>
@@ -12242,15 +15162,15 @@
       </c>
       <c r="CJ24" s="20">
         <f t="shared" si="40"/>
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="CK24" s="20">
         <f t="shared" si="41"/>
-        <v>2.3333333333333335</v>
+        <v>2.5</v>
       </c>
       <c r="CL24" s="20">
         <f t="shared" si="42"/>
-        <v>1.7777777777777777</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="25" spans="1:90" x14ac:dyDescent="0.25">
@@ -12652,7 +15572,7 @@
       </c>
       <c r="AJ26">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK26">
         <f t="shared" si="11"/>
@@ -12664,11 +15584,11 @@
       </c>
       <c r="AM26">
         <f t="shared" si="43"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN26">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO26">
         <f t="shared" si="14"/>
@@ -12680,7 +15600,7 @@
       </c>
       <c r="AQ26">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR26">
         <f t="shared" si="17"/>
@@ -12696,7 +15616,7 @@
       </c>
       <c r="AU26">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV26">
         <f t="shared" si="21"/>
@@ -12772,11 +15692,11 @@
       </c>
       <c r="BO26" s="15">
         <f t="shared" si="30"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BP26" s="15">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BQ26" s="15">
         <f t="shared" si="30"/>
@@ -12788,7 +15708,7 @@
       </c>
       <c r="BS26" s="15">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT26" s="15">
         <f t="shared" si="30"/>
@@ -12804,7 +15724,7 @@
       </c>
       <c r="BW26" s="15">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BX26" s="15">
         <f t="shared" si="31"/>
@@ -12812,7 +15732,7 @@
       </c>
       <c r="BY26" s="15">
         <f t="shared" si="32"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BZ26" s="15">
         <f t="shared" si="33"/>
@@ -12820,7 +15740,7 @@
       </c>
       <c r="CA26" s="15">
         <f t="shared" si="34"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="CB26" s="15">
         <f t="shared" si="35"/>
@@ -12828,43 +15748,43 @@
       </c>
       <c r="CC26" s="15">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CD26" s="15">
         <f t="shared" si="36"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="CE26" s="15">
         <f t="shared" si="37"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="CF26" s="15">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CG26" s="20">
         <f t="shared" si="39"/>
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="CH26" s="20">
         <f t="shared" si="39"/>
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="CI26" s="20">
         <f t="shared" si="40"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="CJ26" s="20">
         <f t="shared" si="40"/>
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="CK26" s="20">
         <f t="shared" si="41"/>
-        <v>2.8</v>
+        <v>2.9090909090909092</v>
       </c>
       <c r="CL26" s="20">
         <f t="shared" si="42"/>
-        <v>2.2999999999999998</v>
+        <v>2.7272727272727271</v>
       </c>
     </row>
     <row r="27" spans="1:90" x14ac:dyDescent="0.25">
@@ -13574,7 +16494,7 @@
       </c>
       <c r="AJ29">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK29">
         <f t="shared" si="11"/>
@@ -13586,7 +16506,7 @@
       </c>
       <c r="AM29">
         <f t="shared" si="43"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN29">
         <f t="shared" si="13"/>
@@ -13594,19 +16514,19 @@
       </c>
       <c r="AO29">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP29">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ29">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR29">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS29">
         <f t="shared" si="18"/>
@@ -13694,7 +16614,7 @@
       </c>
       <c r="BO29" s="15">
         <f t="shared" si="30"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BP29" s="15">
         <f t="shared" si="30"/>
@@ -13702,19 +16622,19 @@
       </c>
       <c r="BQ29" s="15">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BR29" s="15">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BS29" s="15">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BT29" s="15">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BU29" s="15">
         <f t="shared" si="30"/>
@@ -13730,7 +16650,7 @@
       </c>
       <c r="BX29" s="15">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BY29" s="15">
         <f t="shared" si="32"/>
@@ -13738,7 +16658,7 @@
       </c>
       <c r="BZ29" s="15">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="CA29" s="15">
         <f t="shared" si="34"/>
@@ -13746,7 +16666,7 @@
       </c>
       <c r="CB29" s="15">
         <f t="shared" si="35"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="CC29" s="15">
         <f t="shared" si="35"/>
@@ -13754,39 +16674,39 @@
       </c>
       <c r="CD29" s="15">
         <f t="shared" si="36"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="CE29" s="15">
         <f t="shared" si="37"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="CF29" s="15">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CG29" s="20">
         <f t="shared" si="39"/>
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="CH29" s="20">
         <f t="shared" si="39"/>
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="CI29" s="20">
         <f t="shared" si="40"/>
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="CJ29" s="20">
         <f t="shared" si="40"/>
-        <v>2.8</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="CK29" s="20">
         <f t="shared" si="41"/>
-        <v>2.8888888888888888</v>
+        <v>3.3</v>
       </c>
       <c r="CL29" s="20">
         <f t="shared" si="42"/>
-        <v>2.3333333333333335</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="30" spans="1:90" x14ac:dyDescent="0.25">
@@ -13884,7 +16804,7 @@
       </c>
       <c r="AJ30">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK30">
         <f t="shared" si="11"/>
@@ -13896,11 +16816,11 @@
       </c>
       <c r="AM30">
         <f t="shared" si="43"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN30">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO30">
         <f t="shared" si="14"/>
@@ -13908,7 +16828,7 @@
       </c>
       <c r="AP30">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ30">
         <f t="shared" si="16"/>
@@ -13916,7 +16836,7 @@
       </c>
       <c r="AR30">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS30">
         <f t="shared" si="18"/>
@@ -13928,7 +16848,7 @@
       </c>
       <c r="AU30">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV30">
         <f t="shared" si="21"/>
@@ -14004,11 +16924,11 @@
       </c>
       <c r="BO30" s="15">
         <f t="shared" si="30"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BP30" s="15">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BQ30" s="15">
         <f t="shared" si="30"/>
@@ -14016,7 +16936,7 @@
       </c>
       <c r="BR30" s="15">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BS30" s="15">
         <f t="shared" si="30"/>
@@ -14024,7 +16944,7 @@
       </c>
       <c r="BT30" s="15">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BU30" s="15">
         <f t="shared" si="30"/>
@@ -14036,15 +16956,15 @@
       </c>
       <c r="BW30" s="15">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BX30" s="15">
         <f t="shared" si="31"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BY30" s="15">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BZ30" s="15">
         <f t="shared" si="33"/>
@@ -14052,51 +16972,51 @@
       </c>
       <c r="CA30" s="15">
         <f t="shared" si="34"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="CB30" s="15">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CC30" s="15">
         <f t="shared" si="35"/>
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="CD30" s="15">
         <f t="shared" si="36"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="CE30" s="15">
         <f t="shared" si="37"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="CF30" s="15">
         <f t="shared" si="38"/>
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="CG30" s="20">
         <f t="shared" si="39"/>
-        <v>3</v>
+        <v>3.1428571428571428</v>
       </c>
       <c r="CH30" s="20">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="CI30" s="20">
         <f t="shared" si="40"/>
-        <v>2.1666666666666665</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="CJ30" s="20">
         <f t="shared" si="40"/>
-        <v>3.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="CK30" s="20">
         <f t="shared" si="41"/>
-        <v>2.0909090909090908</v>
+        <v>2.4166666666666665</v>
       </c>
       <c r="CL30" s="20">
         <f t="shared" si="42"/>
-        <v>2.7272727272727271</v>
+        <v>2.9166666666666665</v>
       </c>
     </row>
     <row r="31" spans="1:90" x14ac:dyDescent="0.25">
@@ -14499,7 +17419,7 @@
       </c>
       <c r="AJ32">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK32">
         <f t="shared" si="11"/>
@@ -14511,7 +17431,7 @@
       </c>
       <c r="AM32">
         <f t="shared" si="43"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN32">
         <f t="shared" si="13"/>
@@ -14519,11 +17439,11 @@
       </c>
       <c r="AO32">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP32">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ32">
         <f t="shared" si="16"/>
@@ -14531,7 +17451,7 @@
       </c>
       <c r="AR32">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS32">
         <f t="shared" si="18"/>
@@ -14543,7 +17463,7 @@
       </c>
       <c r="AU32">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV32">
         <f t="shared" si="21"/>
@@ -14619,7 +17539,7 @@
       </c>
       <c r="BO32" s="15">
         <f t="shared" si="30"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BP32" s="15">
         <f t="shared" si="30"/>
@@ -14627,11 +17547,11 @@
       </c>
       <c r="BQ32" s="15">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BR32" s="15">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS32" s="15">
         <f t="shared" si="30"/>
@@ -14639,7 +17559,7 @@
       </c>
       <c r="BT32" s="15">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BU32" s="15">
         <f t="shared" si="30"/>
@@ -14651,11 +17571,11 @@
       </c>
       <c r="BW32" s="15">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BX32" s="15">
         <f t="shared" si="31"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BY32" s="15">
         <f t="shared" si="32"/>
@@ -14663,55 +17583,55 @@
       </c>
       <c r="BZ32" s="15">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CA32" s="15">
         <f t="shared" si="34"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="CB32" s="15">
         <f t="shared" si="35"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CC32" s="15">
         <f t="shared" si="35"/>
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="CD32" s="15">
         <f t="shared" si="36"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="CE32" s="15">
         <f t="shared" si="37"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="CF32" s="15">
         <f t="shared" si="38"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="CG32" s="20">
         <f t="shared" si="39"/>
-        <v>2.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="CH32" s="20">
         <f t="shared" si="39"/>
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="CI32" s="20">
         <f t="shared" si="40"/>
-        <v>2</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="CJ32" s="20">
         <f t="shared" si="40"/>
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="CK32" s="20">
         <f t="shared" si="41"/>
-        <v>2.1818181818181817</v>
+        <v>2.4166666666666665</v>
       </c>
       <c r="CL32" s="20">
         <f t="shared" si="42"/>
-        <v>2.3636363636363638</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="33" spans="1:90" x14ac:dyDescent="0.25">
@@ -15117,7 +18037,7 @@
       </c>
       <c r="AJ34">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK34">
         <f t="shared" si="11"/>
@@ -15129,11 +18049,11 @@
       </c>
       <c r="AM34">
         <f t="shared" si="43"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN34">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO34">
         <f t="shared" si="14"/>
@@ -15141,7 +18061,7 @@
       </c>
       <c r="AP34">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ34">
         <f t="shared" si="16"/>
@@ -15157,7 +18077,7 @@
       </c>
       <c r="AT34">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU34">
         <f t="shared" si="20"/>
@@ -15237,11 +18157,11 @@
       </c>
       <c r="BO34" s="15">
         <f t="shared" si="30"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BP34" s="15">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BQ34" s="15">
         <f t="shared" si="30"/>
@@ -15249,7 +18169,7 @@
       </c>
       <c r="BR34" s="15">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BS34" s="15">
         <f t="shared" si="30"/>
@@ -15265,7 +18185,7 @@
       </c>
       <c r="BV34" s="15">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW34" s="15">
         <f t="shared" si="30"/>
@@ -15277,7 +18197,7 @@
       </c>
       <c r="BY34" s="15">
         <f t="shared" si="32"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BZ34" s="15">
         <f t="shared" si="33"/>
@@ -15285,7 +18205,7 @@
       </c>
       <c r="CA34" s="15">
         <f t="shared" si="34"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="CB34" s="15">
         <f t="shared" si="35"/>
@@ -15293,43 +18213,43 @@
       </c>
       <c r="CC34" s="15">
         <f t="shared" si="35"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CD34" s="15">
         <f t="shared" si="36"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="CE34" s="15">
         <f t="shared" si="37"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="CF34" s="15">
         <f t="shared" si="38"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="CG34" s="20">
         <f t="shared" si="39"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="CH34" s="20">
         <f t="shared" si="39"/>
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="CI34" s="20">
         <f t="shared" si="40"/>
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="CJ34" s="20">
         <f t="shared" si="40"/>
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="CK34" s="20">
         <f t="shared" si="41"/>
-        <v>2.4</v>
+        <v>2.5454545454545454</v>
       </c>
       <c r="CL34" s="20">
         <f t="shared" si="42"/>
-        <v>2.8</v>
+        <v>2.8181818181818183</v>
       </c>
     </row>
     <row r="35" spans="1:90" x14ac:dyDescent="0.25">
@@ -16038,7 +18958,7 @@
       </c>
       <c r="AJ37">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK37">
         <f t="shared" si="11"/>
@@ -16050,7 +18970,7 @@
       </c>
       <c r="AM37">
         <f t="shared" si="43"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN37">
         <f t="shared" si="13"/>
@@ -16058,7 +18978,7 @@
       </c>
       <c r="AO37">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP37">
         <f t="shared" si="15"/>
@@ -16066,7 +18986,7 @@
       </c>
       <c r="AQ37">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR37">
         <f t="shared" si="17"/>
@@ -16074,7 +18994,7 @@
       </c>
       <c r="AS37">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37">
         <f t="shared" si="19"/>
@@ -16158,7 +19078,7 @@
       </c>
       <c r="BO37" s="15">
         <f t="shared" si="30"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BP37" s="15">
         <f t="shared" si="30"/>
@@ -16166,7 +19086,7 @@
       </c>
       <c r="BQ37" s="15">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BR37" s="15">
         <f t="shared" si="30"/>
@@ -16174,7 +19094,7 @@
       </c>
       <c r="BS37" s="15">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT37" s="15">
         <f t="shared" si="30"/>
@@ -16182,7 +19102,7 @@
       </c>
       <c r="BU37" s="15">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV37" s="15">
         <f t="shared" si="30"/>
@@ -16194,7 +19114,7 @@
       </c>
       <c r="BX37" s="15">
         <f t="shared" si="31"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BY37" s="15">
         <f t="shared" si="32"/>
@@ -16202,7 +19122,7 @@
       </c>
       <c r="BZ37" s="15">
         <f t="shared" si="33"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="CA37" s="15">
         <f t="shared" si="34"/>
@@ -16210,7 +19130,7 @@
       </c>
       <c r="CB37" s="15">
         <f t="shared" si="35"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CC37" s="15">
         <f t="shared" si="35"/>
@@ -16218,39 +19138,39 @@
       </c>
       <c r="CD37" s="15">
         <f t="shared" si="36"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="CE37" s="15">
         <f t="shared" si="37"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="CF37" s="15">
         <f t="shared" si="38"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CG37" s="20">
         <f t="shared" si="39"/>
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="CH37" s="20">
         <f t="shared" si="39"/>
-        <v>3.8</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="CI37" s="20">
         <f t="shared" si="40"/>
-        <v>2.2000000000000002</v>
+        <v>3</v>
       </c>
       <c r="CJ37" s="20">
         <f t="shared" si="40"/>
-        <v>3.8</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="CK37" s="20">
         <f t="shared" si="41"/>
-        <v>3.6</v>
+        <v>3.5454545454545454</v>
       </c>
       <c r="CL37" s="20">
         <f t="shared" si="42"/>
-        <v>3</v>
+        <v>3.0909090909090908</v>
       </c>
     </row>
     <row r="38" spans="1:90" x14ac:dyDescent="0.25">
@@ -16690,7 +19610,7 @@
       </c>
       <c r="AJ41">
         <f t="shared" ref="AJ41:AJ48" si="54">COUNTIFS($L$2:$L$105, AH41, $E$2:$E$105, 2) + COUNTIFS($M$2:$M$105, AH41, $E$2:$E$105, 2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK41">
         <f t="shared" ref="AK41:AK48" si="55">COUNTIFS($L$2:$L$105, AH41, $E$2:$E$105, 3) + COUNTIFS($M$2:$M$105, AH41, $E$2:$E$105, 3)</f>
@@ -16702,11 +19622,11 @@
       </c>
       <c r="AM41">
         <f>AI41+AJ41+AK41+AL41</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN41">
         <f t="shared" ref="AN41:AN48" si="57">COUNTIF($M$2:$M$105, AH41)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO41">
         <f t="shared" ref="AO41:AO48" si="58">COUNTIF($L$2:$L$105, AH41)</f>
@@ -16718,7 +19638,7 @@
       </c>
       <c r="AQ41">
         <f>AM41-AP41</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR41">
         <f t="shared" ref="AR41:AR48" si="59">SUMPRODUCT(($M$2:$M$105=AH41)*($T$2:$T$105&gt;$S$2:$S$105))</f>
@@ -16734,11 +19654,11 @@
       </c>
       <c r="AU41">
         <f t="shared" ref="AU41:AU48" si="62">SUMPRODUCT(($L$2:$L$105=AH41)*($T$2:$T$105&gt;$S$2:$S$105))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV41">
         <f t="shared" ref="AV41:AV48" si="63">COUNTIFS($M$2:$M$105,AH41,$E$2:$E$105,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW41">
         <f t="shared" ref="AW41:AW48" si="64">COUNTIFS($L$2:$L$105,AH41,$E$2:$E$105,2)</f>
@@ -16758,7 +19678,7 @@
       </c>
       <c r="BA41">
         <f t="shared" ref="BA41:BA48" si="68">SUMIFS($T$2:$T$105, $L$2:$L$105, AH41,$E$2:$E$105, 2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BB41">
         <f>AX41-AZ41</f>
@@ -16766,7 +19686,7 @@
       </c>
       <c r="BC41">
         <f>AY41-BA41</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="BD41">
         <f>AX41+AY41</f>
@@ -16774,15 +19694,15 @@
       </c>
       <c r="BE41">
         <f>AZ41+BA41</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BF41">
         <f>(AX41+AY41)-(AZ41+BA41)</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="BG41">
         <f>AX41/AV41</f>
-        <v>2</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="BH41">
         <f>AY41/AW41</f>
@@ -16790,11 +19710,11 @@
       </c>
       <c r="BI41">
         <f>AZ41/AV41</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="BJ41">
         <f>BA41/AW41</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK41">
         <f>BD41/AI41</f>
@@ -16802,7 +19722,7 @@
       </c>
       <c r="BL41">
         <f>BE41/AI41</f>
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="42" spans="1:90" x14ac:dyDescent="0.25">
@@ -16896,7 +19816,7 @@
       </c>
       <c r="AJ42">
         <f t="shared" si="54"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK42">
         <f t="shared" si="55"/>
@@ -16908,7 +19828,7 @@
       </c>
       <c r="AM42">
         <f t="shared" ref="AM42:AM48" si="70">AI42+AJ42+AK42+AL42</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN42">
         <f t="shared" si="57"/>
@@ -16916,11 +19836,11 @@
       </c>
       <c r="AO42">
         <f t="shared" si="58"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP42">
         <f t="shared" ref="AP42:AP48" si="71">AR42+AT42</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ42">
         <f t="shared" ref="AQ42:AQ48" si="72">AM42-AP42</f>
@@ -16928,7 +19848,7 @@
       </c>
       <c r="AR42">
         <f t="shared" si="59"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS42">
         <f t="shared" si="60"/>
@@ -16948,11 +19868,11 @@
       </c>
       <c r="AW42">
         <f t="shared" si="64"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX42">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY42">
         <f t="shared" si="66"/>
@@ -16968,7 +19888,7 @@
       </c>
       <c r="BB42">
         <f t="shared" ref="BB42:BC48" si="73">AX42-AZ42</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC42">
         <f t="shared" si="73"/>
@@ -16976,7 +19896,7 @@
       </c>
       <c r="BD42">
         <f t="shared" ref="BD42:BD48" si="74">AX42+AY42</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BE42">
         <f t="shared" ref="BE42:BE48" si="75">AZ42+BA42</f>
@@ -16984,15 +19904,15 @@
       </c>
       <c r="BF42">
         <f t="shared" ref="BF42:BF48" si="76">(AX42+AY42)-(AZ42+BA42)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG42">
         <f t="shared" ref="BG42:BH48" si="77">AX42/AV42</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH42">
         <f t="shared" si="77"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="BI42">
         <f t="shared" ref="BI42:BJ48" si="78">AZ42/AV42</f>
@@ -17000,11 +19920,11 @@
       </c>
       <c r="BJ42">
         <f t="shared" si="78"/>
-        <v>2</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="BK42">
         <f t="shared" ref="BK42:BK48" si="79">BD42/AI42</f>
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="BL42">
         <f t="shared" ref="BL42:BL48" si="80">BE42/AI42</f>
@@ -17102,7 +20022,7 @@
       </c>
       <c r="AJ43">
         <f t="shared" si="54"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK43">
         <f t="shared" si="55"/>
@@ -17114,11 +20034,11 @@
       </c>
       <c r="AM43">
         <f t="shared" si="70"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN43">
         <f t="shared" si="57"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO43">
         <f t="shared" si="58"/>
@@ -17130,7 +20050,7 @@
       </c>
       <c r="AQ43">
         <f t="shared" si="72"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR43">
         <f t="shared" si="59"/>
@@ -17146,11 +20066,11 @@
       </c>
       <c r="AU43">
         <f t="shared" si="62"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV43">
         <f t="shared" si="63"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW43">
         <f t="shared" si="64"/>
@@ -17162,7 +20082,7 @@
       </c>
       <c r="AY43">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ43">
         <f t="shared" si="67"/>
@@ -17170,7 +20090,7 @@
       </c>
       <c r="BA43">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BB43">
         <f t="shared" si="73"/>
@@ -17178,43 +20098,43 @@
       </c>
       <c r="BC43">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="BD43">
         <f t="shared" si="74"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BE43">
         <f t="shared" si="75"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BF43">
         <f t="shared" si="76"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BG43">
         <f t="shared" si="77"/>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="BH43">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI43">
         <f t="shared" si="78"/>
-        <v>3.5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BJ43">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BK43">
         <f t="shared" si="79"/>
-        <v>1.5</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="BL43">
         <f t="shared" si="80"/>
-        <v>1.1666666666666667</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="44" spans="1:90" x14ac:dyDescent="0.25">
@@ -17308,7 +20228,7 @@
       </c>
       <c r="AJ44">
         <f t="shared" si="54"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK44">
         <f t="shared" si="55"/>
@@ -17320,7 +20240,7 @@
       </c>
       <c r="AM44">
         <f t="shared" si="70"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN44">
         <f t="shared" si="57"/>
@@ -17328,19 +20248,19 @@
       </c>
       <c r="AO44">
         <f t="shared" si="58"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP44">
         <f t="shared" si="71"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ44">
         <f t="shared" si="72"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR44">
         <f t="shared" si="59"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS44">
         <f t="shared" si="60"/>
@@ -17360,11 +20280,11 @@
       </c>
       <c r="AW44">
         <f t="shared" si="64"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX44">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY44">
         <f t="shared" si="66"/>
@@ -17372,7 +20292,7 @@
       </c>
       <c r="AZ44">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA44">
         <f t="shared" si="68"/>
@@ -17380,7 +20300,7 @@
       </c>
       <c r="BB44">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC44">
         <f t="shared" si="73"/>
@@ -17388,39 +20308,39 @@
       </c>
       <c r="BD44">
         <f t="shared" si="74"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BE44">
         <f t="shared" si="75"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BF44">
         <f t="shared" si="76"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="BG44">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BH44">
         <f t="shared" si="77"/>
-        <v>3.5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BI44">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ44">
         <f t="shared" si="78"/>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="BK44">
         <f t="shared" si="79"/>
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="BL44">
         <f t="shared" si="80"/>
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="45" spans="1:90" x14ac:dyDescent="0.25">
@@ -17515,7 +20435,7 @@
       </c>
       <c r="AJ45">
         <f t="shared" si="54"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK45">
         <f t="shared" si="55"/>
@@ -17527,11 +20447,11 @@
       </c>
       <c r="AM45">
         <f t="shared" si="70"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN45">
         <f t="shared" si="57"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO45">
         <f t="shared" si="58"/>
@@ -17539,7 +20459,7 @@
       </c>
       <c r="AP45">
         <f t="shared" si="71"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ45">
         <f t="shared" si="72"/>
@@ -17547,7 +20467,7 @@
       </c>
       <c r="AR45">
         <f t="shared" si="59"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS45">
         <f t="shared" si="60"/>
@@ -17559,11 +20479,11 @@
       </c>
       <c r="AU45">
         <f t="shared" si="62"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV45">
         <f t="shared" si="63"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW45">
         <f t="shared" si="64"/>
@@ -17571,11 +20491,11 @@
       </c>
       <c r="AX45">
         <f t="shared" si="65"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY45">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ45">
         <f t="shared" si="67"/>
@@ -17583,51 +20503,51 @@
       </c>
       <c r="BA45">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB45">
         <f t="shared" si="73"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC45">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="BD45">
         <f t="shared" si="74"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BE45">
         <f t="shared" si="75"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BF45">
         <f t="shared" si="76"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BG45">
         <f t="shared" si="77"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH45">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI45">
         <f t="shared" si="78"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="BJ45">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BK45">
         <f t="shared" si="79"/>
-        <v>0.2857142857142857</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="BL45">
         <f t="shared" si="80"/>
-        <v>0.42857142857142855</v>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="46" spans="1:90" x14ac:dyDescent="0.25">
@@ -17722,7 +20642,7 @@
       </c>
       <c r="AJ46">
         <f t="shared" si="54"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK46">
         <f t="shared" si="55"/>
@@ -17734,7 +20654,7 @@
       </c>
       <c r="AM46">
         <f t="shared" si="70"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN46">
         <f t="shared" si="57"/>
@@ -17742,11 +20662,11 @@
       </c>
       <c r="AO46">
         <f t="shared" si="58"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP46">
         <f t="shared" si="71"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ46">
         <f t="shared" si="72"/>
@@ -17754,7 +20674,7 @@
       </c>
       <c r="AR46">
         <f t="shared" si="59"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS46">
         <f t="shared" si="60"/>
@@ -17766,7 +20686,7 @@
       </c>
       <c r="AU46">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV46">
         <f t="shared" si="63"/>
@@ -17774,11 +20694,11 @@
       </c>
       <c r="AW46">
         <f t="shared" si="64"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX46">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY46">
         <f t="shared" si="66"/>
@@ -17786,55 +20706,55 @@
       </c>
       <c r="AZ46">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA46">
         <f t="shared" si="68"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB46">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC46">
         <f t="shared" si="73"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="BD46">
         <f t="shared" si="74"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BE46">
         <f t="shared" si="75"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BF46">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG46">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BH46">
         <f t="shared" si="77"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="BI46">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ46">
         <f t="shared" si="78"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK46">
         <f t="shared" si="79"/>
-        <v>0.42857142857142855</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="BL46">
         <f t="shared" si="80"/>
-        <v>0.2857142857142857</v>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="47" spans="1:90" x14ac:dyDescent="0.25">
@@ -17931,7 +20851,7 @@
       </c>
       <c r="AJ47">
         <f t="shared" si="54"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK47">
         <f t="shared" si="55"/>
@@ -17943,11 +20863,11 @@
       </c>
       <c r="AM47">
         <f t="shared" si="70"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN47">
         <f t="shared" si="57"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO47">
         <f t="shared" si="58"/>
@@ -17955,7 +20875,7 @@
       </c>
       <c r="AP47">
         <f t="shared" si="71"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ47">
         <f t="shared" si="72"/>
@@ -17971,7 +20891,7 @@
       </c>
       <c r="AT47">
         <f t="shared" si="61"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU47">
         <f t="shared" si="62"/>
@@ -17979,7 +20899,7 @@
       </c>
       <c r="AV47">
         <f t="shared" si="63"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW47">
         <f t="shared" si="64"/>
@@ -17991,7 +20911,7 @@
       </c>
       <c r="AY47">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ47">
         <f t="shared" si="67"/>
@@ -17999,7 +20919,7 @@
       </c>
       <c r="BA47">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB47">
         <f t="shared" si="73"/>
@@ -18007,43 +20927,43 @@
       </c>
       <c r="BC47">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD47">
         <f t="shared" si="74"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BE47">
         <f t="shared" si="75"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BF47">
         <f t="shared" si="76"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="BG47">
         <f t="shared" si="77"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH47">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI47">
         <f t="shared" si="78"/>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="BJ47">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK47">
         <f t="shared" si="79"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="BL47">
         <f t="shared" si="80"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18140,7 +21060,7 @@
       </c>
       <c r="AJ48">
         <f t="shared" si="54"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK48">
         <f t="shared" si="55"/>
@@ -18152,7 +21072,7 @@
       </c>
       <c r="AM48">
         <f t="shared" si="70"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN48">
         <f t="shared" si="57"/>
@@ -18160,7 +21080,7 @@
       </c>
       <c r="AO48">
         <f t="shared" si="58"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP48">
         <f t="shared" si="71"/>
@@ -18168,7 +21088,7 @@
       </c>
       <c r="AQ48">
         <f t="shared" si="72"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR48">
         <f t="shared" si="59"/>
@@ -18192,11 +21112,11 @@
       </c>
       <c r="AW48">
         <f t="shared" si="64"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX48">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY48">
         <f t="shared" si="66"/>
@@ -18204,7 +21124,7 @@
       </c>
       <c r="AZ48">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA48">
         <f t="shared" si="68"/>
@@ -18212,7 +21132,7 @@
       </c>
       <c r="BB48">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BC48">
         <f t="shared" si="73"/>
@@ -18220,39 +21140,39 @@
       </c>
       <c r="BD48">
         <f t="shared" si="74"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BE48">
         <f t="shared" si="75"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BF48">
         <f t="shared" si="76"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG48">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BH48">
         <f t="shared" si="77"/>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="BI48">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ48">
         <f t="shared" si="78"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BK48">
         <f t="shared" si="79"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BL48">
         <f t="shared" si="80"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="49" spans="1:64" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -19450,7 +22370,7 @@
         <v>2</v>
       </c>
       <c r="K56" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>32</v>
@@ -19474,24 +22394,30 @@
       <c r="R56" s="7">
         <v>45786</v>
       </c>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5" t="str">
+      <c r="S56" s="5">
+        <v>4</v>
+      </c>
+      <c r="T56" s="5">
+        <v>5</v>
+      </c>
+      <c r="U56" s="5">
+        <v>1</v>
+      </c>
+      <c r="V56" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W56" s="5" t="str">
         <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="X56" s="5" t="str">
+        <v>FLA</v>
+      </c>
+      <c r="X56" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y56" s="5" t="str">
+        <v>-3</v>
+      </c>
+      <c r="Y56" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>-2</v>
       </c>
     </row>
     <row r="57" spans="1:64" x14ac:dyDescent="0.25">
@@ -19524,7 +22450,7 @@
         <v>50</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="3">
         <v>1</v>
@@ -19551,24 +22477,30 @@
       <c r="R57" s="12">
         <v>45786</v>
       </c>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2" t="str">
+      <c r="S57" s="2">
+        <v>0</v>
+      </c>
+      <c r="T57" s="2">
+        <v>4</v>
+      </c>
+      <c r="U57" s="2">
+        <v>0</v>
+      </c>
+      <c r="V57" s="2">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W57" s="5" t="str">
         <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="X57" s="2" t="str">
+        <v>WPG</v>
+      </c>
+      <c r="X57" s="2">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y57" s="2" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y57" s="2">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="Z57" s="1"/>
     </row>
@@ -19605,7 +22537,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L58" s="8" t="s">
         <v>39</v>
@@ -19615,30 +22547,44 @@
       </c>
       <c r="N58" s="5" t="str">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="O58" s="5">
+        <v>2</v>
+      </c>
+      <c r="P58" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="R58" s="7">
+        <v>45787</v>
+      </c>
+      <c r="S58" s="5">
+        <v>0</v>
+      </c>
+      <c r="T58" s="5">
+        <v>4</v>
+      </c>
+      <c r="U58" s="5">
+        <v>0</v>
+      </c>
+      <c r="V58" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W58" s="5" t="str">
         <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="X58" s="5" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="X58" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y58" s="5" t="str">
+        <v>2</v>
+      </c>
+      <c r="Y58" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AH58" s="1"/>
       <c r="AI58" s="1" t="s">
@@ -19762,7 +22708,7 @@
         <v>52</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="3">
         <v>2</v>
@@ -19775,32 +22721,48 @@
       </c>
       <c r="N59" s="2" t="str">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="12"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2" t="str">
+        <v>EDM</v>
+      </c>
+      <c r="O59" s="2">
+        <v>3</v>
+      </c>
+      <c r="P59" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="R59" s="12">
+        <v>45787</v>
+      </c>
+      <c r="S59" s="2">
+        <v>4</v>
+      </c>
+      <c r="T59" s="2">
+        <v>3</v>
+      </c>
+      <c r="U59" s="2">
+        <v>0</v>
+      </c>
+      <c r="V59" s="2">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W59" s="5" t="str">
         <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="X59" s="2" t="str">
+        <v>VGK</v>
+      </c>
+      <c r="X59" s="2">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y59" s="2" t="str">
+        <v>-1</v>
+      </c>
+      <c r="Y59" s="2">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
-      </c>
-      <c r="Z59" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z59" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="AI59">
         <f>COUNTIFS($L$2:$L$105, AH59, $E$2:$E$105, 1) + COUNTIFS($M$2:$M$105, AH59, $E$2:$E$105, 1)</f>
         <v>0</v>
@@ -19952,10 +22914,10 @@
         <v>50</v>
       </c>
       <c r="J60" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60" s="8" t="s">
         <v>43</v>
@@ -19965,30 +22927,44 @@
       </c>
       <c r="N60" s="5" t="str">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5" t="str">
+        <v>WPG</v>
+      </c>
+      <c r="O60" s="5">
+        <v>3</v>
+      </c>
+      <c r="P60" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="R60" s="7">
+        <v>45788</v>
+      </c>
+      <c r="S60" s="5">
+        <v>2</v>
+      </c>
+      <c r="T60" s="5">
+        <v>5</v>
+      </c>
+      <c r="U60" s="5">
+        <v>0</v>
+      </c>
+      <c r="V60" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W60" s="5" t="str">
         <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="X60" s="5" t="str">
+        <v>DAL</v>
+      </c>
+      <c r="X60" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y60" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>-3</v>
       </c>
       <c r="AI60">
         <f>COUNTIFS($L$2:$L$105, AH60, $E$2:$E$105, 1) + COUNTIFS($M$2:$M$105, AH60, $E$2:$E$105, 1)</f>
@@ -20144,7 +23120,7 @@
         <v>2</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>32</v>
@@ -20154,30 +23130,44 @@
       </c>
       <c r="N61" s="2" t="str">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="12"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2" t="str">
+        <v>TOR</v>
+      </c>
+      <c r="O61" s="2">
+        <v>5</v>
+      </c>
+      <c r="P61" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="R61" s="12">
+        <v>45788</v>
+      </c>
+      <c r="S61" s="2">
+        <v>0</v>
+      </c>
+      <c r="T61" s="2">
+        <v>2</v>
+      </c>
+      <c r="U61" s="2">
+        <v>0</v>
+      </c>
+      <c r="V61" s="2">
         <f t="shared" ref="V61:V70" si="105">IF(ISBLANK($U61),"",IF($S61=$T61,0,IF($L61=$N61,IF($S61&gt;$T61,1,0),IF($T61&gt;$S61,1,0))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W61" s="5" t="str">
         <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="X61" s="2" t="str">
+        <v>FLA</v>
+      </c>
+      <c r="X61" s="2">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y61" s="2" t="str">
+        <v>5</v>
+      </c>
+      <c r="Y61" s="2">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Z61" s="1"/>
     </row>
@@ -20214,7 +23204,7 @@
         <v>1</v>
       </c>
       <c r="K62" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L62" s="8" t="s">
         <v>39</v>
@@ -20229,7 +23219,9 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
-      <c r="R62" s="7"/>
+      <c r="R62" s="7">
+        <v>45789</v>
+      </c>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
@@ -20280,7 +23272,7 @@
         <v>52</v>
       </c>
       <c r="J63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="3">
         <v>2</v>
@@ -20298,7 +23290,9 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
-      <c r="R63" s="12"/>
+      <c r="R63" s="12">
+        <v>45789</v>
+      </c>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
@@ -20350,10 +23344,10 @@
         <v>50</v>
       </c>
       <c r="J64" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>43</v>
@@ -20392,17 +23386,44 @@
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="104"/>
-        <v>Saturday</v>
-      </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="7"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="B65" s="7">
+        <v>45791</v>
+      </c>
+      <c r="C65" s="23">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="8">
+        <v>2</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65" s="8">
+        <v>5</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J65" s="3">
+        <v>2</v>
+      </c>
+      <c r="K65" s="3">
+        <v>2</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="N65" s="5" t="str">
         <f t="shared" ref="N65:N74" si="106">IF(OR(ISBLANK(O65), ISBLANK($P65)), "", IF($O65&gt;$P65, $L65,$M65))</f>
         <v/>
@@ -20434,17 +23455,44 @@
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="104"/>
-        <v>Saturday</v>
-      </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="7"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="B66" s="7">
+        <v>45791</v>
+      </c>
+      <c r="C66" s="23">
+        <v>0.9375</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="8">
+        <v>2</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" s="8">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="N66" s="5" t="str">
         <f t="shared" si="106"/>
         <v/>
@@ -20476,17 +23524,44 @@
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="104"/>
-        <v>Saturday</v>
-      </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="7"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
+        <v>Thursday</v>
+      </c>
+      <c r="B67" s="7">
+        <v>45792</v>
+      </c>
+      <c r="C67" s="23">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="8">
+        <v>2</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G67" s="8">
+        <v>5</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="8">
+        <v>1</v>
+      </c>
+      <c r="K67" s="8">
+        <v>2</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="N67" s="5" t="str">
         <f t="shared" si="106"/>
         <v/>
@@ -20518,17 +23593,44 @@
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="104"/>
-        <v>Saturday</v>
-      </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="7"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
+        <v>Thursday</v>
+      </c>
+      <c r="B68" s="7">
+        <v>45792</v>
+      </c>
+      <c r="C68" s="23">
+        <v>0.9375</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="8">
+        <v>2</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G68" s="8">
+        <v>5</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J68" s="8">
+        <v>1</v>
+      </c>
+      <c r="K68" s="8">
+        <v>2</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="N68" s="5" t="str">
         <f t="shared" si="106"/>
         <v/>
@@ -21335,984 +24437,984 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 A15:AAD37 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 A65:V74 H54:M56 N3:N33 V3:V55 F4:F5 A4:E7 A8 C8 H8:M8 Z8:AAD14 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64">
-    <cfRule type="cellIs" dxfId="609" priority="1918" operator="equal">
+  <conditionalFormatting sqref="A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 A15:AAD37 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 H54:M56 N3:N33 V3:V55 F4:F5 A4:E7 A8 C8 H8:M8 Z8:AAD14 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64 A65:V67 A69:V74 A68:G68 J68:V68">
+    <cfRule type="cellIs" dxfId="861" priority="2170" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="608" priority="1917" operator="equal">
+    <cfRule type="cellIs" dxfId="860" priority="2169" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="607" priority="1916" operator="equal">
+    <cfRule type="cellIs" dxfId="859" priority="2168" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="1915" operator="equal">
+    <cfRule type="cellIs" dxfId="858" priority="2167" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AAD37 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 A65:V74 H54:M56 V10:V55 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64">
-    <cfRule type="cellIs" dxfId="605" priority="1874" operator="equal">
+  <conditionalFormatting sqref="A1:AAD37 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 H54:M56 V10:V55 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64 A65:V67 A69:V74 A68:G68 J68:V68">
+    <cfRule type="cellIs" dxfId="857" priority="2126" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:AAD37 A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 A65:V74 H54:M56 N3:N33 V3:V55 F4:F5 A4:E7 A8 C8 H8:M8 Z8:AAD14 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64">
-    <cfRule type="cellIs" dxfId="604" priority="1945" operator="equal">
+  <conditionalFormatting sqref="A15:AAD37 A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 H54:M56 N3:N33 V3:V55 F4:F5 A4:E7 A8 C8 H8:M8 Z8:AAD14 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64 A65:V67 A69:V74 A68:G68 J68:V68">
+    <cfRule type="cellIs" dxfId="856" priority="2197" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="603" priority="1938" operator="equal">
+    <cfRule type="cellIs" dxfId="855" priority="2190" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="602" priority="1937" operator="equal">
+    <cfRule type="cellIs" dxfId="854" priority="2189" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="601" priority="1936" operator="equal">
+    <cfRule type="cellIs" dxfId="853" priority="2188" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="1935" operator="equal">
+    <cfRule type="cellIs" dxfId="852" priority="2187" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="599" priority="1934" operator="equal">
+    <cfRule type="cellIs" dxfId="851" priority="2186" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="598" priority="1933" operator="equal">
+    <cfRule type="cellIs" dxfId="850" priority="2185" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="1932" operator="equal">
+    <cfRule type="cellIs" dxfId="849" priority="2184" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="596" priority="1931" operator="equal">
+    <cfRule type="cellIs" dxfId="848" priority="2183" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="595" priority="1946" operator="equal">
+    <cfRule type="cellIs" dxfId="847" priority="2198" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="594" priority="1939" operator="equal">
+    <cfRule type="cellIs" dxfId="846" priority="2191" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="593" priority="1940" operator="equal">
+    <cfRule type="cellIs" dxfId="845" priority="2192" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="1941" operator="equal">
+    <cfRule type="cellIs" dxfId="844" priority="2193" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="1942" operator="equal">
+    <cfRule type="cellIs" dxfId="843" priority="2194" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="590" priority="1943" operator="equal">
+    <cfRule type="cellIs" dxfId="842" priority="2195" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="589" priority="1944" operator="equal">
+    <cfRule type="cellIs" dxfId="841" priority="2196" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="588" priority="1886" operator="equal">
+    <cfRule type="cellIs" dxfId="840" priority="2138" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="587" priority="1885" operator="equal">
+    <cfRule type="cellIs" dxfId="839" priority="2137" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="1894" operator="equal">
+    <cfRule type="cellIs" dxfId="838" priority="2146" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="585" priority="1883" operator="equal">
+    <cfRule type="cellIs" dxfId="837" priority="2135" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="584" priority="1882" operator="equal">
+    <cfRule type="cellIs" dxfId="836" priority="2134" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="1881" operator="equal">
+    <cfRule type="cellIs" dxfId="835" priority="2133" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="1880" operator="equal">
+    <cfRule type="cellIs" dxfId="834" priority="2132" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="581" priority="1879" operator="equal">
+    <cfRule type="cellIs" dxfId="833" priority="2131" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="1878" operator="equal">
+    <cfRule type="cellIs" dxfId="832" priority="2130" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="1877" operator="equal">
+    <cfRule type="cellIs" dxfId="831" priority="2129" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="578" priority="1876" operator="equal">
+    <cfRule type="cellIs" dxfId="830" priority="2128" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="1875" operator="equal">
+    <cfRule type="cellIs" dxfId="829" priority="2127" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="1893" operator="equal">
+    <cfRule type="cellIs" dxfId="828" priority="2145" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="1892" operator="equal">
+    <cfRule type="cellIs" dxfId="827" priority="2144" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="1891" operator="equal">
+    <cfRule type="cellIs" dxfId="826" priority="2143" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="1890" operator="equal">
+    <cfRule type="cellIs" dxfId="825" priority="2142" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="572" priority="1889" operator="equal">
+    <cfRule type="cellIs" dxfId="824" priority="2141" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="1888" operator="equal">
+    <cfRule type="cellIs" dxfId="823" priority="2140" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="570" priority="1884" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="2136" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="569" priority="1887" operator="equal">
+    <cfRule type="cellIs" dxfId="821" priority="2139" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51 L56:M56 H58:I59 L58:M59">
-    <cfRule type="cellIs" dxfId="568" priority="1778" operator="equal">
+    <cfRule type="cellIs" dxfId="820" priority="2030" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="1779" operator="equal">
+    <cfRule type="cellIs" dxfId="819" priority="2031" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="566" priority="1780" operator="equal">
+    <cfRule type="cellIs" dxfId="818" priority="2032" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="1784" operator="equal">
+    <cfRule type="cellIs" dxfId="817" priority="2036" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="564" priority="1785" operator="equal">
+    <cfRule type="cellIs" dxfId="816" priority="2037" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="563" priority="1786" operator="equal">
+    <cfRule type="cellIs" dxfId="815" priority="2038" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="1768" operator="equal">
+    <cfRule type="cellIs" dxfId="814" priority="2020" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="1787" operator="equal">
+    <cfRule type="cellIs" dxfId="813" priority="2039" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="560" priority="1767" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="2019" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="559" priority="1781" operator="equal">
+    <cfRule type="cellIs" dxfId="811" priority="2033" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="1782" operator="equal">
+    <cfRule type="cellIs" dxfId="810" priority="2034" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="557" priority="1783" operator="equal">
+    <cfRule type="cellIs" dxfId="809" priority="2035" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="1769" operator="equal">
+    <cfRule type="cellIs" dxfId="808" priority="2021" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="1770" operator="equal">
+    <cfRule type="cellIs" dxfId="807" priority="2022" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="554" priority="1771" operator="equal">
+    <cfRule type="cellIs" dxfId="806" priority="2023" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="1772" operator="equal">
+    <cfRule type="cellIs" dxfId="805" priority="2024" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="1773" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="2025" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="551" priority="1774" operator="equal">
+    <cfRule type="cellIs" dxfId="803" priority="2026" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="1775" operator="equal">
+    <cfRule type="cellIs" dxfId="802" priority="2027" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="1776" operator="equal">
+    <cfRule type="cellIs" dxfId="801" priority="2028" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="548" priority="1777" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="2029" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="547" priority="1448" operator="equal">
+    <cfRule type="cellIs" dxfId="799" priority="1700" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="1432" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="1684" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="545" priority="1442" operator="equal">
+    <cfRule type="cellIs" dxfId="797" priority="1694" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="1441" operator="equal">
+    <cfRule type="cellIs" dxfId="796" priority="1693" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="543" priority="1440" operator="equal">
+    <cfRule type="cellIs" dxfId="795" priority="1692" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="542" priority="1430" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="1682" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="1429" operator="equal">
+    <cfRule type="cellIs" dxfId="793" priority="1681" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="1431" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="1683" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="539" priority="1449" operator="equal">
+    <cfRule type="cellIs" dxfId="791" priority="1701" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="1433" operator="equal">
+    <cfRule type="cellIs" dxfId="790" priority="1685" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="1434" operator="equal">
+    <cfRule type="cellIs" dxfId="789" priority="1686" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="1439" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="1691" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="1435" operator="equal">
+    <cfRule type="cellIs" dxfId="787" priority="1687" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="1436" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="1688" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="533" priority="1437" operator="equal">
+    <cfRule type="cellIs" dxfId="785" priority="1689" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="1438" operator="equal">
+    <cfRule type="cellIs" dxfId="784" priority="1690" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="531" priority="1443" operator="equal">
+    <cfRule type="cellIs" dxfId="783" priority="1695" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="530" priority="1447" operator="equal">
+    <cfRule type="cellIs" dxfId="782" priority="1699" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="1446" operator="equal">
+    <cfRule type="cellIs" dxfId="781" priority="1698" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="1445" operator="equal">
+    <cfRule type="cellIs" dxfId="780" priority="1697" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="527" priority="1444" operator="equal">
+    <cfRule type="cellIs" dxfId="779" priority="1696" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="526" priority="1560" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="1812" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="1561" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="1813" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="524" priority="1562" operator="equal">
+    <cfRule type="cellIs" dxfId="776" priority="1814" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="1563" operator="equal">
+    <cfRule type="cellIs" dxfId="775" priority="1815" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="1566" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="1818" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="521" priority="1567" operator="equal">
+    <cfRule type="cellIs" dxfId="773" priority="1819" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="1568" operator="equal">
+    <cfRule type="cellIs" dxfId="772" priority="1820" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="1569" operator="equal">
+    <cfRule type="cellIs" dxfId="771" priority="1821" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="518" priority="1565" operator="equal">
+    <cfRule type="cellIs" dxfId="770" priority="1817" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="517" priority="1559" operator="equal">
+    <cfRule type="cellIs" dxfId="769" priority="1811" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="1558" operator="equal">
+    <cfRule type="cellIs" dxfId="768" priority="1810" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="515" priority="1557" operator="equal">
+    <cfRule type="cellIs" dxfId="767" priority="1809" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="1577" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="1829" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="1576" operator="equal">
+    <cfRule type="cellIs" dxfId="765" priority="1828" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="1575" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="1827" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="511" priority="1564" operator="equal">
+    <cfRule type="cellIs" dxfId="763" priority="1816" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="1573" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="1825" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="509" priority="1572" operator="equal">
+    <cfRule type="cellIs" dxfId="761" priority="1824" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="1571" operator="equal">
+    <cfRule type="cellIs" dxfId="760" priority="1823" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="1570" operator="equal">
+    <cfRule type="cellIs" dxfId="759" priority="1822" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="1574" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="1826" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="505" priority="1292" operator="equal">
+    <cfRule type="cellIs" dxfId="757" priority="1544" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="1293" operator="equal">
+    <cfRule type="cellIs" dxfId="756" priority="1545" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="503" priority="1294" operator="equal">
+    <cfRule type="cellIs" dxfId="755" priority="1546" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="1296" operator="equal">
+    <cfRule type="cellIs" dxfId="754" priority="1548" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="1297" operator="equal">
+    <cfRule type="cellIs" dxfId="753" priority="1549" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="1295" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="1547" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="1298" operator="equal">
+    <cfRule type="cellIs" dxfId="751" priority="1550" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="1299" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="1551" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="497" priority="1300" operator="equal">
+    <cfRule type="cellIs" dxfId="749" priority="1552" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="1301" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="1553" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="1302" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="1554" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="1288" operator="equal">
+    <cfRule type="cellIs" dxfId="746" priority="1540" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="1282" operator="equal">
+    <cfRule type="cellIs" dxfId="745" priority="1534" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="1283" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="1535" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="491" priority="1284" operator="equal">
+    <cfRule type="cellIs" dxfId="743" priority="1536" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="1285" operator="equal">
+    <cfRule type="cellIs" dxfId="742" priority="1537" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="1286" operator="equal">
+    <cfRule type="cellIs" dxfId="741" priority="1538" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="1287" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="1539" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="1289" operator="equal">
+    <cfRule type="cellIs" dxfId="739" priority="1541" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="1290" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="1542" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="1291" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="1543" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:H60">
-    <cfRule type="cellIs" dxfId="484" priority="872" operator="equal">
+    <cfRule type="cellIs" dxfId="736" priority="1124" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="862" operator="equal">
+    <cfRule type="cellIs" dxfId="735" priority="1114" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="863" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="1115" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="864" operator="equal">
+    <cfRule type="cellIs" dxfId="733" priority="1116" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="865" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="1117" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="866" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="1118" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="867" operator="equal">
+    <cfRule type="cellIs" dxfId="730" priority="1119" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="871" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="1123" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="868" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="1120" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="869" operator="equal">
+    <cfRule type="cellIs" dxfId="727" priority="1121" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="870" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="1122" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="879" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="1131" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="882" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="1134" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="881" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="1133" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="880" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="1132" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="877" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="1129" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="878" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="1130" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="876" operator="equal">
+    <cfRule type="cellIs" dxfId="719" priority="1128" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="875" operator="equal">
+    <cfRule type="cellIs" dxfId="718" priority="1127" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="874" operator="equal">
+    <cfRule type="cellIs" dxfId="717" priority="1126" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="873" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="1125" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H64">
-    <cfRule type="cellIs" dxfId="463" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="715" priority="298" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="297" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="713" priority="296" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="712" priority="295" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="711" priority="304" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="303" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="302" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="301" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="300" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="706" priority="299" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="310" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="704" priority="315" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="703" priority="314" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="313" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="701" priority="312" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="700" priority="311" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="309" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="308" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="307" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="306" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="305" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:I46">
-    <cfRule type="cellIs" dxfId="442" priority="1842" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="2094" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="1843" operator="equal">
+    <cfRule type="cellIs" dxfId="693" priority="2095" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="1844" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="2096" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="1846" operator="equal">
+    <cfRule type="cellIs" dxfId="691" priority="2098" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="1847" operator="equal">
+    <cfRule type="cellIs" dxfId="690" priority="2099" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="1848" operator="equal">
+    <cfRule type="cellIs" dxfId="689" priority="2100" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="1849" operator="equal">
+    <cfRule type="cellIs" dxfId="688" priority="2101" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="1841" operator="equal">
+    <cfRule type="cellIs" dxfId="687" priority="2093" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="1835" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="2087" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="1834" operator="equal">
+    <cfRule type="cellIs" dxfId="685" priority="2086" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="1833" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="2085" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="1830" operator="equal">
+    <cfRule type="cellIs" dxfId="683" priority="2082" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="1832" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="2084" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="1845" operator="equal">
+    <cfRule type="cellIs" dxfId="681" priority="2097" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="1831" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="2083" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="1840" operator="equal">
+    <cfRule type="cellIs" dxfId="679" priority="2092" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="1839" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="2091" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="1838" operator="equal">
+    <cfRule type="cellIs" dxfId="677" priority="2090" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="1837" operator="equal">
+    <cfRule type="cellIs" dxfId="676" priority="2089" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="1836" operator="equal">
+    <cfRule type="cellIs" dxfId="675" priority="2088" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="1850" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="2102" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="421" priority="1735" operator="equal">
+    <cfRule type="cellIs" dxfId="673" priority="1987" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="1736" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="1988" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="1737" operator="equal">
+    <cfRule type="cellIs" dxfId="671" priority="1989" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="1738" operator="equal">
+    <cfRule type="cellIs" dxfId="670" priority="1990" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="1739" operator="equal">
+    <cfRule type="cellIs" dxfId="669" priority="1991" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="1740" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="1992" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="1741" operator="equal">
+    <cfRule type="cellIs" dxfId="667" priority="1993" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="1742" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="1994" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="1743" operator="equal">
+    <cfRule type="cellIs" dxfId="665" priority="1995" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="1744" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="1996" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="1745" operator="equal">
+    <cfRule type="cellIs" dxfId="663" priority="1997" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="1727" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="1979" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="1725" operator="equal">
+    <cfRule type="cellIs" dxfId="661" priority="1977" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="1726" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="1978" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="1728" operator="equal">
+    <cfRule type="cellIs" dxfId="659" priority="1980" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="1729" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="1981" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="1730" operator="equal">
+    <cfRule type="cellIs" dxfId="657" priority="1982" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="1731" operator="equal">
+    <cfRule type="cellIs" dxfId="656" priority="1983" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="1732" operator="equal">
+    <cfRule type="cellIs" dxfId="655" priority="1984" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="1733" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="1985" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="1734" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="1986" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="400" priority="1484" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="1736" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="1485" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="1737" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="1475" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="1727" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="1476" operator="equal">
+    <cfRule type="cellIs" dxfId="649" priority="1728" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="1477" operator="equal">
+    <cfRule type="cellIs" dxfId="648" priority="1729" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="1478" operator="equal">
+    <cfRule type="cellIs" dxfId="647" priority="1730" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="1474" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="1726" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="1471" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="1723" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="1473" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="1725" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="1491" operator="equal">
+    <cfRule type="cellIs" dxfId="643" priority="1743" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="1490" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="1742" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="1489" operator="equal">
+    <cfRule type="cellIs" dxfId="641" priority="1741" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="1488" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="1740" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="1487" operator="equal">
+    <cfRule type="cellIs" dxfId="639" priority="1739" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="1483" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="1735" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="1482" operator="equal">
+    <cfRule type="cellIs" dxfId="637" priority="1734" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="1481" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="1733" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="1472" operator="equal">
+    <cfRule type="cellIs" dxfId="635" priority="1724" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="1486" operator="equal">
+    <cfRule type="cellIs" dxfId="634" priority="1738" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="1479" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="1731" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="1480" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="1732" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="cellIs" dxfId="379" priority="1544" operator="equal">
+    <cfRule type="cellIs" dxfId="631" priority="1796" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="1545" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="1797" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="1546" operator="equal">
+    <cfRule type="cellIs" dxfId="629" priority="1798" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="1547" operator="equal">
+    <cfRule type="cellIs" dxfId="628" priority="1799" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="1548" operator="equal">
+    <cfRule type="cellIs" dxfId="627" priority="1800" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="1549" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="1801" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="1550" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="1802" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="1551" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="1803" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="1552" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="1804" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="1553" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="1805" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="1554" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="1806" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="1555" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="1807" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="1556" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="1808" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="1539" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="1791" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="1543" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="1795" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="1542" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="1794" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="1541" operator="equal">
+    <cfRule type="cellIs" dxfId="615" priority="1793" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="1540" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="1792" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="1538" operator="equal">
+    <cfRule type="cellIs" dxfId="613" priority="1790" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="1537" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="1789" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="1536" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="1788" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="cellIs" dxfId="358" priority="1312" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="1564" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="1304" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="1556" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="1303" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="1555" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="1305" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="1557" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="1306" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="1558" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="1322" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="1574" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="1308" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="1560" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="1309" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="1561" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="1310" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="1562" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="1311" operator="equal">
+    <cfRule type="cellIs" dxfId="601" priority="1563" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="1313" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="1565" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="1314" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="1566" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="1315" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="1567" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="1316" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="1568" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="1307" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="1559" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="1318" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="1570" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="1319" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="1571" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="1320" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="1572" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="1321" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="1573" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="1323" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="1575" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="1317" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="1569" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:I60">
-    <cfRule type="cellIs" dxfId="337" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="1139" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="895" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="1147" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="891" operator="equal">
+    <cfRule type="cellIs" dxfId="587" priority="1143" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="890" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="1142" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="889" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="1141" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="899" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="1151" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="888" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="1140" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="886" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="1138" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="885" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="1137" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="884" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="1136" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="883" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="1135" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="892" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="1144" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="893" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="1145" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="894" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="1146" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="903" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="1155" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="902" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="1154" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="901" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="1153" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="898" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="1150" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="897" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="1149" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="896" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="1148" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="900" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="1152" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I64">
-    <cfRule type="cellIs" dxfId="316" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="330" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="335" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="336" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="327" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="334" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="316" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="317" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="318" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="319" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="559" priority="320" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="321" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="322" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="323" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="324" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="325" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="326" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="328" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="329" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="331" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="332" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="333" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K53 J55:K104">
-    <cfRule type="colorScale" priority="1959">
+    <cfRule type="colorScale" priority="2211">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -22324,7 +25426,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:K54">
-    <cfRule type="colorScale" priority="1492">
+    <cfRule type="colorScale" priority="1744">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -22334,7 +25436,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1493">
+    <cfRule type="colorScale" priority="1745">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -22345,8 +25447,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J67:K67 J68">
-    <cfRule type="colorScale" priority="1958">
+  <conditionalFormatting sqref="J67:K67">
+    <cfRule type="colorScale" priority="2210">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -22356,7 +25458,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1957">
+    <cfRule type="colorScale" priority="2209">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -22368,917 +25470,917 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51">
-    <cfRule type="cellIs" dxfId="295" priority="1666" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="1918" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="1667" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="1919" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="1668" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="1920" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="1669" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="1921" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="1670" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="1922" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="1671" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="1923" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="1672" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="1924" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="1673" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="1925" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="1674" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="1926" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="1675" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="1927" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="1678" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="1930" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="1679" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="1931" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="1677" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="1929" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="1676" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="1928" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="1682" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="1934" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="1681" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="1933" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="1680" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="1932" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="1662" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="1914" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="1663" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="1915" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="1664" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="1916" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="1665" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="1917" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53">
-    <cfRule type="cellIs" dxfId="274" priority="1418" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="1670" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="1417" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="1669" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="1416" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="1668" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="1414" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="1666" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="1413" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="1665" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="1419" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="1671" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="1420" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="1672" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="1421" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="1673" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="1422" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="1674" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="1423" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="1675" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="1424" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="1676" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="1425" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="1677" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="1426" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="1678" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="1427" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="1679" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="1411" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="1663" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="1410" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="1662" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="1409" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="1661" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="1412" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="1664" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="1415" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="1667" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="1428" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="1680" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="1408" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="1660" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55">
-    <cfRule type="cellIs" dxfId="253" priority="1496" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="1748" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="1497" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="1749" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="1498" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="1750" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="1499" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="1751" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="1500" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="1752" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="1501" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="1753" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="1502" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="1754" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="1503" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="1755" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="1504" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="1756" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="1505" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="1757" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="1507" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="1759" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="1508" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="1760" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="1510" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="1762" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="1511" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="1763" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="1512" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="1764" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="1513" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="1765" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="1514" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="1766" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="1506" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="1758" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="1509" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="1761" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="1494" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="1746" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="1495" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="1747" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57">
-    <cfRule type="cellIs" dxfId="232" priority="1237" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="1489" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="1220" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="1472" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="1233" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="1485" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="1232" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="1484" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="1231" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="1483" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="1229" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="1481" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="1230" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="1482" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="1221" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="1473" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="1239" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="1491" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="1219" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="1471" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="1227" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="1479" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="1226" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="1478" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="1225" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="1477" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="1224" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="1476" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="1223" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="1475" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="1222" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="1474" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="1234" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="1486" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="1238" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="1490" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="1228" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="1480" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="1236" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="1488" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="1235" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="1487" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59:L60">
-    <cfRule type="cellIs" dxfId="211" priority="779" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="1031" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="780" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="1032" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="781" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="1033" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="782" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="1034" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="784" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="1036" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="785" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="1037" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="786" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="1038" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="787" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="1039" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="788" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="1040" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="789" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="1041" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="790" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="1042" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="791" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="1043" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="792" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="1044" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="793" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="1045" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="795" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="1047" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="796" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="1048" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="798" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="1050" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="794" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="1046" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="783" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="1035" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="778" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="1030" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="797" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="1049" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63:L64">
-    <cfRule type="cellIs" dxfId="190" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="270" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="271" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="272" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="273" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="253" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="254" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="255" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="256" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="257" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="258" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="259" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="260" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="261" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="262" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="263" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="264" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="265" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="266" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="267" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="268" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="269" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46:M46">
-    <cfRule type="cellIs" dxfId="169" priority="1799" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="2051" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="1790" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="2042" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="1791" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="2043" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="1792" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="2044" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="1793" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="2045" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="1794" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="2046" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="1795" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="2047" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="1796" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="2048" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="1797" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="2049" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="1798" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="2050" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="1788" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="2040" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="1800" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="2052" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="1801" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="2053" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="1802" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="2054" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="1803" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="2055" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="1804" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="2056" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="1805" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="2057" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="1806" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="2058" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="1807" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="2059" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="1789" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="2041" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="1808" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="2060" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61:M63 H62:I63">
-    <cfRule type="cellIs" dxfId="148" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="689" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="673" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="675" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="677" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="678" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="679" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="680" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="693" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="692" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="674" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="676" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="690" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="688" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="687" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="686" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="685" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="684" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="683" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="682" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="681" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="691" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M51">
-    <cfRule type="cellIs" dxfId="127" priority="1710" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="1962" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="1704" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="1956" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="1705" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="1957" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="1706" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="1958" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="1707" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="1959" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="1708" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="1960" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="1709" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="1961" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="1711" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="1963" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="1712" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="1964" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="1713" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="1965" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="1714" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="1966" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="1717" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="1969" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="1715" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="1967" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="1716" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="1968" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="1718" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="1970" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="1719" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="1971" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="1720" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="1972" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="1721" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="1973" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="1722" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="1974" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="1723" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="1975" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="1724" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="1976" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M53">
-    <cfRule type="cellIs" dxfId="106" priority="1386" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="1638" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="1372" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="1624" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="1371" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="1623" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="1370" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="1622" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="1369" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="1621" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="1368" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="1620" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="1367" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="1619" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="1366" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="1618" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="1378" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="1630" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="1376" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="1628" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="1377" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="1629" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="1379" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="1631" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="1380" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="1632" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="1381" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="1633" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="1382" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="1634" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="1383" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="1635" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="1384" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="1636" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="1385" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="1637" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="1375" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="1627" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="1374" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="1626" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="1373" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="1625" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M55">
-    <cfRule type="cellIs" dxfId="85" priority="1529" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="1781" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="1528" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="1780" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="1527" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="1779" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="1526" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="1778" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="1525" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="1777" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="1524" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="1776" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="1523" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="1775" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="1522" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="1774" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="1521" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="1773" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="1520" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="1772" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="1519" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="1771" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="1518" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="1770" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="1517" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="1769" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="1516" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="1768" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="1515" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="1767" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="1533" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="1785" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="1532" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="1784" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="1531" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="1783" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="1530" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="1782" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="1535" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="1787" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="1534" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="1786" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M57">
-    <cfRule type="cellIs" dxfId="64" priority="1216" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="1468" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="1213" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="1465" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="1212" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="1464" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="1211" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="1463" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="1210" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="1462" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="1208" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="1460" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="1209" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="1461" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="1198" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="1450" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="1218" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="1470" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="1217" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="1469" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="1199" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="1451" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="1215" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="1467" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="1200" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="1452" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="1214" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="1466" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="1207" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="1459" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="1206" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="1458" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="1205" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="1457" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="1201" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="1453" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="1202" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="1454" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="1203" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="1455" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="1204" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="1456" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M59:M60">
-    <cfRule type="cellIs" dxfId="43" priority="819" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="1071" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="818" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="1070" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="817" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="1069" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="804" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="1056" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="805" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="1057" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="800" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="1052" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="801" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="1053" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="806" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="1058" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="799" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="1051" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="807" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="1059" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="808" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="1060" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="809" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="1061" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="810" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="1062" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="811" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="1063" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="812" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="1064" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="813" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="1065" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="814" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="1066" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="815" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="1067" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="816" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="1068" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="802" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="1054" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="803" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="1055" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M63:M64">
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="281" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="280" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="279" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="278" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="277" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="276" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="275" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="274" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="288" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="294" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="293" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="292" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="291" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="290" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="289" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="287" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="286" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="285" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="284" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="283" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="282" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="colorScale" priority="1872">
+    <cfRule type="colorScale" priority="2124">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -23288,7 +26390,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="colorScale" priority="1961">
+    <cfRule type="colorScale" priority="2213">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -23298,7 +26400,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:Y1048576">
-    <cfRule type="colorScale" priority="1873">
+    <cfRule type="colorScale" priority="2125">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23310,17 +26412,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI22:AL37 AI41:AL48 AI52:AL55">
-    <cfRule type="cellIs" dxfId="1" priority="1955" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="2207" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI59:AL60">
-    <cfRule type="cellIs" dxfId="0" priority="1947" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="2199" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL3:AL17">
-    <cfRule type="colorScale" priority="1956">
+    <cfRule type="colorScale" priority="2208">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23332,7 +26434,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM22:AM37">
-    <cfRule type="colorScale" priority="1949">
+    <cfRule type="colorScale" priority="2201">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23344,7 +26446,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM41:AM48">
-    <cfRule type="colorScale" priority="1973">
+    <cfRule type="colorScale" priority="2225">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23356,7 +26458,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM52:AM55">
-    <cfRule type="colorScale" priority="1967">
+    <cfRule type="colorScale" priority="2219">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23368,7 +26470,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM59:AM60">
-    <cfRule type="colorScale" priority="1948">
+    <cfRule type="colorScale" priority="2200">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23380,7 +26482,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD22:BD37">
-    <cfRule type="colorScale" priority="1951">
+    <cfRule type="colorScale" priority="2203">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23392,7 +26494,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD41:BD48">
-    <cfRule type="colorScale" priority="1962">
+    <cfRule type="colorScale" priority="2214">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23404,7 +26506,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD52:BD55 BD59:BD60">
-    <cfRule type="colorScale" priority="1968">
+    <cfRule type="colorScale" priority="2220">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23416,7 +26518,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE22:BE37">
-    <cfRule type="colorScale" priority="1950">
+    <cfRule type="colorScale" priority="2202">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23428,7 +26530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE41:BE48">
-    <cfRule type="colorScale" priority="1963">
+    <cfRule type="colorScale" priority="2215">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23440,7 +26542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE52:BE55 BE59:BE60">
-    <cfRule type="colorScale" priority="1969">
+    <cfRule type="colorScale" priority="2221">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23452,7 +26554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF22:BF37 BB22:BC37">
-    <cfRule type="colorScale" priority="1952">
+    <cfRule type="colorScale" priority="2204">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23464,7 +26566,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF41:BF48 BB41:BC48">
-    <cfRule type="colorScale" priority="1964">
+    <cfRule type="colorScale" priority="2216">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23476,7 +26578,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF52:BF55 BB52:BC55 BF59:BF60 BB59:BC60">
-    <cfRule type="colorScale" priority="1970">
+    <cfRule type="colorScale" priority="2222">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23488,7 +26590,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG22:BH37 BK22:BK37">
-    <cfRule type="colorScale" priority="1954">
+    <cfRule type="colorScale" priority="2206">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -23498,7 +26600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG41:BH48 BK41:BK48">
-    <cfRule type="colorScale" priority="1965">
+    <cfRule type="colorScale" priority="2217">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -23508,7 +26610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG52:BH55 BK52:BK55 BG59:BH60 BK59:BK60">
-    <cfRule type="colorScale" priority="1971">
+    <cfRule type="colorScale" priority="2223">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -23518,7 +26620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI22:BJ37 BL22:BL37">
-    <cfRule type="colorScale" priority="1953">
+    <cfRule type="colorScale" priority="2205">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -23528,7 +26630,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI41:BJ48 BL41:BL48">
-    <cfRule type="colorScale" priority="1966">
+    <cfRule type="colorScale" priority="2218">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -23538,7 +26640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI52:BJ55 BL52:BL55 BI59:BJ60 BL59:BL60">
-    <cfRule type="colorScale" priority="1972">
+    <cfRule type="colorScale" priority="2224">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -23548,7 +26650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO22:BO37">
-    <cfRule type="colorScale" priority="1930">
+    <cfRule type="colorScale" priority="2182">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23558,7 +26660,7 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1929">
+    <cfRule type="colorScale" priority="2181">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23570,7 +26672,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD22:CD37">
-    <cfRule type="colorScale" priority="1920">
+    <cfRule type="colorScale" priority="2172">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23580,7 +26682,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1925">
+    <cfRule type="colorScale" priority="2177">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23592,7 +26694,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE22:CE37">
-    <cfRule type="colorScale" priority="1919">
+    <cfRule type="colorScale" priority="2171">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23602,7 +26704,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1924">
+    <cfRule type="colorScale" priority="2176">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23614,7 +26716,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF22:CF37 CB22:CC37">
-    <cfRule type="colorScale" priority="1926">
+    <cfRule type="colorScale" priority="2178">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23626,7 +26728,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF22:CF37">
-    <cfRule type="colorScale" priority="1921">
+    <cfRule type="colorScale" priority="2173">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23638,7 +26740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG22:CH37 CK22:CK37">
-    <cfRule type="colorScale" priority="1928">
+    <cfRule type="colorScale" priority="2180">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -23648,7 +26750,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG22:CH37">
-    <cfRule type="colorScale" priority="1923">
+    <cfRule type="colorScale" priority="2175">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -23658,7 +26760,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI22:CJ37 CL22:CL37">
-    <cfRule type="colorScale" priority="1927">
+    <cfRule type="colorScale" priority="2179">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -23668,13 +26770,663 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI22:CJ37">
-    <cfRule type="colorScale" priority="1922">
+    <cfRule type="colorScale" priority="2174">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="248" priority="190" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="191" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="192" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="193" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="194" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="195" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="196" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="197" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="198" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="199" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="200" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="201" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="233" priority="202" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="203" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="204" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="205" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="206" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="207" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="208" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="209" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="210" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="cellIs" dxfId="225" priority="211" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="212" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="213" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="214" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="215" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="216" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="217" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="218" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="219" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="220" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="215" priority="221" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="227" priority="222" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="223" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="224" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="225" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="226" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="227" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="228" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="229" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="230" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="231" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66:I66">
+    <cfRule type="cellIs" dxfId="208" priority="232" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="233" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="234" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="235" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="236" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="237" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="238" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="239" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="240" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="191" priority="241" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="242" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="243" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="244" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="245" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="246" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="247" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="248" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="249" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="250" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="251" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="252" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="185" priority="127" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="128" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="129" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="130" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="131" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="132" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="133" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="134" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="135" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="136" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="137" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="138" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="139" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="140" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="141" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="142" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="143" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="144" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="145" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="146" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="147" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="cellIs" dxfId="162" priority="148" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="149" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="150" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="151" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="152" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="153" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="154" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="155" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="156" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="157" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="158" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="159" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="160" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="161" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="162" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="163" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="164" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="165" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="166" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="167" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="168" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66:I66">
+    <cfRule type="cellIs" dxfId="145" priority="169" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="170" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="171" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="172" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="173" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="174" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="175" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="176" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="177" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="178" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="179" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="180" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="181" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="182" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="183" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="184" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="185" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="186" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="187" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="188" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="189" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67:I67">
+    <cfRule type="cellIs" dxfId="124" priority="106" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="107" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="108" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="109" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="110" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="111" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="112" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="113" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="114" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="115" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="116" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="117" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="118" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="119" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="120" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="121" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="122" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="123" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="124" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="125" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="126" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67:I67">
+    <cfRule type="cellIs" dxfId="103" priority="85" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="86" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="87" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="88" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="89" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="90" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="91" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="92" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="93" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="94" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="95" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="96" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="97" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="98" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="99" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="100" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="101" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="102" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="103" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="104" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="105" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68">
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="23" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="24" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="25" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="26" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="27" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="29" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="30" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="31" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="32" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="33" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="34" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="35" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="36" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="37" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="38" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="40" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="41" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="42" operator="equal">
+      <formula>"BOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6998B754-C7A1-4B2A-B9BE-3E72E880FF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CF86CB-CE5C-49DD-B19B-1072A7CC6D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
+    <workbookView xWindow="28680" yWindow="-7680" windowWidth="16440" windowHeight="28440" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="190">
   <si>
     <t>DATE</t>
   </si>
@@ -9663,9 +9674,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9703,7 +9714,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9809,7 +9820,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9951,7 +9962,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9962,7 +9973,7 @@
   <dimension ref="A1:CL94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+      <selection activeCell="Q63" sqref="Q63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21679,11 +21690,17 @@
       </c>
       <c r="N64" s="5" t="str">
         <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
+        <v>DAL</v>
+      </c>
+      <c r="O64" s="5">
+        <v>2</v>
+      </c>
+      <c r="P64" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="R64" s="7">
         <v>45790</v>
       </c>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CF86CB-CE5C-49DD-B19B-1072A7CC6D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1891E9C-96AA-4B4D-93E5-9DCD8CAB18C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7680" windowWidth="16440" windowHeight="28440" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="190">
   <si>
     <t>DATE</t>
   </si>
@@ -9973,7 +9973,7 @@
   <dimension ref="A1:CL94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q63" sqref="Q63"/>
+      <selection activeCell="Q65" sqref="Q65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21767,12 +21767,20 @@
       </c>
       <c r="N65" s="5" t="str">
         <f t="shared" ref="N65:N74" si="106">IF(OR(ISBLANK(O65), ISBLANK($P65)), "", IF($O65&gt;$P65, $L65,$M65))</f>
-        <v/>
-      </c>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="7"/>
+        <v>TOR</v>
+      </c>
+      <c r="O65" s="5">
+        <v>2</v>
+      </c>
+      <c r="P65" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="R65" s="7">
+        <v>45791</v>
+      </c>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
@@ -21836,12 +21844,20 @@
       </c>
       <c r="N66" s="5" t="str">
         <f t="shared" si="106"/>
-        <v/>
-      </c>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="7"/>
+        <v>VGK</v>
+      </c>
+      <c r="O66" s="5">
+        <v>4</v>
+      </c>
+      <c r="P66" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="R66" s="7">
+        <v>45791</v>
+      </c>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1891E9C-96AA-4B4D-93E5-9DCD8CAB18C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2148AA-3BEF-4623-BB3B-D4C349224078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="190">
   <si>
     <t>DATE</t>
   </si>
@@ -854,7 +843,495 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="765">
+  <dxfs count="807">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9549,76 +10026,76 @@
     <tableColumn id="1" xr3:uid="{35E4500A-DA09-4BF2-A9DD-981973613A2E}" name="Team">
       <calculatedColumnFormula>AH22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A33C8BB1-51F1-4EE0-BAF3-79A0072A877D}" name="GP TOT" dataDxfId="764">
+    <tableColumn id="2" xr3:uid="{A33C8BB1-51F1-4EE0-BAF3-79A0072A877D}" name="GP TOT" dataDxfId="806">
       <calculatedColumnFormula>AM22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B7BD47C3-C6CD-433B-8763-2E7BF28F91A9}" name="GP H" dataDxfId="763">
+    <tableColumn id="3" xr3:uid="{B7BD47C3-C6CD-433B-8763-2E7BF28F91A9}" name="GP H" dataDxfId="805">
       <calculatedColumnFormula>AN22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A7C2CDB8-1006-4E42-85C9-739B917E0E3B}" name="GP A" dataDxfId="762">
+    <tableColumn id="4" xr3:uid="{A7C2CDB8-1006-4E42-85C9-739B917E0E3B}" name="GP A" dataDxfId="804">
       <calculatedColumnFormula>AO22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FBF9C9A1-A231-4AC5-98EC-8575F964E9E7}" name="W TOT" dataDxfId="761">
+    <tableColumn id="5" xr3:uid="{FBF9C9A1-A231-4AC5-98EC-8575F964E9E7}" name="W TOT" dataDxfId="803">
       <calculatedColumnFormula>AP22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4F1AF376-3B42-4A7B-88AE-2AEB54C684FD}" name="L TOT" dataDxfId="760">
+    <tableColumn id="6" xr3:uid="{4F1AF376-3B42-4A7B-88AE-2AEB54C684FD}" name="L TOT" dataDxfId="802">
       <calculatedColumnFormula>AQ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CD4CF37C-B565-4072-A8DF-97ABD75AC2BE}" name="W H" dataDxfId="759">
+    <tableColumn id="7" xr3:uid="{CD4CF37C-B565-4072-A8DF-97ABD75AC2BE}" name="W H" dataDxfId="801">
       <calculatedColumnFormula>AR22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1F359623-5047-4AA5-8DFE-2A1235BD0244}" name="L H" dataDxfId="758">
+    <tableColumn id="8" xr3:uid="{1F359623-5047-4AA5-8DFE-2A1235BD0244}" name="L H" dataDxfId="800">
       <calculatedColumnFormula>AS22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F8112AD4-AB28-4E89-97C1-D0AD9007C7A5}" name="W A" dataDxfId="757">
+    <tableColumn id="9" xr3:uid="{F8112AD4-AB28-4E89-97C1-D0AD9007C7A5}" name="W A" dataDxfId="799">
       <calculatedColumnFormula>AT22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E0BC1C3D-B833-4A33-A2F7-C67BE06DEDA1}" name="L A" dataDxfId="756">
+    <tableColumn id="10" xr3:uid="{E0BC1C3D-B833-4A33-A2F7-C67BE06DEDA1}" name="L A" dataDxfId="798">
       <calculatedColumnFormula>AU22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B9A986DF-FE9E-415D-924B-8EB61CBE5CC3}" name="GF H" dataDxfId="755">
+    <tableColumn id="11" xr3:uid="{B9A986DF-FE9E-415D-924B-8EB61CBE5CC3}" name="GF H" dataDxfId="797">
       <calculatedColumnFormula>SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,1)+SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,2)+SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,3)+SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{83BAED9D-BBE1-4C76-BBCA-313CCD921E11}" name="GF A" dataDxfId="754">
+    <tableColumn id="12" xr3:uid="{83BAED9D-BBE1-4C76-BBCA-313CCD921E11}" name="GF A" dataDxfId="796">
       <calculatedColumnFormula>SUMIFS($S$2:$S$105,$L$2:$L$105,AH22,$E$2:$E$105,1) + SUMIFS($S$2:$S$105,$L$2:$L$105,AH22,$E$2:$E$105,2)+SUMIFS($S$2:$S$105,$L$2:$L$105,AH22,$E$2:$E$105,3)+SUMIFS($S$2:$S$105,$L$2:$L$105,AH22,$E$2:$E$105,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9D239E38-642E-49BB-AFCC-7F4B50408CD9}" name="GA H" dataDxfId="753">
+    <tableColumn id="13" xr3:uid="{9D239E38-642E-49BB-AFCC-7F4B50408CD9}" name="GA H" dataDxfId="795">
       <calculatedColumnFormula>SUMIFS($S$2:$S$105,$M$2:$M$105,AH22,$E$2:$E$105,1)+SUMIFS($S$2:$S$105,$M$2:$M$105,AH22,$E$2:$E$105,2)+SUMIFS($S$2:$S$105,$M$2:$M$105,AH22,$E$2:$E$105,3)+SUMIFS($S$2:$S$105,$M$2:$M$105,AH22,$E$2:$E$105,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{C28D4692-8893-4399-B12F-0EFEC4ACE55F}" name="GA A" dataDxfId="752">
+    <tableColumn id="14" xr3:uid="{C28D4692-8893-4399-B12F-0EFEC4ACE55F}" name="GA A" dataDxfId="794">
       <calculatedColumnFormula>SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,1)+(SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,2)+SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,3)+SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{EFE9EFE5-C5A6-4D37-BAFD-4A00F7B02584}" name="DIFF H" dataDxfId="751">
+    <tableColumn id="15" xr3:uid="{EFE9EFE5-C5A6-4D37-BAFD-4A00F7B02584}" name="DIFF H" dataDxfId="793">
       <calculatedColumnFormula>BX22-BZ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{B9AF8DC9-F982-4D02-B43F-486449573036}" name="DIFF A" dataDxfId="750">
+    <tableColumn id="16" xr3:uid="{B9AF8DC9-F982-4D02-B43F-486449573036}" name="DIFF A" dataDxfId="792">
       <calculatedColumnFormula>BY22-CA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E94B86FE-AA74-466B-A7F6-2C43B9EEA68A}" name="GF T" dataDxfId="749">
+    <tableColumn id="17" xr3:uid="{E94B86FE-AA74-466B-A7F6-2C43B9EEA68A}" name="GF T" dataDxfId="791">
       <calculatedColumnFormula>BX22+BY22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{437A09FB-7E7B-457E-AD72-B615E2FEC992}" name="GA T" dataDxfId="748">
+    <tableColumn id="18" xr3:uid="{437A09FB-7E7B-457E-AD72-B615E2FEC992}" name="GA T" dataDxfId="790">
       <calculatedColumnFormula>BZ22+CA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{D83A9D62-4017-4FF7-BA18-93B627CB0BEF}" name="DIFF T" dataDxfId="747">
+    <tableColumn id="19" xr3:uid="{D83A9D62-4017-4FF7-BA18-93B627CB0BEF}" name="DIFF T" dataDxfId="789">
       <calculatedColumnFormula>(BX22+BY22)-(BZ22+CA22)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{139C299F-4896-455D-A9B3-7CA4FF9ECE1D}" name="GFPG H" dataDxfId="746">
+    <tableColumn id="20" xr3:uid="{139C299F-4896-455D-A9B3-7CA4FF9ECE1D}" name="GFPG H" dataDxfId="788">
       <calculatedColumnFormula>BX22/BP22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{5ED7F4F1-4524-4204-90BC-07DFE35665ED}" name="GFPG A" dataDxfId="745">
+    <tableColumn id="21" xr3:uid="{5ED7F4F1-4524-4204-90BC-07DFE35665ED}" name="GFPG A" dataDxfId="787">
       <calculatedColumnFormula>BY22/BQ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{3BAC0D7E-D609-46FC-BB96-6327BEC9045F}" name="GAPG H" dataDxfId="744">
+    <tableColumn id="22" xr3:uid="{3BAC0D7E-D609-46FC-BB96-6327BEC9045F}" name="GAPG H" dataDxfId="786">
       <calculatedColumnFormula>BZ22/BP22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{894AF6A4-2FD4-468F-8740-6E39104F12C5}" name="GAPG A" dataDxfId="743">
+    <tableColumn id="23" xr3:uid="{894AF6A4-2FD4-468F-8740-6E39104F12C5}" name="GAPG A" dataDxfId="785">
       <calculatedColumnFormula>CA22/BQ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{CFA1DE8E-0094-499E-B287-EEFFFC39239B}" name="GFPG " dataDxfId="742">
+    <tableColumn id="24" xr3:uid="{CFA1DE8E-0094-499E-B287-EEFFFC39239B}" name="GFPG " dataDxfId="784">
       <calculatedColumnFormula>CD22/BO22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{5723B53A-51E1-40DB-A91D-49D133C87D25}" name="GAPG " dataDxfId="741">
+    <tableColumn id="25" xr3:uid="{5723B53A-51E1-40DB-A91D-49D133C87D25}" name="GAPG " dataDxfId="783">
       <calculatedColumnFormula>CE22/BO22</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9627,44 +10104,44 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CAF60155-77BE-48E5-AA58-5D8F46940651}" name="Table2" displayName="Table2" ref="A1:Z74" totalsRowShown="0" headerRowDxfId="740" headerRowBorderDxfId="739">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CAF60155-77BE-48E5-AA58-5D8F46940651}" name="Table2" displayName="Table2" ref="A1:Z74" totalsRowShown="0" headerRowDxfId="782" headerRowBorderDxfId="781">
   <autoFilter ref="A1:Z74" xr:uid="{CAF60155-77BE-48E5-AA58-5D8F46940651}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{DDB71618-B495-4370-A2C8-F807AB26F35C}" name="WEEKDATE">
       <calculatedColumnFormula>TEXT($B2,"dddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D87BCC97-C12B-42BA-ACD3-847AD72294EC}" name="DATE" dataDxfId="738"/>
-    <tableColumn id="3" xr3:uid="{6E19CA59-B6A3-4131-B285-CE1F7BAF3D31}" name="TIME" dataDxfId="737"/>
-    <tableColumn id="4" xr3:uid="{02F4D888-3BD5-4016-BA9A-EC8A0CBEA44E}" name="CONF" dataDxfId="736"/>
-    <tableColumn id="5" xr3:uid="{DEBF2CDE-9CD3-427B-90BB-33C4A230FDB2}" name="ROUNDNUM" dataDxfId="735"/>
-    <tableColumn id="6" xr3:uid="{0B2FA3E5-A739-4507-920E-FD6BD73D06FC}" name="SERIESCODE" dataDxfId="734"/>
-    <tableColumn id="7" xr3:uid="{E0FB355A-FF65-48EA-9A64-1208BDA18DEA}" name="GAMENUM" dataDxfId="733"/>
-    <tableColumn id="8" xr3:uid="{48075340-6AD4-4735-8D81-DCE8BDEA7894}" name="TOPSEED" dataDxfId="732"/>
-    <tableColumn id="9" xr3:uid="{47D97FCE-3C11-4B03-A932-BB3CCC5294A3}" name="LOWSEED" dataDxfId="731"/>
-    <tableColumn id="10" xr3:uid="{2657E2A1-FA3E-4247-AB77-0882735B5D98}" name="TOPSEEDWINS" dataDxfId="730"/>
-    <tableColumn id="11" xr3:uid="{F857D9CD-319A-4A1F-8A87-5B89AB0E3AE4}" name="LOWSEEDWINS" dataDxfId="729"/>
-    <tableColumn id="12" xr3:uid="{F49B8205-50A8-4D22-BDFA-A8C59906257D}" name="AWAYTEAM" dataDxfId="728"/>
-    <tableColumn id="13" xr3:uid="{10A989E8-E464-444A-B995-FE5CD8D50A3E}" name="HOMETEAM" dataDxfId="727"/>
-    <tableColumn id="14" xr3:uid="{BEBB472F-C00C-43D1-BA57-177EECF3D1A4}" name="MYCHOICE" dataDxfId="726">
+    <tableColumn id="2" xr3:uid="{D87BCC97-C12B-42BA-ACD3-847AD72294EC}" name="DATE" dataDxfId="780"/>
+    <tableColumn id="3" xr3:uid="{6E19CA59-B6A3-4131-B285-CE1F7BAF3D31}" name="TIME" dataDxfId="779"/>
+    <tableColumn id="4" xr3:uid="{02F4D888-3BD5-4016-BA9A-EC8A0CBEA44E}" name="CONF" dataDxfId="778"/>
+    <tableColumn id="5" xr3:uid="{DEBF2CDE-9CD3-427B-90BB-33C4A230FDB2}" name="ROUNDNUM" dataDxfId="777"/>
+    <tableColumn id="6" xr3:uid="{0B2FA3E5-A739-4507-920E-FD6BD73D06FC}" name="SERIESCODE" dataDxfId="776"/>
+    <tableColumn id="7" xr3:uid="{E0FB355A-FF65-48EA-9A64-1208BDA18DEA}" name="GAMENUM" dataDxfId="775"/>
+    <tableColumn id="8" xr3:uid="{48075340-6AD4-4735-8D81-DCE8BDEA7894}" name="TOPSEED" dataDxfId="774"/>
+    <tableColumn id="9" xr3:uid="{47D97FCE-3C11-4B03-A932-BB3CCC5294A3}" name="LOWSEED" dataDxfId="773"/>
+    <tableColumn id="10" xr3:uid="{2657E2A1-FA3E-4247-AB77-0882735B5D98}" name="TOPSEEDWINS" dataDxfId="772"/>
+    <tableColumn id="11" xr3:uid="{F857D9CD-319A-4A1F-8A87-5B89AB0E3AE4}" name="LOWSEEDWINS" dataDxfId="771"/>
+    <tableColumn id="12" xr3:uid="{F49B8205-50A8-4D22-BDFA-A8C59906257D}" name="AWAYTEAM" dataDxfId="770"/>
+    <tableColumn id="13" xr3:uid="{10A989E8-E464-444A-B995-FE5CD8D50A3E}" name="HOMETEAM" dataDxfId="769"/>
+    <tableColumn id="14" xr3:uid="{BEBB472F-C00C-43D1-BA57-177EECF3D1A4}" name="MYCHOICE" dataDxfId="768">
       <calculatedColumnFormula>IF(OR(ISBLANK(O2), ISBLANK($P2)), "", IF($O2&gt;$P2, $L2,$M2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{3265132F-9519-4D83-9071-5A806C9B66A7}" name="PAWAYSCORE" dataDxfId="725"/>
-    <tableColumn id="16" xr3:uid="{61D192BF-2F44-45CA-B41E-2E154B58B73C}" name="PHOMESCORE" dataDxfId="724"/>
-    <tableColumn id="17" xr3:uid="{4FBCD938-E47F-4A71-B757-19409794237B}" name="PResult" dataDxfId="723"/>
-    <tableColumn id="18" xr3:uid="{910345CE-2F3B-453D-B129-551EEF8A2ED1}" name="LOCKEDIN" dataDxfId="722"/>
-    <tableColumn id="19" xr3:uid="{B5B3650D-B08F-4959-92AE-19041FF77E90}" name="AAWAYSCORE" dataDxfId="721"/>
-    <tableColumn id="20" xr3:uid="{335FAADC-EF48-4918-8FC4-59E64D4FF575}" name="AHOMESCORE" dataDxfId="720"/>
-    <tableColumn id="21" xr3:uid="{D0C1DED2-3AB8-4A82-B413-410B2E943C31}" name="OTROUNDNUM" dataDxfId="719"/>
-    <tableColumn id="22" xr3:uid="{13F2CA6A-0805-4608-99D8-D82B730F1411}" name="CORRECT" dataDxfId="718">
+    <tableColumn id="15" xr3:uid="{3265132F-9519-4D83-9071-5A806C9B66A7}" name="PAWAYSCORE" dataDxfId="767"/>
+    <tableColumn id="16" xr3:uid="{61D192BF-2F44-45CA-B41E-2E154B58B73C}" name="PHOMESCORE" dataDxfId="766"/>
+    <tableColumn id="17" xr3:uid="{4FBCD938-E47F-4A71-B757-19409794237B}" name="PResult" dataDxfId="765"/>
+    <tableColumn id="18" xr3:uid="{910345CE-2F3B-453D-B129-551EEF8A2ED1}" name="LOCKEDIN" dataDxfId="764"/>
+    <tableColumn id="19" xr3:uid="{B5B3650D-B08F-4959-92AE-19041FF77E90}" name="AAWAYSCORE" dataDxfId="763"/>
+    <tableColumn id="20" xr3:uid="{335FAADC-EF48-4918-8FC4-59E64D4FF575}" name="AHOMESCORE" dataDxfId="762"/>
+    <tableColumn id="21" xr3:uid="{D0C1DED2-3AB8-4A82-B413-410B2E943C31}" name="OTROUNDNUM" dataDxfId="761"/>
+    <tableColumn id="22" xr3:uid="{13F2CA6A-0805-4608-99D8-D82B730F1411}" name="CORRECT" dataDxfId="760">
       <calculatedColumnFormula>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{C52B97FA-25BE-428D-BE11-A51A7A6F4023}" name="WINNER" dataDxfId="717">
+    <tableColumn id="23" xr3:uid="{C52B97FA-25BE-428D-BE11-A51A7A6F4023}" name="WINNER" dataDxfId="759">
       <calculatedColumnFormula>IF(OR(ISBLANK($S2), ISBLANK($T2), ISBLANK($U2)), "", IF(S2&gt;T2,L2,M2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{5D5BFFE0-4374-4A91-BEA2-4CDF401FCD34}" name="Column2" dataDxfId="716">
+    <tableColumn id="26" xr3:uid="{5D5BFFE0-4374-4A91-BEA2-4CDF401FCD34}" name="Column2" dataDxfId="758">
       <calculatedColumnFormula>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{ACD0F41D-B80B-4A4E-9591-78757C8DFA9E}" name="Column1" dataDxfId="715">
+    <tableColumn id="25" xr3:uid="{ACD0F41D-B80B-4A4E-9591-78757C8DFA9E}" name="Column1" dataDxfId="757">
       <calculatedColumnFormula>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" xr3:uid="{4CBA132A-C7C7-46A0-A3B6-3B6E14F287C5}" name="Notes"/>
@@ -9674,9 +10151,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9714,7 +10191,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9820,7 +10297,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9962,7 +10439,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9973,7 +10450,7 @@
   <dimension ref="A1:CL94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q65" sqref="Q65"/>
+      <selection activeCell="AH54" sqref="AH54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10574,7 +11051,7 @@
       <c r="AD5" s="8"/>
       <c r="AE5" s="13">
         <f>COUNT(Table2[CORRECT])</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AF5" s="8"/>
       <c r="AG5" s="14" t="s">
@@ -10699,7 +11176,7 @@
       <c r="AD6" s="8"/>
       <c r="AE6" s="13">
         <f>SUM(Table2[CORRECT])</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF6" s="8"/>
       <c r="AG6" s="14" t="s">
@@ -10823,7 +11300,7 @@
       <c r="AD7" s="8"/>
       <c r="AE7" s="13">
         <f>AE6/AE5</f>
-        <v>0.46774193548387094</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="AF7" s="8"/>
       <c r="AG7" s="14" t="s">
@@ -11431,7 +11908,7 @@
       </c>
       <c r="AJ12">
         <f t="array" ref="AJ12">INDEX(G:G, MATCH(2, 1/(F:F=AG12)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK12">
         <f t="shared" si="3"/>
@@ -11439,15 +11916,15 @@
       </c>
       <c r="AL12">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AM12">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN12">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -11553,19 +12030,19 @@
       </c>
       <c r="AK13">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL13">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AM13">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN13">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -11681,7 +12158,7 @@
       </c>
       <c r="AN14" s="1">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
@@ -13878,7 +14355,7 @@
       </c>
       <c r="AJ26">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK26">
         <f t="shared" si="11"/>
@@ -13890,7 +14367,7 @@
       </c>
       <c r="AM26">
         <f t="shared" si="43"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN26">
         <f t="shared" si="13"/>
@@ -13898,7 +14375,7 @@
       </c>
       <c r="AO26">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP26">
         <f t="shared" si="15"/>
@@ -13906,7 +14383,7 @@
       </c>
       <c r="AQ26">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR26">
         <f t="shared" si="17"/>
@@ -13914,7 +14391,7 @@
       </c>
       <c r="AS26">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT26">
         <f t="shared" si="19"/>
@@ -13998,7 +14475,7 @@
       </c>
       <c r="BO26" s="15">
         <f t="shared" si="30"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BP26" s="15">
         <f t="shared" si="30"/>
@@ -14006,7 +14483,7 @@
       </c>
       <c r="BQ26" s="15">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BR26" s="15">
         <f t="shared" si="30"/>
@@ -14014,7 +14491,7 @@
       </c>
       <c r="BS26" s="15">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BT26" s="15">
         <f t="shared" si="30"/>
@@ -14022,7 +14499,7 @@
       </c>
       <c r="BU26" s="15">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV26" s="15">
         <f t="shared" si="30"/>
@@ -14034,7 +14511,7 @@
       </c>
       <c r="BX26" s="15">
         <f t="shared" si="31"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BY26" s="15">
         <f t="shared" si="32"/>
@@ -14042,7 +14519,7 @@
       </c>
       <c r="BZ26" s="15">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="CA26" s="15">
         <f t="shared" si="34"/>
@@ -14050,7 +14527,7 @@
       </c>
       <c r="CB26" s="15">
         <f t="shared" si="35"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="CC26" s="15">
         <f t="shared" si="35"/>
@@ -14058,39 +14535,39 @@
       </c>
       <c r="CD26" s="15">
         <f t="shared" si="36"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CE26" s="15">
         <f t="shared" si="37"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="CF26" s="15">
         <f t="shared" si="38"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="CG26" s="20">
         <f t="shared" si="39"/>
-        <v>3</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="CH26" s="20">
         <f t="shared" si="39"/>
-        <v>2.8</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="CI26" s="20">
         <f t="shared" si="40"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="CJ26" s="20">
         <f t="shared" si="40"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="CK26" s="20">
         <f t="shared" si="41"/>
-        <v>2.9090909090909092</v>
+        <v>2.75</v>
       </c>
       <c r="CL26" s="20">
         <f t="shared" si="42"/>
-        <v>2.7272727272727271</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:90" x14ac:dyDescent="0.25">
@@ -14800,7 +15277,7 @@
       </c>
       <c r="AJ29">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK29">
         <f t="shared" si="11"/>
@@ -14812,11 +15289,11 @@
       </c>
       <c r="AM29">
         <f t="shared" si="43"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN29">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO29">
         <f t="shared" si="14"/>
@@ -14824,7 +15301,7 @@
       </c>
       <c r="AP29">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ29">
         <f t="shared" si="16"/>
@@ -14840,7 +15317,7 @@
       </c>
       <c r="AT29">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU29">
         <f t="shared" si="20"/>
@@ -14920,11 +15397,11 @@
       </c>
       <c r="BO29" s="15">
         <f t="shared" si="30"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BP29" s="15">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BQ29" s="15">
         <f t="shared" si="30"/>
@@ -14932,7 +15409,7 @@
       </c>
       <c r="BR29" s="15">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BS29" s="15">
         <f t="shared" si="30"/>
@@ -14948,7 +15425,7 @@
       </c>
       <c r="BV29" s="15">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BW29" s="15">
         <f t="shared" si="30"/>
@@ -14960,7 +15437,7 @@
       </c>
       <c r="BY29" s="15">
         <f t="shared" si="32"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="BZ29" s="15">
         <f t="shared" si="33"/>
@@ -14968,7 +15445,7 @@
       </c>
       <c r="CA29" s="15">
         <f t="shared" si="34"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CB29" s="15">
         <f t="shared" si="35"/>
@@ -14976,43 +15453,43 @@
       </c>
       <c r="CC29" s="15">
         <f t="shared" si="35"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="CD29" s="15">
         <f t="shared" si="36"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="CE29" s="15">
         <f t="shared" si="37"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CF29" s="15">
         <f t="shared" si="38"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="CG29" s="20">
         <f t="shared" si="39"/>
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="CH29" s="20">
         <f t="shared" si="39"/>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="CI29" s="20">
         <f t="shared" si="40"/>
-        <v>2.75</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="CJ29" s="20">
         <f t="shared" si="40"/>
-        <v>2.3333333333333335</v>
+        <v>2.5</v>
       </c>
       <c r="CK29" s="20">
         <f t="shared" si="41"/>
-        <v>3.3</v>
+        <v>3.5454545454545454</v>
       </c>
       <c r="CL29" s="20">
         <f t="shared" si="42"/>
-        <v>2.5</v>
+        <v>2.3636363636363638</v>
       </c>
     </row>
     <row r="30" spans="1:90" x14ac:dyDescent="0.25">
@@ -15154,7 +15631,7 @@
       </c>
       <c r="AU30">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV30">
         <f t="shared" si="21"/>
@@ -15262,7 +15739,7 @@
       </c>
       <c r="BW30" s="15">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BX30" s="15">
         <f t="shared" si="31"/>
@@ -15270,7 +15747,7 @@
       </c>
       <c r="BY30" s="15">
         <f t="shared" si="32"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ30" s="15">
         <f t="shared" si="33"/>
@@ -15278,7 +15755,7 @@
       </c>
       <c r="CA30" s="15">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="CB30" s="15">
         <f t="shared" si="35"/>
@@ -15286,19 +15763,19 @@
       </c>
       <c r="CC30" s="15">
         <f t="shared" si="35"/>
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="CD30" s="15">
         <f t="shared" si="36"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CE30" s="15">
         <f t="shared" si="37"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="CF30" s="15">
         <f t="shared" si="38"/>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="CG30" s="20">
         <f t="shared" si="39"/>
@@ -15306,7 +15783,7 @@
       </c>
       <c r="CH30" s="20">
         <f t="shared" si="39"/>
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="CI30" s="20">
         <f t="shared" si="40"/>
@@ -15314,15 +15791,15 @@
       </c>
       <c r="CJ30" s="20">
         <f t="shared" si="40"/>
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="CK30" s="20">
         <f t="shared" si="41"/>
-        <v>2.4166666666666665</v>
+        <v>2.5</v>
       </c>
       <c r="CL30" s="20">
         <f t="shared" si="42"/>
-        <v>2.9166666666666665</v>
+        <v>3.1666666666666665</v>
       </c>
     </row>
     <row r="31" spans="1:90" x14ac:dyDescent="0.25">
@@ -15749,15 +16226,15 @@
       </c>
       <c r="AP32">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ32">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR32">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS32">
         <f t="shared" si="18"/>
@@ -15857,15 +16334,15 @@
       </c>
       <c r="BR32" s="15">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BS32" s="15">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BT32" s="15">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BU32" s="15">
         <f t="shared" si="30"/>
@@ -15881,7 +16358,7 @@
       </c>
       <c r="BX32" s="15">
         <f t="shared" si="31"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BY32" s="15">
         <f t="shared" si="32"/>
@@ -15889,7 +16366,7 @@
       </c>
       <c r="BZ32" s="15">
         <f t="shared" si="33"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CA32" s="15">
         <f t="shared" si="34"/>
@@ -15897,7 +16374,7 @@
       </c>
       <c r="CB32" s="15">
         <f t="shared" si="35"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CC32" s="15">
         <f t="shared" si="35"/>
@@ -15905,19 +16382,19 @@
       </c>
       <c r="CD32" s="15">
         <f t="shared" si="36"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="CE32" s="15">
         <f t="shared" si="37"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CF32" s="15">
         <f t="shared" si="38"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="CG32" s="20">
         <f t="shared" si="39"/>
-        <v>3.3333333333333335</v>
+        <v>3.8333333333333335</v>
       </c>
       <c r="CH32" s="20">
         <f t="shared" si="39"/>
@@ -15925,7 +16402,7 @@
       </c>
       <c r="CI32" s="20">
         <f t="shared" si="40"/>
-        <v>2.3333333333333335</v>
+        <v>2.5</v>
       </c>
       <c r="CJ32" s="20">
         <f t="shared" si="40"/>
@@ -15933,11 +16410,11 @@
       </c>
       <c r="CK32" s="20">
         <f t="shared" si="41"/>
-        <v>2.4166666666666665</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="CL32" s="20">
         <f t="shared" si="42"/>
-        <v>2.6666666666666665</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="33" spans="1:90" x14ac:dyDescent="0.25">
@@ -16379,7 +16856,7 @@
       </c>
       <c r="AS34">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT34">
         <f t="shared" si="19"/>
@@ -16487,7 +16964,7 @@
       </c>
       <c r="BU34" s="15">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BV34" s="15">
         <f t="shared" si="30"/>
@@ -16507,7 +16984,7 @@
       </c>
       <c r="BZ34" s="15">
         <f t="shared" si="33"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CA34" s="15">
         <f t="shared" si="34"/>
@@ -16515,7 +16992,7 @@
       </c>
       <c r="CB34" s="15">
         <f t="shared" si="35"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="CC34" s="15">
         <f t="shared" si="35"/>
@@ -16527,11 +17004,11 @@
       </c>
       <c r="CE34" s="15">
         <f t="shared" si="37"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CF34" s="15">
         <f t="shared" si="38"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="CG34" s="20">
         <f t="shared" si="39"/>
@@ -16543,7 +17020,7 @@
       </c>
       <c r="CI34" s="20">
         <f t="shared" si="40"/>
-        <v>3</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="CJ34" s="20">
         <f t="shared" si="40"/>
@@ -16555,7 +17032,7 @@
       </c>
       <c r="CL34" s="20">
         <f t="shared" si="42"/>
-        <v>3.0909090909090908</v>
+        <v>3.1818181818181817</v>
       </c>
     </row>
     <row r="35" spans="1:90" x14ac:dyDescent="0.25">
@@ -17288,11 +17765,11 @@
       </c>
       <c r="AP37">
         <f t="shared" si="15"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ37">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR37">
         <f t="shared" si="17"/>
@@ -17304,7 +17781,7 @@
       </c>
       <c r="AT37">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU37">
         <f t="shared" si="20"/>
@@ -17396,11 +17873,11 @@
       </c>
       <c r="BR37" s="15">
         <f t="shared" si="30"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS37" s="15">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BT37" s="15">
         <f t="shared" si="30"/>
@@ -17412,7 +17889,7 @@
       </c>
       <c r="BV37" s="15">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BW37" s="15">
         <f t="shared" si="30"/>
@@ -17424,7 +17901,7 @@
       </c>
       <c r="BY37" s="15">
         <f t="shared" si="32"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BZ37" s="15">
         <f t="shared" si="33"/>
@@ -17440,11 +17917,11 @@
       </c>
       <c r="CC37" s="15">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD37" s="15">
         <f t="shared" si="36"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CE37" s="15">
         <f t="shared" si="37"/>
@@ -17452,7 +17929,7 @@
       </c>
       <c r="CF37" s="15">
         <f t="shared" si="38"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CG37" s="20">
         <f t="shared" si="39"/>
@@ -17460,7 +17937,7 @@
       </c>
       <c r="CH37" s="20">
         <f t="shared" si="39"/>
-        <v>3.1666666666666665</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="CI37" s="20">
         <f t="shared" si="40"/>
@@ -17472,7 +17949,7 @@
       </c>
       <c r="CK37" s="20">
         <f t="shared" si="41"/>
-        <v>3.8181818181818183</v>
+        <v>3.9090909090909092</v>
       </c>
       <c r="CL37" s="20">
         <f t="shared" si="42"/>
@@ -18328,7 +18805,7 @@
       </c>
       <c r="AJ43">
         <f t="shared" si="54"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK43">
         <f t="shared" si="55"/>
@@ -18340,7 +18817,7 @@
       </c>
       <c r="AM43">
         <f t="shared" si="70"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN43">
         <f t="shared" si="57"/>
@@ -18348,7 +18825,7 @@
       </c>
       <c r="AO43">
         <f t="shared" si="58"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP43">
         <f t="shared" si="71"/>
@@ -18356,7 +18833,7 @@
       </c>
       <c r="AQ43">
         <f t="shared" si="72"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR43">
         <f t="shared" si="59"/>
@@ -18380,11 +18857,11 @@
       </c>
       <c r="AW43">
         <f t="shared" si="64"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX43">
         <f t="shared" si="65"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY43">
         <f t="shared" si="66"/>
@@ -18392,7 +18869,7 @@
       </c>
       <c r="AZ43">
         <f t="shared" si="67"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA43">
         <f t="shared" si="68"/>
@@ -18400,7 +18877,7 @@
       </c>
       <c r="BB43">
         <f t="shared" si="73"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="BC43">
         <f t="shared" si="73"/>
@@ -18408,39 +18885,39 @@
       </c>
       <c r="BD43">
         <f t="shared" si="74"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BE43">
         <f t="shared" si="75"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BF43">
         <f t="shared" si="76"/>
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="BG43">
         <f t="shared" si="77"/>
-        <v>3</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="BH43">
         <f t="shared" si="77"/>
-        <v>2</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="BI43">
         <f t="shared" si="78"/>
-        <v>2.3333333333333335</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="BJ43">
         <f t="shared" si="78"/>
-        <v>3.5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BK43">
         <f t="shared" si="79"/>
-        <v>2.1666666666666665</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BL43">
         <f t="shared" si="80"/>
-        <v>2.3333333333333335</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="44" spans="1:90" x14ac:dyDescent="0.25">
@@ -18534,7 +19011,7 @@
       </c>
       <c r="AJ44">
         <f t="shared" si="54"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK44">
         <f t="shared" si="55"/>
@@ -18546,11 +19023,11 @@
       </c>
       <c r="AM44">
         <f t="shared" si="70"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN44">
         <f t="shared" si="57"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO44">
         <f t="shared" si="58"/>
@@ -18558,7 +19035,7 @@
       </c>
       <c r="AP44">
         <f t="shared" si="71"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ44">
         <f t="shared" si="72"/>
@@ -18574,7 +19051,7 @@
       </c>
       <c r="AT44">
         <f t="shared" si="61"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU44">
         <f t="shared" si="62"/>
@@ -18582,7 +19059,7 @@
       </c>
       <c r="AV44">
         <f t="shared" si="63"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW44">
         <f t="shared" si="64"/>
@@ -18594,7 +19071,7 @@
       </c>
       <c r="AY44">
         <f t="shared" si="66"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ44">
         <f t="shared" si="67"/>
@@ -18602,7 +19079,7 @@
       </c>
       <c r="BA44">
         <f t="shared" si="68"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB44">
         <f t="shared" si="73"/>
@@ -18610,43 +19087,43 @@
       </c>
       <c r="BC44">
         <f t="shared" si="73"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="BD44">
         <f t="shared" si="74"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BE44">
         <f t="shared" si="75"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BF44">
         <f t="shared" si="76"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BG44">
         <f t="shared" si="77"/>
-        <v>3.5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BH44">
         <f t="shared" si="77"/>
-        <v>2.3333333333333335</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="BI44">
         <f t="shared" si="78"/>
-        <v>2</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="BJ44">
         <f t="shared" si="78"/>
-        <v>3</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="BK44">
         <f t="shared" si="79"/>
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="BL44">
         <f t="shared" si="80"/>
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="45" spans="1:90" x14ac:dyDescent="0.25">
@@ -18777,7 +19254,7 @@
       </c>
       <c r="AS45">
         <f t="shared" si="60"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT45">
         <f t="shared" si="61"/>
@@ -18785,7 +19262,7 @@
       </c>
       <c r="AU45">
         <f t="shared" si="62"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV45">
         <f t="shared" si="63"/>
@@ -18801,7 +19278,7 @@
       </c>
       <c r="AY45">
         <f t="shared" si="66"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ45">
         <f t="shared" si="67"/>
@@ -18809,7 +19286,7 @@
       </c>
       <c r="BA45">
         <f t="shared" si="68"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB45">
         <f t="shared" si="73"/>
@@ -18817,19 +19294,19 @@
       </c>
       <c r="BC45">
         <f t="shared" si="73"/>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="BD45">
         <f t="shared" si="74"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BE45">
         <f t="shared" si="75"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BF45">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="BG45">
         <f t="shared" si="77"/>
@@ -18837,7 +19314,7 @@
       </c>
       <c r="BH45">
         <f t="shared" si="77"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="BI45">
         <f t="shared" si="78"/>
@@ -18845,15 +19322,15 @@
       </c>
       <c r="BJ45">
         <f t="shared" si="78"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="BK45">
         <f t="shared" si="79"/>
-        <v>1.1428571428571428</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="BL45">
         <f t="shared" si="80"/>
-        <v>1.1428571428571428</v>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="46" spans="1:90" x14ac:dyDescent="0.25">
@@ -18972,15 +19449,15 @@
       </c>
       <c r="AP46">
         <f t="shared" si="71"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ46">
         <f t="shared" si="72"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR46">
         <f t="shared" si="59"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS46">
         <f t="shared" si="60"/>
@@ -19004,7 +19481,7 @@
       </c>
       <c r="AX46">
         <f t="shared" si="65"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY46">
         <f t="shared" si="66"/>
@@ -19012,7 +19489,7 @@
       </c>
       <c r="AZ46">
         <f t="shared" si="67"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA46">
         <f t="shared" si="68"/>
@@ -19020,7 +19497,7 @@
       </c>
       <c r="BB46">
         <f t="shared" si="73"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC46">
         <f t="shared" si="73"/>
@@ -19028,19 +19505,19 @@
       </c>
       <c r="BD46">
         <f t="shared" si="74"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BE46">
         <f t="shared" si="75"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF46">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG46">
         <f t="shared" si="77"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="BH46">
         <f t="shared" si="77"/>
@@ -19048,7 +19525,7 @@
       </c>
       <c r="BI46">
         <f t="shared" si="78"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="BJ46">
         <f t="shared" si="78"/>
@@ -19056,11 +19533,11 @@
       </c>
       <c r="BK46">
         <f t="shared" si="79"/>
-        <v>1.1428571428571428</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="BL46">
         <f t="shared" si="80"/>
-        <v>1.1428571428571428</v>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="47" spans="1:90" x14ac:dyDescent="0.25">
@@ -19221,7 +19698,7 @@
       </c>
       <c r="AZ47">
         <f t="shared" si="67"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA47">
         <f t="shared" si="68"/>
@@ -19229,7 +19706,7 @@
       </c>
       <c r="BB47">
         <f t="shared" si="73"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="BC47">
         <f t="shared" si="73"/>
@@ -19241,11 +19718,11 @@
       </c>
       <c r="BE47">
         <f t="shared" si="75"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BF47">
         <f t="shared" si="76"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="BG47">
         <f t="shared" si="77"/>
@@ -19257,7 +19734,7 @@
       </c>
       <c r="BI47">
         <f t="shared" si="78"/>
-        <v>3</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="BJ47">
         <f t="shared" si="78"/>
@@ -19269,7 +19746,7 @@
       </c>
       <c r="BL47">
         <f t="shared" si="80"/>
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="48" spans="1:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19390,11 +19867,11 @@
       </c>
       <c r="AP48">
         <f t="shared" si="71"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ48">
         <f t="shared" si="72"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR48">
         <f t="shared" si="59"/>
@@ -19406,7 +19883,7 @@
       </c>
       <c r="AT48">
         <f t="shared" si="61"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU48">
         <f t="shared" si="62"/>
@@ -19426,7 +19903,7 @@
       </c>
       <c r="AY48">
         <f t="shared" si="66"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ48">
         <f t="shared" si="67"/>
@@ -19442,11 +19919,11 @@
       </c>
       <c r="BC48">
         <f t="shared" si="73"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD48">
         <f t="shared" si="74"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BE48">
         <f t="shared" si="75"/>
@@ -19454,7 +19931,7 @@
       </c>
       <c r="BF48">
         <f t="shared" si="76"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG48">
         <f t="shared" si="77"/>
@@ -19462,7 +19939,7 @@
       </c>
       <c r="BH48">
         <f t="shared" si="77"/>
-        <v>3</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="BI48">
         <f t="shared" si="78"/>
@@ -19474,7 +19951,7 @@
       </c>
       <c r="BK48">
         <f t="shared" si="79"/>
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="BL48">
         <f t="shared" si="80"/>
@@ -20522,13 +20999,16 @@
       <c r="Z55" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="AH55" t="s">
+        <v>52</v>
+      </c>
       <c r="AI55">
         <f>COUNTIFS($L$2:$L$105, AH55, $E$2:$E$105, 1) + COUNTIFS($M$2:$M$105, AH55, $E$2:$E$105, 1)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ55">
         <f>COUNTIFS($L$2:$L$105, AH55, $E$2:$E$105, 2) + COUNTIFS($M$2:$M$105, AH55, $E$2:$E$105, 2)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK55">
         <f>COUNTIFS($L$2:$L$105, AH55, $E$2:$E$105, 3) + COUNTIFS($M$2:$M$105, AH55, $E$2:$E$105, 3)</f>
@@ -20540,39 +21020,39 @@
       </c>
       <c r="AM55">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AN55">
         <f>COUNTIF($M$2:$M$105, AH55)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO55">
         <f>COUNTIF($L$2:$L$105, AH55)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AP55">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AQ55">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR55">
         <f>SUMPRODUCT(($M$2:$M$105=AH55)*($T$2:$T$105&gt;$S$2:$S$105))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS55">
         <f>SUMPRODUCT(($M$2:$M$105=AH55)*($T$2:$T$105&lt;$S$2:$S$105))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT55">
         <f>SUMPRODUCT(($L$2:$L$105=AH55)*($T$2:$T$105&lt;$S$2:$S$105))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AU55">
         <f>SUMPRODUCT(($L$2:$L$105=AH55)*($T$2:$T$105&gt;$S$2:$S$105))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV55">
         <f>COUNTIFS($M$2:$M$105,AH55,$E$2:$E$105,3)</f>
@@ -20634,13 +21114,13 @@
         <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK55" t="e">
+      <c r="BK55">
         <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL55" t="e">
+        <v>0</v>
+      </c>
+      <c r="BL55">
         <f t="shared" si="93"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:64" x14ac:dyDescent="0.25">
@@ -21680,7 +22160,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>43</v>
@@ -21704,24 +22184,30 @@
       <c r="R64" s="7">
         <v>45790</v>
       </c>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5" t="str">
+      <c r="S64" s="5">
+        <v>1</v>
+      </c>
+      <c r="T64" s="5">
+        <v>3</v>
+      </c>
+      <c r="U64" s="5">
+        <v>0</v>
+      </c>
+      <c r="V64" s="5">
         <f t="shared" si="105"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W64" s="5" t="str">
         <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="X64" s="5" t="str">
+        <v>DAL</v>
+      </c>
+      <c r="X64" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y64" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
@@ -21757,7 +22243,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L65" s="5" t="s">
         <v>35</v>
@@ -21781,24 +22267,30 @@
       <c r="R65" s="7">
         <v>45791</v>
       </c>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5" t="str">
+      <c r="S65" s="5">
+        <v>6</v>
+      </c>
+      <c r="T65" s="5">
+        <v>1</v>
+      </c>
+      <c r="U65" s="5">
+        <v>0</v>
+      </c>
+      <c r="V65" s="5">
         <f t="shared" si="105"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W65" s="5" t="str">
         <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="X65" s="5" t="str">
+        <v>FLA</v>
+      </c>
+      <c r="X65" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y65" s="5" t="str">
+        <v>-4</v>
+      </c>
+      <c r="Y65" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
@@ -21834,7 +22326,7 @@
         <v>1</v>
       </c>
       <c r="K66" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>52</v>
@@ -21858,24 +22350,30 @@
       <c r="R66" s="7">
         <v>45791</v>
       </c>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5" t="str">
+      <c r="S66" s="5">
+        <v>1</v>
+      </c>
+      <c r="T66" s="5">
+        <v>0</v>
+      </c>
+      <c r="U66" s="5">
+        <v>1</v>
+      </c>
+      <c r="V66" s="5">
         <f t="shared" si="105"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W66" s="5" t="str">
         <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="X66" s="5" t="str">
+        <v>EDM</v>
+      </c>
+      <c r="X66" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y66" s="5" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y66" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
@@ -21980,7 +22478,7 @@
         <v>1</v>
       </c>
       <c r="K68" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L68" s="5" t="s">
         <v>50</v>
@@ -22019,18 +22517,45 @@
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="104"/>
-        <v>Saturday</v>
-      </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="7"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5" t="str">
+        <v>Friday</v>
+      </c>
+      <c r="B69" s="7">
+        <v>45793</v>
+      </c>
+      <c r="C69" s="23">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="8">
+        <v>2</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G69" s="8">
+        <v>6</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J69" s="3">
+        <v>2</v>
+      </c>
+      <c r="K69" s="3">
+        <v>3</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N69" s="2" t="str">
         <f t="shared" si="106"/>
         <v/>
       </c>
@@ -22794,1309 +23319,1309 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 A15:AAD37 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 A65:V67 J68:V68 A69:V74 H54:M56 N3:N33 V3:V55 F4:F5 A4:E7 A8 C8 H8:M8 Z8:AAD14 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64 A68:G68">
-    <cfRule type="cellIs" dxfId="714" priority="2169" operator="equal">
+  <conditionalFormatting sqref="A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 A15:AAD37 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 A65:V67 J68:V68 A70:V74 H54:M56 N3:N33 V3:V55 F4:F5 A4:E7 A8 C8 H8:M8 Z8:AAD14 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64 A68:G69 H69:V69">
+    <cfRule type="cellIs" dxfId="756" priority="2211" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="713" priority="2170" operator="equal">
+    <cfRule type="cellIs" dxfId="755" priority="2212" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="712" priority="2167" operator="equal">
+    <cfRule type="cellIs" dxfId="754" priority="2209" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="711" priority="2168" operator="equal">
+    <cfRule type="cellIs" dxfId="753" priority="2210" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AAD37 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 A65:V67 J68:V68 A69:V74 H54:M56 V10:V55 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64 A68:G68">
-    <cfRule type="cellIs" dxfId="710" priority="2126" operator="equal">
+  <conditionalFormatting sqref="A1:AAD37 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 A65:V67 J68:V68 A70:V74 H54:M56 V10:V55 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64 A68:G69 H69:V69">
+    <cfRule type="cellIs" dxfId="752" priority="2168" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:AAD37 A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 A65:V67 J68:V68 A69:V74 H54:M56 N3:N33 V3:V55 F4:F5 A4:E7 A8 C8 H8:M8 Z8:AAD14 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64 A68:G68">
-    <cfRule type="cellIs" dxfId="709" priority="2190" operator="equal">
+  <conditionalFormatting sqref="A15:AAD37 A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 A65:V67 J68:V68 A70:V74 H54:M56 N3:N33 V3:V55 F4:F5 A4:E7 A8 C8 H8:M8 Z8:AAD14 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64 A68:G69 H69:V69">
+    <cfRule type="cellIs" dxfId="751" priority="2232" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="708" priority="2197" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="2239" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="707" priority="2196" operator="equal">
+    <cfRule type="cellIs" dxfId="749" priority="2238" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="706" priority="2195" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="2237" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="705" priority="2194" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="2236" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="704" priority="2193" operator="equal">
+    <cfRule type="cellIs" dxfId="746" priority="2235" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="703" priority="2192" operator="equal">
+    <cfRule type="cellIs" dxfId="745" priority="2234" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="702" priority="2191" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="2233" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="701" priority="2189" operator="equal">
+    <cfRule type="cellIs" dxfId="743" priority="2231" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="700" priority="2188" operator="equal">
+    <cfRule type="cellIs" dxfId="742" priority="2230" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="699" priority="2187" operator="equal">
+    <cfRule type="cellIs" dxfId="741" priority="2229" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="2186" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="2228" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="697" priority="2198" operator="equal">
+    <cfRule type="cellIs" dxfId="739" priority="2240" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="696" priority="2185" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="2227" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="695" priority="2184" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="2226" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="694" priority="2183" operator="equal">
+    <cfRule type="cellIs" dxfId="736" priority="2225" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="693" priority="2142" operator="equal">
+    <cfRule type="cellIs" dxfId="735" priority="2184" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="692" priority="2145" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="2187" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="691" priority="2146" operator="equal">
+    <cfRule type="cellIs" dxfId="733" priority="2188" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="2143" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="2185" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="689" priority="2141" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="2183" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="688" priority="2140" operator="equal">
+    <cfRule type="cellIs" dxfId="730" priority="2182" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="687" priority="2139" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="2181" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="686" priority="2138" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="2180" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="685" priority="2137" operator="equal">
+    <cfRule type="cellIs" dxfId="727" priority="2179" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="684" priority="2127" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="2169" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="683" priority="2136" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="2178" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="682" priority="2135" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="2177" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="681" priority="2134" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="2176" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="680" priority="2133" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="2175" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="679" priority="2132" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="2174" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="678" priority="2131" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="2173" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="677" priority="2130" operator="equal">
+    <cfRule type="cellIs" dxfId="719" priority="2172" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="676" priority="2129" operator="equal">
+    <cfRule type="cellIs" dxfId="718" priority="2171" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="675" priority="2128" operator="equal">
+    <cfRule type="cellIs" dxfId="717" priority="2170" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="674" priority="2144" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="2186" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51 L56:M56 H58:I59 L58:M59">
-    <cfRule type="cellIs" dxfId="673" priority="2031" operator="equal">
+    <cfRule type="cellIs" dxfId="715" priority="2073" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="672" priority="2020" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="2062" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="671" priority="2019" operator="equal">
+    <cfRule type="cellIs" dxfId="713" priority="2061" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="670" priority="2039" operator="equal">
+    <cfRule type="cellIs" dxfId="712" priority="2081" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="669" priority="2038" operator="equal">
+    <cfRule type="cellIs" dxfId="711" priority="2080" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="668" priority="2037" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="2079" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="667" priority="2036" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="2078" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="2035" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="2077" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="665" priority="2034" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="2076" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="664" priority="2033" operator="equal">
+    <cfRule type="cellIs" dxfId="706" priority="2075" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="663" priority="2032" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="2074" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="662" priority="2030" operator="equal">
+    <cfRule type="cellIs" dxfId="704" priority="2072" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="661" priority="2029" operator="equal">
+    <cfRule type="cellIs" dxfId="703" priority="2071" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="660" priority="2028" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="2070" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="659" priority="2027" operator="equal">
+    <cfRule type="cellIs" dxfId="701" priority="2069" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="658" priority="2025" operator="equal">
+    <cfRule type="cellIs" dxfId="700" priority="2067" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="657" priority="2024" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="2066" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="656" priority="2023" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="2065" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="655" priority="2022" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="2064" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="2021" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="2063" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="653" priority="2026" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="2068" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="652" priority="1698" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="1740" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="651" priority="1699" operator="equal">
+    <cfRule type="cellIs" dxfId="693" priority="1741" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="650" priority="1700" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="1742" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="649" priority="1701" operator="equal">
+    <cfRule type="cellIs" dxfId="691" priority="1743" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="648" priority="1691" operator="equal">
+    <cfRule type="cellIs" dxfId="690" priority="1733" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="647" priority="1692" operator="equal">
+    <cfRule type="cellIs" dxfId="689" priority="1734" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="1693" operator="equal">
+    <cfRule type="cellIs" dxfId="688" priority="1735" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="1694" operator="equal">
+    <cfRule type="cellIs" dxfId="687" priority="1736" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="644" priority="1695" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="1737" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="643" priority="1696" operator="equal">
+    <cfRule type="cellIs" dxfId="685" priority="1738" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="1690" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="1732" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="641" priority="1697" operator="equal">
+    <cfRule type="cellIs" dxfId="683" priority="1739" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="640" priority="1681" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="1723" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="1682" operator="equal">
+    <cfRule type="cellIs" dxfId="681" priority="1724" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="638" priority="1683" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="1725" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="637" priority="1684" operator="equal">
+    <cfRule type="cellIs" dxfId="679" priority="1726" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="636" priority="1685" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="1727" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="635" priority="1686" operator="equal">
+    <cfRule type="cellIs" dxfId="677" priority="1728" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="1687" operator="equal">
+    <cfRule type="cellIs" dxfId="676" priority="1729" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="1688" operator="equal">
+    <cfRule type="cellIs" dxfId="675" priority="1730" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="632" priority="1689" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="1731" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="631" priority="1815" operator="equal">
+    <cfRule type="cellIs" dxfId="673" priority="1857" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="1816" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="1858" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="629" priority="1818" operator="equal">
+    <cfRule type="cellIs" dxfId="671" priority="1860" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="628" priority="1819" operator="equal">
+    <cfRule type="cellIs" dxfId="670" priority="1861" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="627" priority="1820" operator="equal">
+    <cfRule type="cellIs" dxfId="669" priority="1862" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="626" priority="1821" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="1863" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="1822" operator="equal">
+    <cfRule type="cellIs" dxfId="667" priority="1864" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="1823" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="1865" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="623" priority="1824" operator="equal">
+    <cfRule type="cellIs" dxfId="665" priority="1866" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="622" priority="1825" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="1867" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="621" priority="1826" operator="equal">
+    <cfRule type="cellIs" dxfId="663" priority="1868" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="620" priority="1827" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="1869" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="619" priority="1828" operator="equal">
+    <cfRule type="cellIs" dxfId="661" priority="1870" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="618" priority="1829" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="1871" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="617" priority="1817" operator="equal">
+    <cfRule type="cellIs" dxfId="659" priority="1859" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="1809" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="1851" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="615" priority="1810" operator="equal">
+    <cfRule type="cellIs" dxfId="657" priority="1852" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="614" priority="1811" operator="equal">
+    <cfRule type="cellIs" dxfId="656" priority="1853" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="613" priority="1812" operator="equal">
+    <cfRule type="cellIs" dxfId="655" priority="1854" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="612" priority="1813" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="1855" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="611" priority="1814" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="1856" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="610" priority="1546" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="1588" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="609" priority="1545" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="1587" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="608" priority="1542" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="1584" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="607" priority="1541" operator="equal">
+    <cfRule type="cellIs" dxfId="649" priority="1583" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="1540" operator="equal">
+    <cfRule type="cellIs" dxfId="648" priority="1582" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="605" priority="1543" operator="equal">
+    <cfRule type="cellIs" dxfId="647" priority="1585" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="604" priority="1538" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="1580" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="603" priority="1537" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="1579" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="602" priority="1536" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="1578" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="601" priority="1535" operator="equal">
+    <cfRule type="cellIs" dxfId="643" priority="1577" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="1534" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="1576" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="599" priority="1553" operator="equal">
+    <cfRule type="cellIs" dxfId="641" priority="1595" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="598" priority="1554" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="1596" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="1552" operator="equal">
+    <cfRule type="cellIs" dxfId="639" priority="1594" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="596" priority="1551" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="1593" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="595" priority="1544" operator="equal">
+    <cfRule type="cellIs" dxfId="637" priority="1586" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="594" priority="1550" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="1592" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="593" priority="1549" operator="equal">
+    <cfRule type="cellIs" dxfId="635" priority="1591" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="1548" operator="equal">
+    <cfRule type="cellIs" dxfId="634" priority="1590" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="1547" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="1589" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="590" priority="1539" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="1581" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:H60">
-    <cfRule type="cellIs" dxfId="589" priority="1123" operator="equal">
+    <cfRule type="cellIs" dxfId="631" priority="1165" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="1124" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="1166" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="587" priority="1125" operator="equal">
+    <cfRule type="cellIs" dxfId="629" priority="1167" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="1126" operator="equal">
+    <cfRule type="cellIs" dxfId="628" priority="1168" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="585" priority="1127" operator="equal">
+    <cfRule type="cellIs" dxfId="627" priority="1169" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="584" priority="1128" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="1170" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="1130" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="1172" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="1131" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="1173" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="581" priority="1132" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="1174" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="1133" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="1175" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="1134" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="1176" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="578" priority="1129" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="1171" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="1114" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="1156" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="1115" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="1157" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="1116" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="1158" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="1117" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="1159" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="1118" operator="equal">
+    <cfRule type="cellIs" dxfId="615" priority="1160" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="572" priority="1119" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="1161" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="1120" operator="equal">
+    <cfRule type="cellIs" dxfId="613" priority="1162" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="570" priority="1121" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="1163" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="569" priority="1122" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="1164" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H64">
-    <cfRule type="cellIs" dxfId="568" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="350" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="351" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="566" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="352" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="353" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="564" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="339" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="563" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="338" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="355" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="354" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="560" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="340" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="559" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="601" priority="356" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="357" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="557" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="337" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="347" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="342" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="554" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="346" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="345" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="344" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="551" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="343" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="341" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="348" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="548" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="349" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="547" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="175" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="183" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="545" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="587" priority="184" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="185" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="543" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="186" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="542" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="181" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="187" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="188" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="539" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="189" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="171" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="172" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="173" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="174" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="176" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="533" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="178" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="182" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="531" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="179" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="530" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="180" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="177" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="169" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="527" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="170" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="526" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="45" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="46" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="524" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="47" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="48" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="49" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="521" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="50" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="51" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="52" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="518" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="53" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="517" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="559" priority="54" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="55" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="515" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="56" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="57" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="58" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="60" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="511" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="61" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="62" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="509" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="63" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="59" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="43" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="44" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:I46">
-    <cfRule type="cellIs" dxfId="505" priority="2082" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="2124" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="2086" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="2128" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="503" priority="2088" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="2130" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="2087" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="2129" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="2085" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="2127" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="2084" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="2126" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="2083" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="2125" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="2091" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="2133" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="497" priority="2101" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="2143" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="2100" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="2142" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="2099" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="2141" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="2098" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="2140" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="2097" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="2139" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="2096" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="2138" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="491" priority="2095" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="2137" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="2089" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="2131" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="2094" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="2136" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="2093" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="2135" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="2092" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="2134" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="2090" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="2132" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="2102" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="2144" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66:I67">
-    <cfRule type="cellIs" dxfId="484" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="127" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="134" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="147" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="146" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="145" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="144" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="143" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="142" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="141" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="140" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="137" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="139" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="138" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="128" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="129" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="136" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="135" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="133" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="132" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="131" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="130" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="463" priority="1987" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="2029" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="1986" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="2028" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="1985" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="2027" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="1984" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="2026" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="1983" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="2025" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="1982" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="2024" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="1981" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="2023" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="1980" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="2022" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="1979" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="2021" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="1978" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="2020" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="1977" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="2019" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="1991" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="2033" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="1990" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="2032" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="1988" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="2030" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="1992" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="2034" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="1993" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="2035" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="1994" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="2036" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="1995" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="2037" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="1996" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="2038" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="1997" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="2039" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="1989" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="2031" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="442" priority="1743" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="1785" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="1742" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="1784" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="1741" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="1783" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="1740" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="1782" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="1739" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="1781" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="1738" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="1780" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="1737" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="1779" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="1736" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="1778" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="1735" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="1777" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="1733" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="1775" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="1732" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="1774" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="1731" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="1773" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="1730" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="1772" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="1729" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="1771" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="1728" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="1770" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="1727" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="1769" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="1725" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="1767" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="1724" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="1766" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="1723" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="1765" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="1734" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="1776" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="1726" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="1768" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="cellIs" dxfId="421" priority="1792" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="1834" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="1796" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="1838" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="1797" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="1839" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="1798" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="1840" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="1803" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="1845" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="1804" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="1846" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="1805" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="1847" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="1806" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="1848" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="1807" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="1849" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="1808" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="1850" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="1801" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="1843" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="1789" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="1831" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="1790" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="1832" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="1791" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="1833" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="1788" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="1830" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="1793" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="1835" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="1794" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="1836" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="1795" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="1837" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="1802" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="1844" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="1799" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="1841" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="1800" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="1842" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="cellIs" dxfId="400" priority="1568" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="1610" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="1569" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="1611" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="1570" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="1612" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="1571" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="1613" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="1572" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="1614" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="1573" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="1615" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="1574" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="1616" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="1565" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="1607" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="1555" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="1597" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="1556" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="1598" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="1557" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="1599" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="1558" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="1600" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="1559" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="1601" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="1560" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="1602" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="1561" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="1603" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="1562" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="1604" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="1563" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="1605" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="1564" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="1606" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="1566" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="1608" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="1567" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="1609" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="1575" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="1617" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:I60">
-    <cfRule type="cellIs" dxfId="379" priority="1135" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="1177" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="1136" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="1178" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="1137" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="1179" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="1138" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="1180" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="1139" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="1181" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="1140" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="1182" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="1141" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="1183" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="1142" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="1184" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="1143" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="1185" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="1144" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="1186" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="1145" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="1187" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="1155" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="1197" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="1146" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="1188" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="1147" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="1189" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="1148" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="1190" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="1149" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="1191" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="1150" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="1192" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="1151" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="1193" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="1152" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="1194" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="1153" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="1195" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="1154" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="1196" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I64">
-    <cfRule type="cellIs" dxfId="358" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="378" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="358" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="359" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="360" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="361" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="362" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="363" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="364" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="365" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="366" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="367" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="368" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="369" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="370" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="371" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="372" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="373" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="374" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="375" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="376" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="377" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="337" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="191" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="205" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="210" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="208" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="207" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="206" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="204" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="203" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="209" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="202" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="201" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="199" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="198" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="197" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="196" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="195" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="194" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="193" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="192" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="190" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="200" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68">
-    <cfRule type="cellIs" dxfId="316" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="65" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="66" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="67" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="68" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="69" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="70" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="72" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="73" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="74" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="75" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="76" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="77" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="78" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="71" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="80" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="81" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="82" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="83" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="84" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="79" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="64" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K53 J55:K104">
-    <cfRule type="colorScale" priority="2211">
+    <cfRule type="colorScale" priority="2253">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -24108,7 +24633,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:K54">
-    <cfRule type="colorScale" priority="1744">
+    <cfRule type="colorScale" priority="1786">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -24118,7 +24643,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1745">
+    <cfRule type="colorScale" priority="1787">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -24130,7 +24655,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J67:K67">
-    <cfRule type="colorScale" priority="2209">
+    <cfRule type="colorScale" priority="2251">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -24140,7 +24665,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2210">
+    <cfRule type="colorScale" priority="2252">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -24152,917 +24677,917 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51">
-    <cfRule type="cellIs" dxfId="295" priority="1924" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="1966" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="1931" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="1973" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="1930" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="1972" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="1929" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="1971" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="1928" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="1970" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="1927" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="1969" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="1926" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="1968" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="1925" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="1967" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="1933" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="1975" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="1923" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="1965" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="1922" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="1964" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="1921" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="1963" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="1920" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="1962" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="1919" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="1961" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="1918" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="1960" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="1932" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="1974" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="1917" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="1959" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="1934" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="1976" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="1914" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="1956" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="1915" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="1957" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="1916" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="1958" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53">
-    <cfRule type="cellIs" dxfId="274" priority="1660" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="1702" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="1661" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="1703" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="1662" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="1704" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="1663" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="1705" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="1664" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="1706" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="1665" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="1707" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="1666" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="1708" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="1667" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="1709" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="1668" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="1710" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="1669" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="1711" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="1670" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="1712" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="1671" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="1713" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="1672" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="1714" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="1673" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="1715" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="1674" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="1716" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="1676" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="1718" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="1677" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="1719" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="1678" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="1720" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="1679" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="1721" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="1680" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="1722" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="1675" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="1717" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55">
-    <cfRule type="cellIs" dxfId="253" priority="1761" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="1803" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="1765" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="1807" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="1764" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="1806" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="1763" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="1805" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="1762" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="1804" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="1756" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="1798" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="1760" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="1802" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="1759" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="1801" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="1758" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="1800" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="1757" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="1799" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="1749" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="1791" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="1748" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="1790" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="1755" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="1797" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="1754" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="1796" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="1747" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="1789" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="1752" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="1794" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="1751" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="1793" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="1750" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="1792" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="1753" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="1795" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="1766" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="1808" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="1746" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="1788" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57">
-    <cfRule type="cellIs" dxfId="232" priority="1491" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="1533" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="1490" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="1532" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="1489" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="1531" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="1488" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="1530" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="1486" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="1528" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="1471" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="1513" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="1485" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="1527" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="1484" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="1526" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="1483" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="1525" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="1482" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="1524" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="1480" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="1522" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="1487" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="1529" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="1479" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="1521" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="1478" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="1520" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="1477" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="1519" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="1481" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="1523" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="1475" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="1517" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="1474" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="1516" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="1473" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="1515" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="1472" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="1514" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="1476" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="1518" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59:L60">
-    <cfRule type="cellIs" dxfId="211" priority="1038" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="1080" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="1050" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="1092" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="1049" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="1091" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="1048" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="1090" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="1047" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="1089" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="1046" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="1088" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="1045" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="1087" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="1044" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="1086" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="1043" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="1085" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="1042" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="1084" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="1041" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="1083" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="1040" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="1082" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="1039" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="1081" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="1037" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="1079" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="1036" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="1078" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="1035" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="1077" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="1034" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="1076" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="1033" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="1075" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="1032" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="1074" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="1030" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="1072" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="1031" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="1073" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63:L64">
-    <cfRule type="cellIs" dxfId="190" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="313" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="312" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="311" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="310" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="309" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="308" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="307" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="306" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="304" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="303" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="305" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="302" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="301" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="300" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="299" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="298" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="297" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="296" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="315" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="314" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="295" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46:M46">
-    <cfRule type="cellIs" dxfId="169" priority="2051" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="2093" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="2040" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="2082" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="2041" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="2083" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="2042" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="2084" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="2043" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="2085" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="2044" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="2086" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="2045" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="2087" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="2046" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="2088" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="2048" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="2090" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="2049" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="2091" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="2050" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="2092" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="2052" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="2094" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="2053" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="2095" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="2054" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="2096" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="2055" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="2097" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="2056" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="2098" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="2057" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="2099" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="2058" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="2100" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="2059" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="2101" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="2060" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="2102" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="2047" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="2089" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61:M63 H62:I63">
-    <cfRule type="cellIs" dxfId="148" priority="690" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="732" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="677" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="719" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="676" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="718" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="675" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="717" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="674" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="716" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="673" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="715" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="691" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="733" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="731" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="692" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="734" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="693" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="735" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="686" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="728" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="685" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="727" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="684" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="726" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="683" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="725" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="682" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="724" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="723" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="687" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="729" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="680" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="722" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="679" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="721" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="678" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="720" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="688" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="730" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M51">
-    <cfRule type="cellIs" dxfId="127" priority="1976" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="2018" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="1975" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="2017" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="1974" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="2016" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="1973" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="2015" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="1966" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="2008" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="1972" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="2014" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="1964" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="2006" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="1970" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="2012" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="1969" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="2011" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="1968" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="2010" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="1967" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="2009" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="1963" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="2005" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="1962" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="2004" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="1961" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="2003" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="1960" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="2002" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="1965" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="2007" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="1958" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="2000" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="1957" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="1999" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="1971" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="2013" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="1956" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="1998" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="1959" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="2001" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M53">
-    <cfRule type="cellIs" dxfId="106" priority="1629" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="1671" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="1630" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="1672" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="1631" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="1673" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="1633" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="1675" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="1634" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="1676" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="1635" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="1677" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="1636" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="1678" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="1637" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="1679" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="1638" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="1680" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="1632" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="1674" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="1619" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="1661" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="1620" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="1662" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="1621" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="1663" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="1622" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="1664" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="1623" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="1665" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="1624" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="1666" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="1625" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="1667" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="1626" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="1668" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="1618" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="1660" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="1627" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="1669" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="1628" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="1670" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M55">
-    <cfRule type="cellIs" dxfId="85" priority="1784" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="1826" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="1783" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="1825" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="1782" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="1824" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="1781" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="1823" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="1786" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="1828" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="1780" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="1822" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="1779" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="1821" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="1778" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="1820" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="1777" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="1819" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="1776" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="1818" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="1775" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="1817" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="1774" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="1816" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="1773" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="1815" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="1772" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="1814" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="1770" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="1812" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="1771" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="1813" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="1768" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="1810" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="1767" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="1809" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="1787" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="1829" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="1785" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="1827" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="1769" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="1811" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M57">
-    <cfRule type="cellIs" dxfId="64" priority="1453" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="1495" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="1454" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="1496" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="1455" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="1497" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="1456" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="1498" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="1457" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="1499" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="1458" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="1500" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="1459" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="1501" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="1452" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="1494" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="1461" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="1503" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="1462" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="1504" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="1463" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="1505" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="1464" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="1506" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="1465" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="1507" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="1466" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="1508" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="1467" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="1509" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="1468" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="1510" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="1469" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="1511" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="1470" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="1512" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="1450" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="1492" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="1451" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="1493" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="1460" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="1502" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M59:M60">
-    <cfRule type="cellIs" dxfId="43" priority="1067" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="1109" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="1066" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="1108" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="1065" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="1107" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="1064" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="1106" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="1063" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="1105" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="1062" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="1104" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="1061" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="1103" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="1060" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="1102" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="1059" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="1101" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="1057" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="1099" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="1056" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="1098" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="1055" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="1097" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="1054" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="1096" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="1053" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="1095" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="1052" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="1094" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="1051" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="1093" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="1058" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="1100" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="1071" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="1113" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="1070" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="1112" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="1069" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="1111" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="1068" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1110" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M63:M64">
-    <cfRule type="cellIs" dxfId="22" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="336" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="335" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="322" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="328" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="323" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="321" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="324" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="325" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="326" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="327" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="319" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="320" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="334" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="333" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="332" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="331" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="330" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="329" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="318" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="317" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="316" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="colorScale" priority="2124">
+    <cfRule type="colorScale" priority="2166">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -25072,7 +25597,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="colorScale" priority="2213">
+    <cfRule type="colorScale" priority="2255">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -25082,7 +25607,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:Y1048576">
-    <cfRule type="colorScale" priority="2125">
+    <cfRule type="colorScale" priority="2167">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -25094,17 +25619,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI22:AL37 AI41:AL48 AI52:AL55">
-    <cfRule type="cellIs" dxfId="1" priority="2207" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2249" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI59:AL60">
-    <cfRule type="cellIs" dxfId="0" priority="2199" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2241" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL3:AL17">
-    <cfRule type="colorScale" priority="2208">
+    <cfRule type="colorScale" priority="2250">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -25116,7 +25641,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM22:AM37">
-    <cfRule type="colorScale" priority="2201">
+    <cfRule type="colorScale" priority="2243">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -25128,7 +25653,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM41:AM48">
-    <cfRule type="colorScale" priority="2225">
+    <cfRule type="colorScale" priority="2267">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -25140,7 +25665,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM52:AM55">
-    <cfRule type="colorScale" priority="2219">
+    <cfRule type="colorScale" priority="2261">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -25152,7 +25677,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM59:AM60">
-    <cfRule type="colorScale" priority="2200">
+    <cfRule type="colorScale" priority="2242">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -25164,7 +25689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD22:BD37">
-    <cfRule type="colorScale" priority="2203">
+    <cfRule type="colorScale" priority="2245">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -25176,6 +25701,184 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD41:BD48">
+    <cfRule type="colorScale" priority="2256">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD52:BD55 BD59:BD60">
+    <cfRule type="colorScale" priority="2262">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE22:BE37">
+    <cfRule type="colorScale" priority="2244">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE41:BE48">
+    <cfRule type="colorScale" priority="2257">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE52:BE55 BE59:BE60">
+    <cfRule type="colorScale" priority="2263">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF22:BF37 BB22:BC37">
+    <cfRule type="colorScale" priority="2246">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF41:BF48 BB41:BC48">
+    <cfRule type="colorScale" priority="2258">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF52:BF55 BB52:BC55 BF59:BF60 BB59:BC60">
+    <cfRule type="colorScale" priority="2264">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG22:BH37 BK22:BK37">
+    <cfRule type="colorScale" priority="2248">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG41:BH48 BK41:BK48">
+    <cfRule type="colorScale" priority="2259">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG52:BH55 BK52:BK55 BG59:BH60 BK59:BK60">
+    <cfRule type="colorScale" priority="2265">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI22:BJ37 BL22:BL37">
+    <cfRule type="colorScale" priority="2247">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI41:BJ48 BL41:BL48">
+    <cfRule type="colorScale" priority="2260">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI52:BJ55 BL52:BL55 BI59:BJ60 BL59:BL60">
+    <cfRule type="colorScale" priority="2266">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO22:BO37">
+    <cfRule type="colorScale" priority="2223">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2224">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD22:CD37">
     <cfRule type="colorScale" priority="2214">
       <colorScale>
         <cfvo type="min"/>
@@ -25186,9 +25889,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD52:BD55 BD59:BD60">
-    <cfRule type="colorScale" priority="2220">
+    <cfRule type="colorScale" priority="2219">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -25199,8 +25900,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE22:BE37">
-    <cfRule type="colorScale" priority="2202">
+  <conditionalFormatting sqref="CE22:CE37">
+    <cfRule type="colorScale" priority="2218">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -25210,9 +25911,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE41:BE48">
-    <cfRule type="colorScale" priority="2215">
+    <cfRule type="colorScale" priority="2213">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -25223,20 +25922,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE52:BE55 BE59:BE60">
-    <cfRule type="colorScale" priority="2221">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF22:BF37 BB22:BC37">
-    <cfRule type="colorScale" priority="2204">
+  <conditionalFormatting sqref="CF22:CF37 CB22:CC37">
+    <cfRule type="colorScale" priority="2220">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -25247,8 +25934,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF41:BF48 BB41:BC48">
-    <cfRule type="colorScale" priority="2216">
+  <conditionalFormatting sqref="CF22:CF37">
+    <cfRule type="colorScale" priority="2215">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -25259,20 +25946,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF52:BF55 BB52:BC55 BF59:BF60 BB59:BC60">
+  <conditionalFormatting sqref="CG22:CH37 CK22:CK37">
     <cfRule type="colorScale" priority="2222">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG22:BH37 BK22:BK37">
-    <cfRule type="colorScale" priority="2206">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -25281,7 +25956,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG41:BH48 BK41:BK48">
+  <conditionalFormatting sqref="CG22:CH37">
     <cfRule type="colorScale" priority="2217">
       <colorScale>
         <cfvo type="min"/>
@@ -25291,18 +25966,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG52:BH55 BK52:BK55 BG59:BH60 BK59:BK60">
-    <cfRule type="colorScale" priority="2223">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI22:BJ37 BL22:BL37">
-    <cfRule type="colorScale" priority="2205">
+  <conditionalFormatting sqref="CI22:CJ37 CL22:CL37">
+    <cfRule type="colorScale" priority="2221">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -25311,8 +25976,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI41:BJ48 BL41:BL48">
-    <cfRule type="colorScale" priority="2218">
+  <conditionalFormatting sqref="CI22:CJ37">
+    <cfRule type="colorScale" priority="2216">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -25321,144 +25986,69 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI52:BJ55 BL52:BL55 BI59:BJ60 BL59:BL60">
-    <cfRule type="colorScale" priority="2224">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO22:BO37">
-    <cfRule type="colorScale" priority="2181">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2182">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD22:CD37">
-    <cfRule type="colorScale" priority="2172">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2177">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CE22:CE37">
-    <cfRule type="colorScale" priority="2176">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2171">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CF22:CF37 CB22:CC37">
-    <cfRule type="colorScale" priority="2178">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CF22:CF37">
-    <cfRule type="colorScale" priority="2173">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CG22:CH37 CK22:CK37">
-    <cfRule type="colorScale" priority="2180">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CG22:CH37">
-    <cfRule type="colorScale" priority="2175">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CI22:CJ37 CL22:CL37">
-    <cfRule type="colorScale" priority="2179">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CI22:CJ37">
-    <cfRule type="colorScale" priority="2174">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
+  <conditionalFormatting sqref="L69:M69">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+      <formula>"MTL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>"OTT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+      <formula>"NJD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+      <formula>"MIN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+      <formula>"STL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
+      <formula>"BOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python/Hockey pool/2025/My Predictions2025.xlsx
+++ b/Python/Hockey pool/2025/My Predictions2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abriggs\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FE12FF-3F06-4345-AE34-29DBC29ACDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC69BFC-6BCC-40A8-A02D-6762ABD69C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCC5B65E-930E-4DB7-8BD5-D516C728EBC5}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="190">
   <si>
     <t>DATE</t>
   </si>
@@ -854,7 +843,1959 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="786">
+  <dxfs count="954">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD11515"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3F6228"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFA00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF003DB8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9793,76 +11734,76 @@
     <tableColumn id="1" xr3:uid="{35E4500A-DA09-4BF2-A9DD-981973613A2E}" name="Team">
       <calculatedColumnFormula>AH22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A33C8BB1-51F1-4EE0-BAF3-79A0072A877D}" name="GP TOT" dataDxfId="785">
+    <tableColumn id="2" xr3:uid="{A33C8BB1-51F1-4EE0-BAF3-79A0072A877D}" name="GP TOT" dataDxfId="953">
       <calculatedColumnFormula>AM22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B7BD47C3-C6CD-433B-8763-2E7BF28F91A9}" name="GP H" dataDxfId="784">
+    <tableColumn id="3" xr3:uid="{B7BD47C3-C6CD-433B-8763-2E7BF28F91A9}" name="GP H" dataDxfId="952">
       <calculatedColumnFormula>AN22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A7C2CDB8-1006-4E42-85C9-739B917E0E3B}" name="GP A" dataDxfId="783">
+    <tableColumn id="4" xr3:uid="{A7C2CDB8-1006-4E42-85C9-739B917E0E3B}" name="GP A" dataDxfId="951">
       <calculatedColumnFormula>AO22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FBF9C9A1-A231-4AC5-98EC-8575F964E9E7}" name="W TOT" dataDxfId="782">
+    <tableColumn id="5" xr3:uid="{FBF9C9A1-A231-4AC5-98EC-8575F964E9E7}" name="W TOT" dataDxfId="950">
       <calculatedColumnFormula>AP22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4F1AF376-3B42-4A7B-88AE-2AEB54C684FD}" name="L TOT" dataDxfId="781">
+    <tableColumn id="6" xr3:uid="{4F1AF376-3B42-4A7B-88AE-2AEB54C684FD}" name="L TOT" dataDxfId="949">
       <calculatedColumnFormula>AQ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CD4CF37C-B565-4072-A8DF-97ABD75AC2BE}" name="W H" dataDxfId="780">
+    <tableColumn id="7" xr3:uid="{CD4CF37C-B565-4072-A8DF-97ABD75AC2BE}" name="W H" dataDxfId="948">
       <calculatedColumnFormula>AR22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1F359623-5047-4AA5-8DFE-2A1235BD0244}" name="L H" dataDxfId="779">
+    <tableColumn id="8" xr3:uid="{1F359623-5047-4AA5-8DFE-2A1235BD0244}" name="L H" dataDxfId="947">
       <calculatedColumnFormula>AS22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F8112AD4-AB28-4E89-97C1-D0AD9007C7A5}" name="W A" dataDxfId="778">
+    <tableColumn id="9" xr3:uid="{F8112AD4-AB28-4E89-97C1-D0AD9007C7A5}" name="W A" dataDxfId="946">
       <calculatedColumnFormula>AT22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E0BC1C3D-B833-4A33-A2F7-C67BE06DEDA1}" name="L A" dataDxfId="777">
+    <tableColumn id="10" xr3:uid="{E0BC1C3D-B833-4A33-A2F7-C67BE06DEDA1}" name="L A" dataDxfId="945">
       <calculatedColumnFormula>AU22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B9A986DF-FE9E-415D-924B-8EB61CBE5CC3}" name="GF H" dataDxfId="776">
+    <tableColumn id="11" xr3:uid="{B9A986DF-FE9E-415D-924B-8EB61CBE5CC3}" name="GF H" dataDxfId="944">
       <calculatedColumnFormula>SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,1)+SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,2)+SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,3)+SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{83BAED9D-BBE1-4C76-BBCA-313CCD921E11}" name="GF A" dataDxfId="775">
+    <tableColumn id="12" xr3:uid="{83BAED9D-BBE1-4C76-BBCA-313CCD921E11}" name="GF A" dataDxfId="943">
       <calculatedColumnFormula>SUMIFS($S$2:$S$105,$L$2:$L$105,AH22,$E$2:$E$105,1) + SUMIFS($S$2:$S$105,$L$2:$L$105,AH22,$E$2:$E$105,2)+SUMIFS($S$2:$S$105,$L$2:$L$105,AH22,$E$2:$E$105,3)+SUMIFS($S$2:$S$105,$L$2:$L$105,AH22,$E$2:$E$105,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9D239E38-642E-49BB-AFCC-7F4B50408CD9}" name="GA H" dataDxfId="774">
+    <tableColumn id="13" xr3:uid="{9D239E38-642E-49BB-AFCC-7F4B50408CD9}" name="GA H" dataDxfId="942">
       <calculatedColumnFormula>SUMIFS($S$2:$S$105,$M$2:$M$105,AH22,$E$2:$E$105,1)+SUMIFS($S$2:$S$105,$M$2:$M$105,AH22,$E$2:$E$105,2)+SUMIFS($S$2:$S$105,$M$2:$M$105,AH22,$E$2:$E$105,3)+SUMIFS($S$2:$S$105,$M$2:$M$105,AH22,$E$2:$E$105,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{C28D4692-8893-4399-B12F-0EFEC4ACE55F}" name="GA A" dataDxfId="773">
+    <tableColumn id="14" xr3:uid="{C28D4692-8893-4399-B12F-0EFEC4ACE55F}" name="GA A" dataDxfId="941">
       <calculatedColumnFormula>SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,1)+(SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,2)+SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,3)+SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{EFE9EFE5-C5A6-4D37-BAFD-4A00F7B02584}" name="DIFF H" dataDxfId="772">
+    <tableColumn id="15" xr3:uid="{EFE9EFE5-C5A6-4D37-BAFD-4A00F7B02584}" name="DIFF H" dataDxfId="940">
       <calculatedColumnFormula>BX22-BZ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{B9AF8DC9-F982-4D02-B43F-486449573036}" name="DIFF A" dataDxfId="771">
+    <tableColumn id="16" xr3:uid="{B9AF8DC9-F982-4D02-B43F-486449573036}" name="DIFF A" dataDxfId="939">
       <calculatedColumnFormula>BY22-CA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E94B86FE-AA74-466B-A7F6-2C43B9EEA68A}" name="GF T" dataDxfId="770">
+    <tableColumn id="17" xr3:uid="{E94B86FE-AA74-466B-A7F6-2C43B9EEA68A}" name="GF T" dataDxfId="938">
       <calculatedColumnFormula>BX22+BY22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{437A09FB-7E7B-457E-AD72-B615E2FEC992}" name="GA T" dataDxfId="769">
+    <tableColumn id="18" xr3:uid="{437A09FB-7E7B-457E-AD72-B615E2FEC992}" name="GA T" dataDxfId="937">
       <calculatedColumnFormula>BZ22+CA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{D83A9D62-4017-4FF7-BA18-93B627CB0BEF}" name="DIFF T" dataDxfId="768">
+    <tableColumn id="19" xr3:uid="{D83A9D62-4017-4FF7-BA18-93B627CB0BEF}" name="DIFF T" dataDxfId="936">
       <calculatedColumnFormula>(BX22+BY22)-(BZ22+CA22)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{139C299F-4896-455D-A9B3-7CA4FF9ECE1D}" name="GFPG H" dataDxfId="767">
+    <tableColumn id="20" xr3:uid="{139C299F-4896-455D-A9B3-7CA4FF9ECE1D}" name="GFPG H" dataDxfId="935">
       <calculatedColumnFormula>BX22/BP22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{5ED7F4F1-4524-4204-90BC-07DFE35665ED}" name="GFPG A" dataDxfId="766">
+    <tableColumn id="21" xr3:uid="{5ED7F4F1-4524-4204-90BC-07DFE35665ED}" name="GFPG A" dataDxfId="934">
       <calculatedColumnFormula>BY22/BQ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{3BAC0D7E-D609-46FC-BB96-6327BEC9045F}" name="GAPG H" dataDxfId="765">
+    <tableColumn id="22" xr3:uid="{3BAC0D7E-D609-46FC-BB96-6327BEC9045F}" name="GAPG H" dataDxfId="933">
       <calculatedColumnFormula>BZ22/BP22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{894AF6A4-2FD4-468F-8740-6E39104F12C5}" name="GAPG A" dataDxfId="764">
+    <tableColumn id="23" xr3:uid="{894AF6A4-2FD4-468F-8740-6E39104F12C5}" name="GAPG A" dataDxfId="932">
       <calculatedColumnFormula>CA22/BQ22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{CFA1DE8E-0094-499E-B287-EEFFFC39239B}" name="GFPG " dataDxfId="763">
+    <tableColumn id="24" xr3:uid="{CFA1DE8E-0094-499E-B287-EEFFFC39239B}" name="GFPG " dataDxfId="931">
       <calculatedColumnFormula>CD22/BO22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{5723B53A-51E1-40DB-A91D-49D133C87D25}" name="GAPG " dataDxfId="762">
+    <tableColumn id="25" xr3:uid="{5723B53A-51E1-40DB-A91D-49D133C87D25}" name="GAPG " dataDxfId="930">
       <calculatedColumnFormula>CE22/BO22</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9871,44 +11812,44 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CAF60155-77BE-48E5-AA58-5D8F46940651}" name="Table2" displayName="Table2" ref="A1:Z74" totalsRowShown="0" headerRowDxfId="761" headerRowBorderDxfId="760">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CAF60155-77BE-48E5-AA58-5D8F46940651}" name="Table2" displayName="Table2" ref="A1:Z74" totalsRowShown="0" headerRowDxfId="929" headerRowBorderDxfId="928">
   <autoFilter ref="A1:Z74" xr:uid="{CAF60155-77BE-48E5-AA58-5D8F46940651}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{DDB71618-B495-4370-A2C8-F807AB26F35C}" name="WEEKDATE">
       <calculatedColumnFormula>TEXT($B2,"dddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D87BCC97-C12B-42BA-ACD3-847AD72294EC}" name="DATE" dataDxfId="759"/>
-    <tableColumn id="3" xr3:uid="{6E19CA59-B6A3-4131-B285-CE1F7BAF3D31}" name="TIME" dataDxfId="758"/>
-    <tableColumn id="4" xr3:uid="{02F4D888-3BD5-4016-BA9A-EC8A0CBEA44E}" name="CONF" dataDxfId="757"/>
-    <tableColumn id="5" xr3:uid="{DEBF2CDE-9CD3-427B-90BB-33C4A230FDB2}" name="ROUNDNUM" dataDxfId="756"/>
-    <tableColumn id="6" xr3:uid="{0B2FA3E5-A739-4507-920E-FD6BD73D06FC}" name="SERIESCODE" dataDxfId="755"/>
-    <tableColumn id="7" xr3:uid="{E0FB355A-FF65-48EA-9A64-1208BDA18DEA}" name="GAMENUM" dataDxfId="754"/>
-    <tableColumn id="8" xr3:uid="{48075340-6AD4-4735-8D81-DCE8BDEA7894}" name="TOPSEED" dataDxfId="753"/>
-    <tableColumn id="9" xr3:uid="{47D97FCE-3C11-4B03-A932-BB3CCC5294A3}" name="LOWSEED" dataDxfId="752"/>
-    <tableColumn id="10" xr3:uid="{2657E2A1-FA3E-4247-AB77-0882735B5D98}" name="TOPSEEDWINS" dataDxfId="751"/>
-    <tableColumn id="11" xr3:uid="{F857D9CD-319A-4A1F-8A87-5B89AB0E3AE4}" name="LOWSEEDWINS" dataDxfId="750"/>
-    <tableColumn id="12" xr3:uid="{F49B8205-50A8-4D22-BDFA-A8C59906257D}" name="AWAYTEAM" dataDxfId="749"/>
-    <tableColumn id="13" xr3:uid="{10A989E8-E464-444A-B995-FE5CD8D50A3E}" name="HOMETEAM" dataDxfId="748"/>
-    <tableColumn id="14" xr3:uid="{BEBB472F-C00C-43D1-BA57-177EECF3D1A4}" name="MYCHOICE" dataDxfId="747">
+    <tableColumn id="2" xr3:uid="{D87BCC97-C12B-42BA-ACD3-847AD72294EC}" name="DATE" dataDxfId="927"/>
+    <tableColumn id="3" xr3:uid="{6E19CA59-B6A3-4131-B285-CE1F7BAF3D31}" name="TIME" dataDxfId="926"/>
+    <tableColumn id="4" xr3:uid="{02F4D888-3BD5-4016-BA9A-EC8A0CBEA44E}" name="CONF" dataDxfId="925"/>
+    <tableColumn id="5" xr3:uid="{DEBF2CDE-9CD3-427B-90BB-33C4A230FDB2}" name="ROUNDNUM" dataDxfId="924"/>
+    <tableColumn id="6" xr3:uid="{0B2FA3E5-A739-4507-920E-FD6BD73D06FC}" name="SERIESCODE" dataDxfId="923"/>
+    <tableColumn id="7" xr3:uid="{E0FB355A-FF65-48EA-9A64-1208BDA18DEA}" name="GAMENUM" dataDxfId="922"/>
+    <tableColumn id="8" xr3:uid="{48075340-6AD4-4735-8D81-DCE8BDEA7894}" name="TOPSEED" dataDxfId="921"/>
+    <tableColumn id="9" xr3:uid="{47D97FCE-3C11-4B03-A932-BB3CCC5294A3}" name="LOWSEED" dataDxfId="920"/>
+    <tableColumn id="10" xr3:uid="{2657E2A1-FA3E-4247-AB77-0882735B5D98}" name="TOPSEEDWINS" dataDxfId="919"/>
+    <tableColumn id="11" xr3:uid="{F857D9CD-319A-4A1F-8A87-5B89AB0E3AE4}" name="LOWSEEDWINS" dataDxfId="918"/>
+    <tableColumn id="12" xr3:uid="{F49B8205-50A8-4D22-BDFA-A8C59906257D}" name="AWAYTEAM" dataDxfId="917"/>
+    <tableColumn id="13" xr3:uid="{10A989E8-E464-444A-B995-FE5CD8D50A3E}" name="HOMETEAM" dataDxfId="916"/>
+    <tableColumn id="14" xr3:uid="{BEBB472F-C00C-43D1-BA57-177EECF3D1A4}" name="MYCHOICE" dataDxfId="915">
       <calculatedColumnFormula>IF(OR(ISBLANK(O2), ISBLANK($P2)), "", IF($O2&gt;$P2, $L2,$M2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{3265132F-9519-4D83-9071-5A806C9B66A7}" name="PAWAYSCORE" dataDxfId="746"/>
-    <tableColumn id="16" xr3:uid="{61D192BF-2F44-45CA-B41E-2E154B58B73C}" name="PHOMESCORE" dataDxfId="745"/>
-    <tableColumn id="17" xr3:uid="{4FBCD938-E47F-4A71-B757-19409794237B}" name="PResult" dataDxfId="744"/>
-    <tableColumn id="18" xr3:uid="{910345CE-2F3B-453D-B129-551EEF8A2ED1}" name="LOCKEDIN" dataDxfId="743"/>
-    <tableColumn id="19" xr3:uid="{B5B3650D-B08F-4959-92AE-19041FF77E90}" name="AAWAYSCORE" dataDxfId="742"/>
-    <tableColumn id="20" xr3:uid="{335FAADC-EF48-4918-8FC4-59E64D4FF575}" name="AHOMESCORE" dataDxfId="741"/>
-    <tableColumn id="21" xr3:uid="{D0C1DED2-3AB8-4A82-B413-410B2E943C31}" name="OTROUNDNUM" dataDxfId="740"/>
-    <tableColumn id="22" xr3:uid="{13F2CA6A-0805-4608-99D8-D82B730F1411}" name="CORRECT" dataDxfId="739">
+    <tableColumn id="15" xr3:uid="{3265132F-9519-4D83-9071-5A806C9B66A7}" name="PAWAYSCORE" dataDxfId="914"/>
+    <tableColumn id="16" xr3:uid="{61D192BF-2F44-45CA-B41E-2E154B58B73C}" name="PHOMESCORE" dataDxfId="913"/>
+    <tableColumn id="17" xr3:uid="{4FBCD938-E47F-4A71-B757-19409794237B}" name="PResult" dataDxfId="912"/>
+    <tableColumn id="18" xr3:uid="{910345CE-2F3B-453D-B129-551EEF8A2ED1}" name="LOCKEDIN" dataDxfId="911"/>
+    <tableColumn id="19" xr3:uid="{B5B3650D-B08F-4959-92AE-19041FF77E90}" name="AAWAYSCORE" dataDxfId="910"/>
+    <tableColumn id="20" xr3:uid="{335FAADC-EF48-4918-8FC4-59E64D4FF575}" name="AHOMESCORE" dataDxfId="909"/>
+    <tableColumn id="21" xr3:uid="{D0C1DED2-3AB8-4A82-B413-410B2E943C31}" name="OTROUNDNUM" dataDxfId="908"/>
+    <tableColumn id="22" xr3:uid="{13F2CA6A-0805-4608-99D8-D82B730F1411}" name="CORRECT" dataDxfId="907">
       <calculatedColumnFormula>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]),"",IF(Table2[[#This Row],[AAWAYSCORE]]=Table2[[#This Row],[AHOMESCORE]],0,IF(Table2[[#This Row],[AWAYTEAM]]=Table2[[#This Row],[MYCHOICE]],IF(Table2[[#This Row],[AAWAYSCORE]]&gt;Table2[[#This Row],[AHOMESCORE]],1,0),IF(Table2[[#This Row],[AHOMESCORE]]&gt;Table2[[#This Row],[AAWAYSCORE]],1,0))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{C52B97FA-25BE-428D-BE11-A51A7A6F4023}" name="WINNER" dataDxfId="738">
+    <tableColumn id="23" xr3:uid="{C52B97FA-25BE-428D-BE11-A51A7A6F4023}" name="WINNER" dataDxfId="906">
       <calculatedColumnFormula>IF(OR(ISBLANK($S2), ISBLANK($T2), ISBLANK($U2)), "", IF(S2&gt;T2,L2,M2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{5D5BFFE0-4374-4A91-BEA2-4CDF401FCD34}" name="Column2" dataDxfId="737">
+    <tableColumn id="26" xr3:uid="{5D5BFFE0-4374-4A91-BEA2-4CDF401FCD34}" name="Column2" dataDxfId="905">
       <calculatedColumnFormula>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{ACD0F41D-B80B-4A4E-9591-78757C8DFA9E}" name="Column1" dataDxfId="736">
+    <tableColumn id="25" xr3:uid="{ACD0F41D-B80B-4A4E-9591-78757C8DFA9E}" name="Column1" dataDxfId="904">
       <calculatedColumnFormula>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="24" xr3:uid="{4CBA132A-C7C7-46A0-A3B6-3B6E14F287C5}" name="Notes"/>
@@ -9918,9 +11859,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9958,7 +11899,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -10064,7 +12005,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10206,7 +12147,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10216,8 +12157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819ACA58-DCD7-4A09-9052-0851D3ECB0FF}">
   <dimension ref="A1:CL94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q69" sqref="Q69"/>
+    <sheetView tabSelected="1" topLeftCell="X19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ19" sqref="AQ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10818,7 +12759,7 @@
       <c r="AD5" s="8"/>
       <c r="AE5" s="13">
         <f>COUNT(Table2[CORRECT])</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF5" s="8"/>
       <c r="AG5" s="14" t="s">
@@ -10943,7 +12884,7 @@
       <c r="AD6" s="8"/>
       <c r="AE6" s="13">
         <f>SUM(Table2[CORRECT])</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF6" s="8"/>
       <c r="AG6" s="14" t="s">
@@ -11067,7 +13008,7 @@
       <c r="AD7" s="8"/>
       <c r="AE7" s="13">
         <f>AE6/AE5</f>
-        <v>0.46153846153846156</v>
+        <v>0.47761194029850745</v>
       </c>
       <c r="AF7" s="8"/>
       <c r="AG7" s="14" t="s">
@@ -11564,19 +13505,19 @@
       </c>
       <c r="AK11">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL11">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AM11">
         <f t="shared" ref="AM11:AN14" si="8">SUMIFS($T$2:$T$104,$M$2:$M$104,AH11,$E$2:$E$104,2) + SUMIFS($S$2:$S$104,$L$2:$L$104,AH11,$E$2:$E$104,2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN11">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
@@ -11793,19 +13734,19 @@
       </c>
       <c r="AJ13">
         <f t="array" ref="AJ13">INDEX(G:G, MATCH(2, 1/(F:F=AG13)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK13">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL13">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AM13">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AN13">
         <f t="shared" si="8"/>
@@ -12929,7 +14870,7 @@
       </c>
       <c r="AS22">
         <f t="shared" ref="AS22:AS37" si="18">SUMPRODUCT(($M$2:$M$105=AH22)*($T$2:$T$105&lt;$S$2:$S$105))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT22">
         <f t="shared" ref="AT22:AT37" si="19">SUMPRODUCT(($L$2:$L$105=AH22)*($T$2:$T$105&lt;$S$2:$S$105))</f>
@@ -13037,7 +14978,7 @@
       </c>
       <c r="BU22" s="15">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV22" s="15">
         <f t="shared" si="30"/>
@@ -13049,7 +14990,7 @@
       </c>
       <c r="BX22" s="15">
         <f t="shared" ref="BX22:BX37" si="31">SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,1)+SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,2)+SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,3)+SUMIFS($T$2:$T$105,$M$2:$M$105,AH22,$E$2:$E$105,4)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BY22" s="15">
         <f t="shared" ref="BY22:BY37" si="32">SUMIFS($S$2:$S$105,$L$2:$L$105,AH22,$E$2:$E$105,1) + SUMIFS($S$2:$S$105,$L$2:$L$105,AH22,$E$2:$E$105,2)+SUMIFS($S$2:$S$105,$L$2:$L$105,AH22,$E$2:$E$105,3)+SUMIFS($S$2:$S$105,$L$2:$L$105,AH22,$E$2:$E$105,4)</f>
@@ -13057,7 +14998,7 @@
       </c>
       <c r="BZ22" s="15">
         <f t="shared" ref="BZ22:BZ37" si="33">SUMIFS($S$2:$S$105,$M$2:$M$105,AH22,$E$2:$E$105,1)+SUMIFS($S$2:$S$105,$M$2:$M$105,AH22,$E$2:$E$105,2)+SUMIFS($S$2:$S$105,$M$2:$M$105,AH22,$E$2:$E$105,3)+SUMIFS($S$2:$S$105,$M$2:$M$105,AH22,$E$2:$E$105,4)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CA22" s="15">
         <f t="shared" ref="CA22:CA37" si="34">SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,1)+(SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,2)+SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,3)+SUMIFS($T$2:$T$105,$L$2:$L$105,AH22,$E$2:$E$105,4))</f>
@@ -13065,7 +15006,7 @@
       </c>
       <c r="CB22" s="15">
         <f t="shared" ref="CB22:CC37" si="35">BX22-BZ22</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CC22" s="15">
         <f t="shared" si="35"/>
@@ -13073,19 +15014,19 @@
       </c>
       <c r="CD22" s="15">
         <f t="shared" ref="CD22:CD37" si="36">BX22+BY22</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CE22" s="15">
         <f t="shared" ref="CE22:CE37" si="37">BZ22+CA22</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="CF22" s="15">
         <f t="shared" ref="CF22:CF37" si="38">(BX22+BY22)-(BZ22+CA22)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="CG22" s="20">
         <f t="shared" ref="CG22:CH37" si="39">BX22/BP22</f>
-        <v>2.3333333333333335</v>
+        <v>2.5</v>
       </c>
       <c r="CH22" s="20">
         <f t="shared" si="39"/>
@@ -13093,7 +15034,7 @@
       </c>
       <c r="CI22" s="20">
         <f t="shared" ref="CI22:CJ37" si="40">BZ22/BP22</f>
-        <v>1.1666666666666667</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="CJ22" s="20">
         <f t="shared" si="40"/>
@@ -13101,11 +15042,11 @@
       </c>
       <c r="CK22" s="20">
         <f t="shared" ref="CK22:CK37" si="41">CD22/BO22</f>
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="CL22" s="20">
         <f t="shared" ref="CL22:CL37" si="42">CE22/BO22</f>
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="23" spans="1:90" x14ac:dyDescent="0.25">
@@ -13532,11 +15473,11 @@
       </c>
       <c r="AP24">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ24">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR24">
         <f t="shared" si="17"/>
@@ -13548,7 +15489,7 @@
       </c>
       <c r="AT24">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU24">
         <f t="shared" si="20"/>
@@ -13640,11 +15581,11 @@
       </c>
       <c r="BR24" s="15">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BS24" s="15">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BT24" s="15">
         <f t="shared" si="30"/>
@@ -13656,7 +15597,7 @@
       </c>
       <c r="BV24" s="15">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW24" s="15">
         <f t="shared" si="30"/>
@@ -13668,7 +15609,7 @@
       </c>
       <c r="BY24" s="15">
         <f t="shared" si="32"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BZ24" s="15">
         <f t="shared" si="33"/>
@@ -13676,7 +15617,7 @@
       </c>
       <c r="CA24" s="15">
         <f t="shared" si="34"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CB24" s="15">
         <f t="shared" si="35"/>
@@ -13684,19 +15625,19 @@
       </c>
       <c r="CC24" s="15">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CD24" s="15">
         <f t="shared" si="36"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="CE24" s="15">
         <f t="shared" si="37"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CF24" s="15">
         <f t="shared" si="38"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CG24" s="20">
         <f t="shared" si="39"/>
@@ -13704,7 +15645,7 @@
       </c>
       <c r="CH24" s="20">
         <f t="shared" si="39"/>
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="CI24" s="20">
         <f t="shared" si="40"/>
@@ -13712,15 +15653,15 @@
       </c>
       <c r="CJ24" s="20">
         <f t="shared" si="40"/>
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="CK24" s="20">
         <f t="shared" si="41"/>
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="CL24" s="20">
         <f t="shared" si="42"/>
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="25" spans="1:90" x14ac:dyDescent="0.25">
@@ -15354,7 +17295,7 @@
       </c>
       <c r="AJ30">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK30">
         <f t="shared" si="11"/>
@@ -15366,7 +17307,7 @@
       </c>
       <c r="AM30">
         <f t="shared" si="43"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN30">
         <f t="shared" si="13"/>
@@ -15374,11 +17315,11 @@
       </c>
       <c r="AO30">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP30">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ30">
         <f t="shared" si="16"/>
@@ -15386,7 +17327,7 @@
       </c>
       <c r="AR30">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS30">
         <f t="shared" si="18"/>
@@ -15474,7 +17415,7 @@
       </c>
       <c r="BO30" s="15">
         <f t="shared" si="30"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BP30" s="15">
         <f t="shared" si="30"/>
@@ -15482,11 +17423,11 @@
       </c>
       <c r="BQ30" s="15">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BR30" s="15">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS30" s="15">
         <f t="shared" si="30"/>
@@ -15494,7 +17435,7 @@
       </c>
       <c r="BT30" s="15">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BU30" s="15">
         <f t="shared" si="30"/>
@@ -15510,7 +17451,7 @@
       </c>
       <c r="BX30" s="15">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BY30" s="15">
         <f t="shared" si="32"/>
@@ -15526,7 +17467,7 @@
       </c>
       <c r="CB30" s="15">
         <f t="shared" si="35"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="CC30" s="15">
         <f t="shared" si="35"/>
@@ -15534,7 +17475,7 @@
       </c>
       <c r="CD30" s="15">
         <f t="shared" si="36"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="CE30" s="15">
         <f t="shared" si="37"/>
@@ -15542,15 +17483,15 @@
       </c>
       <c r="CF30" s="15">
         <f t="shared" si="38"/>
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="CG30" s="20">
         <f t="shared" si="39"/>
-        <v>3.1428571428571428</v>
+        <v>3.7142857142857144</v>
       </c>
       <c r="CH30" s="20">
         <f t="shared" si="39"/>
-        <v>1.6</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="CI30" s="20">
         <f t="shared" si="40"/>
@@ -15558,15 +17499,15 @@
       </c>
       <c r="CJ30" s="20">
         <f t="shared" si="40"/>
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="CK30" s="20">
         <f t="shared" si="41"/>
-        <v>2.5</v>
+        <v>2.6153846153846154</v>
       </c>
       <c r="CL30" s="20">
         <f t="shared" si="42"/>
-        <v>3.1666666666666665</v>
+        <v>2.9230769230769229</v>
       </c>
     </row>
     <row r="31" spans="1:90" x14ac:dyDescent="0.25">
@@ -15969,7 +17910,7 @@
       </c>
       <c r="AJ32">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK32">
         <f t="shared" si="11"/>
@@ -15981,11 +17922,11 @@
       </c>
       <c r="AM32">
         <f t="shared" si="43"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN32">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO32">
         <f t="shared" si="14"/>
@@ -15997,7 +17938,7 @@
       </c>
       <c r="AQ32">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR32">
         <f t="shared" si="17"/>
@@ -16013,7 +17954,7 @@
       </c>
       <c r="AU32">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV32">
         <f t="shared" si="21"/>
@@ -16089,11 +18030,11 @@
       </c>
       <c r="BO32" s="15">
         <f t="shared" si="30"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BP32" s="15">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BQ32" s="15">
         <f t="shared" si="30"/>
@@ -16105,7 +18046,7 @@
       </c>
       <c r="BS32" s="15">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BT32" s="15">
         <f t="shared" si="30"/>
@@ -16121,7 +18062,7 @@
       </c>
       <c r="BW32" s="15">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BX32" s="15">
         <f t="shared" si="31"/>
@@ -16137,7 +18078,7 @@
       </c>
       <c r="CA32" s="15">
         <f t="shared" si="34"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="CB32" s="15">
         <f t="shared" si="35"/>
@@ -16145,7 +18086,7 @@
       </c>
       <c r="CC32" s="15">
         <f t="shared" si="35"/>
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="CD32" s="15">
         <f t="shared" si="36"/>
@@ -16153,15 +18094,15 @@
       </c>
       <c r="CE32" s="15">
         <f t="shared" si="37"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="CF32" s="15">
         <f t="shared" si="38"/>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="CG32" s="20">
         <f t="shared" si="39"/>
-        <v>3.8333333333333335</v>
+        <v>3.2857142857142856</v>
       </c>
       <c r="CH32" s="20">
         <f t="shared" si="39"/>
@@ -16169,19 +18110,19 @@
       </c>
       <c r="CI32" s="20">
         <f t="shared" si="40"/>
-        <v>2.5</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="CJ32" s="20">
         <f t="shared" si="40"/>
-        <v>3</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="CK32" s="20">
         <f t="shared" si="41"/>
-        <v>2.6666666666666665</v>
+        <v>2.4615384615384617</v>
       </c>
       <c r="CL32" s="20">
         <f t="shared" si="42"/>
-        <v>2.75</v>
+        <v>2.8461538461538463</v>
       </c>
     </row>
     <row r="33" spans="1:90" x14ac:dyDescent="0.25">
@@ -18196,7 +20137,7 @@
       </c>
       <c r="AS41">
         <f t="shared" ref="AS41:AS48" si="60">SUMPRODUCT(($M$2:$M$105=AH22)*($T$2:$T$105&lt;$S$2:$S$105))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT41">
         <f t="shared" ref="AT41:AT48" si="61">SUMPRODUCT(($L$2:$L$105=AH41)*($T$2:$T$105&lt;$S$2:$S$105))</f>
@@ -18216,7 +20157,7 @@
       </c>
       <c r="AX41">
         <f t="shared" ref="AX41:AX48" si="65">SUMIFS($T$2:$T$105, $M$2:$M$105, AH41,$E$2:$E$105, 2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY41">
         <f t="shared" ref="AY41:AY48" si="66">SUMIFS($S$2:$S$105, $L$2:$L$105, AH41,$E$2:$E$105, 2)</f>
@@ -18224,7 +20165,7 @@
       </c>
       <c r="AZ41">
         <f t="shared" ref="AZ41:AZ48" si="67">SUMIFS($S$2:$S$105, $M$2:$M$105, AH41,$E$2:$E$105, 2)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA41">
         <f t="shared" ref="BA41:BA48" si="68">SUMIFS($T$2:$T$105, $L$2:$L$105, AH41,$E$2:$E$105, 2)</f>
@@ -18232,7 +20173,7 @@
       </c>
       <c r="BB41">
         <f>AX41-AZ41</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BC41">
         <f>AY41-BA41</f>
@@ -18240,19 +20181,19 @@
       </c>
       <c r="BD41">
         <f>AX41+AY41</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BE41">
         <f>AZ41+BA41</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BF41">
         <f>(AX41+AY41)-(AZ41+BA41)</f>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="BG41">
         <f>AX41/AV41</f>
-        <v>1.3333333333333333</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="BH41">
         <f>AY41/AW41</f>
@@ -18260,7 +20201,7 @@
       </c>
       <c r="BI41">
         <f>AZ41/AV41</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ41">
         <f>BA41/AW41</f>
@@ -18268,11 +20209,11 @@
       </c>
       <c r="BK41">
         <f>BD41/AI41</f>
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="BL41">
         <f>BE41/AI41</f>
-        <v>2.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:90" x14ac:dyDescent="0.25">
@@ -18390,11 +20331,11 @@
       </c>
       <c r="AP42">
         <f t="shared" ref="AP42:AP48" si="71">AR42+AT42</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ42">
         <f t="shared" ref="AQ42:AQ48" si="72">AM42-AP42</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR42">
         <f t="shared" si="59"/>
@@ -18406,7 +20347,7 @@
       </c>
       <c r="AT42">
         <f t="shared" si="61"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU42">
         <f t="shared" si="62"/>
@@ -18426,7 +20367,7 @@
       </c>
       <c r="AY42">
         <f t="shared" si="66"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AZ42">
         <f t="shared" si="67"/>
@@ -18434,7 +20375,7 @@
       </c>
       <c r="BA42">
         <f t="shared" si="68"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB42">
         <f t="shared" ref="BB42:BC48" si="73">AX42-AZ42</f>
@@ -18442,19 +20383,19 @@
       </c>
       <c r="BC42">
         <f t="shared" si="73"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BD42">
         <f t="shared" ref="BD42:BD48" si="74">AX42+AY42</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BE42">
         <f t="shared" ref="BE42:BE48" si="75">AZ42+BA42</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF42">
         <f t="shared" ref="BF42:BF48" si="76">(AX42+AY42)-(AZ42+BA42)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG42">
         <f t="shared" ref="BG42:BH48" si="77">AX42/AV42</f>
@@ -18462,7 +20403,7 @@
       </c>
       <c r="BH42">
         <f t="shared" si="77"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI42">
         <f t="shared" ref="BI42:BJ48" si="78">AZ42/AV42</f>
@@ -18470,15 +20411,15 @@
       </c>
       <c r="BJ42">
         <f t="shared" si="78"/>
-        <v>1.3333333333333333</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="BK42">
         <f t="shared" ref="BK42:BK48" si="79">BD42/AI42</f>
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="BL42">
         <f t="shared" ref="BL42:BL48" si="80">BE42/AI42</f>
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="43" spans="1:90" x14ac:dyDescent="0.25">
@@ -18985,7 +20926,7 @@
       </c>
       <c r="AJ45">
         <f t="shared" si="54"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK45">
         <f t="shared" si="55"/>
@@ -18997,7 +20938,7 @@
       </c>
       <c r="AM45">
         <f t="shared" si="70"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN45">
         <f t="shared" si="57"/>
@@ -19005,11 +20946,11 @@
       </c>
       <c r="AO45">
         <f t="shared" si="58"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP45">
         <f t="shared" si="71"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ45">
         <f t="shared" si="72"/>
@@ -19017,7 +20958,7 @@
       </c>
       <c r="AR45">
         <f t="shared" si="59"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS45">
         <f t="shared" si="60"/>
@@ -19037,11 +20978,11 @@
       </c>
       <c r="AW45">
         <f t="shared" si="64"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX45">
         <f t="shared" si="65"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AY45">
         <f t="shared" si="66"/>
@@ -19057,7 +20998,7 @@
       </c>
       <c r="BB45">
         <f t="shared" si="73"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC45">
         <f t="shared" si="73"/>
@@ -19065,7 +21006,7 @@
       </c>
       <c r="BD45">
         <f t="shared" si="74"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BE45">
         <f t="shared" si="75"/>
@@ -19073,15 +21014,15 @@
       </c>
       <c r="BF45">
         <f t="shared" si="76"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="BG45">
         <f t="shared" si="77"/>
-        <v>2</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="BH45">
         <f t="shared" si="77"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="BI45">
         <f t="shared" si="78"/>
@@ -19089,11 +21030,11 @@
       </c>
       <c r="BJ45">
         <f t="shared" si="78"/>
-        <v>4</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="BK45">
         <f t="shared" si="79"/>
-        <v>1.2857142857142858</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="BL45">
         <f t="shared" si="80"/>
@@ -19192,7 +21133,7 @@
       </c>
       <c r="AJ46">
         <f t="shared" si="54"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK46">
         <f t="shared" si="55"/>
@@ -19204,11 +21145,11 @@
       </c>
       <c r="AM46">
         <f t="shared" si="70"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN46">
         <f t="shared" si="57"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO46">
         <f t="shared" si="58"/>
@@ -19220,7 +21161,7 @@
       </c>
       <c r="AQ46">
         <f t="shared" si="72"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR46">
         <f t="shared" si="59"/>
@@ -19236,11 +21177,11 @@
       </c>
       <c r="AU46">
         <f t="shared" si="62"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV46">
         <f t="shared" si="63"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW46">
         <f t="shared" si="64"/>
@@ -19260,7 +21201,7 @@
       </c>
       <c r="BA46">
         <f t="shared" si="68"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BB46">
         <f t="shared" si="73"/>
@@ -19268,7 +21209,7 @@
       </c>
       <c r="BC46">
         <f t="shared" si="73"/>
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="BD46">
         <f t="shared" si="74"/>
@@ -19276,15 +21217,15 @@
       </c>
       <c r="BE46">
         <f t="shared" si="75"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BF46">
         <f t="shared" si="76"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="BG46">
         <f t="shared" si="77"/>
-        <v>4</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="BH46">
         <f t="shared" si="77"/>
@@ -19292,11 +21233,11 @@
       </c>
       <c r="BI46">
         <f t="shared" si="78"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="BJ46">
         <f t="shared" si="78"/>
-        <v>2</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="BK46">
         <f t="shared" si="79"/>
@@ -19304,7 +21245,7 @@
       </c>
       <c r="BL46">
         <f t="shared" si="80"/>
-        <v>1.2857142857142858</v>
+        <v>1.8571428571428572</v>
       </c>
     </row>
     <row r="47" spans="1:90" x14ac:dyDescent="0.25">
@@ -20151,13 +22092,16 @@
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
         <v>-1</v>
       </c>
+      <c r="AH52" t="s">
+        <v>18</v>
+      </c>
       <c r="AI52">
         <f>COUNTIFS($L$2:$L$105, AH52, $E$2:$E$105, 1) + COUNTIFS($M$2:$M$105, AH52, $E$2:$E$105, 1)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ52">
         <f>COUNTIFS($L$2:$L$105, AH52, $E$2:$E$105, 2) + COUNTIFS($M$2:$M$105, AH52, $E$2:$E$105, 2)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK52">
         <f>COUNTIFS($L$2:$L$105, AH52, $E$2:$E$105, 3) + COUNTIFS($M$2:$M$105, AH52, $E$2:$E$105, 3)</f>
@@ -20169,39 +22113,39 @@
       </c>
       <c r="AM52">
         <f>AI52+AJ52+AK52+AL52</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN52">
         <f>COUNTIF($M$2:$M$105, AH52)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO52">
         <f>COUNTIF($L$2:$L$105, AH52)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP52">
         <f>AR52+AT52</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AQ52">
         <f>AM52-AP52</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR52">
         <f>SUMPRODUCT(($M$2:$M$105=AH52)*($T$2:$T$105&gt;$S$2:$S$105))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS52">
         <f>SUMPRODUCT(($M$2:$M$105=AH52)*($T$2:$T$105&lt;$S$2:$S$105))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT52">
         <f>SUMPRODUCT(($L$2:$L$105=AH52)*($T$2:$T$105&lt;$S$2:$S$105))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AU52">
         <f>SUMPRODUCT(($L$2:$L$105=AH52)*($T$2:$T$105&gt;$S$2:$S$105))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV52">
         <f>COUNTIFS($M$2:$M$105,AH52,$E$2:$E$105,3)</f>
@@ -20263,13 +22207,13 @@
         <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK52" t="e">
+      <c r="BK52">
         <f>BD52/AI52</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL52" t="e">
+        <v>0</v>
+      </c>
+      <c r="BL52">
         <f>BE52/AI52</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:64" x14ac:dyDescent="0.25">
@@ -22176,7 +24120,7 @@
         <v>1</v>
       </c>
       <c r="K67" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L67" s="5" t="s">
         <v>18</v>
@@ -22200,24 +24144,30 @@
       <c r="R67" s="7">
         <v>45792</v>
       </c>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5" t="str">
+      <c r="S67" s="5">
+        <v>3</v>
+      </c>
+      <c r="T67" s="5">
+        <v>1</v>
+      </c>
+      <c r="U67" s="5">
+        <v>0</v>
+      </c>
+      <c r="V67" s="5">
         <f t="shared" si="105"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W67" s="5" t="str">
         <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="X67" s="5" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="X67" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y67" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
@@ -22250,7 +24200,7 @@
         <v>50</v>
       </c>
       <c r="J68" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K68" s="8">
         <v>3</v>
@@ -22277,24 +24227,30 @@
       <c r="R68" s="7">
         <v>45792</v>
       </c>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5" t="str">
+      <c r="S68" s="5">
+        <v>0</v>
+      </c>
+      <c r="T68" s="5">
+        <v>4</v>
+      </c>
+      <c r="U68" s="5">
+        <v>0</v>
+      </c>
+      <c r="V68" s="5">
         <f t="shared" si="105"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W68" s="5" t="str">
         <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="X68" s="5" t="str">
+        <v>WPG</v>
+      </c>
+      <c r="X68" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PAWAYSCORE]]-Table2[[#This Row],[AAWAYSCORE]])</f>
-        <v/>
-      </c>
-      <c r="Y68" s="5" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y68" s="5">
         <f>IF(ISBLANK(Table2[[#This Row],[OTROUNDNUM]]), "", Table2[[#This Row],[PHOMESCORE]]-Table2[[#This Row],[AHOMESCORE]])</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
@@ -22371,15 +24327,40 @@
         <f t="shared" si="104"/>
         <v>Saturday</v>
       </c>
-      <c r="B70" s="7"/>
+      <c r="B70" s="7">
+        <v>45794</v>
+      </c>
       <c r="C70" s="23"/>
-      <c r="D70" s="7"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
+      <c r="D70" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" s="8">
+        <v>2</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G70" s="8">
+        <v>6</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J70" s="8">
+        <v>2</v>
+      </c>
+      <c r="K70" s="8">
+        <v>3</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="N70" s="5" t="str">
         <f t="shared" si="106"/>
         <v/>
@@ -23102,1309 +25083,1309 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 A15:AAD37 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 A65:V67 J68:V68 H69:V69 A70:V74 H54:M56 N3:N33 V3:V55 F4:F5 A4:E7 A8 C8 H8:M8 Z8:AAD14 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64 A68:G69">
-    <cfRule type="cellIs" dxfId="735" priority="2210" operator="equal">
+  <conditionalFormatting sqref="A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 A15:AAD37 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 A65:V67 J68:V68 H69:V69 A71:V74 H54:M56 N3:N33 V3:V55 F4:F5 A4:E7 A8 C8 H8:M8 Z8:AAD14 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64 A68:G69 A70:E70 N70:V70 J70:K70">
+    <cfRule type="cellIs" dxfId="903" priority="2378" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="734" priority="2211" operator="equal">
+    <cfRule type="cellIs" dxfId="902" priority="2379" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="733" priority="2212" operator="equal">
+    <cfRule type="cellIs" dxfId="901" priority="2380" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="732" priority="2209" operator="equal">
+    <cfRule type="cellIs" dxfId="900" priority="2377" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AAD37 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 A65:V67 J68:V68 H69:V69 A70:V74 H54:M56 V10:V55 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64 A68:G69">
-    <cfRule type="cellIs" dxfId="731" priority="2168" operator="equal">
+  <conditionalFormatting sqref="A1:AAD37 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 A65:V67 J68:V68 H69:V69 A71:V74 H54:M56 V10:V55 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64 A68:G69 A70:E70 N70:V70 J70:K70">
+    <cfRule type="cellIs" dxfId="899" priority="2336" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:AAD37 A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 A65:V67 J68:V68 H69:V69 A70:V74 H54:M56 N3:N33 V3:V55 F4:F5 A4:E7 A8 C8 H8:M8 Z8:AAD14 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64 A68:G69">
-    <cfRule type="cellIs" dxfId="730" priority="2230" operator="equal">
+  <conditionalFormatting sqref="A15:AAD37 A1:AAD3 W2:Y33 G4:AAD7 V8:Y8 A9:Y14 N38:AAD47 H48:AAD50 X51:AAD55 X56:Z74 A75:Z10005 N51:V64 A65:V67 J68:V68 H69:V69 A71:V74 H54:M56 N3:N33 V3:V55 F4:F5 A4:E7 A8 C8 H8:M8 Z8:AAD14 A38:M41 B42:M45 A42:A55 H47:M47 B47:B50 J51:K51 W51:W74 H52:M52 B52:B55 J53:K53 A56:B61 AA56:AAD10000 J57:K57 H58:M59 C60 J60:K60 D61:M61 A62:M62 A63:E63 H63:M63 A64:D64 J64:K64 A68:G69 A70:E70 N70:V70 J70:K70">
+    <cfRule type="cellIs" dxfId="898" priority="2398" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="729" priority="2233" operator="equal">
+    <cfRule type="cellIs" dxfId="897" priority="2401" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="728" priority="2225" operator="equal">
+    <cfRule type="cellIs" dxfId="896" priority="2393" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="727" priority="2226" operator="equal">
+    <cfRule type="cellIs" dxfId="895" priority="2394" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="726" priority="2239" operator="equal">
+    <cfRule type="cellIs" dxfId="894" priority="2407" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="725" priority="2227" operator="equal">
+    <cfRule type="cellIs" dxfId="893" priority="2395" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="724" priority="2228" operator="equal">
+    <cfRule type="cellIs" dxfId="892" priority="2396" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="723" priority="2229" operator="equal">
+    <cfRule type="cellIs" dxfId="891" priority="2397" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="722" priority="2231" operator="equal">
+    <cfRule type="cellIs" dxfId="890" priority="2399" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="721" priority="2240" operator="equal">
+    <cfRule type="cellIs" dxfId="889" priority="2408" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="720" priority="2232" operator="equal">
+    <cfRule type="cellIs" dxfId="888" priority="2400" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="719" priority="2238" operator="equal">
+    <cfRule type="cellIs" dxfId="887" priority="2406" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="718" priority="2237" operator="equal">
+    <cfRule type="cellIs" dxfId="886" priority="2405" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="717" priority="2236" operator="equal">
+    <cfRule type="cellIs" dxfId="885" priority="2404" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="716" priority="2235" operator="equal">
+    <cfRule type="cellIs" dxfId="884" priority="2403" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="715" priority="2234" operator="equal">
+    <cfRule type="cellIs" dxfId="883" priority="2402" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="714" priority="2169" operator="equal">
+    <cfRule type="cellIs" dxfId="882" priority="2337" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="713" priority="2170" operator="equal">
+    <cfRule type="cellIs" dxfId="881" priority="2338" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="712" priority="2171" operator="equal">
+    <cfRule type="cellIs" dxfId="880" priority="2339" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="711" priority="2172" operator="equal">
+    <cfRule type="cellIs" dxfId="879" priority="2340" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="710" priority="2173" operator="equal">
+    <cfRule type="cellIs" dxfId="878" priority="2341" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="709" priority="2174" operator="equal">
+    <cfRule type="cellIs" dxfId="877" priority="2342" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="708" priority="2175" operator="equal">
+    <cfRule type="cellIs" dxfId="876" priority="2343" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="707" priority="2176" operator="equal">
+    <cfRule type="cellIs" dxfId="875" priority="2344" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="706" priority="2177" operator="equal">
+    <cfRule type="cellIs" dxfId="874" priority="2345" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="705" priority="2178" operator="equal">
+    <cfRule type="cellIs" dxfId="873" priority="2346" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="704" priority="2179" operator="equal">
+    <cfRule type="cellIs" dxfId="872" priority="2347" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="703" priority="2180" operator="equal">
+    <cfRule type="cellIs" dxfId="871" priority="2348" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="702" priority="2188" operator="equal">
+    <cfRule type="cellIs" dxfId="870" priority="2356" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="701" priority="2187" operator="equal">
+    <cfRule type="cellIs" dxfId="869" priority="2355" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="700" priority="2186" operator="equal">
+    <cfRule type="cellIs" dxfId="868" priority="2354" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="699" priority="2185" operator="equal">
+    <cfRule type="cellIs" dxfId="867" priority="2353" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="2184" operator="equal">
+    <cfRule type="cellIs" dxfId="866" priority="2352" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="697" priority="2183" operator="equal">
+    <cfRule type="cellIs" dxfId="865" priority="2351" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="696" priority="2182" operator="equal">
+    <cfRule type="cellIs" dxfId="864" priority="2350" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="695" priority="2181" operator="equal">
+    <cfRule type="cellIs" dxfId="863" priority="2349" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51 L56:M56 H58:I59 L58:M59">
-    <cfRule type="cellIs" dxfId="694" priority="2073" operator="equal">
+    <cfRule type="cellIs" dxfId="862" priority="2241" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="693" priority="2080" operator="equal">
+    <cfRule type="cellIs" dxfId="861" priority="2248" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="692" priority="2062" operator="equal">
+    <cfRule type="cellIs" dxfId="860" priority="2230" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="691" priority="2074" operator="equal">
+    <cfRule type="cellIs" dxfId="859" priority="2242" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="2061" operator="equal">
+    <cfRule type="cellIs" dxfId="858" priority="2229" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="689" priority="2072" operator="equal">
+    <cfRule type="cellIs" dxfId="857" priority="2240" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="688" priority="2081" operator="equal">
+    <cfRule type="cellIs" dxfId="856" priority="2249" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="687" priority="2079" operator="equal">
+    <cfRule type="cellIs" dxfId="855" priority="2247" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="686" priority="2078" operator="equal">
+    <cfRule type="cellIs" dxfId="854" priority="2246" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="685" priority="2077" operator="equal">
+    <cfRule type="cellIs" dxfId="853" priority="2245" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="684" priority="2076" operator="equal">
+    <cfRule type="cellIs" dxfId="852" priority="2244" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="683" priority="2075" operator="equal">
+    <cfRule type="cellIs" dxfId="851" priority="2243" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="682" priority="2063" operator="equal">
+    <cfRule type="cellIs" dxfId="850" priority="2231" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="681" priority="2064" operator="equal">
+    <cfRule type="cellIs" dxfId="849" priority="2232" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="680" priority="2065" operator="equal">
+    <cfRule type="cellIs" dxfId="848" priority="2233" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="679" priority="2066" operator="equal">
+    <cfRule type="cellIs" dxfId="847" priority="2234" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="678" priority="2067" operator="equal">
+    <cfRule type="cellIs" dxfId="846" priority="2235" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="677" priority="2068" operator="equal">
+    <cfRule type="cellIs" dxfId="845" priority="2236" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="676" priority="2069" operator="equal">
+    <cfRule type="cellIs" dxfId="844" priority="2237" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="675" priority="2070" operator="equal">
+    <cfRule type="cellIs" dxfId="843" priority="2238" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="674" priority="2071" operator="equal">
+    <cfRule type="cellIs" dxfId="842" priority="2239" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="673" priority="1732" operator="equal">
+    <cfRule type="cellIs" dxfId="841" priority="1900" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="672" priority="1723" operator="equal">
+    <cfRule type="cellIs" dxfId="840" priority="1891" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="671" priority="1731" operator="equal">
+    <cfRule type="cellIs" dxfId="839" priority="1899" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="670" priority="1730" operator="equal">
+    <cfRule type="cellIs" dxfId="838" priority="1898" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="669" priority="1729" operator="equal">
+    <cfRule type="cellIs" dxfId="837" priority="1897" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="668" priority="1728" operator="equal">
+    <cfRule type="cellIs" dxfId="836" priority="1896" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="667" priority="1727" operator="equal">
+    <cfRule type="cellIs" dxfId="835" priority="1895" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="1726" operator="equal">
+    <cfRule type="cellIs" dxfId="834" priority="1894" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="665" priority="1725" operator="equal">
+    <cfRule type="cellIs" dxfId="833" priority="1893" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="664" priority="1724" operator="equal">
+    <cfRule type="cellIs" dxfId="832" priority="1892" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="663" priority="1733" operator="equal">
+    <cfRule type="cellIs" dxfId="831" priority="1901" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="662" priority="1734" operator="equal">
+    <cfRule type="cellIs" dxfId="830" priority="1902" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="661" priority="1735" operator="equal">
+    <cfRule type="cellIs" dxfId="829" priority="1903" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="660" priority="1736" operator="equal">
+    <cfRule type="cellIs" dxfId="828" priority="1904" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="659" priority="1737" operator="equal">
+    <cfRule type="cellIs" dxfId="827" priority="1905" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="658" priority="1738" operator="equal">
+    <cfRule type="cellIs" dxfId="826" priority="1906" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="657" priority="1739" operator="equal">
+    <cfRule type="cellIs" dxfId="825" priority="1907" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="656" priority="1740" operator="equal">
+    <cfRule type="cellIs" dxfId="824" priority="1908" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="655" priority="1741" operator="equal">
+    <cfRule type="cellIs" dxfId="823" priority="1909" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="1742" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="1910" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="653" priority="1743" operator="equal">
+    <cfRule type="cellIs" dxfId="821" priority="1911" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="652" priority="1869" operator="equal">
+    <cfRule type="cellIs" dxfId="820" priority="2037" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="651" priority="1859" operator="equal">
+    <cfRule type="cellIs" dxfId="819" priority="2027" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="650" priority="1858" operator="equal">
+    <cfRule type="cellIs" dxfId="818" priority="2026" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="649" priority="1857" operator="equal">
+    <cfRule type="cellIs" dxfId="817" priority="2025" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="648" priority="1856" operator="equal">
+    <cfRule type="cellIs" dxfId="816" priority="2024" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="647" priority="1855" operator="equal">
+    <cfRule type="cellIs" dxfId="815" priority="2023" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="1854" operator="equal">
+    <cfRule type="cellIs" dxfId="814" priority="2022" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="1853" operator="equal">
+    <cfRule type="cellIs" dxfId="813" priority="2021" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="644" priority="1852" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="2020" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="643" priority="1851" operator="equal">
+    <cfRule type="cellIs" dxfId="811" priority="2019" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="1860" operator="equal">
+    <cfRule type="cellIs" dxfId="810" priority="2028" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="641" priority="1871" operator="equal">
+    <cfRule type="cellIs" dxfId="809" priority="2039" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="640" priority="1870" operator="equal">
+    <cfRule type="cellIs" dxfId="808" priority="2038" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="1862" operator="equal">
+    <cfRule type="cellIs" dxfId="807" priority="2030" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="638" priority="1861" operator="equal">
+    <cfRule type="cellIs" dxfId="806" priority="2029" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="637" priority="1863" operator="equal">
+    <cfRule type="cellIs" dxfId="805" priority="2031" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="636" priority="1864" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="2032" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="635" priority="1865" operator="equal">
+    <cfRule type="cellIs" dxfId="803" priority="2033" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="1866" operator="equal">
+    <cfRule type="cellIs" dxfId="802" priority="2034" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="1867" operator="equal">
+    <cfRule type="cellIs" dxfId="801" priority="2035" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="632" priority="1868" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="2036" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="631" priority="1576" operator="equal">
+    <cfRule type="cellIs" dxfId="799" priority="1744" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="1577" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="1745" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="629" priority="1578" operator="equal">
+    <cfRule type="cellIs" dxfId="797" priority="1746" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="628" priority="1579" operator="equal">
+    <cfRule type="cellIs" dxfId="796" priority="1747" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="627" priority="1580" operator="equal">
+    <cfRule type="cellIs" dxfId="795" priority="1748" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="626" priority="1581" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="1749" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="1582" operator="equal">
+    <cfRule type="cellIs" dxfId="793" priority="1750" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="1583" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="1751" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="623" priority="1584" operator="equal">
+    <cfRule type="cellIs" dxfId="791" priority="1752" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="622" priority="1596" operator="equal">
+    <cfRule type="cellIs" dxfId="790" priority="1764" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="621" priority="1588" operator="equal">
+    <cfRule type="cellIs" dxfId="789" priority="1756" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="620" priority="1595" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="1763" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="619" priority="1594" operator="equal">
+    <cfRule type="cellIs" dxfId="787" priority="1762" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="618" priority="1593" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="1761" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="617" priority="1592" operator="equal">
+    <cfRule type="cellIs" dxfId="785" priority="1760" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="1591" operator="equal">
+    <cfRule type="cellIs" dxfId="784" priority="1759" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="615" priority="1590" operator="equal">
+    <cfRule type="cellIs" dxfId="783" priority="1758" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="614" priority="1589" operator="equal">
+    <cfRule type="cellIs" dxfId="782" priority="1757" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="613" priority="1587" operator="equal">
+    <cfRule type="cellIs" dxfId="781" priority="1755" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="612" priority="1586" operator="equal">
+    <cfRule type="cellIs" dxfId="780" priority="1754" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="611" priority="1585" operator="equal">
+    <cfRule type="cellIs" dxfId="779" priority="1753" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:H60">
-    <cfRule type="cellIs" dxfId="610" priority="1167" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="1335" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="609" priority="1159" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="1327" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="608" priority="1160" operator="equal">
+    <cfRule type="cellIs" dxfId="776" priority="1328" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="607" priority="1161" operator="equal">
+    <cfRule type="cellIs" dxfId="775" priority="1329" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="1162" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="1330" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="605" priority="1158" operator="equal">
+    <cfRule type="cellIs" dxfId="773" priority="1326" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="604" priority="1163" operator="equal">
+    <cfRule type="cellIs" dxfId="772" priority="1331" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="603" priority="1164" operator="equal">
+    <cfRule type="cellIs" dxfId="771" priority="1332" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="602" priority="1165" operator="equal">
+    <cfRule type="cellIs" dxfId="770" priority="1333" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="601" priority="1156" operator="equal">
+    <cfRule type="cellIs" dxfId="769" priority="1324" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="1168" operator="equal">
+    <cfRule type="cellIs" dxfId="768" priority="1336" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="599" priority="1169" operator="equal">
+    <cfRule type="cellIs" dxfId="767" priority="1337" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="598" priority="1170" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="1338" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="1171" operator="equal">
+    <cfRule type="cellIs" dxfId="765" priority="1339" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="596" priority="1172" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="1340" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="595" priority="1173" operator="equal">
+    <cfRule type="cellIs" dxfId="763" priority="1341" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="594" priority="1174" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="1342" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="593" priority="1175" operator="equal">
+    <cfRule type="cellIs" dxfId="761" priority="1343" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="1176" operator="equal">
+    <cfRule type="cellIs" dxfId="760" priority="1344" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="1166" operator="equal">
+    <cfRule type="cellIs" dxfId="759" priority="1334" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="590" priority="1157" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="1325" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H64">
-    <cfRule type="cellIs" dxfId="589" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="757" priority="509" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="756" priority="517" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="587" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="755" priority="505" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="754" priority="506" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="585" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="753" priority="507" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="584" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="508" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="751" priority="510" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="511" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="581" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="749" priority="512" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="513" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="514" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="578" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="746" priority="515" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="745" priority="525" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="524" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="743" priority="523" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="742" priority="516" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="741" priority="521" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="572" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="520" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="739" priority="519" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="570" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="518" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="569" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="522" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="568" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="736" priority="346" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="735" priority="347" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="566" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="348" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="733" priority="349" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="564" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="351" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="563" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="352" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="730" priority="353" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="354" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="560" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="355" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="559" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="727" priority="356" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="357" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="557" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="350" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="337" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="338" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="554" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="339" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="340" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="341" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="551" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="719" priority="342" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="718" priority="343" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="717" priority="344" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="548" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="345" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="547" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="715" priority="220" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="222" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="545" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="713" priority="231" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="712" priority="230" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="543" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="711" priority="229" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="542" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="228" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="227" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="226" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="539" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="225" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="706" priority="224" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="223" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="704" priority="213" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="703" priority="211" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="212" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="533" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="701" priority="214" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="700" priority="215" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="531" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="216" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="530" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="217" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="218" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="219" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="527" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="221" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:I46">
-    <cfRule type="cellIs" dxfId="526" priority="2124" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="2292" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="2125" operator="equal">
+    <cfRule type="cellIs" dxfId="693" priority="2293" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="524" priority="2127" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="2295" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="2129" operator="equal">
+    <cfRule type="cellIs" dxfId="691" priority="2297" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="2130" operator="equal">
+    <cfRule type="cellIs" dxfId="690" priority="2298" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="521" priority="2128" operator="equal">
+    <cfRule type="cellIs" dxfId="689" priority="2296" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="2131" operator="equal">
+    <cfRule type="cellIs" dxfId="688" priority="2299" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="2132" operator="equal">
+    <cfRule type="cellIs" dxfId="687" priority="2300" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="518" priority="2133" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="2301" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="517" priority="2144" operator="equal">
+    <cfRule type="cellIs" dxfId="685" priority="2312" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="2135" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="2303" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="515" priority="2134" operator="equal">
+    <cfRule type="cellIs" dxfId="683" priority="2302" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="2136" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="2304" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="2126" operator="equal">
+    <cfRule type="cellIs" dxfId="681" priority="2294" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="2137" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="2305" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="511" priority="2138" operator="equal">
+    <cfRule type="cellIs" dxfId="679" priority="2306" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="2139" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="2307" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="509" priority="2140" operator="equal">
+    <cfRule type="cellIs" dxfId="677" priority="2308" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="2141" operator="equal">
+    <cfRule type="cellIs" dxfId="676" priority="2309" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="2142" operator="equal">
+    <cfRule type="cellIs" dxfId="675" priority="2310" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="2143" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="2311" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66:I67">
-    <cfRule type="cellIs" dxfId="505" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="673" priority="312" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="306" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="503" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="671" priority="315" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="670" priority="314" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="669" priority="313" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="307" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="667" priority="311" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="310" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="497" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="665" priority="309" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="308" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="663" priority="299" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="295" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="661" priority="296" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="297" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="491" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="659" priority="298" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="300" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="657" priority="301" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="656" priority="302" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="655" priority="303" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="304" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="305" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="484" priority="2024" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="2192" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="2019" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="2187" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="2029" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="2197" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="2020" operator="equal">
+    <cfRule type="cellIs" dxfId="649" priority="2188" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="2021" operator="equal">
+    <cfRule type="cellIs" dxfId="648" priority="2189" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="2039" operator="equal">
+    <cfRule type="cellIs" dxfId="647" priority="2207" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="2022" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="2190" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="2023" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="2191" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="2025" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="2193" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="2026" operator="equal">
+    <cfRule type="cellIs" dxfId="643" priority="2194" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="2027" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="2195" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="2028" operator="equal">
+    <cfRule type="cellIs" dxfId="641" priority="2196" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="2030" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="2198" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="2031" operator="equal">
+    <cfRule type="cellIs" dxfId="639" priority="2199" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="2032" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="2200" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="2033" operator="equal">
+    <cfRule type="cellIs" dxfId="637" priority="2201" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="2034" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="2202" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="2035" operator="equal">
+    <cfRule type="cellIs" dxfId="635" priority="2203" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="2036" operator="equal">
+    <cfRule type="cellIs" dxfId="634" priority="2204" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="2037" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="2205" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="2038" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="2206" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="463" priority="1776" operator="equal">
+    <cfRule type="cellIs" dxfId="631" priority="1944" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="1775" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="1943" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="1774" operator="equal">
+    <cfRule type="cellIs" dxfId="629" priority="1942" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="1773" operator="equal">
+    <cfRule type="cellIs" dxfId="628" priority="1941" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="1772" operator="equal">
+    <cfRule type="cellIs" dxfId="627" priority="1940" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="1771" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="1939" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="1770" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="1938" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="1769" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="1937" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="1768" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="1936" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="1767" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="1935" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="1766" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="1934" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="1765" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="1933" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="1785" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="1953" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="1784" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="1952" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="1783" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="1951" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="1782" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="1950" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="1781" operator="equal">
+    <cfRule type="cellIs" dxfId="615" priority="1949" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="1780" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="1948" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="1779" operator="equal">
+    <cfRule type="cellIs" dxfId="613" priority="1947" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="1778" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="1946" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="1777" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="1945" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="cellIs" dxfId="442" priority="1841" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="2009" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="1840" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="2008" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="1830" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="1998" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="1831" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="1999" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="1832" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="2000" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="1833" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="2001" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="1834" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="2002" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="1839" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="2007" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="1835" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="2003" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="1836" operator="equal">
+    <cfRule type="cellIs" dxfId="601" priority="2004" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="1850" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="2018" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="1849" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="2017" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="1848" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="2016" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="1847" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="2015" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="1846" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="2014" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="1845" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="2013" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="1844" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="2012" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="1843" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="2011" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="1837" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="2005" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="1842" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="2010" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="1838" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="2006" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="cellIs" dxfId="421" priority="1608" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="1776" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="1617" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="1785" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="1615" operator="equal">
+    <cfRule type="cellIs" dxfId="587" priority="1783" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="1614" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="1782" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="1613" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="1781" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="1612" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="1780" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="1611" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="1779" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="1610" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="1778" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="1609" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="1777" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="1607" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="1775" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="1616" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="1784" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="1606" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="1774" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="1605" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="1773" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="1604" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="1772" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="1603" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="1771" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="1602" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="1770" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="1601" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="1769" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="1600" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="1768" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="1599" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="1767" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="1598" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="1766" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="1597" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="1765" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:I60">
-    <cfRule type="cellIs" dxfId="400" priority="1177" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="1345" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="1178" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="1346" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="1179" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="1347" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="1180" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="1348" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="1181" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="1349" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="1182" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="1350" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="1184" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="1352" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="1185" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="1353" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="1189" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="1357" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="1188" operator="equal">
+    <cfRule type="cellIs" dxfId="559" priority="1356" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="1187" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="1355" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="1186" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="1354" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="1196" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="1364" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="1183" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="1351" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="1197" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="1365" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="1195" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="1363" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="1193" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="1361" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="1192" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="1360" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="1191" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="1359" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="1190" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="1358" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="1194" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="1362" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I64">
-    <cfRule type="cellIs" dxfId="379" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="536" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="537" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="538" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="539" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="540" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="541" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="542" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="543" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="544" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="545" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="546" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="531" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="526" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="527" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="528" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="529" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="530" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="532" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="533" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="534" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="535" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="358" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="361" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="378" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="371" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="375" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="369" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="360" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="372" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="373" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="358" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="359" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="374" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="376" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="362" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="363" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="364" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="365" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="367" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="368" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="370" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="377" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="366" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68">
-    <cfRule type="cellIs" dxfId="337" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="246" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="247" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="248" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="249" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="251" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="252" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="250" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="234" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="232" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="233" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="235" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="236" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="237" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="238" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="239" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="240" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="241" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="242" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="243" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="244" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="245" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K53 J55:K104">
-    <cfRule type="colorScale" priority="2253">
+    <cfRule type="colorScale" priority="2421">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -24416,7 +26397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:K54">
-    <cfRule type="colorScale" priority="1787">
+    <cfRule type="colorScale" priority="1955">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -24426,7 +26407,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1786">
+    <cfRule type="colorScale" priority="1954">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -24438,7 +26419,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J67:K67">
-    <cfRule type="colorScale" priority="2252">
+    <cfRule type="colorScale" priority="2420">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -24448,7 +26429,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2251">
+    <cfRule type="colorScale" priority="2419">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -24460,982 +26441,982 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51">
-    <cfRule type="cellIs" dxfId="316" priority="1973" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="2141" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="1972" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="2140" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="1971" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="2139" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="1970" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="2138" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="1969" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="2137" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="1968" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="2136" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="1967" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="2135" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="1963" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="2131" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="1966" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="2134" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="1962" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="2130" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="1965" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="2133" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="1964" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="2132" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="1956" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="2124" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="1957" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="2125" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="1958" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="2126" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="1959" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="2127" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="1960" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="2128" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="1961" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="2129" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="1975" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="2143" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="1976" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="2144" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="1974" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="2142" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53">
-    <cfRule type="cellIs" dxfId="295" priority="1707" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="1875" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="1702" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="1870" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="1709" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="1877" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="1710" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="1878" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="1711" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="1879" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="1712" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="1880" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="1713" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="1881" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="1714" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="1882" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="1715" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="1883" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="1703" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="1871" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="1716" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="1884" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="1717" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="1885" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="1718" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="1886" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="1719" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="1887" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="1720" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="1888" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="1721" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="1889" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="1722" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="1890" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="1708" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="1876" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="1704" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="1872" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="1705" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="1873" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="1706" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="1874" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55">
-    <cfRule type="cellIs" dxfId="274" priority="1801" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="1969" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="1802" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="1970" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="1803" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="1971" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="1804" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="1972" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="1805" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="1973" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="1806" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="1974" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="1807" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="1975" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="1808" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="1976" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="1800" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="1968" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="1788" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="1956" operator="equal">
       <formula>"MTL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="1789" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="1957" operator="equal">
       <formula>"OTT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="1790" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="1958" operator="equal">
       <formula>"NJD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="1791" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="1959" operator="equal">
       <formula>"MIN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="1792" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="1960" operator="equal">
       <formula>"STL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="1793" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="1961" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="1794" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="1962" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="1795" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="1963" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="1796" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="1964" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="1797" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="1965" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="1798" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="1966" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="1799" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="1967" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57">
-    <cfRule type="cellIs" dxfId="253" priority="1531" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="1699" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="1532" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="1700" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="1524" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="1692" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="1530" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="1698" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249"